--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12220" tabRatio="928" firstSheet="12" activeTab="20"/>
+    <workbookView windowWidth="28060" windowHeight="12240" tabRatio="928" firstSheet="12" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -2281,10 +2281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2361,16 +2361,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2383,48 +2383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2445,16 +2408,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2468,6 +2430,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2477,6 +2455,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,7 +2515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,13 +2527,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,7 +2575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,43 +2605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2605,79 +2629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,6 +2654,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2727,13 +2727,62 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2756,62 +2805,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2820,148 +2820,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19021,8 +19021,8 @@
   <sheetPr/>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A35" sqref="$A35:$XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -21466,8 +21466,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -22848,8 +22848,12 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A47" s="28"/>
-      <c r="B47" s="1"/>
+      <c r="A47" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>247</v>
+      </c>
       <c r="C47" s="32">
         <v>31672</v>
       </c>
@@ -23474,6 +23478,8 @@
     <hyperlink ref="B41" r:id="rId18" display="Boa@123456"/>
     <hyperlink ref="A35" r:id="rId19" display="RudolflsySourshq37306@gmail.com"/>
     <hyperlink ref="B35" r:id="rId20" display="Rud@123456"/>
+    <hyperlink ref="A47" r:id="rId21" display="GaddzspKirwanzhj40344@gmail.com"/>
+    <hyperlink ref="B47" r:id="rId22" display="Gad@123456"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -31654,8 +31660,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -31819,7 +31825,7 @@
         <v>463</v>
       </c>
       <c r="J5" s="1">
-        <v>1825</v>
+        <v>2000</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -31926,7 +31932,7 @@
         <v>702</v>
       </c>
       <c r="J9" s="1">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -32098,7 +32104,7 @@
         <v>495</v>
       </c>
       <c r="J15" s="1">
-        <v>1475</v>
+        <v>1525</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -32201,7 +32207,7 @@
         <v>501</v>
       </c>
       <c r="J19" s="1">
-        <v>1000</v>
+        <v>1075</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="1"/>
@@ -32249,7 +32255,7 @@
         <v>503</v>
       </c>
       <c r="J21" s="1">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -32286,7 +32292,7 @@
         <v>505</v>
       </c>
       <c r="J22" s="1">
-        <v>1475</v>
+        <v>1550</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -32360,7 +32366,7 @@
         <v>509</v>
       </c>
       <c r="J24" s="1">
-        <v>1125</v>
+        <v>1175</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -32397,7 +32403,7 @@
         <v>510</v>
       </c>
       <c r="J25" s="1">
-        <v>1600</v>
+        <v>1675</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -32582,7 +32588,7 @@
         <v>521</v>
       </c>
       <c r="J30" s="1">
-        <v>1150</v>
+        <v>1225</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -32656,7 +32662,7 @@
         <v>527</v>
       </c>
       <c r="J32" s="1">
-        <v>1250</v>
+        <v>1325</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -32730,7 +32736,7 @@
         <v>717</v>
       </c>
       <c r="J34" s="1">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -32915,7 +32921,7 @@
         <v>548</v>
       </c>
       <c r="J39" s="1">
-        <v>1150</v>
+        <v>1275</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -33026,7 +33032,7 @@
         <v>557</v>
       </c>
       <c r="J42" s="1">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -33063,7 +33069,7 @@
         <v>560</v>
       </c>
       <c r="J43" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -33100,7 +33106,7 @@
         <v>563</v>
       </c>
       <c r="J44" s="1">
-        <v>1233</v>
+        <v>1283</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -33174,7 +33180,7 @@
         <v>569</v>
       </c>
       <c r="J46" s="1">
-        <v>1725</v>
+        <v>1850</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -33285,7 +33291,7 @@
         <v>578</v>
       </c>
       <c r="J49" s="1">
-        <v>1150</v>
+        <v>1225</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12240" tabRatio="928" firstSheet="12" activeTab="25"/>
+    <workbookView windowWidth="28060" windowHeight="12340" tabRatio="928" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="opinionsquare" sheetId="25" r:id="rId8"/>
     <sheet name="spidermetrix" sheetId="12" state="hidden" r:id="rId9"/>
     <sheet name="parrotpanel" sheetId="28" r:id="rId10"/>
-    <sheet name="productreportcard" sheetId="4" r:id="rId11"/>
+    <sheet name="productreportcard" sheetId="4" state="hidden" r:id="rId11"/>
     <sheet name="crowdology" sheetId="6" state="hidden" r:id="rId12"/>
-    <sheet name="mobrog" sheetId="21" r:id="rId13"/>
+    <sheet name="mobrog" sheetId="21" state="hidden" r:id="rId13"/>
     <sheet name="swagbucks" sheetId="3" state="hidden" r:id="rId14"/>
     <sheet name="opinionbureau" sheetId="23" state="hidden" r:id="rId15"/>
     <sheet name="cashcrate" sheetId="5" state="hidden" r:id="rId16"/>
     <sheet name="valuedopinions" sheetId="38" state="hidden" r:id="rId17"/>
     <sheet name="inboxdollars" sheetId="39" r:id="rId18"/>
-    <sheet name="prizerebel" sheetId="40" r:id="rId19"/>
+    <sheet name="prizerebel" sheetId="40" state="hidden" r:id="rId19"/>
     <sheet name="myiyo" sheetId="22" r:id="rId20"/>
     <sheet name="opiniumresearch" sheetId="26" r:id="rId21"/>
     <sheet name="shopperthoughts" sheetId="11" r:id="rId22"/>
@@ -42,7 +42,7 @@
     <sheet name="Surveyu" sheetId="15" state="hidden" r:id="rId33"/>
     <sheet name="panelchamp" sheetId="27" state="hidden" r:id="rId34"/>
     <sheet name="opinioquest" sheetId="36" r:id="rId35"/>
-    <sheet name="i-say" sheetId="41" r:id="rId36"/>
+    <sheet name="i-say" sheetId="41" state="hidden" r:id="rId36"/>
     <sheet name="surveynetwork" sheetId="42" r:id="rId37"/>
     <sheet name="mindmover" sheetId="8" state="hidden" r:id="rId38"/>
     <sheet name="pollpay" sheetId="29" state="hidden" r:id="rId39"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748">
   <si>
     <t>注册完即可 最低1000</t>
   </si>
@@ -1940,222 +1940,249 @@
     <t>21 Aberdour Court</t>
   </si>
   <si>
+    <t>G11 7QQ</t>
+  </si>
+  <si>
+    <t>24 Kirkmichael Avenue</t>
+  </si>
+  <si>
     <t>CF3 4BY</t>
   </si>
   <si>
+    <t>4 Ball Road</t>
+  </si>
+  <si>
+    <t>G11 5DB</t>
+  </si>
+  <si>
+    <t>74 White Street</t>
+  </si>
+  <si>
+    <t>Elspeth</t>
+  </si>
+  <si>
+    <t>14 Abercorn Road</t>
+  </si>
+  <si>
+    <t>AB41 7QH</t>
+  </si>
+  <si>
+    <t>7 Bain's Park</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>30 Abercorn Road</t>
+  </si>
+  <si>
+    <t>AB41 9EW</t>
+  </si>
+  <si>
+    <t>7 Balmoral Avenue</t>
+  </si>
+  <si>
+    <t>AB37 9BS</t>
+  </si>
+  <si>
+    <t>Glenarder, Blacksboat</t>
+  </si>
+  <si>
+    <t>AB41 9EZ</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>10 Balvenie Wynd</t>
+  </si>
+  <si>
+    <t>AB41 9EP</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>5 Beech Avenue</t>
+  </si>
+  <si>
+    <t>AB32 6TY</t>
+  </si>
+  <si>
+    <t>5 Arnhall Crescent</t>
+  </si>
+  <si>
+    <t>CF11 7AJ</t>
+  </si>
+  <si>
+    <t>7 Abercynon Street</t>
+  </si>
+  <si>
+    <t>AB32 6LP</t>
+  </si>
+  <si>
+    <t>22 Ashdale Drive</t>
+  </si>
+  <si>
+    <t>EH44 6HN</t>
+  </si>
+  <si>
+    <t>4 Chapel Street</t>
+  </si>
+  <si>
+    <t>EH18 1DF</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>12 De Quincey Road</t>
+  </si>
+  <si>
+    <t>CF10 5JP</t>
+  </si>
+  <si>
+    <t>40 Aveling House, South Loudoun Place</t>
+  </si>
+  <si>
+    <t>LL62 5PN</t>
+  </si>
+  <si>
+    <t>Bryn, Cerrigceinwen</t>
+  </si>
+  <si>
+    <t>2 Abercynon Street</t>
+  </si>
+  <si>
+    <t>CF23 8NG</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>14 Acorn Grove</t>
+  </si>
+  <si>
+    <t>CF14 2PH</t>
+  </si>
+  <si>
+    <t>Eira</t>
+  </si>
+  <si>
+    <t>3 Aberdulais Road</t>
+  </si>
+  <si>
+    <t>CF14 2PJ</t>
+  </si>
+  <si>
+    <t>Libby</t>
+  </si>
+  <si>
+    <t>2 Aberdulais Road</t>
+  </si>
+  <si>
+    <t>G14 9JW</t>
+  </si>
+  <si>
+    <t>51 Abbey Drive</t>
+  </si>
+  <si>
+    <t>44 Aberdulais Road</t>
+  </si>
+  <si>
+    <t>4 Acorn Grove</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>CF24 2BH</t>
+  </si>
+  <si>
+    <t>5 Adeline Street</t>
+  </si>
+  <si>
+    <t>CF15 8AZ</t>
+  </si>
+  <si>
+    <t>7 Ael-Y-Bryn</t>
+  </si>
+  <si>
+    <t>Hattie</t>
+  </si>
+  <si>
+    <t>CF64 4TL</t>
+  </si>
+  <si>
+    <t>6 Ashgrove</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>CF64 4DH</t>
+  </si>
+  <si>
+    <t>Rhiannon</t>
+  </si>
+  <si>
+    <t>4 Cardiff Road</t>
+  </si>
+  <si>
+    <t>CF64 1BX</t>
+  </si>
+  <si>
+    <t>3 Albert Road</t>
+  </si>
+  <si>
+    <t>1500 = $15</t>
+  </si>
+  <si>
+    <t>女 2013/2/1</t>
+  </si>
+  <si>
+    <t>男 2012/10/2</t>
+  </si>
+  <si>
+    <t>女 2014/1/5</t>
+  </si>
+  <si>
+    <t>女 2014/12/10</t>
+  </si>
+  <si>
+    <t>男2015/2/12</t>
+  </si>
+  <si>
+    <t>500 = $5</t>
+  </si>
+  <si>
+    <t>女 2014/3/1</t>
+  </si>
+  <si>
+    <t>男 2011/8/8</t>
+  </si>
+  <si>
+    <t>男 2011/4/3</t>
+  </si>
+  <si>
+    <t>完成网站里的调查后有注册邮件，工资多点  4000</t>
+  </si>
+  <si>
+    <t>女 2012-2-2</t>
+  </si>
+  <si>
+    <t>学生，年龄小 2500  imperial AAA， King's College London  AAB，brunel、City, University of LondonABB-BBC  londonmet CCC~</t>
+  </si>
+  <si>
+    <t>king college london Chemistry</t>
+  </si>
+  <si>
+    <t>imperial Mathematics</t>
+  </si>
+  <si>
     <t>Bethan</t>
   </si>
   <si>
-    <t>4 Ball Road</t>
-  </si>
-  <si>
-    <t>Elspeth</t>
-  </si>
-  <si>
-    <t>14 Abercorn Road</t>
-  </si>
-  <si>
-    <t>AB41 7QH</t>
-  </si>
-  <si>
-    <t>7 Bain's Park</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>30 Abercorn Road</t>
-  </si>
-  <si>
-    <t>AB41 9EW</t>
-  </si>
-  <si>
-    <t>7 Balmoral Avenue</t>
-  </si>
-  <si>
-    <t>AB37 9BS</t>
-  </si>
-  <si>
-    <t>Glenarder, Blacksboat</t>
-  </si>
-  <si>
-    <t>AB41 9EZ</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>10 Balvenie Wynd</t>
-  </si>
-  <si>
-    <t>AB41 9EP</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>5 Beech Avenue</t>
-  </si>
-  <si>
-    <t>AB32 6TY</t>
-  </si>
-  <si>
-    <t>5 Arnhall Crescent</t>
-  </si>
-  <si>
-    <t>CF11 7AJ</t>
-  </si>
-  <si>
-    <t>7 Abercynon Street</t>
-  </si>
-  <si>
-    <t>AB32 6LP</t>
-  </si>
-  <si>
-    <t>22 Ashdale Drive</t>
-  </si>
-  <si>
-    <t>EH44 6HN</t>
-  </si>
-  <si>
-    <t>4 Chapel Street</t>
-  </si>
-  <si>
-    <t>EH18 1DF</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>12 De Quincey Road</t>
-  </si>
-  <si>
-    <t>LL62 5PN</t>
-  </si>
-  <si>
-    <t>Bryn, Cerrigceinwen</t>
-  </si>
-  <si>
-    <t>2 Abercynon Street</t>
-  </si>
-  <si>
-    <t>CF23 8NG</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>14 Acorn Grove</t>
-  </si>
-  <si>
-    <t>CF14 2PH</t>
-  </si>
-  <si>
-    <t>Eira</t>
-  </si>
-  <si>
-    <t>3 Aberdulais Road</t>
-  </si>
-  <si>
-    <t>CF14 2PJ</t>
-  </si>
-  <si>
-    <t>2 Aberdulais Road</t>
-  </si>
-  <si>
-    <t>44 Aberdulais Road</t>
-  </si>
-  <si>
-    <t>4 Acorn Grove</t>
-  </si>
-  <si>
-    <t>Connie</t>
-  </si>
-  <si>
-    <t>Libby</t>
-  </si>
-  <si>
-    <t>CF24 2BH</t>
-  </si>
-  <si>
-    <t>5 Adeline Street</t>
-  </si>
-  <si>
-    <t>CF15 8AZ</t>
-  </si>
-  <si>
-    <t>7 Ael-Y-Bryn</t>
-  </si>
-  <si>
-    <t>Hattie</t>
-  </si>
-  <si>
-    <t>CF64 4TL</t>
-  </si>
-  <si>
-    <t>6 Ashgrove</t>
-  </si>
-  <si>
-    <t>Fleur</t>
-  </si>
-  <si>
-    <t>CF64 4DH</t>
-  </si>
-  <si>
-    <t>Rhiannon</t>
-  </si>
-  <si>
-    <t>4 Cardiff Road</t>
-  </si>
-  <si>
-    <t>CF64 1BX</t>
-  </si>
-  <si>
-    <t>3 Albert Road</t>
-  </si>
-  <si>
-    <t>1500 = $15</t>
-  </si>
-  <si>
-    <t>女 2013/2/1</t>
-  </si>
-  <si>
-    <t>男 2012/10/2</t>
-  </si>
-  <si>
-    <t>女 2014/1/5</t>
-  </si>
-  <si>
-    <t>女 2014/12/10</t>
-  </si>
-  <si>
-    <t>男2015/2/12</t>
-  </si>
-  <si>
-    <t>500 = $5</t>
-  </si>
-  <si>
-    <t>女 2014/3/1</t>
-  </si>
-  <si>
-    <t>男 2011/8/8</t>
-  </si>
-  <si>
-    <t>男 2011/4/3</t>
-  </si>
-  <si>
-    <t>完成网站里的调查后有注册邮件，工资多点  4000</t>
-  </si>
-  <si>
-    <t>女 2012-2-2</t>
-  </si>
-  <si>
-    <t>学生，年龄小 2500  imperial AAA， King's College London  AAB，brunel、City, University of LondonABB-BBC  londonmet CCC~</t>
-  </si>
-  <si>
-    <t>imperial Mathematics</t>
-  </si>
-  <si>
     <t>City, University of London  Psychology</t>
   </si>
   <si>
@@ -2168,6 +2195,9 @@
     <t>londonmet  Data Science</t>
   </si>
   <si>
+    <t>brunel Computer Science</t>
+  </si>
+  <si>
     <t>king college london computer science</t>
   </si>
   <si>
@@ -2189,9 +2219,6 @@
     <t>brunel Economics</t>
   </si>
   <si>
-    <t>rachealadelinalf87</t>
-  </si>
-  <si>
     <t>brunel Mathematics</t>
   </si>
   <si>
@@ -2223,9 +2250,6 @@
   </si>
   <si>
     <t>londonmet  Economics</t>
-  </si>
-  <si>
-    <t>brunel Computer Science</t>
   </si>
   <si>
     <t>imperial  Electrical and Electronic Engineering</t>
@@ -2281,9 +2305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2348,13 +2372,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2377,6 +2394,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2391,6 +2415,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2399,9 +2453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2422,8 +2476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,46 +2499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2509,7 +2533,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,7 +2653,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,163 +2707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,51 +2752,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2796,11 +2775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2815,102 +2800,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2919,49 +2943,49 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3471,7 +3495,7 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
@@ -6247,8 +6271,8 @@
   <sheetPr/>
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD33"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="$A46:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -8392,8 +8416,8 @@
   <sheetPr/>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -8744,9 +8768,11 @@
         <v>54</v>
       </c>
       <c r="J10" s="1">
-        <v>23.65</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="K10" s="30">
+        <v>44354</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="29">
         <v>4087130739</v>
@@ -19021,8 +19047,8 @@
   <sheetPr/>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A35" sqref="$A35:$XFD35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -19501,7 +19527,7 @@
         <v>492</v>
       </c>
       <c r="J14" s="1">
-        <v>4600</v>
+        <v>4850</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -20017,7 +20043,7 @@
         <v>521</v>
       </c>
       <c r="J30" s="1">
-        <v>2100</v>
+        <v>2350</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -21466,13 +21492,13 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="38.9423076923077" customWidth="1"/>
+    <col min="1" max="1" width="42.9519230769231" customWidth="1"/>
     <col min="2" max="2" width="14.8942307692308" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
@@ -21589,7 +21615,7 @@
         <v>460</v>
       </c>
       <c r="J4" s="1">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -21655,7 +21681,7 @@
         <v>604</v>
       </c>
       <c r="J6" s="1">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
@@ -21687,7 +21713,7 @@
         <v>469</v>
       </c>
       <c r="J7" s="1">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -21756,7 +21782,7 @@
         <v>608</v>
       </c>
       <c r="J9" s="1">
-        <v>8.25</v>
+        <v>11.75</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -21790,7 +21816,7 @@
         <v>480</v>
       </c>
       <c r="J10" s="1">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -21825,7 +21851,7 @@
         <v>612</v>
       </c>
       <c r="J11" s="1">
-        <v>13.25</v>
+        <v>17.5</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -21859,7 +21885,7 @@
         <v>615</v>
       </c>
       <c r="J12" s="1">
-        <v>14</v>
+        <v>17.25</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -21893,7 +21919,7 @@
         <v>618</v>
       </c>
       <c r="J13" s="1">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -21927,7 +21953,7 @@
         <v>621</v>
       </c>
       <c r="J14" s="1">
-        <v>14.75</v>
+        <v>17.75</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -22030,7 +22056,7 @@
         <v>499</v>
       </c>
       <c r="J18" s="1">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -22064,7 +22090,7 @@
         <v>624</v>
       </c>
       <c r="J19" s="1">
-        <v>7.75</v>
+        <v>10.25</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -22084,8 +22110,12 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A21" s="28"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="C21" s="32">
         <v>31889</v>
       </c>
@@ -22093,7 +22123,7 @@
         <v>605</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>625</v>
@@ -22107,13 +22137,19 @@
       <c r="I21" s="34" t="s">
         <v>627</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>2.5</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A22" s="28"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="C22" s="32">
         <v>32012</v>
       </c>
@@ -22121,10 +22157,10 @@
         <v>15</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>504</v>
+        <v>628</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>474</v>
@@ -22133,15 +22169,21 @@
         <v>475</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>629</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A23" s="28"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="C23" s="32">
         <v>32357</v>
       </c>
@@ -22149,55 +22191,65 @@
         <v>605</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>629</v>
+        <v>630</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>483</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A24" s="28"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="C24" s="32">
         <v>32344</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>605</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>482</v>
+        <v>632</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>479</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>633</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.5</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A25" s="28"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="C25" s="32">
         <v>31834</v>
       </c>
@@ -22205,19 +22257,19 @@
         <v>605</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>619</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>488</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -22233,10 +22285,10 @@
         <v>15</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>471</v>
@@ -22245,7 +22297,7 @@
         <v>52</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -22271,23 +22323,27 @@
         <v>619</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>485</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="J27" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A28" s="28"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="C28" s="32">
         <v>32087</v>
       </c>
@@ -22295,10 +22351,10 @@
         <v>15</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>494</v>
@@ -22307,15 +22363,21 @@
         <v>516</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>638</v>
-      </c>
-      <c r="J28" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.5</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A29" s="28"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="C29" s="32">
         <v>31654</v>
       </c>
@@ -22323,10 +22385,10 @@
         <v>15</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>140</v>
@@ -22335,9 +22397,11 @@
         <v>129</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>643</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -22358,19 +22422,19 @@
         <v>602</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -22404,8 +22468,12 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="C32" s="32">
         <v>31657</v>
       </c>
@@ -22413,27 +22481,33 @@
         <v>605</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>526</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>646</v>
-      </c>
-      <c r="J32" s="1"/>
+        <v>649</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.5</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A33" s="28"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="C33" s="32">
         <v>32205</v>
       </c>
@@ -22441,10 +22515,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>529</v>
@@ -22453,9 +22527,11 @@
         <v>530</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>651</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3.25</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
@@ -22476,7 +22552,7 @@
         <v>609</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>254</v>
@@ -22485,10 +22561,10 @@
         <v>533</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="J34" s="1">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -22510,7 +22586,7 @@
         <v>602</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>620</v>
@@ -22519,17 +22595,21 @@
         <v>86</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="J35" s="1">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A36" s="28"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="C36" s="32">
         <v>32422</v>
       </c>
@@ -22537,10 +22617,10 @@
         <v>15</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>538</v>
@@ -22549,9 +22629,11 @@
         <v>72</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>654</v>
-      </c>
-      <c r="J36" s="1"/>
+        <v>657</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
@@ -22568,24 +22650,28 @@
         <v>455</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>542</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A38" s="28"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="C38" s="32">
         <v>31389</v>
       </c>
@@ -22593,10 +22679,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>544</v>
+        <v>661</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>545</v>
@@ -22605,9 +22691,11 @@
         <v>90</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>546</v>
-      </c>
-      <c r="J38" s="1"/>
+        <v>662</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3.25</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
@@ -22624,7 +22712,7 @@
         <v>455</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>623</v>
@@ -22633,7 +22721,7 @@
         <v>48</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -22652,7 +22740,7 @@
         <v>455</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="G40" s="17" t="s">
         <v>550</v>
@@ -22661,7 +22749,7 @@
         <v>551</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -22684,19 +22772,19 @@
         <v>609</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>111</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="J41" s="1">
-        <v>1.75</v>
+        <v>7.25</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -22718,54 +22806,64 @@
         <v>609</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>542</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="J42" s="1">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A43" s="28"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="C43" s="32">
         <v>32490</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>605</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="H43" s="17" t="s">
         <v>53</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>668</v>
-      </c>
-      <c r="J43" s="1"/>
+        <v>674</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A44" s="28"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="C44" s="32">
         <v>31669</v>
       </c>
@@ -22773,10 +22871,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>455</v>
+        <v>602</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>561</v>
+        <v>675</v>
       </c>
       <c r="G44" s="17" t="s">
         <v>562</v>
@@ -22785,15 +22883,21 @@
         <v>443</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>563</v>
-      </c>
-      <c r="J44" s="1"/>
+        <v>676</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.5</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
     <row r="45" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A45" s="28"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="C45" s="32">
         <v>32528</v>
       </c>
@@ -22801,10 +22905,10 @@
         <v>15</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>212</v>
@@ -22813,15 +22917,21 @@
         <v>159</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>669</v>
-      </c>
-      <c r="J45" s="1"/>
+        <v>677</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.75</v>
+      </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
     <row r="46" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
-      <c r="A46" s="28"/>
-      <c r="B46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="C46" s="32">
         <v>31548</v>
       </c>
@@ -22829,10 +22939,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>455</v>
+        <v>609</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>567</v>
@@ -22841,9 +22951,11 @@
         <v>568</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>670</v>
-      </c>
-      <c r="J46" s="1"/>
+        <v>678</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.25</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
@@ -22867,7 +22979,7 @@
         <v>570</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>117</v>
@@ -22895,7 +23007,7 @@
         <v>573</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>28</v>
@@ -22920,7 +23032,7 @@
         <v>455</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>577</v>
@@ -22929,7 +23041,7 @@
         <v>462</v>
       </c>
       <c r="I49" s="34" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -22976,7 +23088,7 @@
         <v>455</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>134</v>
@@ -22985,7 +23097,7 @@
         <v>38</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -23007,7 +23119,7 @@
         <v>584</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>475</v>
@@ -23032,7 +23144,7 @@
         <v>455</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>468</v>
@@ -23041,7 +23153,7 @@
         <v>483</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -23063,7 +23175,7 @@
         <v>588</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>479</v>
@@ -23088,16 +23200,16 @@
         <v>455</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>488</v>
       </c>
       <c r="I55" s="34" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -23139,7 +23251,7 @@
         <v>455</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>482</v>
@@ -23148,7 +23260,7 @@
         <v>485</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:9">
@@ -23480,6 +23592,36 @@
     <hyperlink ref="B35" r:id="rId20" display="Rud@123456"/>
     <hyperlink ref="A47" r:id="rId21" display="GaddzspKirwanzhj40344@gmail.com"/>
     <hyperlink ref="B47" r:id="rId22" display="Gad@123456"/>
+    <hyperlink ref="A46" r:id="rId23" display="DinorahnmkFewu8653@gmail.com"/>
+    <hyperlink ref="B46" r:id="rId24" display="Din@123456"/>
+    <hyperlink ref="A21" r:id="rId25" display="sudiebrinklj71@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId26" display="Sud@123456"/>
+    <hyperlink ref="B29" r:id="rId27" display="Lex@123456" tooltip="mailto:Lex@123456"/>
+    <hyperlink ref="A29" r:id="rId28" display="lexiegerdath57@gmail.com"/>
+    <hyperlink ref="A24" r:id="rId29" display="molinadeesij13@gmail.com"/>
+    <hyperlink ref="B24" r:id="rId30" display="Mol@123456"/>
+    <hyperlink ref="B28" r:id="rId31" display="Hau@123456"/>
+    <hyperlink ref="A28" r:id="rId32" display="haugenlilianamh59@gmail.com"/>
+    <hyperlink ref="A43" r:id="rId33" display="LampewMonetlgl76397@gmail.com"/>
+    <hyperlink ref="A33" r:id="rId34" display="WeitzmannvoHunsingerzdt32823@gmail.com"/>
+    <hyperlink ref="B33" r:id="rId35" display="Wei@123456"/>
+    <hyperlink ref="A32" r:id="rId36" display="FarnsworthiSpicerxmq86976@gmail.com"/>
+    <hyperlink ref="B32" r:id="rId37" display="Far@123456"/>
+    <hyperlink ref="B43" r:id="rId38" display="Lam@123456"/>
+    <hyperlink ref="A45" r:id="rId39" display="BradburycjmScarbroughgb44178@gmail.com"/>
+    <hyperlink ref="B45" r:id="rId40" display="Bra@123456"/>
+    <hyperlink ref="B38" r:id="rId41" display="She@123456" tooltip="mailto:She@123456"/>
+    <hyperlink ref="A38" r:id="rId42" display="SherrerrGracielagp67487@gmail.com"/>
+    <hyperlink ref="A44" r:id="rId43" display="MartinnoHardtkj34646@gmail.com"/>
+    <hyperlink ref="B44" r:id="rId44" display="Mar@123456"/>
+    <hyperlink ref="A22" r:id="rId45" display="zettawheatas92@gmail.com"/>
+    <hyperlink ref="B22" r:id="rId46" display="Zet@123456"/>
+    <hyperlink ref="A36" r:id="rId47" display="RaubagDammbqp90044@gmail.com"/>
+    <hyperlink ref="B36" r:id="rId48" display="Rau@123456"/>
+    <hyperlink ref="A23" r:id="rId49" display="jenesavagebu58@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId50" display="Jen@123456"/>
+    <hyperlink ref="A25" r:id="rId51" display="haremariettelv98@gmail.com"/>
+    <hyperlink ref="B25" r:id="rId52" display="Har@123456"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -23491,8 +23633,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -24747,7 +24889,9 @@
       <c r="I42" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="J42" s="1"/>
+      <c r="J42" s="1">
+        <v>75</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="18" t="s">
@@ -25456,7 +25600,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -25470,7 +25614,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25586,7 +25730,7 @@
         <v>463</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -25621,7 +25765,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" s="19" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -25656,7 +25800,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="19" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -25691,7 +25835,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" s="19" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -25761,7 +25905,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27458,7 +27602,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
@@ -27569,7 +27713,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
@@ -27604,7 +27748,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27639,7 +27783,7 @@
         <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27674,7 +27818,7 @@
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27711,7 +27855,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="8" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27748,7 +27892,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -27785,7 +27929,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -29570,7 +29714,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -29692,7 +29836,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:10">
@@ -29737,7 +29881,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -29772,7 +29916,7 @@
         <v>300</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -29809,7 +29953,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="8" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -29846,7 +29990,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -29883,7 +30027,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -30229,7 +30373,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="15" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -31660,8 +31804,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -31671,14 +31815,14 @@
     <col min="3" max="3" width="14.2596153846154" customWidth="1"/>
     <col min="6" max="6" width="16.1826923076923" customWidth="1"/>
     <col min="7" max="7" width="11.0576923076923" customWidth="1"/>
-    <col min="8" max="8" width="9.76923076923077" customWidth="1"/>
+    <col min="8" max="8" width="19.0576923076923" customWidth="1"/>
     <col min="9" max="9" width="37.9807692307692" customWidth="1"/>
     <col min="13" max="13" width="40.2211538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -31759,7 +31903,7 @@
         <v>458</v>
       </c>
       <c r="J3">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="M3" s="8"/>
     </row>
@@ -31825,9 +31969,44 @@
         <v>463</v>
       </c>
       <c r="J5" s="1">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M5" s="11"/>
+    </row>
+    <row r="6" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37021</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="15" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="7" customFormat="1" ht="13" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -31858,12 +32037,12 @@
         <v>469</v>
       </c>
       <c r="J7" s="1">
-        <v>1050</v>
+        <v>1225</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="15" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -31886,7 +32065,7 @@
         <v>470</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>462</v>
@@ -31900,7 +32079,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="15" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -31920,7 +32099,7 @@
         <v>455</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>474</v>
@@ -31929,7 +32108,7 @@
         <v>475</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="J9" s="1">
         <v>1200</v>
@@ -31937,7 +32116,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="15" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -31969,12 +32148,47 @@
         <v>480</v>
       </c>
       <c r="J10" s="1">
-        <v>1150</v>
+        <v>1350</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29"/>
     </row>
+    <row r="11" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5">
+        <v>37139</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" t="s">
+        <v>713</v>
+      </c>
+    </row>
     <row r="12" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>60</v>
@@ -32004,7 +32218,7 @@
         <v>486</v>
       </c>
       <c r="J12" s="1">
-        <v>1425</v>
+        <v>1700</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -32173,7 +32387,7 @@
         <v>499</v>
       </c>
       <c r="J18" s="1">
-        <v>2425</v>
+        <v>1125</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -32207,7 +32421,7 @@
         <v>501</v>
       </c>
       <c r="J19" s="1">
-        <v>1075</v>
+        <v>1275</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="1"/>
@@ -32260,7 +32474,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="15" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32297,7 +32511,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32329,12 +32543,12 @@
         <v>507</v>
       </c>
       <c r="J23" s="1">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="15" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32366,12 +32580,12 @@
         <v>509</v>
       </c>
       <c r="J24" s="1">
-        <v>1175</v>
+        <v>1400</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="15" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32403,12 +32617,12 @@
         <v>510</v>
       </c>
       <c r="J25" s="1">
-        <v>1675</v>
+        <v>1975</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="31" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32440,12 +32654,12 @@
         <v>512</v>
       </c>
       <c r="J26" s="1">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32482,7 +32696,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="15" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32514,12 +32728,12 @@
         <v>517</v>
       </c>
       <c r="J28" s="1">
-        <v>1225</v>
+        <v>1275</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="15" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32545,18 +32759,18 @@
         <v>140</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>711</v>
+        <v>129</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>519</v>
       </c>
       <c r="J29" s="1">
-        <v>1125</v>
+        <v>1175</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="14" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32588,12 +32802,12 @@
         <v>521</v>
       </c>
       <c r="J30" s="1">
-        <v>1225</v>
+        <v>1500</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="15" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32630,7 +32844,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="15" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32662,12 +32876,12 @@
         <v>527</v>
       </c>
       <c r="J32" s="1">
-        <v>1325</v>
+        <v>1375</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="15" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32699,12 +32913,12 @@
         <v>531</v>
       </c>
       <c r="J33" s="1">
-        <v>1483</v>
+        <v>1678</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="15" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32733,15 +32947,15 @@
         <v>533</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="J34" s="1">
-        <v>1600</v>
+        <v>1850</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="15" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32773,12 +32987,12 @@
         <v>536</v>
       </c>
       <c r="J35" s="1">
-        <v>1225</v>
+        <v>1525</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32810,12 +33024,12 @@
         <v>539</v>
       </c>
       <c r="J36" s="1">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="15" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32847,12 +33061,12 @@
         <v>543</v>
       </c>
       <c r="J37" s="1">
-        <v>1575</v>
+        <v>1825</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="15" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32884,12 +33098,12 @@
         <v>546</v>
       </c>
       <c r="J38" s="1">
-        <v>1633</v>
+        <v>1833</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="15" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32921,12 +33135,12 @@
         <v>548</v>
       </c>
       <c r="J39" s="1">
-        <v>1275</v>
+        <v>1475</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="15" customHeight="1" spans="1:13">
@@ -32963,7 +33177,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -32995,12 +33209,12 @@
         <v>554</v>
       </c>
       <c r="J41" s="1">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="15" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33032,12 +33246,12 @@
         <v>557</v>
       </c>
       <c r="J42" s="1">
-        <v>1150</v>
+        <v>1225</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="15" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33069,12 +33283,12 @@
         <v>560</v>
       </c>
       <c r="J43" s="1">
-        <v>1250</v>
+        <v>1525</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="15" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33106,12 +33320,12 @@
         <v>563</v>
       </c>
       <c r="J44" s="1">
-        <v>1283</v>
+        <v>1583</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="15" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33143,12 +33357,12 @@
         <v>565</v>
       </c>
       <c r="J45" s="1">
-        <v>1125</v>
+        <v>1175</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33180,12 +33394,12 @@
         <v>569</v>
       </c>
       <c r="J46" s="1">
-        <v>1850</v>
+        <v>2325</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="15" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33217,12 +33431,12 @@
         <v>572</v>
       </c>
       <c r="J47" s="1">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="15" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33254,12 +33468,12 @@
         <v>575</v>
       </c>
       <c r="J48" s="1">
-        <v>1225</v>
+        <v>1350</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="14" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -33291,12 +33505,12 @@
         <v>578</v>
       </c>
       <c r="J49" s="1">
-        <v>1225</v>
+        <v>1625</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="15" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
@@ -33747,6 +33961,8 @@
     <hyperlink ref="M48" r:id="rId63" display="brunel Psychology" tooltip="https://www.brunel.ac.uk/study/undergraduate/psychology-bsc"/>
     <hyperlink ref="A49" r:id="rId64" display="AtchisonjhBairmnb24387@gmail.com"/>
     <hyperlink ref="A19" r:id="rId65" display="elizabethgeorginagca481135@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId66" display="arielmraz417@gmail.com" tooltip="mailto:arielmraz417@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId67" display="tederdman81@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -33758,8 +33974,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="$A49:$XFD49"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -33775,7 +33991,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -34068,7 +34284,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -35930,10 +36146,10 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="12" customHeight="1" spans="1:13">
@@ -35977,10 +36193,10 @@
         <v>460</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="N4" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="O4" t="s">
         <v>337</v>
@@ -36085,7 +36301,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -38249,8 +38465,8 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -38543,7 +38759,9 @@
       <c r="I11" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -38642,7 +38860,7 @@
         <v>492</v>
       </c>
       <c r="J14" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -38959,7 +39177,7 @@
         <v>510</v>
       </c>
       <c r="J25" s="1">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -38995,7 +39213,9 @@
       <c r="I26" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="15" t="s">
@@ -39661,7 +39881,7 @@
         <v>565</v>
       </c>
       <c r="J45" s="1">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -39803,7 +40023,7 @@
         <v>578</v>
       </c>
       <c r="J49" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -42225,7 +42445,7 @@
         <v>533</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -42849,7 +43069,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -43005,7 +43225,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -43231,7 +43451,7 @@
         <v>533</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -43305,7 +43525,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -43795,7 +44015,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -43917,7 +44137,7 @@
         <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -43952,7 +44172,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="14.2" customHeight="1" spans="1:13">
@@ -43987,7 +44207,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="14.2" customHeight="1" spans="1:12">
@@ -44122,7 +44342,7 @@
         <v>458</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
@@ -44154,7 +44374,7 @@
         <v>460</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
@@ -44186,7 +44406,7 @@
         <v>463</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13320" tabRatio="928" firstSheet="37" activeTab="60"/>
+    <workbookView windowWidth="30240" windowHeight="13320" tabRatio="928" firstSheet="37" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3185,9 +3185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3281,6 +3281,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3295,28 +3302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3324,14 +3310,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3347,22 +3325,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3378,51 +3409,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3461,12 +3461,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3485,66 +3479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3557,7 +3491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,13 +3527,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3587,85 +3659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3735,9 +3729,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3753,15 +3758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3783,11 +3779,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3796,152 +3790,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4116,19 +4110,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4137,17 +4122,8 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4157,9 +4133,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4209,9 +4182,6 @@
     <xf numFmtId="24" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -4230,16 +4200,16 @@
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4251,40 +4221,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -4696,39 +4666,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="110" customFormat="1" ht="12" customHeight="1" spans="1:12">
-      <c r="A4" s="111" t="s">
+    <row r="4" s="102" customFormat="1" ht="12" customHeight="1" spans="1:12">
+      <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="105">
         <v>31493</v>
       </c>
-      <c r="D4" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="112">
+      <c r="D4" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="104">
         <v>91335</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="112" t="s">
+      <c r="I4" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="112">
+      <c r="J4" s="104">
         <v>415</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" ht="12.75" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
@@ -5194,7 +5164,7 @@
       <c r="B22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>31889</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -5231,7 +5201,7 @@
       <c r="B23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32012</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -5268,7 +5238,7 @@
       <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32357</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -5305,7 +5275,7 @@
       <c r="B25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>32344</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -5342,7 +5312,7 @@
       <c r="B26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>31834</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -5379,7 +5349,7 @@
       <c r="B27" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32077</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -5416,7 +5386,7 @@
       <c r="B28" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32274</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -5453,7 +5423,7 @@
       <c r="B29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>32087</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -5490,7 +5460,7 @@
       <c r="B30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31654</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -5527,7 +5497,7 @@
       <c r="B31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>31077</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -5564,7 +5534,7 @@
       <c r="B32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>32510</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -5601,7 +5571,7 @@
       <c r="B33" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="59">
         <v>31657</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -5638,7 +5608,7 @@
       <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>32205</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -5675,7 +5645,7 @@
       <c r="B35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>31879</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -5712,7 +5682,7 @@
       <c r="B36" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32281</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -5749,7 +5719,7 @@
       <c r="B37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>32422</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -5786,7 +5756,7 @@
       <c r="B38" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31662</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -5823,7 +5793,7 @@
       <c r="B39" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31389</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -5860,7 +5830,7 @@
       <c r="B40" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>31817</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -5897,7 +5867,7 @@
       <c r="B41" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>32487</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -5934,7 +5904,7 @@
       <c r="B42" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31666</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -5971,7 +5941,7 @@
       <c r="B43" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>31675</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -6008,7 +5978,7 @@
       <c r="B44" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>32490</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -6045,7 +6015,7 @@
       <c r="B45" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>31669</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -6082,7 +6052,7 @@
       <c r="B46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>32528</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -6119,7 +6089,7 @@
       <c r="B47" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31548</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -6156,7 +6126,7 @@
       <c r="B48" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>31672</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -6193,7 +6163,7 @@
       <c r="B49" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="59">
         <v>32105</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -6230,7 +6200,7 @@
       <c r="B50" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="59">
         <v>31674</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -6327,7 +6297,7 @@
       <c r="I53" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6886,7 +6856,7 @@
       <c r="M70" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="N70" s="115" t="s">
+      <c r="N70" s="107" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8126,7 +8096,7 @@
         <v>16</v>
       </c>
       <c r="H153" s="10"/>
-      <c r="I153" s="116"/>
+      <c r="I153" s="108"/>
     </row>
     <row r="154" ht="14.25" customHeight="1" spans="4:9">
       <c r="D154" s="9" t="s">
@@ -8136,7 +8106,7 @@
         <v>16</v>
       </c>
       <c r="H154" s="10"/>
-      <c r="I154" s="116"/>
+      <c r="I154" s="108"/>
     </row>
     <row r="155" ht="14.25" customHeight="1" spans="4:9">
       <c r="D155" s="9" t="s">
@@ -8146,7 +8116,7 @@
         <v>16</v>
       </c>
       <c r="H155" s="10"/>
-      <c r="I155" s="116"/>
+      <c r="I155" s="108"/>
     </row>
     <row r="156" ht="14.25" customHeight="1" spans="4:9">
       <c r="D156" s="9" t="s">
@@ -8156,7 +8126,7 @@
         <v>16</v>
       </c>
       <c r="H156" s="10"/>
-      <c r="I156" s="116"/>
+      <c r="I156" s="108"/>
     </row>
     <row r="157" ht="14.25" customHeight="1" spans="4:9">
       <c r="D157" s="9" t="s">
@@ -8166,7 +8136,7 @@
         <v>16</v>
       </c>
       <c r="H157" s="10"/>
-      <c r="I157" s="116"/>
+      <c r="I157" s="108"/>
     </row>
     <row r="158" ht="14.25" customHeight="1" spans="4:9">
       <c r="D158" s="9" t="s">
@@ -8176,7 +8146,7 @@
         <v>16</v>
       </c>
       <c r="H158" s="10"/>
-      <c r="I158" s="116"/>
+      <c r="I158" s="108"/>
     </row>
     <row r="159" ht="14.25" customHeight="1" spans="4:9">
       <c r="D159" s="9" t="s">
@@ -8186,7 +8156,7 @@
         <v>16</v>
       </c>
       <c r="H159" s="10"/>
-      <c r="I159" s="116"/>
+      <c r="I159" s="108"/>
     </row>
     <row r="160" ht="14.25" customHeight="1" spans="4:9">
       <c r="D160" s="9" t="s">
@@ -8196,7 +8166,7 @@
         <v>16</v>
       </c>
       <c r="H160" s="10"/>
-      <c r="I160" s="116"/>
+      <c r="I160" s="108"/>
     </row>
     <row r="161" ht="14.25" customHeight="1" spans="4:9">
       <c r="D161" s="9" t="s">
@@ -8206,7 +8176,7 @@
         <v>16</v>
       </c>
       <c r="H161" s="10"/>
-      <c r="I161" s="116"/>
+      <c r="I161" s="108"/>
     </row>
     <row r="162" ht="14.25" customHeight="1" spans="4:9">
       <c r="D162" s="9" t="s">
@@ -8216,7 +8186,7 @@
         <v>16</v>
       </c>
       <c r="H162" s="10"/>
-      <c r="I162" s="116"/>
+      <c r="I162" s="108"/>
     </row>
     <row r="163" ht="14.25" customHeight="1" spans="4:9">
       <c r="D163" s="9" t="s">
@@ -8226,7 +8196,7 @@
         <v>16</v>
       </c>
       <c r="H163" s="10"/>
-      <c r="I163" s="116"/>
+      <c r="I163" s="108"/>
     </row>
     <row r="164" ht="14.25" customHeight="1" spans="4:9">
       <c r="D164" s="9" t="s">
@@ -8236,159 +8206,159 @@
         <v>16</v>
       </c>
       <c r="H164" s="10"/>
-      <c r="I164" s="116"/>
+      <c r="I164" s="108"/>
     </row>
     <row r="165" ht="14.25" customHeight="1" spans="8:9">
       <c r="H165" s="10"/>
-      <c r="I165" s="116"/>
+      <c r="I165" s="108"/>
     </row>
     <row r="166" ht="14.25" customHeight="1" spans="8:9">
       <c r="H166" s="10"/>
-      <c r="I166" s="116"/>
+      <c r="I166" s="108"/>
     </row>
     <row r="167" ht="14.25" customHeight="1" spans="8:9">
       <c r="H167" s="10"/>
-      <c r="I167" s="116"/>
+      <c r="I167" s="108"/>
     </row>
     <row r="168" ht="14.25" customHeight="1" spans="8:9">
       <c r="H168" s="10"/>
-      <c r="I168" s="116"/>
+      <c r="I168" s="108"/>
     </row>
     <row r="169" ht="14.25" customHeight="1" spans="8:9">
       <c r="H169" s="10"/>
-      <c r="I169" s="116"/>
+      <c r="I169" s="108"/>
     </row>
     <row r="170" ht="14.25" customHeight="1" spans="8:9">
       <c r="H170" s="10"/>
-      <c r="I170" s="116"/>
+      <c r="I170" s="108"/>
     </row>
     <row r="171" ht="14.25" customHeight="1" spans="8:9">
       <c r="H171" s="10"/>
-      <c r="I171" s="116"/>
+      <c r="I171" s="108"/>
     </row>
     <row r="172" ht="14.25" customHeight="1" spans="8:9">
       <c r="H172" s="10"/>
-      <c r="I172" s="116"/>
+      <c r="I172" s="108"/>
     </row>
     <row r="173" ht="14.25" customHeight="1" spans="8:9">
       <c r="H173" s="10"/>
-      <c r="I173" s="116"/>
+      <c r="I173" s="108"/>
     </row>
     <row r="174" ht="14.25" customHeight="1" spans="8:9">
       <c r="H174" s="10"/>
-      <c r="I174" s="116"/>
+      <c r="I174" s="108"/>
     </row>
     <row r="175" ht="14.25" customHeight="1" spans="8:9">
       <c r="H175" s="10"/>
-      <c r="I175" s="116"/>
+      <c r="I175" s="108"/>
     </row>
     <row r="176" ht="14.25" customHeight="1" spans="8:9">
       <c r="H176" s="10"/>
-      <c r="I176" s="116"/>
+      <c r="I176" s="108"/>
     </row>
     <row r="177" ht="14.25" customHeight="1" spans="8:9">
       <c r="H177" s="10"/>
-      <c r="I177" s="116"/>
+      <c r="I177" s="108"/>
     </row>
     <row r="178" ht="14.25" customHeight="1" spans="8:9">
       <c r="H178" s="10"/>
-      <c r="I178" s="116"/>
+      <c r="I178" s="108"/>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="8:9">
       <c r="H179" s="10"/>
-      <c r="I179" s="116"/>
+      <c r="I179" s="108"/>
     </row>
     <row r="180" ht="14.25" customHeight="1" spans="8:9">
       <c r="H180" s="10"/>
-      <c r="I180" s="116"/>
+      <c r="I180" s="108"/>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="8:9">
       <c r="H181" s="10"/>
-      <c r="I181" s="116"/>
+      <c r="I181" s="108"/>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="8:9">
       <c r="H182" s="10"/>
-      <c r="I182" s="116"/>
+      <c r="I182" s="108"/>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="8:9">
       <c r="H183" s="10"/>
-      <c r="I183" s="116"/>
+      <c r="I183" s="108"/>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="8:9">
       <c r="H184" s="10"/>
-      <c r="I184" s="116"/>
+      <c r="I184" s="108"/>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="8:9">
       <c r="H185" s="10"/>
-      <c r="I185" s="116"/>
+      <c r="I185" s="108"/>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="8:9">
       <c r="H186" s="10"/>
-      <c r="I186" s="116"/>
+      <c r="I186" s="108"/>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="8:9">
       <c r="H187" s="10"/>
-      <c r="I187" s="116"/>
+      <c r="I187" s="108"/>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="8:9">
       <c r="H188" s="10"/>
-      <c r="I188" s="116"/>
+      <c r="I188" s="108"/>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="8:9">
       <c r="H189" s="10"/>
-      <c r="I189" s="116"/>
+      <c r="I189" s="108"/>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="8:9">
       <c r="H190" s="10"/>
-      <c r="I190" s="116"/>
+      <c r="I190" s="108"/>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="8:9">
       <c r="H191" s="10"/>
-      <c r="I191" s="116"/>
+      <c r="I191" s="108"/>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="8:9">
       <c r="H192" s="10"/>
-      <c r="I192" s="116"/>
+      <c r="I192" s="108"/>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="8:9">
       <c r="H193" s="10"/>
-      <c r="I193" s="116"/>
+      <c r="I193" s="108"/>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="8:9">
       <c r="H194" s="10"/>
-      <c r="I194" s="116"/>
+      <c r="I194" s="108"/>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="8:9">
       <c r="H195" s="10"/>
-      <c r="I195" s="116"/>
+      <c r="I195" s="108"/>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="8:9">
       <c r="H196" s="10"/>
-      <c r="I196" s="116"/>
+      <c r="I196" s="108"/>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="8:9">
       <c r="H197" s="10"/>
-      <c r="I197" s="116"/>
+      <c r="I197" s="108"/>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="8:9">
       <c r="H198" s="10"/>
-      <c r="I198" s="116"/>
+      <c r="I198" s="108"/>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="8:9">
       <c r="H199" s="10"/>
-      <c r="I199" s="116"/>
+      <c r="I199" s="108"/>
     </row>
     <row r="200" ht="14.25" customHeight="1" spans="8:9">
       <c r="H200" s="10"/>
-      <c r="I200" s="116"/>
+      <c r="I200" s="108"/>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="8:9">
       <c r="H201" s="10"/>
-      <c r="I201" s="116"/>
+      <c r="I201" s="108"/>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="8:9">
       <c r="H202" s="10"/>
-      <c r="I202" s="116"/>
+      <c r="I202" s="108"/>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="8:8">
       <c r="H203" s="10"/>
@@ -9145,7 +9115,7 @@
       <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="59">
         <v>31889</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -9182,7 +9152,7 @@
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>32012</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -9219,7 +9189,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32357</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -9256,7 +9226,7 @@
       <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32344</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -9293,7 +9263,7 @@
       <c r="B25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>31834</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -9330,7 +9300,7 @@
       <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>32077</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -9367,7 +9337,7 @@
       <c r="B27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32274</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -9404,7 +9374,7 @@
       <c r="B28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32087</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -9441,7 +9411,7 @@
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>31654</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -9478,7 +9448,7 @@
       <c r="B30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31077</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -9515,7 +9485,7 @@
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>32510</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -9552,7 +9522,7 @@
       <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>31657</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -9589,7 +9559,7 @@
       <c r="B33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="59">
         <v>32205</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -9626,7 +9596,7 @@
       <c r="B34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>31879</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -9663,7 +9633,7 @@
       <c r="B35" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>32281</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -9700,7 +9670,7 @@
       <c r="B36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32422</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -9737,7 +9707,7 @@
       <c r="B37" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>31662</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -9774,7 +9744,7 @@
       <c r="B38" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31389</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -9809,7 +9779,7 @@
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31817</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -9844,7 +9814,7 @@
       <c r="B40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>32487</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -9881,7 +9851,7 @@
       <c r="B41" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>31666</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -9916,7 +9886,7 @@
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31675</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -9953,7 +9923,7 @@
       <c r="B43" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>32490</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -9990,7 +9960,7 @@
       <c r="B44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>31669</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -10027,7 +9997,7 @@
       <c r="B45" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>32528</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -10064,7 +10034,7 @@
       <c r="B46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>31548</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -10101,7 +10071,7 @@
       <c r="B47" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31672</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -10138,7 +10108,7 @@
       <c r="B48" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>32105</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -10175,7 +10145,7 @@
       <c r="B49" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="59">
         <v>31674</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -10950,7 +10920,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="92">
+      <c r="M8" s="84">
         <v>5102015656</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -11034,7 +11004,7 @@
       <c r="J10" s="1">
         <v>0.45</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="61">
         <v>44354</v>
       </c>
       <c r="L10" s="1"/>
@@ -11081,7 +11051,7 @@
       </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="93">
+      <c r="M11" s="85">
         <v>8189750320</v>
       </c>
       <c r="N11" s="37" t="s">
@@ -11288,7 +11258,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="92">
+      <c r="M17" s="84">
         <v>7072126144</v>
       </c>
       <c r="N17" t="s">
@@ -11329,7 +11299,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="92">
+      <c r="M18" s="84">
         <v>7072122069</v>
       </c>
       <c r="N18" t="s">
@@ -11370,7 +11340,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="92">
+      <c r="M19" s="84">
         <v>5102008300</v>
       </c>
       <c r="N19" t="s">
@@ -11401,7 +11371,7 @@
       <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="59">
         <v>31889</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -11425,7 +11395,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="92">
+      <c r="M21" s="84">
         <v>5102008311</v>
       </c>
       <c r="N21" s="15" t="s">
@@ -11442,7 +11412,7 @@
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>32012</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -11483,7 +11453,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32357</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -11526,7 +11496,7 @@
       <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32344</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -11569,7 +11539,7 @@
       <c r="B25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>31834</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -11610,7 +11580,7 @@
       <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>32077</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -11636,7 +11606,7 @@
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="92">
+      <c r="M26" s="84">
         <v>6282073660</v>
       </c>
       <c r="N26" s="15" t="s">
@@ -11653,7 +11623,7 @@
       <c r="B27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32274</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -11679,7 +11649,7 @@
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="92">
+      <c r="M27" s="84">
         <v>5102026925</v>
       </c>
       <c r="N27" s="15" t="s">
@@ -11696,7 +11666,7 @@
       <c r="B28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32087</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -11737,7 +11707,7 @@
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>31654</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -11778,7 +11748,7 @@
       <c r="B30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31077</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -11819,7 +11789,7 @@
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>32510</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -11843,7 +11813,7 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="92">
+      <c r="M31" s="84">
         <v>5102027028</v>
       </c>
       <c r="N31" s="15" t="s">
@@ -11860,7 +11830,7 @@
       <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>31657</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -11884,7 +11854,7 @@
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
-      <c r="M32" s="92">
+      <c r="M32" s="84">
         <v>2092067948</v>
       </c>
       <c r="N32" s="15" t="s">
@@ -11927,7 +11897,7 @@
       </c>
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
-      <c r="M33" s="94">
+      <c r="M33" s="86">
         <v>2092106812</v>
       </c>
       <c r="N33" s="36" t="s">
@@ -11944,7 +11914,7 @@
       <c r="B34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>31879</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -11968,7 +11938,7 @@
       <c r="J34" s="35"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
-      <c r="M34" s="92">
+      <c r="M34" s="84">
         <v>2092106869</v>
       </c>
       <c r="N34" s="15" t="s">
@@ -11985,7 +11955,7 @@
       <c r="B35" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>32281</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -12011,7 +11981,7 @@
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
-      <c r="M35" s="92">
+      <c r="M35" s="84">
         <v>2092469458</v>
       </c>
       <c r="N35" s="15" t="s">
@@ -12028,7 +11998,7 @@
       <c r="B36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32422</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -12054,7 +12024,7 @@
       </c>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
-      <c r="M36" s="92">
+      <c r="M36" s="84">
         <v>2092462492</v>
       </c>
       <c r="N36" s="15" t="s">
@@ -12071,7 +12041,7 @@
       <c r="B37" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>31662</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -12097,7 +12067,7 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
-      <c r="M37" s="92">
+      <c r="M37" s="84">
         <v>3102131346</v>
       </c>
       <c r="N37" s="15" t="s">
@@ -12114,7 +12084,7 @@
       <c r="B38" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31389</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -12138,7 +12108,7 @@
       <c r="J38" s="35"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
-      <c r="M38" s="92">
+      <c r="M38" s="84">
         <v>3102461953</v>
       </c>
       <c r="N38" s="15" t="s">
@@ -12155,7 +12125,7 @@
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31817</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -12179,7 +12149,7 @@
       <c r="J39" s="35"/>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
-      <c r="M39" s="92">
+      <c r="M39" s="84">
         <v>3232096786</v>
       </c>
       <c r="N39" s="15" t="s">
@@ -12196,7 +12166,7 @@
       <c r="B40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>32487</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -12220,7 +12190,7 @@
       <c r="J40" s="35"/>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
-      <c r="M40" s="92">
+      <c r="M40" s="84">
         <v>3232090091</v>
       </c>
       <c r="N40" s="15" t="s">
@@ -12237,7 +12207,7 @@
       <c r="B41" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>31666</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -12263,7 +12233,7 @@
       </c>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
-      <c r="M41" s="92">
+      <c r="M41" s="84">
         <v>3232093457</v>
       </c>
       <c r="N41" s="15" t="s">
@@ -12280,7 +12250,7 @@
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31675</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -12306,7 +12276,7 @@
       </c>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
-      <c r="M42" s="92">
+      <c r="M42" s="84">
         <v>3232097215</v>
       </c>
       <c r="N42" s="15" t="s">
@@ -12323,7 +12293,7 @@
       <c r="B43" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>32490</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -12349,7 +12319,7 @@
       </c>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
-      <c r="M43" s="92">
+      <c r="M43" s="84">
         <v>4082003412</v>
       </c>
       <c r="N43" s="15" t="s">
@@ -12366,7 +12336,7 @@
       <c r="B44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>31669</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -12392,7 +12362,7 @@
       </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="92">
+      <c r="M44" s="84">
         <v>4082003458</v>
       </c>
       <c r="N44" s="15" t="s">
@@ -12409,7 +12379,7 @@
       <c r="B45" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>32528</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -12433,7 +12403,7 @@
       <c r="J45" s="35"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
-      <c r="M45" s="92">
+      <c r="M45" s="84">
         <v>4082003696</v>
       </c>
       <c r="N45" s="15" t="s">
@@ -12450,7 +12420,7 @@
       <c r="B46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>31548</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -12474,7 +12444,7 @@
       <c r="J46" s="35"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
-      <c r="M46" s="92">
+      <c r="M46" s="84">
         <v>4082007364</v>
       </c>
       <c r="N46" s="15" t="s">
@@ -12491,7 +12461,7 @@
       <c r="B47" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31672</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -12515,7 +12485,7 @@
       <c r="J47" s="35"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="92">
+      <c r="M47" s="84">
         <v>4082001814</v>
       </c>
       <c r="N47" s="15" t="s">
@@ -12532,7 +12502,7 @@
       <c r="B48" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>32105</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -12558,7 +12528,7 @@
       </c>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
-      <c r="M48" s="92">
+      <c r="M48" s="84">
         <v>5592000530</v>
       </c>
       <c r="N48" s="15" t="s">
@@ -12575,7 +12545,7 @@
       <c r="B49" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="59">
         <v>31674</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -12601,7 +12571,7 @@
       </c>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="92">
+      <c r="M49" s="84">
         <v>2132034871</v>
       </c>
       <c r="N49" s="15" t="s">
@@ -12652,7 +12622,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="O52" s="95"/>
+      <c r="O52" s="87"/>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:12">
       <c r="A53" s="31"/>
@@ -13206,7 +13176,7 @@
       <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="59">
         <v>31889</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -13241,7 +13211,7 @@
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>32012</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -13276,7 +13246,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32357</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -13311,7 +13281,7 @@
       <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32344</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -13346,7 +13316,7 @@
       <c r="B25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>31834</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -13381,7 +13351,7 @@
       <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>32077</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -13416,7 +13386,7 @@
       <c r="B27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32274</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -13451,7 +13421,7 @@
       <c r="B28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32087</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -13486,7 +13456,7 @@
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>31654</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -13521,7 +13491,7 @@
       <c r="B30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31077</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -13556,7 +13526,7 @@
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>32510</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -13591,7 +13561,7 @@
       <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>31657</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -13626,7 +13596,7 @@
       <c r="B33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="59">
         <v>32205</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -13661,7 +13631,7 @@
       <c r="B34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>31879</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -13696,7 +13666,7 @@
       <c r="B35" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>32281</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -13731,7 +13701,7 @@
       <c r="B36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32422</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -13766,7 +13736,7 @@
       <c r="B37" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>31662</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -13801,7 +13771,7 @@
       <c r="B38" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31389</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -13836,7 +13806,7 @@
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31817</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -13871,7 +13841,7 @@
       <c r="B40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>32487</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -13906,7 +13876,7 @@
       <c r="B41" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>31666</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -13941,7 +13911,7 @@
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31675</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -13976,7 +13946,7 @@
       <c r="B43" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>32490</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -14011,7 +13981,7 @@
       <c r="B44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>31669</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -14046,7 +14016,7 @@
       <c r="B45" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>32528</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -14081,7 +14051,7 @@
       <c r="B46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>31548</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -14116,7 +14086,7 @@
       <c r="B47" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31672</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -14151,7 +14121,7 @@
       <c r="B48" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>32105</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -14673,7 +14643,7 @@
       <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="59">
         <v>31889</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -14708,7 +14678,7 @@
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>32012</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -14743,7 +14713,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32357</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -14813,7 +14783,7 @@
       <c r="B25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>31834</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -14848,7 +14818,7 @@
       <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>32077</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -14883,7 +14853,7 @@
       <c r="B27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32274</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -14918,7 +14888,7 @@
       <c r="B28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32087</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -14988,7 +14958,7 @@
       <c r="B30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31077</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -15023,7 +14993,7 @@
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>32510</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -15058,7 +15028,7 @@
       <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>31657</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -15128,7 +15098,7 @@
       <c r="B34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>31879</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -15163,7 +15133,7 @@
       <c r="B35" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>32281</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -15340,7 +15310,7 @@
       <c r="B40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>32487</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -15480,7 +15450,7 @@
       <c r="B44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>31669</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -15511,7 +15481,7 @@
     <row r="45" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A45" s="2"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="72"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -18713,36 +18683,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88461538461538" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="39.4423076923077" style="73" customWidth="1"/>
-    <col min="2" max="2" width="18.1153846153846" style="73" customWidth="1"/>
-    <col min="3" max="3" width="13" style="73" customWidth="1"/>
-    <col min="4" max="6" width="9.88461538461538" style="73"/>
-    <col min="7" max="7" width="13.4423076923077" style="73" customWidth="1"/>
-    <col min="8" max="8" width="10.7788461538462" style="73" customWidth="1"/>
-    <col min="9" max="9" width="30.8846153846154" style="73" customWidth="1"/>
-    <col min="10" max="16384" width="9.88461538461538" style="73"/>
+    <col min="1" max="1" width="39.4423076923077" style="66" customWidth="1"/>
+    <col min="2" max="2" width="18.1153846153846" style="66" customWidth="1"/>
+    <col min="3" max="3" width="13" style="66" customWidth="1"/>
+    <col min="4" max="6" width="9.88461538461538" style="66"/>
+    <col min="7" max="7" width="13.4423076923077" style="66" customWidth="1"/>
+    <col min="8" max="8" width="10.7788461538462" style="66" customWidth="1"/>
+    <col min="9" max="9" width="30.8846153846154" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="9.88461538461538" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="74">
-        <v>15</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="A2" s="67">
+        <v>15</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -18789,7 +18759,7 @@
       <c r="B4" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="59">
         <v>31493</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -18801,7 +18771,7 @@
       <c r="F4" s="35">
         <v>91335</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="70" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="35" t="s">
@@ -18813,12 +18783,12 @@
       <c r="J4" s="15">
         <v>5.5</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="2"/>
       <c r="M4" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="91"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -19040,7 +19010,7 @@
       <c r="B31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>31077</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -19077,7 +19047,7 @@
       <c r="B35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>31879</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -19114,7 +19084,7 @@
       <c r="B50" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="59">
         <v>31674</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -19212,7 +19182,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -19615,492 +19585,492 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="73" t="s">
+      <c r="D66" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="G66" s="73" t="s">
+      <c r="G66" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="73" t="s">
+      <c r="H66" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="M66" s="73" t="s">
+      <c r="M66" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="N66" s="73" t="s">
+      <c r="N66" s="66" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="73" t="s">
+      <c r="D67" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="G67" s="73" t="s">
+      <c r="G67" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="H67" s="73" t="s">
+      <c r="H67" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="I67" s="73" t="s">
+      <c r="I67" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="M67" s="73" t="s">
+      <c r="M67" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="N67" s="73" t="s">
+      <c r="N67" s="66" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="D68" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="73" t="s">
+      <c r="D68" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="G68" s="73" t="s">
+      <c r="G68" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="73" t="s">
+      <c r="H68" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="I68" s="73" t="s">
+      <c r="I68" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="M68" s="73" t="s">
+      <c r="M68" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="N68" s="73" t="s">
+      <c r="N68" s="66" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="73" t="s">
+      <c r="C69" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="D69" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="73">
+      <c r="D69" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="66">
         <v>92253</v>
       </c>
-      <c r="G69" s="73" t="s">
+      <c r="G69" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H69" s="73" t="s">
+      <c r="H69" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="I69" s="73" t="s">
+      <c r="I69" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="M69" s="73" t="s">
+      <c r="M69" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="N69" s="73" t="s">
+      <c r="N69" s="66" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="C70" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="D70" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="73">
+      <c r="D70" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="66">
         <v>93004</v>
       </c>
-      <c r="G70" s="73" t="s">
+      <c r="G70" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H70" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="73" t="s">
+      <c r="I70" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="M70" s="73" t="s">
+      <c r="M70" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="N70" s="73" t="s">
+      <c r="N70" s="66" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="D71" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="73">
+      <c r="D71" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="66">
         <v>92880</v>
       </c>
-      <c r="G71" s="73" t="s">
+      <c r="G71" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H71" s="73" t="s">
+      <c r="H71" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="73" t="s">
+      <c r="I71" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="M71" s="73" t="s">
+      <c r="M71" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="N71" s="73" t="s">
+      <c r="N71" s="66" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="C72" s="73" t="s">
+      <c r="C72" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="D72" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="73">
+      <c r="D72" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="66">
         <v>95127</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H72" s="73" t="s">
+      <c r="H72" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="I72" s="73" t="s">
+      <c r="I72" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="M72" s="73" t="s">
+      <c r="M72" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="N72" s="73" t="s">
+      <c r="N72" s="66" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="73">
+      <c r="D73" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="66">
         <v>94804</v>
       </c>
-      <c r="G73" s="73" t="s">
+      <c r="G73" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="73" t="s">
+      <c r="H73" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="I73" s="73" t="s">
+      <c r="I73" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="M73" s="73" t="s">
+      <c r="M73" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="N73" s="73" t="s">
+      <c r="N73" s="66" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="73" t="s">
+      <c r="C74" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="D74" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="73">
+      <c r="D74" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="66">
         <v>94551</v>
       </c>
-      <c r="G74" s="73" t="s">
+      <c r="G74" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="73" t="s">
+      <c r="H74" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="I74" s="73" t="s">
+      <c r="I74" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M74" s="73" t="s">
+      <c r="M74" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="N74" s="73" t="s">
+      <c r="N74" s="66" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="73" t="s">
+      <c r="C75" s="66" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="73">
+      <c r="D75" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="66">
         <v>94530</v>
       </c>
-      <c r="G75" s="73" t="s">
+      <c r="G75" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="73" t="s">
+      <c r="H75" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="I75" s="73" t="s">
+      <c r="I75" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="M75" s="73" t="s">
+      <c r="M75" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="N75" s="73" t="s">
+      <c r="N75" s="66" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="D76" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="73">
+      <c r="D76" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="66">
         <v>91722</v>
       </c>
-      <c r="G76" s="73" t="s">
+      <c r="G76" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="I76" s="73" t="s">
+      <c r="I76" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="M76" s="73" t="s">
+      <c r="M76" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="N76" s="73" t="s">
+      <c r="N76" s="66" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="D77" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="73">
+      <c r="D77" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="66">
         <v>90260</v>
       </c>
-      <c r="G77" s="73" t="s">
+      <c r="G77" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="73" t="s">
+      <c r="H77" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="I77" s="73" t="s">
+      <c r="I77" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="M77" s="73" t="s">
+      <c r="M77" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="N77" s="73" t="s">
+      <c r="N77" s="66" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="D79" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="73">
+      <c r="D79" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="66">
         <v>90066</v>
       </c>
-      <c r="G79" s="73" t="s">
+      <c r="G79" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="H79" s="73" t="s">
+      <c r="H79" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="I79" s="73" t="s">
+      <c r="I79" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="M79" s="73" t="s">
+      <c r="M79" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="N79" s="73" t="s">
+      <c r="N79" s="66" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="66" t="s">
         <v>459</v>
       </c>
-      <c r="D80" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="73">
+      <c r="D80" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="66">
         <v>90650</v>
       </c>
-      <c r="G80" s="73" t="s">
+      <c r="G80" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="H80" s="73" t="s">
+      <c r="H80" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="73" t="s">
+      <c r="I80" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="M80" s="73" t="s">
+      <c r="M80" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="N80" s="73" t="s">
+      <c r="N80" s="66" t="s">
         <v>402</v>
       </c>
     </row>
@@ -20152,21 +20122,21 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>3000</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -20306,10 +20276,10 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="O53" s="90"/>
+      <c r="O53" s="82"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:13">
       <c r="A54" s="31" t="s">
@@ -21866,7 +21836,7 @@
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="102" t="s">
+      <c r="M22" s="94" t="s">
         <v>426</v>
       </c>
     </row>
@@ -21901,7 +21871,7 @@
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
-      <c r="M23" s="102" t="s">
+      <c r="M23" s="94" t="s">
         <v>427</v>
       </c>
     </row>
@@ -21936,7 +21906,7 @@
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
-      <c r="M24" s="102" t="s">
+      <c r="M24" s="94" t="s">
         <v>428</v>
       </c>
     </row>
@@ -21971,7 +21941,7 @@
       <c r="J25" s="43"/>
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
-      <c r="M25" s="102" t="s">
+      <c r="M25" s="94" t="s">
         <v>429</v>
       </c>
     </row>
@@ -22006,7 +21976,7 @@
       <c r="J26" s="43"/>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="94" t="s">
         <v>430</v>
       </c>
     </row>
@@ -22041,7 +22011,7 @@
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
-      <c r="M27" s="102" t="s">
+      <c r="M27" s="94" t="s">
         <v>431</v>
       </c>
     </row>
@@ -22076,24 +22046,24 @@
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
-      <c r="M28" s="102" t="s">
+      <c r="M28" s="94" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="29" s="103" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="109"/>
+    <row r="29" s="95" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
+      <c r="A29" s="96"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="101"/>
     </row>
     <row r="30" s="36" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
       <c r="A30" s="41" t="s">
@@ -22126,14 +22096,14 @@
       <c r="J30" s="43"/>
       <c r="K30" s="43"/>
       <c r="L30" s="43"/>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="94" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="31" s="15" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A31" s="23"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
@@ -22175,7 +22145,7 @@
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
-      <c r="M32" s="102" t="s">
+      <c r="M32" s="94" t="s">
         <v>434</v>
       </c>
     </row>
@@ -22238,7 +22208,7 @@
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="94" t="s">
         <v>435</v>
       </c>
     </row>
@@ -22273,7 +22243,7 @@
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
-      <c r="M36" s="102" t="s">
+      <c r="M36" s="94" t="s">
         <v>436</v>
       </c>
     </row>
@@ -22308,7 +22278,7 @@
     <row r="39" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
       <c r="A39" s="2"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="72"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
@@ -22411,7 +22381,7 @@
       <c r="B46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>32528</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -22474,7 +22444,7 @@
       <c r="B49" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="59">
         <v>32105</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -22509,7 +22479,7 @@
       <c r="B50" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="59">
         <v>31674</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -22617,7 +22587,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71"/>
+      <c r="M53" s="65"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:13">
       <c r="A54" s="31" t="s">
@@ -23642,21 +23612,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="18" spans="1:12">
-      <c r="A2" s="74" t="s">
+    <row r="2" s="66" customFormat="1" ht="18" spans="1:12">
+      <c r="A2" s="67" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -23764,7 +23734,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -24243,38 +24213,38 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" s="89" customFormat="1" spans="1:14">
-      <c r="A68" s="89" t="s">
+    <row r="68" s="20" customFormat="1" spans="1:14">
+      <c r="A68" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="89" t="s">
+      <c r="B68" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="89" t="s">
+      <c r="C68" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="D68" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="89" t="s">
+      <c r="D68" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="G68" s="89" t="s">
+      <c r="G68" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="89" t="s">
+      <c r="H68" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I68" s="89" t="s">
+      <c r="I68" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="M68" s="89" t="s">
+      <c r="M68" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="N68" s="89" t="s">
+      <c r="N68" s="20" t="s">
         <v>342</v>
       </c>
     </row>
@@ -24735,21 +24705,21 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>500</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -24857,7 +24827,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
       <c r="O53">
@@ -25831,21 +25801,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>10</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -25951,7 +25921,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
       <c r="O53">
@@ -26959,21 +26929,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="88">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="81">
         <v>10</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -27081,7 +27051,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -28047,21 +28017,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>3000</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -28169,7 +28139,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -28282,25 +28252,25 @@
         <v>288</v>
       </c>
     </row>
-    <row r="57" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A57" s="84"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="87"/>
-    </row>
-    <row r="58" s="83" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A58" s="84"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="87"/>
+    <row r="57" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="80"/>
+    </row>
+    <row r="58" s="76" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="80"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="9" t="s">
@@ -29088,21 +29058,21 @@
         <v>583</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>1000</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -29207,13 +29177,13 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="O53" s="82" t="s">
+      <c r="O53" s="75" t="s">
         <v>602</v>
       </c>
-      <c r="P53" s="82" t="s">
+      <c r="P53" s="75" t="s">
         <v>603</v>
       </c>
     </row>
@@ -29253,10 +29223,10 @@
       <c r="M54" t="s">
         <v>263</v>
       </c>
-      <c r="O54" s="82" t="s">
+      <c r="O54" s="75" t="s">
         <v>604</v>
       </c>
-      <c r="P54" s="82" t="s">
+      <c r="P54" s="75" t="s">
         <v>605</v>
       </c>
     </row>
@@ -30181,21 +30151,21 @@
         <v>608</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
         <v>5000</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -30301,7 +30271,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -31272,21 +31242,21 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74">
-        <v>15</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67">
+        <v>15</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -31392,7 +31362,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -31465,10 +31435,10 @@
       <c r="M55" t="s">
         <v>283</v>
       </c>
-      <c r="O55" s="82" t="s">
+      <c r="O55" s="75" t="s">
         <v>610</v>
       </c>
-      <c r="P55" s="82"/>
+      <c r="P55" s="75"/>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:16">
       <c r="A56" s="31" t="s">
@@ -31504,10 +31474,10 @@
       <c r="M56" t="s">
         <v>288</v>
       </c>
-      <c r="O56" s="82" t="s">
+      <c r="O56" s="75" t="s">
         <v>611</v>
       </c>
-      <c r="P56" s="82"/>
+      <c r="P56" s="75"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A57" s="31" t="s">
@@ -31540,10 +31510,10 @@
       <c r="M57" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="O57" s="82" t="s">
+      <c r="O57" s="75" t="s">
         <v>612</v>
       </c>
-      <c r="P57" s="82"/>
+      <c r="P57" s="75"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A58" s="31" t="s">
@@ -31573,10 +31543,10 @@
       <c r="I58" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="O58" s="82" t="s">
+      <c r="O58" s="75" t="s">
         <v>613</v>
       </c>
-      <c r="P58" s="82"/>
+      <c r="P58" s="75"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="9" t="s">
@@ -32487,7 +32457,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -32513,31 +32483,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88461538461538" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="44.5576923076923" style="73" customWidth="1"/>
-    <col min="2" max="2" width="19.8846153846154" style="73" customWidth="1"/>
-    <col min="3" max="3" width="17" style="73" customWidth="1"/>
-    <col min="4" max="8" width="9.88461538461538" style="73"/>
-    <col min="9" max="9" width="31.4423076923077" style="73" customWidth="1"/>
-    <col min="10" max="11" width="9.88461538461538" style="73"/>
-    <col min="12" max="12" width="9.44230769230769" style="73" customWidth="1"/>
-    <col min="13" max="16384" width="9.88461538461538" style="73"/>
+    <col min="1" max="1" width="44.5576923076923" style="66" customWidth="1"/>
+    <col min="2" max="2" width="19.8846153846154" style="66" customWidth="1"/>
+    <col min="3" max="3" width="17" style="66" customWidth="1"/>
+    <col min="4" max="8" width="9.88461538461538" style="66"/>
+    <col min="9" max="9" width="31.4423076923077" style="66" customWidth="1"/>
+    <col min="10" max="11" width="9.88461538461538" style="66"/>
+    <col min="12" max="12" width="9.44230769230769" style="66" customWidth="1"/>
+    <col min="13" max="16384" width="9.88461538461538" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="67" t="s">
         <v>623</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="12.75" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -32584,7 +32554,7 @@
       <c r="B4" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="59">
         <v>31493</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -32596,7 +32566,7 @@
       <c r="F4" s="35">
         <v>91335</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="70" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="35" t="s">
@@ -32605,12 +32575,12 @@
       <c r="I4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="71"/>
       <c r="L4" s="13"/>
       <c r="M4" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="74" t="s">
         <v>624</v>
       </c>
     </row>
@@ -32836,7 +32806,7 @@
       <c r="B31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>31077</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -32871,7 +32841,7 @@
       <c r="B35" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>31879</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -32906,7 +32876,7 @@
       <c r="B50" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="59">
         <v>31674</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -32965,7 +32935,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="71" t="s">
+      <c r="M53" s="65" t="s">
         <v>274</v>
       </c>
     </row>
@@ -33366,527 +33336,527 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="73" t="s">
+      <c r="D66" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="G66" s="73" t="s">
+      <c r="G66" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H66" s="73" t="s">
+      <c r="H66" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="M66" s="73" t="s">
+      <c r="M66" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="N66" s="73" t="s">
+      <c r="N66" s="66" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="D67" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="73" t="s">
+      <c r="D67" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="G67" s="73" t="s">
+      <c r="G67" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="H67" s="73" t="s">
+      <c r="H67" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="I67" s="73" t="s">
+      <c r="I67" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="M67" s="73" t="s">
+      <c r="M67" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="N67" s="73" t="s">
+      <c r="N67" s="66" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="73" t="s">
+      <c r="C68" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="D68" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="73" t="s">
+      <c r="D68" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="G68" s="73" t="s">
+      <c r="G68" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H68" s="73" t="s">
+      <c r="H68" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="I68" s="73" t="s">
+      <c r="I68" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="M68" s="73" t="s">
+      <c r="M68" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="N68" s="73" t="s">
+      <c r="N68" s="66" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="73" t="s">
+      <c r="C69" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="D69" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="73">
+      <c r="D69" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="66">
         <v>92253</v>
       </c>
-      <c r="G69" s="73" t="s">
+      <c r="G69" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H69" s="73" t="s">
+      <c r="H69" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="I69" s="73" t="s">
+      <c r="I69" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="M69" s="73" t="s">
+      <c r="M69" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="N69" s="73" t="s">
+      <c r="N69" s="66" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="73" t="s">
+      <c r="C70" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="D70" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="73">
+      <c r="D70" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="66">
         <v>93004</v>
       </c>
-      <c r="G70" s="73" t="s">
+      <c r="G70" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="73" t="s">
+      <c r="H70" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="73" t="s">
+      <c r="I70" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="M70" s="73" t="s">
+      <c r="M70" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="N70" s="73" t="s">
+      <c r="N70" s="66" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="D71" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="73">
+      <c r="D71" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="66">
         <v>92880</v>
       </c>
-      <c r="G71" s="73" t="s">
+      <c r="G71" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H71" s="73" t="s">
+      <c r="H71" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="I71" s="73" t="s">
+      <c r="I71" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="M71" s="73" t="s">
+      <c r="M71" s="66" t="s">
         <v>356</v>
       </c>
-      <c r="N71" s="73" t="s">
+      <c r="N71" s="66" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="B72" s="73" t="s">
+      <c r="B72" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="C72" s="73" t="s">
+      <c r="C72" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="D72" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="73">
+      <c r="D72" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="66">
         <v>95127</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H72" s="73" t="s">
+      <c r="H72" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="I72" s="73" t="s">
+      <c r="I72" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="M72" s="73" t="s">
+      <c r="M72" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="N72" s="73" t="s">
+      <c r="N72" s="66" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="73">
+      <c r="D73" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="66">
         <v>94804</v>
       </c>
-      <c r="G73" s="73" t="s">
+      <c r="G73" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="73" t="s">
+      <c r="H73" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="I73" s="73" t="s">
+      <c r="I73" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="M73" s="73" t="s">
+      <c r="M73" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="N73" s="73" t="s">
+      <c r="N73" s="66" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="73" t="s">
+      <c r="C74" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="D74" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="73">
+      <c r="D74" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="66">
         <v>94551</v>
       </c>
-      <c r="G74" s="73" t="s">
+      <c r="G74" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="73" t="s">
+      <c r="H74" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="I74" s="73" t="s">
+      <c r="I74" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="M74" s="73" t="s">
+      <c r="M74" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="N74" s="73" t="s">
+      <c r="N74" s="66" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="66" t="s">
         <v>373</v>
       </c>
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="73" t="s">
+      <c r="C75" s="66" t="s">
         <v>454</v>
       </c>
-      <c r="D75" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="73">
+      <c r="D75" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="66">
         <v>94530</v>
       </c>
-      <c r="G75" s="73" t="s">
+      <c r="G75" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="H75" s="73" t="s">
+      <c r="H75" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="I75" s="73" t="s">
+      <c r="I75" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="M75" s="73" t="s">
+      <c r="M75" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="N75" s="73" t="s">
+      <c r="N75" s="66" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="73" t="s">
+      <c r="A76" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="D76" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="73">
+      <c r="D76" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="66">
         <v>91722</v>
       </c>
-      <c r="G76" s="73" t="s">
+      <c r="G76" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="I76" s="73" t="s">
+      <c r="I76" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="M76" s="73" t="s">
+      <c r="M76" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="N76" s="73" t="s">
+      <c r="N76" s="66" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="73" t="s">
+      <c r="B77" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="D77" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="73">
+      <c r="D77" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="66">
         <v>90260</v>
       </c>
-      <c r="G77" s="73" t="s">
+      <c r="G77" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="H77" s="73" t="s">
+      <c r="H77" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="I77" s="73" t="s">
+      <c r="I77" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="M77" s="73" t="s">
+      <c r="M77" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="N77" s="73" t="s">
+      <c r="N77" s="66" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="73" t="s">
+      <c r="A78" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="C78" s="73" t="s">
+      <c r="C78" s="66" t="s">
         <v>457</v>
       </c>
-      <c r="D78" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="73">
+      <c r="D78" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="66">
         <v>90650</v>
       </c>
-      <c r="G78" s="73" t="s">
+      <c r="G78" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="73" t="s">
+      <c r="H78" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="I78" s="73" t="s">
+      <c r="I78" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="M78" s="73" t="s">
+      <c r="M78" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="N78" s="73" t="s">
+      <c r="N78" s="66" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="73" t="s">
+      <c r="A79" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="D79" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="73">
+      <c r="D79" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="66">
         <v>90066</v>
       </c>
-      <c r="G79" s="73" t="s">
+      <c r="G79" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="H79" s="73" t="s">
+      <c r="H79" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="I79" s="73" t="s">
+      <c r="I79" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="M79" s="73" t="s">
+      <c r="M79" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="N79" s="73" t="s">
+      <c r="N79" s="66" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="73" t="s">
+      <c r="B80" s="66" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="66" t="s">
         <v>459</v>
       </c>
-      <c r="D80" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="73">
+      <c r="D80" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="66">
         <v>90650</v>
       </c>
-      <c r="G80" s="73" t="s">
+      <c r="G80" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="H80" s="73" t="s">
+      <c r="H80" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="73" t="s">
+      <c r="I80" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="M80" s="73" t="s">
+      <c r="M80" s="66" t="s">
         <v>401</v>
       </c>
-      <c r="N80" s="73" t="s">
+      <c r="N80" s="66" t="s">
         <v>402</v>
       </c>
     </row>
@@ -34214,7 +34184,7 @@
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="72" t="s">
         <v>628</v>
       </c>
       <c r="C12" s="5">
@@ -34471,7 +34441,7 @@
       <c r="I73" t="s">
         <v>659</v>
       </c>
-      <c r="K73" s="80">
+      <c r="K73" s="73">
         <v>44648</v>
       </c>
       <c r="M73" t="s">
@@ -34742,21 +34712,21 @@
     <col min="13" max="13" width="13.1153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="73" customFormat="1" ht="17.6" spans="1:12">
-      <c r="A2" s="74" t="s">
+    <row r="2" s="66" customFormat="1" ht="17.6" spans="1:12">
+      <c r="A2" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" s="35" customFormat="1" ht="16" customHeight="1" spans="1:12">
       <c r="A3" s="35" t="s">
@@ -34797,13 +34767,13 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="13" customHeight="1" spans="1:14">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="69" t="s">
         <v>578</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="59">
         <v>31493</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -34815,7 +34785,7 @@
       <c r="F4" s="35">
         <v>91335</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="70" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="35" t="s">
@@ -34827,8 +34797,8 @@
       <c r="J4" s="15">
         <v>6710</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="75"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="15" t="s">
         <v>410</v>
       </c>
@@ -40203,10 +40173,10 @@
   <sheetPr/>
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -40671,7 +40641,7 @@
       <c r="J15" s="1">
         <v>2.25</v>
       </c>
-      <c r="K15" s="64"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:13">
@@ -40772,7 +40742,7 @@
         <v>735</v>
       </c>
       <c r="J19" s="1">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -40832,7 +40802,7 @@
       <c r="B22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>31889</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -40866,7 +40836,7 @@
       <c r="B23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32012</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -40900,7 +40870,7 @@
       <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32357</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -40934,7 +40904,7 @@
       <c r="B25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>32344</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -40968,7 +40938,7 @@
       <c r="B26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>31834</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -40998,7 +40968,7 @@
     <row r="27" ht="14.25" customHeight="1" spans="1:12">
       <c r="A27" s="31"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32077</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -41030,7 +41000,7 @@
       <c r="B28" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32274</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -41064,7 +41034,7 @@
       <c r="B29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>32087</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -41098,7 +41068,7 @@
       <c r="B30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31654</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -41132,7 +41102,7 @@
       <c r="B31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>31077</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -41162,7 +41132,7 @@
     <row r="32" ht="14.25" customHeight="1" spans="1:12">
       <c r="A32" s="31"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>32510</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -41194,7 +41164,7 @@
       <c r="B33" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="59">
         <v>31657</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -41228,7 +41198,7 @@
       <c r="B34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>32205</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -41262,7 +41232,7 @@
       <c r="B35" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>31879</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -41296,7 +41266,7 @@
       <c r="B36" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32281</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -41330,7 +41300,7 @@
       <c r="B37" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>32422</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -41360,7 +41330,7 @@
     <row r="38" ht="14.25" customHeight="1" spans="1:12">
       <c r="A38" s="31"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31662</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -41392,7 +41362,7 @@
       <c r="B39" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31389</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -41422,7 +41392,7 @@
     <row r="40" ht="14.25" customHeight="1" spans="1:12">
       <c r="A40" s="31"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>31817</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -41450,7 +41420,7 @@
     <row r="41" ht="14.25" customHeight="1" spans="1:12">
       <c r="A41" s="31"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>32487</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -41482,7 +41452,7 @@
       <c r="B42" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31666</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -41516,7 +41486,7 @@
       <c r="B43" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>31675</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -41550,7 +41520,7 @@
       <c r="B44" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>32490</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -41584,7 +41554,7 @@
       <c r="B45" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>31669</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -41618,7 +41588,7 @@
       <c r="B46" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>32528</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -41652,7 +41622,7 @@
       <c r="B47" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31548</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -41686,7 +41656,7 @@
       <c r="B48" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>31672</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -41714,7 +41684,7 @@
     <row r="49" ht="14.25" customHeight="1" spans="1:12">
       <c r="A49" s="31"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="72">
+      <c r="C49" s="59">
         <v>32105</v>
       </c>
       <c r="D49" s="35" t="s">
@@ -41742,7 +41712,7 @@
     <row r="50" ht="14.25" customHeight="1" spans="1:12">
       <c r="A50" s="31"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="72">
+      <c r="C50" s="59">
         <v>31674</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -41770,7 +41740,7 @@
     <row r="51" ht="14.25" customHeight="1" spans="1:12">
       <c r="A51" s="31"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="72"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
@@ -41788,7 +41758,7 @@
       <c r="B52" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="72">
+      <c r="C52" s="59">
         <v>32357</v>
       </c>
       <c r="D52" s="35" t="s">
@@ -41818,7 +41788,7 @@
     <row r="53" ht="14.25" customHeight="1" spans="1:12">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="72">
+      <c r="C53" s="59">
         <v>31676</v>
       </c>
       <c r="D53" s="35" t="s">
@@ -41846,7 +41816,7 @@
     <row r="54" ht="14.25" customHeight="1" spans="1:12">
       <c r="A54" s="31"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="72">
+      <c r="C54" s="59">
         <v>31830</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -41874,7 +41844,7 @@
     <row r="55" ht="14.25" customHeight="1" spans="1:12">
       <c r="A55" s="31"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="72">
+      <c r="C55" s="59">
         <v>31566</v>
       </c>
       <c r="D55" s="35" t="s">
@@ -41902,7 +41872,7 @@
     <row r="56" ht="14.25" customHeight="1" spans="1:12">
       <c r="A56" s="31"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="72">
+      <c r="C56" s="59">
         <v>31679</v>
       </c>
       <c r="D56" s="35" t="s">
@@ -41930,7 +41900,7 @@
     <row r="57" ht="14.25" customHeight="1" spans="1:12">
       <c r="A57" s="31"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="72">
+      <c r="C57" s="59">
         <v>32417</v>
       </c>
       <c r="D57" s="35" t="s">
@@ -41957,7 +41927,7 @@
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A58" s="31"/>
-      <c r="C58" s="72">
+      <c r="C58" s="59">
         <v>31469</v>
       </c>
       <c r="D58" s="35" t="s">
@@ -41981,7 +41951,7 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A59" s="31"/>
-      <c r="C59" s="72">
+      <c r="C59" s="59">
         <v>31657</v>
       </c>
       <c r="D59" s="35" t="s">
@@ -42005,7 +41975,7 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A60" s="31"/>
-      <c r="C60" s="72">
+      <c r="C60" s="59">
         <v>32245</v>
       </c>
       <c r="D60" s="35" t="s">
@@ -42030,7 +42000,7 @@
     <row r="61" ht="17.6" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="72">
+      <c r="C61" s="59">
         <v>31865</v>
       </c>
       <c r="D61" s="35" t="s">
@@ -45815,7 +45785,7 @@
       <c r="M52" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="N52" s="117" t="s">
+      <c r="N52" s="109" t="s">
         <v>945</v>
       </c>
     </row>
@@ -50904,7 +50874,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -51532,7 +51502,7 @@
       <c r="J20" s="1">
         <v>1550</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:12">
@@ -51698,7 +51668,7 @@
       </c>
     </row>
     <row r="26" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="50" t="s">
@@ -51730,7 +51700,7 @@
       </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
-      <c r="M26" s="67" t="s">
+      <c r="M26" s="62" t="s">
         <v>967</v>
       </c>
     </row>
@@ -51920,7 +51890,7 @@
       </c>
     </row>
     <row r="32" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="50" t="s">
@@ -51957,7 +51927,7 @@
       </c>
     </row>
     <row r="33" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="58" t="s">
         <v>156</v>
       </c>
       <c r="B33" s="50" t="s">
@@ -51994,7 +51964,7 @@
       </c>
     </row>
     <row r="34" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="58" t="s">
         <v>162</v>
       </c>
       <c r="B34" s="50" t="s">
@@ -52031,7 +52001,7 @@
       </c>
     </row>
     <row r="35" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="58" t="s">
         <v>168</v>
       </c>
       <c r="B35" s="50" t="s">
@@ -52289,40 +52259,40 @@
         <v>963</v>
       </c>
     </row>
-    <row r="42" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A42" s="60" t="s">
+    <row r="42" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A42" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="59">
         <v>37145</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="62" t="s">
+      <c r="D42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="35" t="s">
         <v>779</v>
       </c>
-      <c r="G42" s="62" t="s">
+      <c r="G42" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="I42" s="65" t="s">
+      <c r="I42" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="J42" s="66">
+      <c r="J42" s="21">
         <v>1875</v>
       </c>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="68" t="s">
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="15" t="s">
         <v>982</v>
       </c>
     </row>
@@ -52581,7 +52551,7 @@
       </c>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
-      <c r="M49" s="69" t="s">
+      <c r="M49" s="63" t="s">
         <v>987</v>
       </c>
     </row>
@@ -52623,7 +52593,7 @@
       </c>
     </row>
     <row r="51" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A51" s="63"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="55"/>
       <c r="C51" s="51"/>
       <c r="D51" s="52"/>
@@ -52669,7 +52639,7 @@
       </c>
       <c r="K52" s="55"/>
       <c r="L52" s="55"/>
-      <c r="M52" s="67" t="s">
+      <c r="M52" s="62" t="s">
         <v>988</v>
       </c>
     </row>
@@ -53064,7 +53034,7 @@
       <c r="J63">
         <v>1150</v>
       </c>
-      <c r="M63" s="70" t="s">
+      <c r="M63" s="64" t="s">
         <v>987</v>
       </c>
     </row>
@@ -53142,7 +53112,7 @@
       <c r="B66" t="s">
         <v>329</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="65">
         <v>37685</v>
       </c>
       <c r="D66" t="s">
@@ -53177,7 +53147,7 @@
       <c r="B67" t="s">
         <v>334</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="65">
         <v>37463</v>
       </c>
       <c r="D67" t="s">
@@ -53215,7 +53185,7 @@
       <c r="B68" t="s">
         <v>339</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="65">
         <v>37314</v>
       </c>
       <c r="D68" t="s">
@@ -53253,7 +53223,7 @@
       <c r="B69" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="65">
         <v>37719</v>
       </c>
       <c r="D69" t="s">
@@ -53285,7 +53255,7 @@
       <c r="B70" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="65">
         <v>37268</v>
       </c>
       <c r="D70" t="s">
@@ -53317,7 +53287,7 @@
       <c r="B71" t="s">
         <v>354</v>
       </c>
-      <c r="C71" s="71">
+      <c r="C71" s="65">
         <v>37016</v>
       </c>
       <c r="D71" t="s">
@@ -53349,7 +53319,7 @@
       <c r="B72" t="s">
         <v>359</v>
       </c>
-      <c r="C72" s="71">
+      <c r="C72" s="65">
         <v>37445</v>
       </c>
       <c r="D72" t="s">
@@ -53384,7 +53354,7 @@
       <c r="B73" t="s">
         <v>364</v>
       </c>
-      <c r="C73" s="71">
+      <c r="C73" s="65">
         <v>37666</v>
       </c>
       <c r="D73" t="s">
@@ -53419,7 +53389,7 @@
       <c r="B74" t="s">
         <v>369</v>
       </c>
-      <c r="C74" s="71">
+      <c r="C74" s="65">
         <v>37654</v>
       </c>
       <c r="D74" t="s">
@@ -53451,7 +53421,7 @@
       <c r="B75" t="s">
         <v>374</v>
       </c>
-      <c r="C75" s="71">
+      <c r="C75" s="65">
         <v>37075</v>
       </c>
       <c r="D75" t="s">
@@ -53486,7 +53456,7 @@
       <c r="B76" t="s">
         <v>379</v>
       </c>
-      <c r="C76" s="71">
+      <c r="C76" s="65">
         <v>37107</v>
       </c>
       <c r="D76" t="s">
@@ -53518,7 +53488,7 @@
       <c r="B77" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="71">
+      <c r="C77" s="65">
         <v>37292</v>
       </c>
       <c r="D77" t="s">
@@ -53550,7 +53520,7 @@
       <c r="B78" t="s">
         <v>389</v>
       </c>
-      <c r="C78" s="71">
+      <c r="C78" s="65">
         <v>37727</v>
       </c>
       <c r="D78" t="s">
@@ -53571,7 +53541,7 @@
       <c r="I78" t="s">
         <v>679</v>
       </c>
-      <c r="M78" s="70" t="s">
+      <c r="M78" s="64" t="s">
         <v>963</v>
       </c>
     </row>
@@ -53582,7 +53552,7 @@
       <c r="B79" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="71">
+      <c r="C79" s="65">
         <v>36984</v>
       </c>
       <c r="D79" t="s">
@@ -53614,7 +53584,7 @@
       <c r="B80" t="s">
         <v>399</v>
       </c>
-      <c r="C80" s="71">
+      <c r="C80" s="65">
         <v>37653</v>
       </c>
       <c r="D80" t="s">
@@ -68999,10 +68969,10 @@
       <c r="F3" s="39">
         <v>91335</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="93" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="39" t="s">
@@ -69301,7 +69271,7 @@
       <c r="J11" s="1">
         <v>100</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="61">
         <v>44310</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -69455,7 +69425,7 @@
       </c>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="102" t="s">
+      <c r="M15" s="94" t="s">
         <v>472</v>
       </c>
     </row>
@@ -69628,7 +69598,7 @@
       <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="59">
         <v>32012</v>
       </c>
       <c r="D22" s="35" t="s">
@@ -69665,7 +69635,7 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="59">
         <v>32357</v>
       </c>
       <c r="D23" s="35" t="s">
@@ -69702,7 +69672,7 @@
       <c r="B24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="59">
         <v>32344</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -69739,7 +69709,7 @@
       <c r="B25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="59">
         <v>31834</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -69776,7 +69746,7 @@
       <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="59">
         <v>32077</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -69813,7 +69783,7 @@
       <c r="B27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="59">
         <v>32274</v>
       </c>
       <c r="D27" s="35" t="s">
@@ -69850,7 +69820,7 @@
       <c r="B28" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="59">
         <v>32087</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -69887,7 +69857,7 @@
       <c r="B29" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="59">
         <v>31654</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -69924,7 +69894,7 @@
       <c r="B30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="59">
         <v>31077</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -69961,7 +69931,7 @@
       <c r="B31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="59">
         <v>32510</v>
       </c>
       <c r="D31" s="35" t="s">
@@ -69998,7 +69968,7 @@
       <c r="B32" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="59">
         <v>31657</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -70035,7 +70005,7 @@
       <c r="B33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="59">
         <v>32205</v>
       </c>
       <c r="D33" s="35" t="s">
@@ -70072,7 +70042,7 @@
       <c r="B34" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="59">
         <v>31879</v>
       </c>
       <c r="D34" s="35" t="s">
@@ -70109,7 +70079,7 @@
       <c r="B35" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="59">
         <v>32281</v>
       </c>
       <c r="D35" s="35" t="s">
@@ -70146,7 +70116,7 @@
       <c r="B36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="59">
         <v>32422</v>
       </c>
       <c r="D36" s="35" t="s">
@@ -70183,7 +70153,7 @@
       <c r="B37" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="59">
         <v>31662</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -70220,7 +70190,7 @@
       <c r="B38" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="59">
         <v>31389</v>
       </c>
       <c r="D38" s="35" t="s">
@@ -70257,7 +70227,7 @@
       <c r="B39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C39" s="59">
         <v>31817</v>
       </c>
       <c r="D39" s="35" t="s">
@@ -70294,7 +70264,7 @@
       <c r="B40" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>32487</v>
       </c>
       <c r="D40" s="35" t="s">
@@ -70331,7 +70301,7 @@
       <c r="B41" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="59">
         <v>31666</v>
       </c>
       <c r="D41" s="35" t="s">
@@ -70368,7 +70338,7 @@
       <c r="B42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="59">
         <v>31675</v>
       </c>
       <c r="D42" s="35" t="s">
@@ -70405,7 +70375,7 @@
       <c r="B43" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="59">
         <v>32490</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -70442,7 +70412,7 @@
       <c r="B44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="59">
         <v>31669</v>
       </c>
       <c r="D44" s="35" t="s">
@@ -70479,7 +70449,7 @@
       <c r="B45" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="59">
         <v>32528</v>
       </c>
       <c r="D45" s="35" t="s">
@@ -70516,7 +70486,7 @@
       <c r="B46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="59">
         <v>31548</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -70551,7 +70521,7 @@
       <c r="B47" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="59">
         <v>31672</v>
       </c>
       <c r="D47" s="35" t="s">
@@ -70588,7 +70558,7 @@
       <c r="B48" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="59">
         <v>32105</v>
       </c>
       <c r="D48" s="35" t="s">
@@ -71336,10 +71306,10 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="$A42:$XFD42"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -73085,7 +73055,7 @@
       <c r="B21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="59">
         <v>31889</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -74330,46 +74300,46 @@
         <v>469</v>
       </c>
     </row>
-    <row r="13" s="96" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
-      <c r="A13" s="97" t="s">
+    <row r="13" s="88" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
+      <c r="A13" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="90">
         <v>32630</v>
       </c>
-      <c r="D13" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="97">
+      <c r="D13" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="89">
         <v>95133</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="89">
         <v>1650</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="96" t="s">
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="N13" s="96" t="s">
+      <c r="N13" s="88" t="s">
         <v>470</v>
       </c>
-      <c r="P13" s="96" t="s">
+      <c r="P13" s="88" t="s">
         <v>510</v>
       </c>
     </row>
@@ -74588,7 +74558,7 @@
     <row r="21" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A21" s="23"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13320" tabRatio="928" firstSheet="37" activeTab="39"/>
+    <workbookView windowWidth="30240" windowHeight="13320" tabRatio="928" firstSheet="30" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14716" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14822" uniqueCount="1027">
   <si>
     <t>acop.com</t>
   </si>
@@ -3150,6 +3150,9 @@
     <t>职业：Computer/IT/Data Processing, Education, Healthcare Service, Manufacturing(多选) 2000</t>
   </si>
   <si>
+    <t>男 2016-1-5</t>
+  </si>
+  <si>
     <t>surveys.gobranded.com/users/sign-up/</t>
   </si>
   <si>
@@ -3186,10 +3189,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3281,7 +3284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3289,35 +3292,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3339,6 +3313,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3348,10 +3351,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3379,9 +3382,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3393,28 +3411,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3479,19 +3482,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3503,43 +3512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3557,7 +3542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,7 +3566,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3581,85 +3656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3688,6 +3691,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3699,15 +3744,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3738,15 +3774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3761,177 +3788,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3975,11 +3978,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5161,7 +5164,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="59">
@@ -5198,7 +5201,7 @@
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="59">
@@ -5235,7 +5238,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="59">
@@ -5272,7 +5275,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="59">
@@ -5309,7 +5312,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="59">
@@ -5346,7 +5349,7 @@
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="59">
@@ -5383,7 +5386,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="59">
@@ -5420,7 +5423,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="59">
@@ -5457,7 +5460,7 @@
       <c r="A30" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="59">
@@ -5494,7 +5497,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="59">
@@ -5531,7 +5534,7 @@
       <c r="A32" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="59">
@@ -5568,7 +5571,7 @@
       <c r="A33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="59">
@@ -5605,7 +5608,7 @@
       <c r="A34" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="59">
@@ -5642,7 +5645,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="59">
@@ -5679,7 +5682,7 @@
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="59">
@@ -5716,7 +5719,7 @@
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="59">
@@ -5753,7 +5756,7 @@
       <c r="A38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="59">
@@ -5790,7 +5793,7 @@
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="59">
@@ -5864,7 +5867,7 @@
       <c r="A41" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C41" s="59">
@@ -5901,7 +5904,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="59">
@@ -5938,7 +5941,7 @@
       <c r="A43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C43" s="59">
@@ -5975,7 +5978,7 @@
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C44" s="59">
@@ -6012,7 +6015,7 @@
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="59">
@@ -6049,7 +6052,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="59">
@@ -6086,7 +6089,7 @@
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="59">
@@ -6123,7 +6126,7 @@
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C48" s="59">
@@ -6160,7 +6163,7 @@
       <c r="A49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C49" s="59">
@@ -9112,7 +9115,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="59">
@@ -9149,7 +9152,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="59">
@@ -9186,7 +9189,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="59">
@@ -9223,7 +9226,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="59">
@@ -9260,7 +9263,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="59">
@@ -9297,7 +9300,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="59">
@@ -9334,7 +9337,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="59">
@@ -9371,7 +9374,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="59">
@@ -9408,7 +9411,7 @@
       <c r="A29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="59">
@@ -9445,7 +9448,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="59">
@@ -9482,7 +9485,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="59">
@@ -9519,7 +9522,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="59">
@@ -9556,7 +9559,7 @@
       <c r="A33" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="59">
@@ -9593,7 +9596,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="59">
@@ -9630,7 +9633,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="59">
@@ -9667,7 +9670,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="59">
@@ -9704,7 +9707,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="59">
@@ -9741,7 +9744,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="59">
@@ -9811,7 +9814,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="59">
@@ -9848,7 +9851,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="59">
@@ -9883,7 +9886,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="59">
@@ -9920,7 +9923,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="59">
@@ -9957,7 +9960,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="59">
@@ -9994,7 +9997,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="59">
@@ -10031,7 +10034,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="59">
@@ -10068,7 +10071,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="59">
@@ -10105,7 +10108,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="59">
@@ -11368,7 +11371,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="59">
@@ -11409,7 +11412,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="59">
@@ -11450,7 +11453,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="59">
@@ -11493,7 +11496,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="59">
@@ -11536,7 +11539,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="59">
@@ -11577,7 +11580,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="59">
@@ -11620,7 +11623,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="59">
@@ -11663,7 +11666,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="59">
@@ -11704,7 +11707,7 @@
       <c r="A29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="59">
@@ -11745,7 +11748,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="59">
@@ -11786,7 +11789,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="59">
@@ -11827,7 +11830,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="59">
@@ -11911,7 +11914,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="59">
@@ -11952,7 +11955,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="59">
@@ -11995,7 +11998,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="59">
@@ -12038,7 +12041,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="59">
@@ -12081,7 +12084,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="59">
@@ -12163,7 +12166,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="59">
@@ -12204,7 +12207,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="59">
@@ -12247,7 +12250,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="59">
@@ -12290,7 +12293,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="59">
@@ -12333,7 +12336,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="59">
@@ -12376,7 +12379,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="59">
@@ -12417,7 +12420,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="59">
@@ -12458,7 +12461,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="59">
@@ -12499,7 +12502,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="59">
@@ -13173,7 +13176,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="59">
@@ -13208,7 +13211,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="59">
@@ -13243,7 +13246,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="59">
@@ -13278,7 +13281,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="59">
@@ -13313,7 +13316,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="59">
@@ -13348,7 +13351,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="59">
@@ -13383,7 +13386,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="59">
@@ -13418,7 +13421,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="59">
@@ -13453,7 +13456,7 @@
       <c r="A29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="59">
@@ -13488,7 +13491,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="59">
@@ -13523,7 +13526,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="59">
@@ -13558,7 +13561,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="59">
@@ -13593,7 +13596,7 @@
       <c r="A33" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="59">
@@ -13628,7 +13631,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="59">
@@ -13663,7 +13666,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="59">
@@ -13698,7 +13701,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="59">
@@ -13733,7 +13736,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="59">
@@ -13768,7 +13771,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="59">
@@ -13838,7 +13841,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="59">
@@ -13873,7 +13876,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="59">
@@ -13908,7 +13911,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="59">
@@ -13943,7 +13946,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="59">
@@ -13978,7 +13981,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="59">
@@ -14013,7 +14016,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="59">
@@ -14048,7 +14051,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="59">
@@ -14083,7 +14086,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="59">
@@ -14118,7 +14121,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="59">
@@ -14640,7 +14643,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="59">
@@ -14675,7 +14678,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="59">
@@ -14710,7 +14713,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="59">
@@ -14780,7 +14783,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="59">
@@ -14815,7 +14818,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="59">
@@ -14850,7 +14853,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="59">
@@ -14885,7 +14888,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="59">
@@ -14955,7 +14958,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="59">
@@ -14990,7 +14993,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="59">
@@ -15025,7 +15028,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="59">
@@ -15095,7 +15098,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="59">
@@ -15130,7 +15133,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="59">
@@ -15307,7 +15310,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="59">
@@ -15447,7 +15450,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="59">
@@ -15480,7 +15483,7 @@
     </row>
     <row r="45" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A45" s="2"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="59"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -18756,7 +18759,7 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>578</v>
       </c>
       <c r="C4" s="59">
@@ -19007,7 +19010,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="59">
@@ -19044,7 +19047,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="59">
@@ -22102,7 +22105,7 @@
     </row>
     <row r="31" s="15" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A31" s="23"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="59"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -22277,7 +22280,7 @@
     </row>
     <row r="39" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
       <c r="A39" s="2"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="59"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -22378,7 +22381,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="59">
@@ -22441,7 +22444,7 @@
       <c r="A49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C49" s="59">
@@ -32548,10 +32551,10 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="12" customHeight="1" spans="1:14">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>578</v>
       </c>
       <c r="C4" s="59">
@@ -32576,7 +32579,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="71"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="15" t="s">
         <v>410</v>
       </c>
@@ -32803,7 +32806,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="59">
@@ -32838,7 +32841,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="59">
@@ -35799,7 +35802,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="9" t="s">
@@ -35964,8 +35967,8 @@
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -36614,7 +36617,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="3">
@@ -36648,7 +36651,7 @@
       <c r="A23" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3">
@@ -36685,7 +36688,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -36722,7 +36725,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="3">
@@ -36759,7 +36762,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="3">
@@ -36796,7 +36799,7 @@
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="3">
@@ -36833,7 +36836,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="3">
@@ -36870,7 +36873,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="3">
@@ -36907,7 +36910,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -36944,7 +36947,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="3">
@@ -36981,7 +36984,7 @@
       <c r="A32" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="3">
@@ -37018,7 +37021,7 @@
       <c r="A33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="3">
@@ -37055,7 +37058,7 @@
       <c r="A34" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="3">
@@ -37092,7 +37095,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="3">
@@ -37129,7 +37132,7 @@
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="3">
@@ -37166,7 +37169,7 @@
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="3">
@@ -37203,7 +37206,7 @@
       <c r="A38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="3">
@@ -37240,7 +37243,7 @@
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="3">
@@ -37314,7 +37317,7 @@
       <c r="A41" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C41" s="3">
@@ -37351,7 +37354,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -37388,7 +37391,7 @@
       <c r="A43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C43" s="3">
@@ -37425,7 +37428,7 @@
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C44" s="3">
@@ -37462,7 +37465,7 @@
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="3">
@@ -37499,7 +37502,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="3">
@@ -37536,7 +37539,7 @@
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="3">
@@ -37573,7 +37576,7 @@
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C48" s="3">
@@ -37610,7 +37613,7 @@
       <c r="A49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C49" s="3">
@@ -40173,10 +40176,10 @@
   <sheetPr/>
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -40365,7 +40368,7 @@
         <v>848</v>
       </c>
       <c r="J7" s="1">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:12">
@@ -40439,7 +40442,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
@@ -40605,7 +40608,7 @@
         <v>862</v>
       </c>
       <c r="J14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -40639,7 +40642,7 @@
         <v>865</v>
       </c>
       <c r="J15" s="1">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K15" s="61"/>
       <c r="L15" s="1"/>
@@ -40799,7 +40802,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="59">
@@ -40824,7 +40827,7 @@
         <v>871</v>
       </c>
       <c r="J22" s="1">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -40833,7 +40836,7 @@
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="59">
@@ -40858,7 +40861,7 @@
         <v>873</v>
       </c>
       <c r="J23" s="1">
-        <v>14</v>
+        <v>15.25</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -40867,7 +40870,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="59">
@@ -40892,7 +40895,7 @@
         <v>875</v>
       </c>
       <c r="J24" s="1">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -40901,7 +40904,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="59">
@@ -40935,7 +40938,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="59">
@@ -40997,7 +41000,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="59">
@@ -41031,7 +41034,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="59">
@@ -41065,7 +41068,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="59">
@@ -41099,7 +41102,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="59">
@@ -41124,7 +41127,7 @@
         <v>890</v>
       </c>
       <c r="J31" s="1">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -41161,7 +41164,7 @@
       <c r="A33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="59">
@@ -41195,7 +41198,7 @@
       <c r="A34" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="59">
@@ -41263,7 +41266,7 @@
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="59">
@@ -41297,7 +41300,7 @@
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="59">
@@ -41359,7 +41362,7 @@
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="59">
@@ -41449,7 +41452,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="59">
@@ -41474,7 +41477,7 @@
         <v>912</v>
       </c>
       <c r="J42" s="1">
-        <v>12.5</v>
+        <v>13.25</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -41483,7 +41486,7 @@
       <c r="A43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C43" s="59">
@@ -41517,7 +41520,7 @@
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C44" s="59">
@@ -41551,7 +41554,7 @@
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="59">
@@ -41585,7 +41588,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="59">
@@ -41619,7 +41622,7 @@
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="59">
@@ -41653,7 +41656,7 @@
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C48" s="59">
@@ -42202,7 +42205,6 @@
     <hyperlink ref="B26" r:id="rId52" display="Har@123456"/>
     <hyperlink ref="A52" r:id="rId53" display="TwilleyxnxCanonzwr76520@gmail.com"/>
     <hyperlink ref="A15" r:id="rId54" display="henryathenau92716@gmail.com"/>
-    <hyperlink ref="A10" r:id="rId55" display="beckermariela8@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -42715,7 +42717,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3">
@@ -42747,7 +42749,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -42782,7 +42784,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -42817,7 +42819,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -42852,7 +42854,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -42887,7 +42889,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -42922,7 +42924,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -42957,7 +42959,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -42992,7 +42994,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -43027,7 +43029,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -43062,7 +43064,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -43097,7 +43099,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -43132,7 +43134,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -43167,7 +43169,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -43202,7 +43204,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -43237,7 +43239,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -43272,7 +43274,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -43307,7 +43309,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -43377,7 +43379,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -43412,7 +43414,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -43447,7 +43449,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -43484,7 +43486,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -43519,7 +43521,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -43554,7 +43556,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -43589,7 +43591,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -43624,7 +43626,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -43659,7 +43661,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -44745,7 +44747,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="3">
@@ -44780,7 +44782,7 @@
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3">
@@ -44815,7 +44817,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -44850,7 +44852,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="3">
@@ -44885,7 +44887,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="3">
@@ -44920,7 +44922,7 @@
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="3">
@@ -44955,7 +44957,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="3">
@@ -44990,7 +44992,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="3">
@@ -45025,7 +45027,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -45060,7 +45062,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="3">
@@ -45095,7 +45097,7 @@
       <c r="A32" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="3">
@@ -45130,7 +45132,7 @@
       <c r="A33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="3">
@@ -45165,7 +45167,7 @@
       <c r="A34" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="3">
@@ -45200,7 +45202,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="3">
@@ -45235,7 +45237,7 @@
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="3">
@@ -45270,7 +45272,7 @@
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="3">
@@ -45305,7 +45307,7 @@
       <c r="A38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="3">
@@ -45340,7 +45342,7 @@
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="3">
@@ -45410,7 +45412,7 @@
       <c r="A41" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C41" s="3">
@@ -45445,7 +45447,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -45480,7 +45482,7 @@
       <c r="A43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C43" s="3">
@@ -45515,7 +45517,7 @@
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C44" s="3">
@@ -45550,7 +45552,7 @@
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="3">
@@ -45585,7 +45587,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="3">
@@ -45620,7 +45622,7 @@
       <c r="A47" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="3">
@@ -45655,7 +45657,7 @@
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C48" s="3">
@@ -45690,7 +45692,7 @@
       <c r="A49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C49" s="3">
@@ -47410,7 +47412,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3">
@@ -47442,7 +47444,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -47477,7 +47479,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -47512,7 +47514,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -47547,7 +47549,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -47582,7 +47584,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -47617,7 +47619,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -47652,7 +47654,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -47684,7 +47686,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -47716,7 +47718,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -47748,7 +47750,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -47780,7 +47782,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -47812,7 +47814,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -47844,7 +47846,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -47876,7 +47878,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -47908,7 +47910,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -47940,7 +47942,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -47972,7 +47974,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -48036,7 +48038,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -48068,7 +48070,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -48100,7 +48102,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -48132,7 +48134,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -48164,7 +48166,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -48196,7 +48198,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -48228,7 +48230,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -48260,7 +48262,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -48292,7 +48294,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -49410,7 +49412,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3">
@@ -49447,7 +49449,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -49484,7 +49486,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -49521,7 +49523,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -49558,7 +49560,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -49595,7 +49597,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -49632,7 +49634,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -49669,7 +49671,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -49704,7 +49706,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -49739,7 +49741,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -49774,7 +49776,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -49809,7 +49811,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -49844,7 +49846,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -49879,7 +49881,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -49914,7 +49916,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -49949,7 +49951,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -49984,7 +49986,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -50019,7 +50021,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -50089,7 +50091,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -50124,7 +50126,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -50159,7 +50161,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -50194,7 +50196,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -50229,7 +50231,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -50264,7 +50266,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -50299,7 +50301,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -50334,7 +50336,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -50369,7 +50371,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -51523,7 +51525,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="3">
@@ -51560,7 +51562,7 @@
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3">
@@ -51597,7 +51599,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -51634,7 +51636,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="3">
@@ -51708,7 +51710,7 @@
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="3">
@@ -51745,7 +51747,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="3">
@@ -51782,7 +51784,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="3">
@@ -51819,7 +51821,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -51856,7 +51858,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="3">
@@ -52260,10 +52262,10 @@
       </c>
     </row>
     <row r="42" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="59">
@@ -54336,7 +54338,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3">
@@ -54373,7 +54375,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -54410,7 +54412,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -54447,7 +54449,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -54484,7 +54486,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -54521,7 +54523,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -54558,7 +54560,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -54595,7 +54597,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -54630,7 +54632,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -54665,7 +54667,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -54700,7 +54702,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -54735,7 +54737,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -54770,7 +54772,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -54805,7 +54807,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -54840,7 +54842,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -54875,7 +54877,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -54910,7 +54912,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -54945,7 +54947,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -55015,7 +55017,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -55050,7 +55052,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -55085,7 +55087,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -55120,7 +55122,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -55155,7 +55157,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -55190,7 +55192,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -55225,7 +55227,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -55260,7 +55262,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -55295,7 +55297,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -56529,7 +56531,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="3">
@@ -56566,7 +56568,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -56603,7 +56605,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -56640,7 +56642,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -56677,7 +56679,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -56714,7 +56716,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -56751,7 +56753,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -56788,7 +56790,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -56825,7 +56827,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -56862,7 +56864,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -56899,7 +56901,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -56934,7 +56936,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -56969,7 +56971,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -57004,7 +57006,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -57039,7 +57041,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -57074,7 +57076,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -57109,7 +57111,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -57144,7 +57146,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -57214,7 +57216,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -57249,7 +57251,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -57284,7 +57286,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -57319,7 +57321,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -57354,7 +57356,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -57389,7 +57391,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -57424,7 +57426,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -57459,7 +57461,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -57494,7 +57496,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -58039,7 +58041,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -58590,7 +58592,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="3">
@@ -58625,7 +58627,7 @@
       <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="3">
@@ -58695,7 +58697,7 @@
       <c r="A25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="3">
@@ -58730,7 +58732,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="3">
@@ -58767,7 +58769,7 @@
       <c r="A27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="3">
@@ -58804,7 +58806,7 @@
       <c r="A28" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C28" s="3">
@@ -58839,7 +58841,7 @@
       <c r="A29" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C29" s="3">
@@ -58909,7 +58911,7 @@
       <c r="A31" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="3">
@@ -58944,7 +58946,7 @@
       <c r="A32" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C32" s="3">
@@ -58979,7 +58981,7 @@
       <c r="A33" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="3">
@@ -59014,7 +59016,7 @@
       <c r="A34" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C34" s="3">
@@ -59049,7 +59051,7 @@
       <c r="A35" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C35" s="3">
@@ -59084,7 +59086,7 @@
       <c r="A36" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C36" s="3">
@@ -59119,7 +59121,7 @@
       <c r="A37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C37" s="3">
@@ -59154,7 +59156,7 @@
       <c r="A38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C38" s="3">
@@ -59189,7 +59191,7 @@
       <c r="A39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C39" s="3">
@@ -59259,7 +59261,7 @@
       <c r="A41" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C41" s="3">
@@ -59294,7 +59296,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -59329,7 +59331,7 @@
       <c r="A43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C43" s="3">
@@ -59364,7 +59366,7 @@
       <c r="A44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C44" s="3">
@@ -59399,7 +59401,7 @@
       <c r="A45" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="3">
@@ -59434,7 +59436,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="3">
@@ -59506,7 +59508,7 @@
       <c r="A48" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C48" s="3">
@@ -59541,7 +59543,7 @@
       <c r="A49" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C49" s="3">
@@ -62184,7 +62186,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -62221,7 +62223,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -62258,7 +62260,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -62295,7 +62297,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -62332,7 +62334,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -62369,7 +62371,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -62406,7 +62408,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -62441,7 +62443,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -62476,7 +62478,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -62511,7 +62513,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -62546,7 +62548,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -62581,7 +62583,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -62616,7 +62618,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -62651,7 +62653,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -62686,7 +62688,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -62721,7 +62723,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -62756,7 +62758,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -62826,7 +62828,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -62861,7 +62863,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -62896,7 +62898,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -62931,7 +62933,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -62966,7 +62968,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -63001,7 +63003,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -63071,7 +63073,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -63106,7 +63108,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -63456,7 +63458,7 @@
       <c r="A22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -63493,7 +63495,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="3">
@@ -63530,7 +63532,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -63567,7 +63569,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="3">
@@ -63604,7 +63606,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -63641,7 +63643,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="3">
@@ -63678,7 +63680,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="3">
@@ -63713,7 +63715,7 @@
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="3">
@@ -63748,7 +63750,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -63783,7 +63785,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="3">
@@ -63818,7 +63820,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="3">
@@ -63853,7 +63855,7 @@
       <c r="A33" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="3">
@@ -63888,7 +63890,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -63923,7 +63925,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="3">
@@ -63958,7 +63960,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="3">
@@ -63993,7 +63995,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="3">
@@ -64028,7 +64030,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="3">
@@ -64098,7 +64100,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="3">
@@ -64133,7 +64135,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="3">
@@ -64168,7 +64170,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="3">
@@ -64203,7 +64205,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="3">
@@ -64238,7 +64240,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="3">
@@ -64273,7 +64275,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="3">
@@ -64308,7 +64310,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="3">
@@ -64343,7 +64345,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="3">
@@ -64378,7 +64380,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="3">
@@ -64746,7 +64748,7 @@
       <c r="A22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -64819,7 +64821,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -64894,7 +64896,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -65219,7 +65221,7 @@
       <c r="A22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="3">
@@ -65254,7 +65256,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="3">
@@ -65292,7 +65294,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3">
@@ -65330,7 +65332,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="3">
@@ -65367,7 +65369,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="3">
@@ -65499,7 +65501,7 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -65822,7 +65824,7 @@
       </c>
     </row>
     <row r="12" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -65889,6 +65891,41 @@
       <c r="L13" s="29"/>
       <c r="M13" s="26" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:12">
@@ -65909,7 +65946,7 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="3">
@@ -65944,7 +65981,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -65981,7 +66018,7 @@
       <c r="A26" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C26" s="3">
@@ -66014,7 +66051,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:13">
       <c r="A28" s="23"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -66031,7 +66068,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -66068,7 +66105,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -66103,7 +66140,7 @@
       <c r="A46" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C46" s="3">
@@ -67006,7 +67043,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -67022,7 +67059,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -67153,7 +67190,7 @@
       </c>
     </row>
     <row r="12" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -67187,6 +67224,41 @@
         <v>468</v>
       </c>
     </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+    </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13">
       <c r="A20" s="9" t="s">
         <v>88</v>
@@ -67228,7 +67300,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -67263,7 +67335,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -67298,7 +67370,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -67875,7 +67947,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -67973,7 +68045,7 @@
       </c>
     </row>
     <row r="12" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -68049,7 +68121,7 @@
       <c r="A24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="3">
@@ -68084,7 +68156,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -68563,9 +68635,9 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -68576,12 +68648,12 @@
     <col min="6" max="6" width="10.4134615384615" customWidth="1"/>
     <col min="9" max="9" width="47.4230769230769" customWidth="1"/>
     <col min="13" max="13" width="14.7403846153846" customWidth="1"/>
-    <col min="14" max="14" width="20.8365384615385" style="14" customWidth="1"/>
+    <col min="14" max="14" width="20.8365384615385" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -68667,8 +68739,8 @@
       <c r="M4" t="s">
         <v>845</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>1019</v>
+      <c r="N4" s="13" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -68705,8 +68777,8 @@
       <c r="M7" t="s">
         <v>464</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>1020</v>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -68791,7 +68863,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -69595,7 +69667,7 @@
       <c r="A22" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C22" s="59">
@@ -69632,7 +69704,7 @@
       <c r="A23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="59">
@@ -69669,7 +69741,7 @@
       <c r="A24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="59">
@@ -69706,7 +69778,7 @@
       <c r="A25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="59">
@@ -69743,7 +69815,7 @@
       <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="59">
@@ -69780,7 +69852,7 @@
       <c r="A27" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="59">
@@ -69817,7 +69889,7 @@
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="59">
@@ -69854,7 +69926,7 @@
       <c r="A29" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="59">
@@ -69891,7 +69963,7 @@
       <c r="A30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="59">
@@ -69928,7 +70000,7 @@
       <c r="A31" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C31" s="59">
@@ -69965,7 +70037,7 @@
       <c r="A32" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="59">
@@ -70002,7 +70074,7 @@
       <c r="A33" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>163</v>
       </c>
       <c r="C33" s="59">
@@ -70039,7 +70111,7 @@
       <c r="A34" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C34" s="59">
@@ -70076,7 +70148,7 @@
       <c r="A35" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="59">
@@ -70113,7 +70185,7 @@
       <c r="A36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="59">
@@ -70150,7 +70222,7 @@
       <c r="A37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="59">
@@ -70187,7 +70259,7 @@
       <c r="A38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="59">
@@ -70261,7 +70333,7 @@
       <c r="A40" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="14" t="s">
         <v>205</v>
       </c>
       <c r="C40" s="59">
@@ -70298,7 +70370,7 @@
       <c r="A41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C41" s="59">
@@ -70335,7 +70407,7 @@
       <c r="A42" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C42" s="59">
@@ -70372,7 +70444,7 @@
       <c r="A43" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="59">
@@ -70409,7 +70481,7 @@
       <c r="A44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C44" s="59">
@@ -70446,7 +70518,7 @@
       <c r="A45" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C45" s="59">
@@ -70483,7 +70555,7 @@
       <c r="A46" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C46" s="59">
@@ -70518,7 +70590,7 @@
       <c r="A47" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C47" s="59">
@@ -70555,7 +70627,7 @@
       <c r="A48" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C48" s="59">
@@ -71055,9 +71127,9 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="$A42:$XFD42"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -71073,12 +71145,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -71159,8 +71231,81 @@
       <c r="M4" t="s">
         <v>845</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>1019</v>
+      <c r="N4" s="13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>31542</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -71243,7 +71388,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -71295,6 +71440,7 @@
     <hyperlink ref="A42" r:id="rId3" display="BoatwrightllqSnellingt27553@gmail.com"/>
     <hyperlink ref="B42" r:id="rId4" display="Boa@123456"/>
     <hyperlink ref="A30" r:id="rId5" display="lexiegerdath57@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="arielmraz417@gmail.com" tooltip="mailto:arielmraz417@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -71307,9 +71453,9 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -71328,7 +71474,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -71414,8 +71560,8 @@
       <c r="M4" t="s">
         <v>845</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>1019</v>
+      <c r="N4" s="13" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -71452,8 +71598,46 @@
       <c r="M7" t="s">
         <v>464</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>1020</v>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N19">
+        <v>7309916750</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -71536,7 +71720,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -71625,9 +71809,9 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -71644,7 +71828,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -71730,8 +71914,8 @@
       <c r="M4" t="s">
         <v>845</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>1019</v>
+      <c r="N4" s="13" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -71768,8 +71952,46 @@
       <c r="M7" t="s">
         <v>464</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>1020</v>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N19">
+        <v>7309916750</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -71814,7 +72036,7 @@
       <c r="A30" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="3">
@@ -71852,7 +72074,7 @@
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -71941,9 +72163,9 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -72034,15 +72256,53 @@
       <c r="M7" t="s">
         <v>464</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>1020</v>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N19">
+        <v>7309916750</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C42" s="3">
@@ -72081,6 +72341,7 @@
     <hyperlink ref="A42" r:id="rId1" display="BoatwrightllqSnellingt27553@gmail.com"/>
     <hyperlink ref="B42" r:id="rId2" display="Boa@123456"/>
     <hyperlink ref="A7" r:id="rId3" display="arielmraz417@gmail.com" tooltip="mailto:arielmraz417@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId4" display="cobblucyck629211@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -72090,15 +72351,15 @@
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="37.9711538461538" customWidth="1"/>
     <col min="2" max="2" width="14.9038461538462" customWidth="1"/>
@@ -72206,12 +72467,51 @@
         <v>464</v>
       </c>
     </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N19">
+        <v>7309916750</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="arielmraz417@gmail.com" tooltip="mailto:arielmraz417@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId2" display="cobblucyck629211@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -72221,14 +72521,170 @@
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.9519230769231" customWidth="1"/>
+    <col min="2" max="2" width="15.2115384615385" customWidth="1"/>
+    <col min="3" max="3" width="12.1730769230769" customWidth="1"/>
+    <col min="6" max="6" width="11.5288461538462" customWidth="1"/>
+    <col min="9" max="9" width="47.5961538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
+        <v>31542</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32491</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N19">
+        <v>7309916750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:N2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="arielmraz417@gmail.com" tooltip="mailto:arielmraz417@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId2" display="cobblucyck629211@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -72323,7 +72779,7 @@
         <v>694</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -72355,7 +72811,7 @@
         <v>696</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -72387,7 +72843,7 @@
         <v>699</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -73052,7 +73508,7 @@
       <c r="A21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="59">
@@ -74557,7 +75013,7 @@
     </row>
     <row r="21" s="15" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A21" s="23"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="59"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13440" tabRatio="928"/>
+    <workbookView windowWidth="30240" windowHeight="13420" tabRatio="928" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15068" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15077" uniqueCount="1037">
   <si>
     <t>acop.com</t>
   </si>
@@ -2991,6 +2991,9 @@
     <t>学生，年龄小 2500  imperial AAA， King's College London  AAB，brunel、City, University of LondonABB-BBC  londonmet CCC~</t>
   </si>
   <si>
+    <t>computer science</t>
+  </si>
+  <si>
     <t>king college london Chemistry</t>
   </si>
   <si>
@@ -3018,7 +3021,7 @@
     <t>king college london computer science</t>
   </si>
   <si>
-    <t>imperial</t>
+    <t>imperial Biological</t>
   </si>
   <si>
     <t>king college london Biochemistry</t>
@@ -3215,10 +3218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -3311,7 +3314,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3331,54 +3342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3394,7 +3359,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3407,24 +3410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3435,6 +3422,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3509,7 +3512,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3527,13 +3626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3545,73 +3644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,37 +3656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3671,25 +3674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3718,33 +3721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3756,6 +3732,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3786,6 +3786,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3800,168 +3818,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4635,10 +4638,10 @@
   <sheetPr/>
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -21252,14 +21255,14 @@
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="37.4423076923077" customWidth="1"/>
+    <col min="1" max="1" width="40.7019230769231" customWidth="1"/>
     <col min="2" max="2" width="20.2211538461538" customWidth="1"/>
     <col min="3" max="3" width="14.4423076923077" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -22417,19 +22420,42 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A42" s="31"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+    <row r="42" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="63">
+        <v>31666</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="35">
+        <v>90732</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42" s="35">
+        <v>5</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="20" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="1:12">
       <c r="A43" s="31"/>
@@ -23672,6 +23698,8 @@
     <hyperlink ref="B49" r:id="rId29" display="Kil@123456"/>
     <hyperlink ref="A50" r:id="rId30" display="AtchisonjhBairmnb24387@gmail.com"/>
     <hyperlink ref="A52" r:id="rId31" display="TwilleyxnxCanonzwr76520@gmail.com"/>
+    <hyperlink ref="A42" r:id="rId32" display="BoatwrightllqSnellingt27553@gmail.com"/>
+    <hyperlink ref="B42" r:id="rId33" display="Boa@123456"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -25958,7 +25986,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
@@ -36555,7 +36583,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -40840,10 +40868,10 @@
   <sheetPr/>
   <dimension ref="A2:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -40966,7 +40994,7 @@
         <v>704</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -41133,7 +41161,7 @@
         <v>860</v>
       </c>
       <c r="J10" s="1">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -41167,7 +41195,7 @@
         <v>723</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -41202,7 +41230,7 @@
         <v>863</v>
       </c>
       <c r="J12" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -41236,7 +41264,7 @@
         <v>866</v>
       </c>
       <c r="J13" s="1">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -41270,7 +41298,7 @@
         <v>869</v>
       </c>
       <c r="J14" s="1">
-        <v>18.75</v>
+        <v>19.75</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -41489,7 +41517,7 @@
         <v>878</v>
       </c>
       <c r="J22" s="1">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -41557,7 +41585,7 @@
         <v>882</v>
       </c>
       <c r="J24" s="1">
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -41755,7 +41783,7 @@
         <v>894</v>
       </c>
       <c r="J30" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -42139,7 +42167,7 @@
         <v>919</v>
       </c>
       <c r="J42" s="1">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -51536,9 +51564,9 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="$A71:$XFD71"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -51675,9 +51703,11 @@
         <v>704</v>
       </c>
       <c r="J5">
-        <v>1800</v>
-      </c>
-      <c r="M5" s="8"/>
+        <v>1875</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
@@ -51746,7 +51776,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="20" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" ht="13.05" customHeight="1" spans="1:13">
@@ -51783,7 +51813,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="20" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
@@ -51806,7 +51836,7 @@
         <v>714</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>706</v>
@@ -51820,7 +51850,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="20" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
@@ -51840,7 +51870,7 @@
         <v>646</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>718</v>
@@ -51849,7 +51879,7 @@
         <v>719</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J10" s="1">
         <v>1450</v>
@@ -51857,7 +51887,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="20" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13">
@@ -51889,7 +51919,7 @@
         <v>723</v>
       </c>
       <c r="J11" s="1">
-        <v>1425</v>
+        <v>1575</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -51929,7 +51959,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:12">
@@ -52027,7 +52057,7 @@
         <v>736</v>
       </c>
       <c r="J15" s="1">
-        <v>1775</v>
+        <v>1875</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -52217,7 +52247,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="20" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:13">
@@ -52249,12 +52279,12 @@
         <v>749</v>
       </c>
       <c r="J23" s="1">
-        <v>2175</v>
+        <v>2225</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="20" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:13">
@@ -52286,12 +52316,12 @@
         <v>751</v>
       </c>
       <c r="J24" s="1">
-        <v>2050</v>
+        <v>2125</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="20" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:13">
@@ -52328,7 +52358,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="20" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="26" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52365,7 +52395,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="M26" s="66" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:13">
@@ -52402,7 +52432,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:13">
@@ -52439,7 +52469,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="20" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:13">
@@ -52476,7 +52506,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="20" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:13">
@@ -52508,12 +52538,12 @@
         <v>763</v>
       </c>
       <c r="J30" s="1">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="32" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:13">
@@ -52550,7 +52580,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="20" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="32" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52587,7 +52617,7 @@
       <c r="K32" s="55"/>
       <c r="L32" s="55"/>
       <c r="M32" s="57" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="33" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52624,7 +52654,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="55"/>
       <c r="M33" s="57" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52661,7 +52691,7 @@
       <c r="K34" s="55"/>
       <c r="L34" s="55"/>
       <c r="M34" s="57" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52690,7 +52720,7 @@
         <v>776</v>
       </c>
       <c r="I35" s="54" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J35" s="55">
         <v>2000</v>
@@ -52698,7 +52728,7 @@
       <c r="K35" s="55"/>
       <c r="L35" s="55"/>
       <c r="M35" s="57" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52735,7 +52765,7 @@
       <c r="K36" s="55"/>
       <c r="L36" s="55"/>
       <c r="M36" s="27" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52772,7 +52802,7 @@
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="57" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52809,7 +52839,7 @@
       <c r="K38" s="55"/>
       <c r="L38" s="55"/>
       <c r="M38" s="57" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52846,7 +52876,7 @@
       <c r="K39" s="55"/>
       <c r="L39" s="55"/>
       <c r="M39" s="57" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52883,7 +52913,7 @@
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
       <c r="M40" s="27" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" s="27" customFormat="1" ht="15" customHeight="1" spans="1:13">
@@ -52920,7 +52950,7 @@
       <c r="K41" s="55"/>
       <c r="L41" s="55"/>
       <c r="M41" s="27" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="42" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52957,7 +52987,7 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="20" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="43" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -52994,7 +53024,7 @@
       <c r="K43" s="55"/>
       <c r="L43" s="55"/>
       <c r="M43" s="57" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="44" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53031,7 +53061,7 @@
       <c r="K44" s="55"/>
       <c r="L44" s="55"/>
       <c r="M44" s="57" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="45" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53068,7 +53098,7 @@
       <c r="K45" s="55"/>
       <c r="L45" s="55"/>
       <c r="M45" s="57" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="46" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53105,7 +53135,7 @@
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
       <c r="M46" s="27" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="47" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53142,7 +53172,7 @@
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
       <c r="M47" s="57" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="48" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53179,7 +53209,7 @@
       <c r="K48" s="55"/>
       <c r="L48" s="55"/>
       <c r="M48" s="57" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53216,7 +53246,7 @@
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
       <c r="M49" s="61" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="50" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53253,7 +53283,7 @@
       <c r="K50" s="55"/>
       <c r="L50" s="55"/>
       <c r="M50" s="57" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="51" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
@@ -53304,7 +53334,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="55"/>
       <c r="M52" s="66" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:13">
@@ -53341,7 +53371,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="20" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:13">
@@ -53378,7 +53408,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="32" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:13">
@@ -53415,7 +53445,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:13">
@@ -53452,7 +53482,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1" spans="1:13">
@@ -53489,7 +53519,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53500,7 +53530,7 @@
         <v>297</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>15</v>
@@ -53524,7 +53554,7 @@
         <v>1000</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53559,7 +53589,7 @@
         <v>1000</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -53594,7 +53624,7 @@
         <v>1050</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -53629,7 +53659,7 @@
         <v>1000</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -53664,7 +53694,7 @@
         <v>1600</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -53699,7 +53729,7 @@
         <v>1150</v>
       </c>
       <c r="M63" s="67" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -53734,7 +53764,7 @@
         <v>1000</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -53766,7 +53796,7 @@
         <v>838</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -53798,7 +53828,7 @@
         <v>840</v>
       </c>
       <c r="M66" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N66" t="s">
         <v>640</v>
@@ -53836,7 +53866,7 @@
         <v>1150</v>
       </c>
       <c r="M67" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N67" t="s">
         <v>640</v>
@@ -53874,7 +53904,7 @@
         <v>1050</v>
       </c>
       <c r="M68" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N68" t="s">
         <v>640</v>
@@ -53909,7 +53939,7 @@
         <v>649</v>
       </c>
       <c r="M69" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -53941,7 +53971,7 @@
         <v>653</v>
       </c>
       <c r="M70" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -53973,7 +54003,7 @@
         <v>658</v>
       </c>
       <c r="M71" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -54008,7 +54038,7 @@
         <v>1200</v>
       </c>
       <c r="M72" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -54043,7 +54073,7 @@
         <v>1200</v>
       </c>
       <c r="M73" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -54075,7 +54105,7 @@
         <v>669</v>
       </c>
       <c r="M74" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -54110,7 +54140,7 @@
         <v>1050</v>
       </c>
       <c r="M75" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -54142,7 +54172,7 @@
         <v>676</v>
       </c>
       <c r="M76" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -54174,7 +54204,7 @@
         <v>681</v>
       </c>
       <c r="M77" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -54206,7 +54236,7 @@
         <v>685</v>
       </c>
       <c r="M78" s="67" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -54238,7 +54268,7 @@
         <v>842</v>
       </c>
       <c r="M79" s="20" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -54270,7 +54300,7 @@
         <v>844</v>
       </c>
       <c r="M80" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -54400,7 +54430,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -56576,10 +56606,10 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:13">
@@ -56623,10 +56653,10 @@
         <v>704</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O4" t="s">
         <v>464</v>
@@ -56733,7 +56763,7 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -56888,10 +56918,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="N7" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
@@ -58727,7 +58757,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -64582,7 +64612,7 @@
         <v>776</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -65206,7 +65236,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -65362,7 +65392,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -65588,7 +65618,7 @@
         <v>776</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -66188,12 +66218,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -66595,7 +66625,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:12">
@@ -67751,7 +67781,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -67948,7 +67978,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13">
@@ -68676,7 +68706,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -69382,7 +69412,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -69469,7 +69499,7 @@
         <v>853</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -69507,7 +69537,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -71913,12 +71943,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -72000,7 +72030,7 @@
         <v>853</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -72038,7 +72068,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -72108,7 +72138,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -72318,7 +72348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -72405,7 +72435,7 @@
         <v>853</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -72443,7 +72473,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -72516,7 +72546,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -72751,7 +72781,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -72838,7 +72868,7 @@
         <v>853</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:14">
@@ -72876,7 +72906,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -72949,7 +72979,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -73259,7 +73289,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -73332,7 +73362,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -73619,7 +73649,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -73797,7 +73827,7 @@
         <v>466</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -73832,7 +73862,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -73940,7 +73970,7 @@
         <v>702</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -73972,7 +74002,7 @@
         <v>704</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -74004,7 +74034,7 @@
         <v>707</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
   </sheetData>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13440" tabRatio="928" firstSheet="39" activeTab="58"/>
+    <workbookView windowWidth="30240" windowHeight="13400" tabRatio="928"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15277" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15285" uniqueCount="1038">
   <si>
     <t>acop.com</t>
   </si>
@@ -3222,8 +3222,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -3331,9 +3331,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3345,8 +3345,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3361,29 +3391,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -3394,6 +3401,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3415,11 +3429,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3431,30 +3444,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3521,73 +3521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,37 +3533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3647,7 +3551,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,43 +3629,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3826,142 +3826,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4644,10 +4644,10 @@
   <sheetPr/>
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -20226,9 +20226,9 @@
   <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.22115384615385" defaultRowHeight="16.8"/>
@@ -28489,9 +28489,9 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="$A71:$XFD71"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -28635,7 +28635,7 @@
         <v>61</v>
       </c>
       <c r="J12" s="1">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>62</v>
@@ -35522,7 +35522,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -36814,7 +36814,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -37445,7 +37445,7 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -41657,9 +41657,9 @@
   <dimension ref="A2:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="$A68:$XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -41782,7 +41782,7 @@
         <v>705</v>
       </c>
       <c r="J5" s="1">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -41848,7 +41848,7 @@
         <v>857</v>
       </c>
       <c r="J7" s="1">
-        <v>21.75</v>
+        <v>22.25</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:12">
@@ -41949,7 +41949,7 @@
         <v>861</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5</v>
+        <v>17.25</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -41983,7 +41983,7 @@
         <v>724</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -42018,7 +42018,7 @@
         <v>864</v>
       </c>
       <c r="J12" s="1">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -42052,7 +42052,7 @@
         <v>867</v>
       </c>
       <c r="J13" s="1">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -42120,7 +42120,7 @@
         <v>873</v>
       </c>
       <c r="J15" s="1">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="K15" s="65"/>
       <c r="L15" s="1"/>
@@ -42223,7 +42223,7 @@
         <v>744</v>
       </c>
       <c r="J19" s="1">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -42260,7 +42260,7 @@
         <v>877</v>
       </c>
       <c r="J20" s="1">
-        <v>20.25</v>
+        <v>21</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -42308,7 +42308,7 @@
         <v>880</v>
       </c>
       <c r="J22" s="1">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -42342,7 +42342,7 @@
         <v>882</v>
       </c>
       <c r="J23" s="1">
-        <v>20.25</v>
+        <v>20.75</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -42376,7 +42376,7 @@
         <v>884</v>
       </c>
       <c r="J24" s="1">
-        <v>14.25</v>
+        <v>15</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -42506,7 +42506,7 @@
         <v>892</v>
       </c>
       <c r="J28" s="1">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -42574,7 +42574,7 @@
         <v>896</v>
       </c>
       <c r="J30" s="1">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -42608,7 +42608,7 @@
         <v>899</v>
       </c>
       <c r="J31" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -42963,39 +42963,39 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A43" s="2" t="s">
+    <row r="43" s="27" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
+      <c r="A43" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="63">
+      <c r="C43" s="51">
         <v>31675</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="52" t="s">
         <v>858</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="52" t="s">
         <v>636</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="52" t="s">
         <v>922</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="52" t="s">
         <v>923</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="54" t="s">
         <v>924</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="55">
         <v>7.5</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:12">
       <c r="A44" s="2" t="s">
@@ -43572,16 +43572,37 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+    <row r="68" ht="17.6" spans="1:10">
+      <c r="A68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="63">
+        <v>31675</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="F68" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="J68" s="1">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="9"/>
@@ -43686,6 +43707,7 @@
     <hyperlink ref="B26" r:id="rId52" display="Har@123456"/>
     <hyperlink ref="A52" r:id="rId53" display="TwilleyxnxCanonzwr76520@gmail.com"/>
     <hyperlink ref="A15" r:id="rId54" display="henryathenau92716@gmail.com"/>
+    <hyperlink ref="B68" r:id="rId10" display="Els@123456"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -52355,9 +52377,9 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="$A63:$XFD63"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -57538,7 +57560,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -57704,7 +57726,7 @@
         <v>711</v>
       </c>
       <c r="J7" s="1">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -70190,7 +70212,7 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -2657,7 +2657,7 @@
     <t>119 Laitwood Road</t>
   </si>
   <si>
-    <t>Scotland, East of England Wales ，可男可女 25</t>
+    <t>Scotland, East of England Wales ，可男可女 25   car aviva  home aa health aviva bank 单 scotish royal 双 hsbc</t>
   </si>
   <si>
     <t>SCT</t>
@@ -3238,10 +3238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -3352,30 +3352,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3384,7 +3368,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3396,6 +3380,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3404,9 +3395,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3428,30 +3433,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3465,7 +3457,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3479,10 +3478,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3543,7 +3543,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3555,37 +3651,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3597,43 +3699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3645,85 +3717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3761,25 +3761,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3800,6 +3796,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3815,13 +3820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3840,159 +3849,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -40147,9 +40147,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -40342,7 +40342,7 @@
         <v>855</v>
       </c>
       <c r="J7" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" s="25"/>
       <c r="M7" t="s">
@@ -40452,7 +40452,7 @@
         <v>859</v>
       </c>
       <c r="J10" s="1">
-        <v>8.65</v>
+        <v>10.9</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="1"/>
@@ -40526,7 +40526,7 @@
         <v>863</v>
       </c>
       <c r="J12" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" s="1"/>
@@ -40563,7 +40563,7 @@
         <v>866</v>
       </c>
       <c r="J13" s="1">
-        <v>12.25</v>
+        <v>14.25</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -40600,9 +40600,11 @@
         <v>870</v>
       </c>
       <c r="J14" s="1">
-        <v>21.75</v>
-      </c>
-      <c r="K14" s="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="K14" s="25">
+        <v>44765</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" t="s">
         <v>472</v>
@@ -40637,7 +40639,7 @@
         <v>873</v>
       </c>
       <c r="J15" s="1">
-        <v>10.25</v>
+        <v>12.75</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="1"/>
@@ -40674,7 +40676,7 @@
         <v>739</v>
       </c>
       <c r="J16" s="1">
-        <v>13.25</v>
+        <v>14</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -40711,7 +40713,7 @@
         <v>741</v>
       </c>
       <c r="J18" s="1">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -40748,7 +40750,7 @@
         <v>743</v>
       </c>
       <c r="J19" s="1">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -40785,7 +40787,7 @@
         <v>878</v>
       </c>
       <c r="J20" s="1">
-        <v>18.25</v>
+        <v>19</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="1"/>
@@ -40836,7 +40838,7 @@
         <v>881</v>
       </c>
       <c r="J22" s="1">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="1"/>
@@ -40873,7 +40875,7 @@
         <v>883</v>
       </c>
       <c r="J23" s="1">
-        <v>21.25</v>
+        <v>23.75</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="1"/>
@@ -40910,7 +40912,7 @@
         <v>885</v>
       </c>
       <c r="J24" s="1">
-        <v>11.25</v>
+        <v>13.75</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="1"/>
@@ -41052,7 +41054,7 @@
         <v>892</v>
       </c>
       <c r="J28" s="1">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="1"/>
@@ -41126,7 +41128,7 @@
         <v>896</v>
       </c>
       <c r="J30" s="1">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="1"/>
@@ -41163,7 +41165,7 @@
         <v>899</v>
       </c>
       <c r="J31" s="1">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="1"/>
@@ -41546,7 +41548,7 @@
         <v>921</v>
       </c>
       <c r="J42" s="1">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="K42" s="25"/>
       <c r="L42" s="1"/>
@@ -41914,7 +41916,7 @@
         <v>931</v>
       </c>
       <c r="J53" s="1">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -41951,7 +41953,7 @@
         <v>924</v>
       </c>
       <c r="J54" s="16">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
@@ -41988,7 +41990,7 @@
         <v>906</v>
       </c>
       <c r="J55" s="16">
-        <v>14.25</v>
+        <v>15.75</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
@@ -42053,7 +42055,7 @@
         <v>889</v>
       </c>
       <c r="J57" s="1">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -42090,7 +42092,7 @@
         <v>915</v>
       </c>
       <c r="J58" s="1">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>201</v>
@@ -42125,7 +42127,7 @@
         <v>927</v>
       </c>
       <c r="J59" s="1">
-        <v>0.45</v>
+        <v>2.95</v>
       </c>
       <c r="K59" s="25"/>
       <c r="M59" s="59" t="s">
@@ -42378,7 +42380,7 @@
         <v>910</v>
       </c>
       <c r="J70" s="1">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -42437,7 +42439,7 @@
         <v>930</v>
       </c>
       <c r="J73" s="1">
-        <v>17.75</v>
+        <v>20.75</v>
       </c>
       <c r="M73" s="59" t="s">
         <v>243</v>
@@ -42486,7 +42488,7 @@
         <v>929</v>
       </c>
       <c r="J77" s="1">
-        <v>17.9</v>
+        <v>19.4</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -42523,7 +42525,7 @@
         <v>904</v>
       </c>
       <c r="J78" s="1">
-        <v>21.5</v>
+        <v>24.5</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -42560,7 +42562,7 @@
         <v>908</v>
       </c>
       <c r="J79" s="1">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -42597,7 +42599,7 @@
         <v>942</v>
       </c>
       <c r="J80" s="1">
-        <v>7.75</v>
+        <v>10.75</v>
       </c>
       <c r="M80" t="s">
         <v>405</v>
@@ -52750,7 +52752,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3834,7 +3834,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33701,7 +33701,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35691,7 +35691,7 @@
         <v>899</v>
       </c>
       <c r="J70" s="33">
-        <v>4.35</v>
+        <v>5.55</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35874,7 +35874,7 @@
         <v>908</v>
       </c>
       <c r="J78" s="33">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>
@@ -35948,7 +35948,7 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>20.8</v>
+        <v>22.25</v>
       </c>
       <c r="M80" s="37" t="s">
         <v>405</v>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3150,9 +3150,9 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3958,7 +3958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4290,6 +4290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4896,3564 +4899,3564 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="142" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A4" s="149" t="s">
+    <row r="4" s="143" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A4" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="151">
+      <c r="C4" s="152">
         <v>31493</v>
       </c>
-      <c r="D4" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="150">
+      <c r="D4" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="151">
         <v>91335</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="150">
+      <c r="J4" s="151">
         <v>415</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-    </row>
-    <row r="5" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="153" t="s">
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+    </row>
+    <row r="5" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A5" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="155">
         <v>32189</v>
       </c>
-      <c r="D5" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="143">
+      <c r="D5" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="144">
         <v>92101</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="144" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="143" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A6" s="143" t="s">
+    <row r="6" s="144" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A6" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="155">
         <v>31780</v>
       </c>
-      <c r="D6" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="143">
+      <c r="D6" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="144">
         <v>90007</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="143" t="s">
+      <c r="H6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="143">
+      <c r="J6" s="144">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="143" t="s">
+    <row r="7" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A7" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="155">
         <v>31542</v>
       </c>
-      <c r="D7" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="143">
+      <c r="D7" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="144">
         <v>90015</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="143" t="s">
+      <c r="H7" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="143" t="s">
+      <c r="I7" s="144" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A8" s="143" t="s">
+    <row r="8" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A8" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="155">
         <v>31248</v>
       </c>
-      <c r="D8" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="143">
+      <c r="D8" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="144">
         <v>90004</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="143" t="s">
+      <c r="H8" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="143">
+      <c r="J8" s="144">
         <v>5</v>
       </c>
-      <c r="M8" s="170" t="s">
+      <c r="M8" s="171" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="143" t="s">
+    <row r="9" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A9" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="155">
         <v>31569</v>
       </c>
-      <c r="D9" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="143">
+      <c r="D9" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="144">
         <v>94606</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="143" t="s">
+      <c r="H9" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="143">
-        <v>15</v>
-      </c>
-      <c r="M9" s="143" t="s">
+      <c r="J9" s="144">
+        <v>15</v>
+      </c>
+      <c r="M9" s="144" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="143" t="s">
+    <row r="10" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A10" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="155">
         <v>31872</v>
       </c>
-      <c r="D10" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="143">
+      <c r="D10" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="144">
         <v>95118</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="144" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="143" t="s">
+    <row r="11" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A11" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="155">
         <v>32845</v>
       </c>
-      <c r="D11" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="143">
+      <c r="D11" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="144">
         <v>94591</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="143" t="s">
+      <c r="H11" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="144" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="144" t="s">
+    <row r="12" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A12" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="156">
+      <c r="C12" s="157">
         <v>32025</v>
       </c>
-      <c r="D12" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="144">
+      <c r="D12" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="145">
         <v>93030</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="H12" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="I12" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="144">
+      <c r="J12" s="145">
         <v>5</v>
       </c>
-      <c r="M12" s="146" t="s">
+      <c r="M12" s="147" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="157" t="s">
+    <row r="13" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A13" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="154">
+      <c r="C13" s="155">
         <v>32378</v>
       </c>
-      <c r="D13" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="143">
+      <c r="D13" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="144">
         <v>90016</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="143" t="s">
+      <c r="H13" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="144" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="143" t="s">
+    <row r="14" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A14" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="155">
         <v>32630</v>
       </c>
-      <c r="D14" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="143">
+      <c r="D14" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="144">
         <v>95133</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="143" t="s">
+      <c r="H14" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="144" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="143" t="s">
+    <row r="15" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A15" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="154">
+      <c r="C15" s="155">
         <v>32478</v>
       </c>
-      <c r="D15" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="143">
+      <c r="D15" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="144">
         <v>93030</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="143" t="s">
+      <c r="H15" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="144" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="143" t="s">
+    <row r="16" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A16" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="155">
         <v>32060</v>
       </c>
-      <c r="D16" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="143">
+      <c r="D16" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="144">
         <v>90036</v>
       </c>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="143" t="s">
+      <c r="H16" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="143" t="s">
+      <c r="I16" s="144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D17" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="157" t="s">
+    <row r="17" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D17" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A18" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="154">
+      <c r="C18" s="155">
         <v>32655</v>
       </c>
-      <c r="D18" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="143">
+      <c r="D18" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="144">
         <v>95687</v>
       </c>
-      <c r="G18" s="143" t="s">
+      <c r="G18" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="143" t="s">
+      <c r="H18" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="143" t="s">
+      <c r="I18" s="144" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="143" t="s">
+    <row r="19" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A19" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="154">
+      <c r="C19" s="155">
         <v>32491</v>
       </c>
-      <c r="D19" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="143">
+      <c r="D19" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="144">
         <v>94580</v>
       </c>
-      <c r="G19" s="143" t="s">
+      <c r="G19" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="143" t="s">
+      <c r="H19" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="143" t="s">
+      <c r="I19" s="144" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A20" s="157" t="s">
+    <row r="20" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A20" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="154">
+      <c r="C20" s="155">
         <v>31645</v>
       </c>
-      <c r="D20" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="143">
+      <c r="D20" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="144">
         <v>94541</v>
       </c>
-      <c r="G20" s="143" t="s">
+      <c r="G20" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="143" t="s">
+      <c r="H20" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="143" t="s">
+      <c r="I20" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="143">
+      <c r="J20" s="144">
         <v>5</v>
       </c>
-      <c r="M20" s="170" t="s">
+      <c r="M20" s="171" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" s="143" customFormat="1" ht="18" customHeight="1" spans="3:3">
-      <c r="C21" s="154"/>
-    </row>
-    <row r="22" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A22" s="158" t="s">
+    <row r="21" s="144" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C21" s="155"/>
+    </row>
+    <row r="22" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A22" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="160">
+      <c r="C22" s="161">
         <v>31889</v>
       </c>
-      <c r="D22" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="161">
+      <c r="D22" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="162">
         <v>94577</v>
       </c>
-      <c r="G22" s="161" t="s">
+      <c r="G22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="161" t="s">
+      <c r="H22" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="161" t="s">
+      <c r="I22" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="161">
+      <c r="J22" s="162">
         <v>5</v>
       </c>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="145" t="s">
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="146" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A23" s="162" t="s">
+    <row r="23" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A23" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="164" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="156">
+      <c r="C23" s="157">
         <v>32012</v>
       </c>
-      <c r="D23" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="144">
+      <c r="D23" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="145">
         <v>94513</v>
       </c>
-      <c r="G23" s="144" t="s">
+      <c r="G23" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="144" t="s">
+      <c r="I23" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="144">
+      <c r="J23" s="145">
         <v>5</v>
       </c>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="146" t="s">
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="147" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A24" s="164" t="s">
+    <row r="24" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A24" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="166">
+      <c r="C24" s="167">
         <v>32357</v>
       </c>
-      <c r="D24" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="167">
+      <c r="D24" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="168">
         <v>94513</v>
       </c>
-      <c r="G24" s="167" t="s">
+      <c r="G24" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="167" t="s">
+      <c r="H24" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="167" t="s">
+      <c r="I24" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="167">
+      <c r="J24" s="168">
         <v>0</v>
       </c>
-      <c r="K24" s="166"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="147" t="s">
+      <c r="K24" s="167"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="148" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A25" s="158" t="s">
+    <row r="25" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A25" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="160">
+      <c r="C25" s="161">
         <v>32344</v>
       </c>
-      <c r="D25" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="161">
+      <c r="D25" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="162">
         <v>94513</v>
       </c>
-      <c r="G25" s="161" t="s">
+      <c r="G25" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="161" t="s">
+      <c r="H25" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="161" t="s">
+      <c r="I25" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="161">
+      <c r="J25" s="162">
         <v>5</v>
       </c>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="145" t="s">
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="146" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A26" s="158" t="s">
+    <row r="26" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A26" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="160">
+      <c r="C26" s="161">
         <v>31834</v>
       </c>
-      <c r="D26" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="161">
+      <c r="D26" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="162">
         <v>94513</v>
       </c>
-      <c r="G26" s="161" t="s">
+      <c r="G26" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="161" t="s">
+      <c r="H26" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="161" t="s">
+      <c r="I26" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="161">
+      <c r="J26" s="162">
         <v>5</v>
       </c>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="145" t="s">
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="146" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A27" s="158" t="s">
+    <row r="27" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A27" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="160">
+      <c r="C27" s="161">
         <v>32077</v>
       </c>
-      <c r="D27" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="161">
+      <c r="D27" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="162">
         <v>91945</v>
       </c>
-      <c r="G27" s="161" t="s">
+      <c r="G27" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="161" t="s">
+      <c r="H27" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="161">
+      <c r="J27" s="162">
         <v>5</v>
       </c>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="145" t="s">
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="146" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A28" s="164" t="s">
+    <row r="28" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A28" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="166">
+      <c r="C28" s="167">
         <v>32274</v>
       </c>
-      <c r="D28" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="167">
+      <c r="D28" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="168">
         <v>92114</v>
       </c>
-      <c r="G28" s="167" t="s">
+      <c r="G28" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="167" t="s">
+      <c r="H28" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="167" t="s">
+      <c r="I28" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="167">
+      <c r="J28" s="168">
         <v>0</v>
       </c>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
-      <c r="M28" s="147" t="s">
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
+      <c r="M28" s="148" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A29" s="162" t="s">
+    <row r="29" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A29" s="163" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="156">
+      <c r="C29" s="157">
         <v>32087</v>
       </c>
-      <c r="D29" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="144">
+      <c r="D29" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="145">
         <v>91911</v>
       </c>
-      <c r="G29" s="144" t="s">
+      <c r="G29" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="144" t="s">
+      <c r="H29" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="144" t="s">
+      <c r="I29" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="144">
-        <v>15</v>
-      </c>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="146" t="s">
+      <c r="J29" s="145">
+        <v>15</v>
+      </c>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="147" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="158" t="s">
+    <row r="30" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A30" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="160">
+      <c r="C30" s="161">
         <v>31654</v>
       </c>
-      <c r="D30" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="161">
+      <c r="D30" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="162">
         <v>91913</v>
       </c>
-      <c r="G30" s="161" t="s">
+      <c r="G30" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="161" t="s">
+      <c r="H30" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="161" t="s">
+      <c r="I30" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="161">
+      <c r="J30" s="162">
         <v>5</v>
       </c>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="145" t="s">
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A31" s="164" t="s">
+    <row r="31" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A31" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="166" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="166">
+      <c r="C31" s="167">
         <v>31077</v>
       </c>
-      <c r="D31" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="167">
+      <c r="D31" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="168">
         <v>92010</v>
       </c>
-      <c r="G31" s="167" t="s">
+      <c r="G31" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="167" t="s">
+      <c r="H31" s="168" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="167" t="s">
+      <c r="I31" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="167">
+      <c r="J31" s="168">
         <v>315</v>
       </c>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
-      <c r="M31" s="147" t="s">
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A32" s="158" t="s">
+    <row r="32" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A32" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="160">
+      <c r="C32" s="161">
         <v>32510</v>
       </c>
-      <c r="D32" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="161">
+      <c r="D32" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="162">
         <v>92078</v>
       </c>
-      <c r="G32" s="161" t="s">
+      <c r="G32" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="161" t="s">
+      <c r="H32" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="161" t="s">
+      <c r="I32" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="161">
+      <c r="J32" s="162">
         <v>5</v>
       </c>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="145" t="s">
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A33" s="164" t="s">
+    <row r="33" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A33" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="166">
+      <c r="C33" s="167">
         <v>31657</v>
       </c>
-      <c r="D33" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="167">
+      <c r="D33" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="168">
         <v>92084</v>
       </c>
-      <c r="G33" s="167" t="s">
+      <c r="G33" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="167" t="s">
+      <c r="H33" s="168" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="167" t="s">
+      <c r="I33" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="167">
+      <c r="J33" s="168">
         <v>5</v>
       </c>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
-      <c r="M33" s="147" t="s">
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="148" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A34" s="164" t="s">
+    <row r="34" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A34" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="166">
+      <c r="C34" s="167">
         <v>32205</v>
       </c>
-      <c r="D34" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="167">
+      <c r="D34" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="168">
         <v>92130</v>
       </c>
-      <c r="G34" s="167" t="s">
+      <c r="G34" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="H34" s="167" t="s">
+      <c r="H34" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="I34" s="167" t="s">
+      <c r="I34" s="168" t="s">
         <v>170</v>
       </c>
-      <c r="J34" s="167">
+      <c r="J34" s="168">
         <v>5</v>
       </c>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="147" t="s">
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="148" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A35" s="164" t="s">
+    <row r="35" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A35" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="166">
+      <c r="C35" s="167">
         <v>31879</v>
       </c>
-      <c r="D35" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="167">
+      <c r="D35" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="168">
         <v>92130</v>
       </c>
-      <c r="G35" s="167" t="s">
+      <c r="G35" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="H35" s="167" t="s">
+      <c r="H35" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="167" t="s">
+      <c r="I35" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="J35" s="167">
+      <c r="J35" s="168">
         <v>5</v>
       </c>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
-      <c r="M35" s="147" t="s">
+      <c r="K35" s="168"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="148" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A36" s="165" t="s">
+    <row r="36" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A36" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="166">
+      <c r="C36" s="167">
         <v>32281</v>
       </c>
-      <c r="D36" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="167">
+      <c r="D36" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="168">
         <v>92618</v>
       </c>
-      <c r="G36" s="167" t="s">
+      <c r="G36" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="H36" s="167" t="s">
+      <c r="H36" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="I36" s="167" t="s">
+      <c r="I36" s="168" t="s">
         <v>182</v>
       </c>
-      <c r="J36" s="167">
+      <c r="J36" s="168">
         <v>5</v>
       </c>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="147" t="s">
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="148" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A37" s="165" t="s">
+    <row r="37" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A37" s="166" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="166">
+      <c r="C37" s="167">
         <v>32422</v>
       </c>
-      <c r="D37" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="167">
+      <c r="D37" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="168">
         <v>92648</v>
       </c>
-      <c r="G37" s="167" t="s">
+      <c r="G37" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="H37" s="167" t="s">
+      <c r="H37" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="167" t="s">
+      <c r="I37" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="167">
+      <c r="J37" s="168">
         <v>255</v>
       </c>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="147" t="s">
+      <c r="K37" s="168"/>
+      <c r="L37" s="168"/>
+      <c r="M37" s="148" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A38" s="165" t="s">
+    <row r="38" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A38" s="166" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="166">
+      <c r="C38" s="167">
         <v>31662</v>
       </c>
-      <c r="D38" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="167">
+      <c r="D38" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="168">
         <v>92673</v>
       </c>
-      <c r="G38" s="167" t="s">
+      <c r="G38" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="167" t="s">
+      <c r="H38" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="167" t="s">
+      <c r="I38" s="168" t="s">
         <v>194</v>
       </c>
-      <c r="J38" s="167">
+      <c r="J38" s="168">
         <v>155</v>
       </c>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="147" t="s">
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="148" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A39" s="165" t="s">
+    <row r="39" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A39" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="166">
+      <c r="C39" s="167">
         <v>31389</v>
       </c>
-      <c r="D39" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="167">
+      <c r="D39" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="168">
         <v>92629</v>
       </c>
-      <c r="G39" s="167" t="s">
+      <c r="G39" s="168" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="167" t="s">
+      <c r="H39" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="167" t="s">
+      <c r="I39" s="168" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="167">
+      <c r="J39" s="168">
         <v>30</v>
       </c>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
-      <c r="M39" s="147" t="s">
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="148" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A40" s="165" t="s">
+    <row r="40" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A40" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="166">
+      <c r="C40" s="167">
         <v>31817</v>
       </c>
-      <c r="D40" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="167">
+      <c r="D40" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="168">
         <v>92656</v>
       </c>
-      <c r="G40" s="167" t="s">
+      <c r="G40" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="167" t="s">
+      <c r="H40" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="167" t="s">
+      <c r="I40" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="167">
+      <c r="J40" s="168">
         <v>5</v>
       </c>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="147" t="s">
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="148" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A41" s="168" t="s">
+    <row r="41" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A41" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="166">
+      <c r="C41" s="167">
         <v>32487</v>
       </c>
-      <c r="D41" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="167">
+      <c r="D41" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="168">
         <v>92592</v>
       </c>
-      <c r="G41" s="167" t="s">
+      <c r="G41" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="167" t="s">
+      <c r="H41" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="I41" s="167" t="s">
+      <c r="I41" s="168" t="s">
         <v>212</v>
       </c>
-      <c r="J41" s="167">
+      <c r="J41" s="168">
         <v>5</v>
       </c>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
-      <c r="M41" s="147" t="s">
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="148" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A42" s="157" t="s">
+    <row r="42" s="146" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A42" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="160" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="160">
+      <c r="C42" s="161">
         <v>31666</v>
       </c>
-      <c r="D42" s="161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="161">
+      <c r="D42" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="162">
         <v>90732</v>
       </c>
-      <c r="G42" s="161" t="s">
+      <c r="G42" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="H42" s="161" t="s">
+      <c r="H42" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="I42" s="161" t="s">
+      <c r="I42" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="J42" s="161">
+      <c r="J42" s="162">
         <v>5</v>
       </c>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="145" t="s">
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="146" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A43" s="165" t="s">
+    <row r="43" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A43" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="166" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="166">
+      <c r="C43" s="167">
         <v>31675</v>
       </c>
-      <c r="D43" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="167">
+      <c r="D43" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="168">
         <v>90731</v>
       </c>
-      <c r="G43" s="167" t="s">
+      <c r="G43" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="167" t="s">
+      <c r="H43" s="168" t="s">
         <v>223</v>
       </c>
-      <c r="I43" s="167" t="s">
+      <c r="I43" s="168" t="s">
         <v>224</v>
       </c>
-      <c r="J43" s="167">
+      <c r="J43" s="168">
         <v>5</v>
       </c>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="147" t="s">
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="148" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A44" s="165" t="s">
+    <row r="44" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A44" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="166">
+      <c r="C44" s="167">
         <v>32490</v>
       </c>
-      <c r="D44" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="167">
+      <c r="D44" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="168">
         <v>91405</v>
       </c>
-      <c r="G44" s="167" t="s">
+      <c r="G44" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="167" t="s">
+      <c r="H44" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="I44" s="167" t="s">
+      <c r="I44" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="J44" s="167">
+      <c r="J44" s="168">
         <v>5</v>
       </c>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="147" t="s">
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="148" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A45" s="165" t="s">
+    <row r="45" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A45" s="166" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="166" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="166">
+      <c r="C45" s="167">
         <v>31669</v>
       </c>
-      <c r="D45" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="167">
+      <c r="D45" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="168">
         <v>90044</v>
       </c>
-      <c r="G45" s="167" t="s">
+      <c r="G45" s="168" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="167" t="s">
+      <c r="H45" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="I45" s="167" t="s">
+      <c r="I45" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="J45" s="167">
+      <c r="J45" s="168">
         <v>5</v>
       </c>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167"/>
-      <c r="M45" s="147" t="s">
+      <c r="K45" s="168"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="148" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A46" s="165" t="s">
+    <row r="46" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A46" s="166" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="166" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="166">
+      <c r="C46" s="167">
         <v>32528</v>
       </c>
-      <c r="D46" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="167">
+      <c r="D46" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="168">
         <v>91367</v>
       </c>
-      <c r="G46" s="167" t="s">
+      <c r="G46" s="168" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="167" t="s">
+      <c r="H46" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="I46" s="167" t="s">
+      <c r="I46" s="168" t="s">
         <v>242</v>
       </c>
-      <c r="J46" s="167">
+      <c r="J46" s="168">
         <v>5</v>
       </c>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="147" t="s">
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="148" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A47" s="165" t="s">
+    <row r="47" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A47" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="165" t="s">
+      <c r="B47" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="166">
+      <c r="C47" s="167">
         <v>31548</v>
       </c>
-      <c r="D47" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="167">
+      <c r="D47" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="168">
         <v>91335</v>
       </c>
-      <c r="G47" s="167" t="s">
+      <c r="G47" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="167" t="s">
+      <c r="H47" s="168" t="s">
         <v>247</v>
       </c>
-      <c r="I47" s="167" t="s">
+      <c r="I47" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="167">
+      <c r="J47" s="168">
         <v>5</v>
       </c>
-      <c r="K47" s="167"/>
-      <c r="L47" s="167"/>
-      <c r="M47" s="147" t="s">
+      <c r="K47" s="168"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="148" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A48" s="165" t="s">
+    <row r="48" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A48" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="166" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="166">
+      <c r="C48" s="167">
         <v>31672</v>
       </c>
-      <c r="D48" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="167">
+      <c r="D48" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="168">
         <v>90042</v>
       </c>
-      <c r="G48" s="167" t="s">
+      <c r="G48" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="H48" s="167" t="s">
+      <c r="H48" s="168" t="s">
         <v>253</v>
       </c>
-      <c r="I48" s="167" t="s">
+      <c r="I48" s="168" t="s">
         <v>254</v>
       </c>
-      <c r="J48" s="167">
+      <c r="J48" s="168">
         <v>5</v>
       </c>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
-      <c r="M48" s="147" t="s">
+      <c r="K48" s="168"/>
+      <c r="L48" s="168"/>
+      <c r="M48" s="148" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A49" s="165" t="s">
+    <row r="49" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A49" s="166" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="166" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="166">
+      <c r="C49" s="167">
         <v>32105</v>
       </c>
-      <c r="D49" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="167">
+      <c r="D49" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="168">
         <v>91344</v>
       </c>
-      <c r="G49" s="167" t="s">
+      <c r="G49" s="168" t="s">
         <v>258</v>
       </c>
-      <c r="H49" s="167" t="s">
+      <c r="H49" s="168" t="s">
         <v>259</v>
       </c>
-      <c r="I49" s="167" t="s">
+      <c r="I49" s="168" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="167">
+      <c r="J49" s="168">
         <v>5</v>
       </c>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
-      <c r="M49" s="147" t="s">
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="148" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" s="147" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A50" s="165" t="s">
+    <row r="50" s="148" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A50" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="168" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="166">
+      <c r="C50" s="167">
         <v>31674</v>
       </c>
-      <c r="D50" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="167">
+      <c r="D50" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="168">
         <v>90732</v>
       </c>
-      <c r="G50" s="167" t="s">
+      <c r="G50" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="H50" s="167" t="s">
+      <c r="H50" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="I50" s="167" t="s">
+      <c r="I50" s="168" t="s">
         <v>266</v>
       </c>
-      <c r="J50" s="167">
+      <c r="J50" s="168">
         <v>5</v>
       </c>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="147" t="s">
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="148" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="51" s="143" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A51" s="169"/>
-      <c r="C51" s="154"/>
-    </row>
-    <row r="52" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="157" t="s">
+    <row r="51" s="144" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A51" s="170"/>
+      <c r="C51" s="155"/>
+    </row>
+    <row r="52" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A52" s="158" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="144" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="154">
+      <c r="C52" s="155">
         <v>32357</v>
       </c>
-      <c r="D52" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="143">
+      <c r="D52" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="144">
         <v>90002</v>
       </c>
-      <c r="G52" s="143" t="s">
+      <c r="G52" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="H52" s="143" t="s">
+      <c r="H52" s="144" t="s">
         <v>271</v>
       </c>
-      <c r="I52" s="143" t="s">
+      <c r="I52" s="144" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="53" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A53" s="169" t="s">
+    <row r="53" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A53" s="170" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="144" t="s">
         <v>274</v>
       </c>
-      <c r="C53" s="154">
+      <c r="C53" s="155">
         <v>32407</v>
       </c>
-      <c r="D53" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="143">
+      <c r="D53" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="144">
         <v>91343</v>
       </c>
-      <c r="G53" s="143" t="s">
+      <c r="G53" s="144" t="s">
         <v>275</v>
       </c>
-      <c r="H53" s="143" t="s">
+      <c r="H53" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="I53" s="143" t="s">
+      <c r="I53" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="M53" s="171" t="s">
+      <c r="M53" s="172" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="54" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A54" s="169" t="s">
+    <row r="54" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A54" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="154">
+      <c r="C54" s="155">
         <v>31830</v>
       </c>
-      <c r="D54" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="143">
+      <c r="D54" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="144">
         <v>90065</v>
       </c>
-      <c r="G54" s="143" t="s">
+      <c r="G54" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="H54" s="143" t="s">
+      <c r="H54" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="I54" s="143" t="s">
+      <c r="I54" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="M54" s="170" t="s">
+      <c r="M54" s="171" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A55" s="169" t="s">
+    <row r="55" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A55" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="155">
         <v>32662</v>
       </c>
-      <c r="D55" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="143">
+      <c r="D55" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="144">
         <v>91402</v>
       </c>
-      <c r="G55" s="143" t="s">
+      <c r="G55" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="143" t="s">
+      <c r="H55" s="144" t="s">
         <v>285</v>
       </c>
-      <c r="I55" s="143" t="s">
+      <c r="I55" s="144" t="s">
         <v>286</v>
       </c>
-      <c r="M55" s="170" t="s">
+      <c r="M55" s="171" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A56" s="169" t="s">
+    <row r="56" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A56" s="170" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="144" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="154">
+      <c r="C56" s="155">
         <v>32775</v>
       </c>
-      <c r="D56" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="143">
+      <c r="D56" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="144">
         <v>92336</v>
       </c>
-      <c r="G56" s="143" t="s">
+      <c r="G56" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="143" t="s">
+      <c r="H56" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="I56" s="143" t="s">
+      <c r="I56" s="144" t="s">
         <v>291</v>
       </c>
-      <c r="M56" s="170" t="s">
+      <c r="M56" s="171" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A57" s="169" t="s">
+    <row r="57" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A57" s="170" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="154">
+      <c r="C57" s="155">
         <v>31834</v>
       </c>
-      <c r="D57" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="143">
+      <c r="D57" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="144">
         <v>91730</v>
       </c>
-      <c r="G57" s="143" t="s">
+      <c r="G57" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="143" t="s">
+      <c r="H57" s="144" t="s">
         <v>295</v>
       </c>
-      <c r="I57" s="143" t="s">
+      <c r="I57" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="M57" s="143" t="s">
+      <c r="M57" s="144" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="58" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A58" s="169" t="s">
+    <row r="58" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A58" s="170" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="144" t="s">
         <v>299</v>
       </c>
-      <c r="C58" s="154">
+      <c r="C58" s="155">
         <v>32388</v>
       </c>
-      <c r="D58" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="143">
+      <c r="D58" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="144">
         <v>91607</v>
       </c>
-      <c r="G58" s="143" t="s">
+      <c r="G58" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="143" t="s">
+      <c r="H58" s="144" t="s">
         <v>300</v>
       </c>
-      <c r="I58" s="143" t="s">
+      <c r="I58" s="144" t="s">
         <v>301</v>
       </c>
-      <c r="M58" s="143" t="s">
+      <c r="M58" s="144" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A59" s="143" t="s">
+    <row r="59" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A59" s="144" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="143" t="s">
+      <c r="B59" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="154">
+      <c r="C59" s="155">
         <v>32245</v>
       </c>
-      <c r="D59" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="143">
+      <c r="D59" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="144">
         <v>93030</v>
       </c>
-      <c r="G59" s="143" t="s">
+      <c r="G59" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="H59" s="143" t="s">
+      <c r="H59" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I59" s="143" t="s">
+      <c r="I59" s="144" t="s">
         <v>306</v>
       </c>
-      <c r="M59" s="170" t="s">
+      <c r="M59" s="171" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="60" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A60" s="144" t="s">
+    <row r="60" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A60" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="B60" s="144" t="s">
+      <c r="B60" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="156">
+      <c r="C60" s="157">
         <v>32596</v>
       </c>
-      <c r="D60" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="144">
+      <c r="D60" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="145">
         <v>92139</v>
       </c>
-      <c r="G60" s="144" t="s">
+      <c r="G60" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H60" s="144" t="s">
+      <c r="H60" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="144" t="s">
+      <c r="I60" s="145" t="s">
         <v>310</v>
       </c>
-      <c r="M60" s="146" t="s">
+      <c r="M60" s="147" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="61" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A61" s="143" t="s">
+    <row r="61" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A61" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="143" t="s">
+      <c r="B61" s="144" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="154">
+      <c r="C61" s="155">
         <v>32893</v>
       </c>
-      <c r="D61" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="143">
+      <c r="D61" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="144">
         <v>90042</v>
       </c>
-      <c r="G61" s="155" t="s">
+      <c r="G61" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="161" t="s">
+      <c r="H61" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="143" t="s">
+      <c r="I61" s="144" t="s">
         <v>314</v>
       </c>
-      <c r="M61" s="170" t="s">
+      <c r="M61" s="171" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="62" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A62" s="143" t="s">
+    <row r="62" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A62" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="144" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="154">
+      <c r="C62" s="155">
         <v>32560</v>
       </c>
-      <c r="D62" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="143">
+      <c r="D62" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="144">
         <v>91604</v>
       </c>
-      <c r="G62" s="143" t="s">
+      <c r="G62" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="161" t="s">
+      <c r="H62" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="143" t="s">
+      <c r="I62" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="M62" s="170" t="s">
+      <c r="M62" s="171" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="63" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A63" s="144" t="s">
+    <row r="63" s="145" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A63" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="144" t="s">
+      <c r="B63" s="145" t="s">
         <v>321</v>
       </c>
-      <c r="C63" s="156">
+      <c r="C63" s="157">
         <v>32965</v>
       </c>
-      <c r="D63" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="144">
+      <c r="D63" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="145">
         <v>90065</v>
       </c>
-      <c r="G63" s="144" t="s">
+      <c r="G63" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="144" t="s">
+      <c r="H63" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="144" t="s">
+      <c r="I63" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="M63" s="146" t="s">
+      <c r="M63" s="147" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="64" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A64" s="143" t="s">
+    <row r="64" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A64" s="144" t="s">
         <v>324</v>
       </c>
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="144" t="s">
         <v>325</v>
       </c>
-      <c r="C64" s="154">
+      <c r="C64" s="155">
         <v>32165</v>
       </c>
-      <c r="D64" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="143">
+      <c r="D64" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="144">
         <v>90032</v>
       </c>
-      <c r="G64" s="143" t="s">
+      <c r="G64" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="161" t="s">
+      <c r="H64" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="I64" s="143" t="s">
+      <c r="I64" s="144" t="s">
         <v>326</v>
       </c>
-      <c r="M64" s="170" t="s">
+      <c r="M64" s="171" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="65" s="143" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A65" s="143" t="s">
+    <row r="65" s="144" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A65" s="144" t="s">
         <v>328</v>
       </c>
-      <c r="B65" s="143" t="s">
+      <c r="B65" s="144" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="154">
+      <c r="C65" s="155">
         <v>32652</v>
       </c>
-      <c r="D65" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="143">
+      <c r="D65" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="144">
         <v>90042</v>
       </c>
-      <c r="G65" s="143" t="s">
+      <c r="G65" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="161" t="s">
+      <c r="H65" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="I65" s="143" t="s">
+      <c r="I65" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="M65" s="170" t="s">
+      <c r="M65" s="171" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A66" s="144" t="s">
+    <row r="66" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A66" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="B66" s="144" t="s">
+      <c r="B66" s="145" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="156">
+      <c r="C66" s="157">
         <v>32937</v>
       </c>
-      <c r="D66" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="144">
+      <c r="D66" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="145">
         <v>90065</v>
       </c>
-      <c r="G66" s="144" t="s">
+      <c r="G66" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="H66" s="144" t="s">
+      <c r="H66" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="I66" s="144" t="s">
+      <c r="I66" s="145" t="s">
         <v>334</v>
       </c>
-      <c r="M66" s="144" t="s">
+      <c r="M66" s="145" t="s">
         <v>335</v>
       </c>
-      <c r="N66" s="144" t="s">
+      <c r="N66" s="145" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="67" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A67" s="143" t="s">
+    <row r="67" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A67" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="144" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="154">
+      <c r="C67" s="155">
         <v>32350</v>
       </c>
-      <c r="D67" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="143">
+      <c r="D67" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="144">
         <v>92596</v>
       </c>
-      <c r="G67" s="143" t="s">
+      <c r="G67" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="161" t="s">
+      <c r="H67" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="I67" s="143" t="s">
+      <c r="I67" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="M67" s="143" t="s">
+      <c r="M67" s="144" t="s">
         <v>340</v>
       </c>
-      <c r="N67" s="143" t="s">
+      <c r="N67" s="144" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="68" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A68" s="143" t="s">
+    <row r="68" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A68" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="143" t="s">
+      <c r="B68" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="154">
+      <c r="C68" s="155">
         <v>32931</v>
       </c>
-      <c r="D68" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="143">
+      <c r="D68" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="144">
         <v>92620</v>
       </c>
-      <c r="G68" s="143" t="s">
+      <c r="G68" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="161" t="s">
+      <c r="H68" s="162" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="143" t="s">
+      <c r="I68" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="M68" s="143" t="s">
+      <c r="M68" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="N68" s="173" t="s">
+      <c r="N68" s="174" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A69" s="144" t="s">
+    <row r="69" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A69" s="145" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="144" t="s">
+      <c r="B69" s="145" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="156">
+      <c r="C69" s="157">
         <v>32606</v>
       </c>
-      <c r="D69" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="144">
+      <c r="D69" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="145">
         <v>92253</v>
       </c>
-      <c r="G69" s="144" t="s">
+      <c r="G69" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="144" t="s">
+      <c r="H69" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="144" t="s">
+      <c r="I69" s="145" t="s">
         <v>349</v>
       </c>
-      <c r="M69" s="144" t="s">
+      <c r="M69" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="N69" s="174" t="s">
+      <c r="N69" s="175" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="70" s="148" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A70" s="148" t="s">
+    <row r="70" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A70" s="149" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="148" t="s">
+      <c r="B70" s="149" t="s">
         <v>353</v>
       </c>
-      <c r="C70" s="172">
+      <c r="C70" s="173">
         <v>32154</v>
       </c>
-      <c r="D70" s="148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="148" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="148">
+      <c r="D70" s="149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="149">
         <v>93004</v>
       </c>
-      <c r="G70" s="148" t="s">
+      <c r="G70" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="148" t="s">
+      <c r="H70" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="148" t="s">
+      <c r="I70" s="149" t="s">
         <v>354</v>
       </c>
-      <c r="M70" s="148" t="s">
+      <c r="M70" s="149" t="s">
         <v>355</v>
       </c>
-      <c r="N70" s="175" t="s">
+      <c r="N70" s="176" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A71" s="144" t="s">
+    <row r="71" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A71" s="145" t="s">
         <v>357</v>
       </c>
-      <c r="B71" s="144" t="s">
+      <c r="B71" s="145" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="156">
+      <c r="C71" s="157">
         <v>32998</v>
       </c>
-      <c r="D71" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="144">
+      <c r="D71" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="145">
         <v>92880</v>
       </c>
-      <c r="G71" s="144" t="s">
+      <c r="G71" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="H71" s="144" t="s">
+      <c r="H71" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="144" t="s">
+      <c r="I71" s="145" t="s">
         <v>359</v>
       </c>
-      <c r="M71" s="144" t="s">
+      <c r="M71" s="145" t="s">
         <v>360</v>
       </c>
-      <c r="N71" s="174" t="s">
+      <c r="N71" s="175" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A72" s="144" t="s">
+    <row r="72" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A72" s="145" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="144" t="s">
+      <c r="B72" s="145" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="156">
+      <c r="C72" s="157">
         <v>33427</v>
       </c>
-      <c r="D72" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="144">
+      <c r="D72" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="145">
         <v>95127</v>
       </c>
-      <c r="G72" s="144" t="s">
+      <c r="G72" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="144" t="s">
+      <c r="H72" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="I72" s="144" t="s">
+      <c r="I72" s="145" t="s">
         <v>364</v>
       </c>
-      <c r="M72" s="144" t="s">
+      <c r="M72" s="145" t="s">
         <v>365</v>
       </c>
-      <c r="N72" s="174" t="s">
+      <c r="N72" s="175" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="73" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A73" s="143" t="s">
+    <row r="73" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A73" s="144" t="s">
         <v>367</v>
       </c>
-      <c r="B73" s="143" t="s">
+      <c r="B73" s="144" t="s">
         <v>368</v>
       </c>
-      <c r="C73" s="154">
+      <c r="C73" s="155">
         <v>32553</v>
       </c>
-      <c r="D73" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="143">
+      <c r="D73" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="144">
         <v>94804</v>
       </c>
-      <c r="G73" s="161" t="s">
+      <c r="G73" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="161" t="s">
+      <c r="H73" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="143" t="s">
+      <c r="I73" s="144" t="s">
         <v>369</v>
       </c>
-      <c r="M73" s="143" t="s">
+      <c r="M73" s="144" t="s">
         <v>370</v>
       </c>
-      <c r="N73" s="173" t="s">
+      <c r="N73" s="174" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="74" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A74" s="144" t="s">
+    <row r="74" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A74" s="145" t="s">
         <v>372</v>
       </c>
-      <c r="B74" s="144" t="s">
+      <c r="B74" s="145" t="s">
         <v>373</v>
       </c>
-      <c r="C74" s="156">
+      <c r="C74" s="157">
         <v>32906</v>
       </c>
-      <c r="D74" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="144">
+      <c r="D74" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="145">
         <v>94551</v>
       </c>
-      <c r="G74" s="144" t="s">
+      <c r="G74" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="144" t="s">
+      <c r="H74" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="I74" s="144" t="s">
+      <c r="I74" s="145" t="s">
         <v>374</v>
       </c>
-      <c r="M74" s="144" t="s">
+      <c r="M74" s="145" t="s">
         <v>375</v>
       </c>
-      <c r="N74" s="174" t="s">
+      <c r="N74" s="175" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A75" s="144" t="s">
+    <row r="75" s="145" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A75" s="145" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="144" t="s">
+      <c r="B75" s="145" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="156">
+      <c r="C75" s="157">
         <v>32327</v>
       </c>
-      <c r="D75" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="144">
+      <c r="D75" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="145">
         <v>94530</v>
       </c>
-      <c r="G75" s="144" t="s">
+      <c r="G75" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="144" t="s">
+      <c r="H75" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="I75" s="144" t="s">
+      <c r="I75" s="145" t="s">
         <v>379</v>
       </c>
-      <c r="M75" s="144" t="s">
+      <c r="M75" s="145" t="s">
         <v>380</v>
       </c>
-      <c r="N75" s="174" t="s">
+      <c r="N75" s="175" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A76" s="143" t="s">
+    <row r="76" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A76" s="144" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="143" t="s">
+      <c r="B76" s="144" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="154">
+      <c r="C76" s="155">
         <v>32724</v>
       </c>
-      <c r="D76" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="143">
+      <c r="D76" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="144">
         <v>91722</v>
       </c>
-      <c r="G76" s="161" t="s">
+      <c r="G76" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="H76" s="161" t="s">
+      <c r="H76" s="162" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="143" t="s">
+      <c r="I76" s="144" t="s">
         <v>384</v>
       </c>
-      <c r="M76" s="143" t="s">
+      <c r="M76" s="144" t="s">
         <v>385</v>
       </c>
-      <c r="N76" s="173" t="s">
+      <c r="N76" s="174" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="77" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A77" s="143" t="s">
+    <row r="77" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A77" s="144" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="143" t="s">
+      <c r="B77" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="154">
+      <c r="C77" s="155">
         <v>32544</v>
       </c>
-      <c r="D77" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="143">
+      <c r="D77" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="144">
         <v>90260</v>
       </c>
-      <c r="G77" s="161" t="s">
+      <c r="G77" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="H77" s="161" t="s">
+      <c r="H77" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="143" t="s">
+      <c r="I77" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="J77" s="143">
+      <c r="J77" s="144">
         <v>255</v>
       </c>
-      <c r="M77" s="143" t="s">
+      <c r="M77" s="144" t="s">
         <v>390</v>
       </c>
-      <c r="N77" s="173" t="s">
+      <c r="N77" s="174" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="78" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A78" s="143" t="s">
+    <row r="78" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A78" s="144" t="s">
         <v>392</v>
       </c>
-      <c r="B78" s="143" t="s">
+      <c r="B78" s="144" t="s">
         <v>393</v>
       </c>
-      <c r="C78" s="154">
+      <c r="C78" s="155">
         <v>32979</v>
       </c>
-      <c r="D78" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="143">
+      <c r="D78" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="144">
         <v>90650</v>
       </c>
-      <c r="G78" s="161" t="s">
+      <c r="G78" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="161" t="s">
+      <c r="H78" s="162" t="s">
         <v>199</v>
       </c>
-      <c r="I78" s="143" t="s">
+      <c r="I78" s="144" t="s">
         <v>394</v>
       </c>
-      <c r="M78" s="143" t="s">
+      <c r="M78" s="144" t="s">
         <v>395</v>
       </c>
-      <c r="N78" s="173" t="s">
+      <c r="N78" s="174" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A79" s="143" t="s">
+    <row r="79" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A79" s="144" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="143" t="s">
+      <c r="B79" s="144" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="154">
+      <c r="C79" s="155">
         <v>32966</v>
       </c>
-      <c r="D79" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="143">
+      <c r="D79" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="144">
         <v>90066</v>
       </c>
-      <c r="G79" s="161" t="s">
+      <c r="G79" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="161" t="s">
+      <c r="H79" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="143" t="s">
+      <c r="I79" s="144" t="s">
         <v>399</v>
       </c>
-      <c r="M79" s="143" t="s">
+      <c r="M79" s="144" t="s">
         <v>400</v>
       </c>
-      <c r="N79" s="173" t="s">
+      <c r="N79" s="174" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="80" s="143" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A80" s="143" t="s">
+    <row r="80" s="144" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A80" s="144" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="143" t="s">
+      <c r="B80" s="144" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="154">
+      <c r="C80" s="155">
         <v>32174</v>
       </c>
-      <c r="D80" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="143">
+      <c r="D80" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="144">
         <v>90650</v>
       </c>
-      <c r="G80" s="161" t="s">
+      <c r="G80" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="161" t="s">
+      <c r="H80" s="162" t="s">
         <v>211</v>
       </c>
-      <c r="I80" s="143" t="s">
+      <c r="I80" s="144" t="s">
         <v>404</v>
       </c>
-      <c r="M80" s="143" t="s">
+      <c r="M80" s="144" t="s">
         <v>405</v>
       </c>
-      <c r="N80" s="173" t="s">
+      <c r="N80" s="174" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="81" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D81" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="143">
+    <row r="81" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D81" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="144">
         <v>93040</v>
       </c>
-      <c r="G81" s="161" t="s">
+      <c r="G81" s="162" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="161" t="s">
+      <c r="H81" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="I81" s="143" t="s">
+      <c r="I81" s="144" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D82" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="143">
+    <row r="82" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D82" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="144">
         <v>95135</v>
       </c>
-      <c r="G82" s="161" t="s">
+      <c r="G82" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="161" t="s">
+      <c r="H82" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="I82" s="143" t="s">
+      <c r="I82" s="144" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="83" s="143" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A83" s="170"/>
-      <c r="D83" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="143">
+    <row r="83" s="144" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A83" s="171"/>
+      <c r="D83" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="144">
         <v>94118</v>
       </c>
-      <c r="G83" s="161" t="s">
+      <c r="G83" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="H83" s="161" t="s">
+      <c r="H83" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="I83" s="143" t="s">
+      <c r="I83" s="144" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="84" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A84" s="170"/>
-      <c r="D84" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="161" t="s">
+    <row r="84" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A84" s="171"/>
+      <c r="D84" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="162" t="s">
         <v>162</v>
       </c>
-      <c r="H84" s="161" t="s">
+      <c r="H84" s="162" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="85" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A85" s="170"/>
-      <c r="D85" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="161" t="s">
+    <row r="85" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A85" s="171"/>
+      <c r="D85" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="H85" s="161" t="s">
+      <c r="H85" s="162" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A86" s="170"/>
-      <c r="D86" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="161" t="s">
+    <row r="86" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A86" s="171"/>
+      <c r="D86" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="161" t="s">
+      <c r="H86" s="162" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A87" s="170"/>
-      <c r="D87" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="161" t="s">
+    <row r="87" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A87" s="171"/>
+      <c r="D87" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="162" t="s">
         <v>180</v>
       </c>
-      <c r="H87" s="161" t="s">
+      <c r="H87" s="162" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A88" s="170"/>
-      <c r="D88" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="161" t="s">
+    <row r="88" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A88" s="171"/>
+      <c r="D88" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="H88" s="161" t="s">
+      <c r="H88" s="162" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="89" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A89" s="170"/>
-      <c r="D89" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="161" t="s">
+    <row r="89" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A89" s="171"/>
+      <c r="D89" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="162" t="s">
         <v>192</v>
       </c>
-      <c r="H89" s="161" t="s">
+      <c r="H89" s="162" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="90" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A90" s="170"/>
-      <c r="D90" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="161" t="s">
+    <row r="90" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A90" s="171"/>
+      <c r="D90" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="162" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="143" t="s">
+      <c r="H90" s="144" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A91" s="170"/>
-      <c r="D91" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="161" t="s">
+    <row r="91" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A91" s="171"/>
+      <c r="D91" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="162" t="s">
         <v>204</v>
       </c>
-      <c r="H91" s="143" t="s">
+      <c r="H91" s="144" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A92" s="170"/>
-      <c r="D92" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="161" t="s">
+    <row r="92" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A92" s="171"/>
+      <c r="D92" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="162" t="s">
         <v>210</v>
       </c>
-      <c r="H92" s="143" t="s">
+      <c r="H92" s="144" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A93" s="170"/>
-      <c r="D93" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="161" t="s">
+    <row r="93" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A93" s="171"/>
+      <c r="D93" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="H93" s="143" t="s">
+      <c r="H93" s="144" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A94" s="170"/>
-      <c r="D94" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="161" t="s">
+    <row r="94" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A94" s="171"/>
+      <c r="D94" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="162" t="s">
         <v>222</v>
       </c>
-      <c r="H94" s="143" t="s">
+      <c r="H94" s="144" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A95" s="170"/>
-      <c r="D95" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="161" t="s">
+    <row r="95" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A95" s="171"/>
+      <c r="D95" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="162" t="s">
         <v>228</v>
       </c>
-      <c r="H95" s="143" t="s">
+      <c r="H95" s="144" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A96" s="170"/>
-      <c r="D96" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="161" t="s">
+    <row r="96" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A96" s="171"/>
+      <c r="D96" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="H96" s="143" t="s">
+      <c r="H96" s="144" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A97" s="170"/>
-      <c r="D97" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="161" t="s">
+    <row r="97" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A97" s="171"/>
+      <c r="D97" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="H97" s="143" t="s">
+      <c r="H97" s="144" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A98" s="170"/>
-      <c r="D98" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="161" t="s">
+    <row r="98" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A98" s="171"/>
+      <c r="D98" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="H98" s="143" t="s">
+      <c r="H98" s="144" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A99" s="170"/>
-      <c r="D99" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="161" t="s">
+    <row r="99" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A99" s="171"/>
+      <c r="D99" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="162" t="s">
         <v>252</v>
       </c>
-      <c r="H99" s="143" t="s">
+      <c r="H99" s="144" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A100" s="170"/>
-      <c r="D100" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="161" t="s">
+    <row r="100" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A100" s="171"/>
+      <c r="D100" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="162" t="s">
         <v>258</v>
       </c>
-      <c r="H100" s="143" t="s">
+      <c r="H100" s="144" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" s="143" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A101" s="170"/>
-      <c r="D101" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="161" t="s">
+    <row r="101" s="144" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A101" s="171"/>
+      <c r="D101" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="162" t="s">
         <v>264</v>
       </c>
-      <c r="H101" s="143" t="s">
+      <c r="H101" s="144" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D102" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D103" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A104" s="170"/>
-      <c r="D104" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A105" s="170"/>
-      <c r="D105" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A106" s="170"/>
-      <c r="D106" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A107" s="170"/>
-      <c r="D107" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A108" s="170"/>
-      <c r="D108" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A109" s="170"/>
-      <c r="D109" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A110" s="170"/>
-      <c r="D110" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A111" s="170"/>
-      <c r="D111" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A112" s="170"/>
-      <c r="D112" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A113" s="170"/>
-      <c r="D113" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A114" s="170"/>
-      <c r="D114" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A115" s="170"/>
-      <c r="D115" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A116" s="170"/>
-      <c r="D116" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A117" s="170"/>
-      <c r="D117" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A118" s="170"/>
-      <c r="D118" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A119" s="170"/>
-      <c r="D119" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" s="143" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A120" s="170"/>
-      <c r="D120" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D121" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D122" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D123" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D124" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D125" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D126" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D127" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D128" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D129" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D130" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D131" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D132" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D133" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D134" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D135" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D136" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D137" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D138" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D139" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D140" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D141" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D142" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D143" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D144" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D145" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D146" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D147" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D148" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D149" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D150" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D151" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" s="143" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D152" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D153" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="176"/>
-    </row>
-    <row r="154" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D154" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="176"/>
-    </row>
-    <row r="155" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D155" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="176"/>
-    </row>
-    <row r="156" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D156" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="176"/>
-    </row>
-    <row r="157" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D157" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="176"/>
-    </row>
-    <row r="158" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D158" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="176"/>
-    </row>
-    <row r="159" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D159" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="176"/>
-    </row>
-    <row r="160" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D160" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="176"/>
-    </row>
-    <row r="161" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D161" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="176"/>
-    </row>
-    <row r="162" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D162" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="176"/>
-    </row>
-    <row r="163" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D163" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="176"/>
-    </row>
-    <row r="164" s="143" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D164" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="143" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="176"/>
-    </row>
-    <row r="165" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I165" s="176"/>
-    </row>
-    <row r="166" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I166" s="176"/>
-    </row>
-    <row r="167" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I167" s="176"/>
-    </row>
-    <row r="168" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I168" s="176"/>
-    </row>
-    <row r="169" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I169" s="176"/>
-    </row>
-    <row r="170" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I170" s="176"/>
-    </row>
-    <row r="171" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I171" s="176"/>
-    </row>
-    <row r="172" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I172" s="176"/>
-    </row>
-    <row r="173" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I173" s="176"/>
-    </row>
-    <row r="174" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I174" s="176"/>
-    </row>
-    <row r="175" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I175" s="176"/>
-    </row>
-    <row r="176" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I176" s="176"/>
-    </row>
-    <row r="177" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I177" s="176"/>
-    </row>
-    <row r="178" s="143" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I178" s="176"/>
+    <row r="102" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D102" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D103" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A104" s="171"/>
+      <c r="D104" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A105" s="171"/>
+      <c r="D105" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A106" s="171"/>
+      <c r="D106" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A107" s="171"/>
+      <c r="D107" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A108" s="171"/>
+      <c r="D108" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A109" s="171"/>
+      <c r="D109" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A110" s="171"/>
+      <c r="D110" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A111" s="171"/>
+      <c r="D111" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A112" s="171"/>
+      <c r="D112" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A113" s="171"/>
+      <c r="D113" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A114" s="171"/>
+      <c r="D114" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A115" s="171"/>
+      <c r="D115" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A116" s="171"/>
+      <c r="D116" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A117" s="171"/>
+      <c r="D117" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A118" s="171"/>
+      <c r="D118" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A119" s="171"/>
+      <c r="D119" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" s="144" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A120" s="171"/>
+      <c r="D120" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D121" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D122" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D123" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D124" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D125" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D126" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D127" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D128" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D129" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D130" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D131" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D132" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D133" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D134" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D135" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D136" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D137" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D138" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D139" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D140" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D141" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D142" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D143" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D144" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D145" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D146" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D147" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D148" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D149" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D150" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D151" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" s="144" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D152" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D153" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="177"/>
+    </row>
+    <row r="154" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D154" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="177"/>
+    </row>
+    <row r="155" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D155" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="177"/>
+    </row>
+    <row r="156" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D156" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="177"/>
+    </row>
+    <row r="157" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D157" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="177"/>
+    </row>
+    <row r="158" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D158" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="177"/>
+    </row>
+    <row r="159" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D159" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="177"/>
+    </row>
+    <row r="160" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D160" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="177"/>
+    </row>
+    <row r="161" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D161" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="177"/>
+    </row>
+    <row r="162" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D162" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="177"/>
+    </row>
+    <row r="163" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D163" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="177"/>
+    </row>
+    <row r="164" s="144" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D164" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="177"/>
+    </row>
+    <row r="165" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I165" s="177"/>
+    </row>
+    <row r="166" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I166" s="177"/>
+    </row>
+    <row r="167" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I167" s="177"/>
+    </row>
+    <row r="168" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I168" s="177"/>
+    </row>
+    <row r="169" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I169" s="177"/>
+    </row>
+    <row r="170" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I170" s="177"/>
+    </row>
+    <row r="171" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I171" s="177"/>
+    </row>
+    <row r="172" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I172" s="177"/>
+    </row>
+    <row r="173" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I173" s="177"/>
+    </row>
+    <row r="174" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I174" s="177"/>
+    </row>
+    <row r="175" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I175" s="177"/>
+    </row>
+    <row r="176" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I176" s="177"/>
+    </row>
+    <row r="177" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I177" s="177"/>
+    </row>
+    <row r="178" s="144" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I178" s="177"/>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="8:9">
       <c r="H179" s="11"/>
-      <c r="I179" s="177"/>
+      <c r="I179" s="178"/>
     </row>
     <row r="180" ht="14.25" customHeight="1" spans="8:9">
       <c r="H180" s="11"/>
-      <c r="I180" s="177"/>
+      <c r="I180" s="178"/>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="8:9">
       <c r="H181" s="11"/>
-      <c r="I181" s="177"/>
+      <c r="I181" s="178"/>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="8:9">
       <c r="H182" s="11"/>
-      <c r="I182" s="177"/>
+      <c r="I182" s="178"/>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="8:9">
       <c r="H183" s="11"/>
-      <c r="I183" s="177"/>
+      <c r="I183" s="178"/>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="8:9">
       <c r="H184" s="11"/>
-      <c r="I184" s="177"/>
+      <c r="I184" s="178"/>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="8:9">
       <c r="H185" s="11"/>
-      <c r="I185" s="177"/>
+      <c r="I185" s="178"/>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="8:9">
       <c r="H186" s="11"/>
-      <c r="I186" s="177"/>
+      <c r="I186" s="178"/>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="8:9">
       <c r="H187" s="11"/>
-      <c r="I187" s="177"/>
+      <c r="I187" s="178"/>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="8:9">
       <c r="H188" s="11"/>
-      <c r="I188" s="177"/>
+      <c r="I188" s="178"/>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="8:9">
       <c r="H189" s="11"/>
-      <c r="I189" s="177"/>
+      <c r="I189" s="178"/>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="8:9">
       <c r="H190" s="11"/>
-      <c r="I190" s="177"/>
+      <c r="I190" s="178"/>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="8:9">
       <c r="H191" s="11"/>
-      <c r="I191" s="177"/>
+      <c r="I191" s="178"/>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="8:9">
       <c r="H192" s="11"/>
-      <c r="I192" s="177"/>
+      <c r="I192" s="178"/>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="8:9">
       <c r="H193" s="11"/>
-      <c r="I193" s="177"/>
+      <c r="I193" s="178"/>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="8:9">
       <c r="H194" s="11"/>
-      <c r="I194" s="177"/>
+      <c r="I194" s="178"/>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="8:9">
       <c r="H195" s="11"/>
-      <c r="I195" s="177"/>
+      <c r="I195" s="178"/>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="8:9">
       <c r="H196" s="11"/>
-      <c r="I196" s="177"/>
+      <c r="I196" s="178"/>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="8:9">
       <c r="H197" s="11"/>
-      <c r="I197" s="177"/>
+      <c r="I197" s="178"/>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="8:9">
       <c r="H198" s="11"/>
-      <c r="I198" s="177"/>
+      <c r="I198" s="178"/>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="8:9">
       <c r="H199" s="11"/>
-      <c r="I199" s="177"/>
+      <c r="I199" s="178"/>
     </row>
     <row r="200" ht="14.25" customHeight="1" spans="8:9">
       <c r="H200" s="11"/>
-      <c r="I200" s="177"/>
+      <c r="I200" s="178"/>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="8:9">
       <c r="H201" s="11"/>
-      <c r="I201" s="177"/>
+      <c r="I201" s="178"/>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="8:9">
       <c r="H202" s="11"/>
-      <c r="I202" s="177"/>
+      <c r="I202" s="178"/>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="8:8">
       <c r="H203" s="11"/>
@@ -9210,7 +9213,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="119">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -9247,7 +9250,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="119">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -9284,7 +9287,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="119">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -9321,7 +9324,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="119">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -9358,7 +9361,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="119">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -9395,7 +9398,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="119">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -9432,7 +9435,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="119">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -9469,7 +9472,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="119">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -9506,7 +9509,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="119">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -9543,7 +9546,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="119">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -9580,7 +9583,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="119">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -9617,7 +9620,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="119">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -9654,7 +9657,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="119">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -9691,7 +9694,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="119">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -9728,7 +9731,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="119">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -9765,7 +9768,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="119">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -9802,7 +9805,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="119">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -9839,7 +9842,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="119">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -9874,7 +9877,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="119">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -9909,7 +9912,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="119">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -9946,7 +9949,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="119">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -9981,7 +9984,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="119">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -10018,7 +10021,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="119">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -10055,7 +10058,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="119">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -10092,7 +10095,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="119">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -10129,7 +10132,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="119">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -10166,7 +10169,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="119">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -10203,7 +10206,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="119">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -10240,7 +10243,7 @@
       <c r="B49" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="118">
+      <c r="C49" s="119">
         <v>31674</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -11017,7 +11020,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="123">
+      <c r="M9" s="124">
         <v>5102015656</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -11148,7 +11151,7 @@
       </c>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="124">
+      <c r="M12" s="125">
         <v>8189750320</v>
       </c>
       <c r="N12" s="25" t="s">
@@ -11355,7 +11358,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="123">
+      <c r="M18" s="124">
         <v>7072126144</v>
       </c>
       <c r="N18" t="s">
@@ -11396,7 +11399,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="123">
+      <c r="M19" s="124">
         <v>7072122069</v>
       </c>
       <c r="N19" t="s">
@@ -11437,7 +11440,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="123">
+      <c r="M20" s="124">
         <v>5102008300</v>
       </c>
       <c r="N20" t="s">
@@ -11492,7 +11495,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="65"/>
-      <c r="M22" s="125">
+      <c r="M22" s="126">
         <v>5102008311</v>
       </c>
       <c r="N22" s="82" t="s">
@@ -11703,7 +11706,7 @@
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="65"/>
-      <c r="M27" s="125">
+      <c r="M27" s="126">
         <v>6282073660</v>
       </c>
       <c r="N27" s="82" t="s">
@@ -11746,7 +11749,7 @@
       </c>
       <c r="K28" s="65"/>
       <c r="L28" s="65"/>
-      <c r="M28" s="125">
+      <c r="M28" s="126">
         <v>5102026925</v>
       </c>
       <c r="N28" s="82" t="s">
@@ -11787,7 +11790,7 @@
       <c r="J29" s="65"/>
       <c r="K29" s="65"/>
       <c r="L29" s="65"/>
-      <c r="M29" s="126">
+      <c r="M29" s="127">
         <v>8189750410</v>
       </c>
       <c r="N29" s="82" t="s">
@@ -11828,7 +11831,7 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
-      <c r="M30" s="126">
+      <c r="M30" s="127">
         <v>8189750433</v>
       </c>
       <c r="N30" s="82" t="s">
@@ -11869,7 +11872,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="126">
+      <c r="M31" s="127">
         <v>7077324510</v>
       </c>
       <c r="N31" s="82" t="s">
@@ -11910,7 +11913,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
-      <c r="M32" s="125">
+      <c r="M32" s="126">
         <v>5102027028</v>
       </c>
       <c r="N32" s="82" t="s">
@@ -11951,7 +11954,7 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
       <c r="L33" s="65"/>
-      <c r="M33" s="125">
+      <c r="M33" s="126">
         <v>2092067948</v>
       </c>
       <c r="N33" s="82" t="s">
@@ -11994,7 +11997,7 @@
       </c>
       <c r="K34" s="65"/>
       <c r="L34" s="65"/>
-      <c r="M34" s="125">
+      <c r="M34" s="126">
         <v>2092106812</v>
       </c>
       <c r="N34" s="82" t="s">
@@ -12035,7 +12038,7 @@
       <c r="J35" s="65"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
-      <c r="M35" s="125">
+      <c r="M35" s="126">
         <v>2092106869</v>
       </c>
       <c r="N35" s="82" t="s">
@@ -12078,7 +12081,7 @@
       </c>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
-      <c r="M36" s="125">
+      <c r="M36" s="126">
         <v>2092469458</v>
       </c>
       <c r="N36" s="82" t="s">
@@ -12121,7 +12124,7 @@
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
-      <c r="M37" s="125">
+      <c r="M37" s="126">
         <v>2092462492</v>
       </c>
       <c r="N37" s="82" t="s">
@@ -12164,7 +12167,7 @@
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
-      <c r="M38" s="125">
+      <c r="M38" s="126">
         <v>3102131346</v>
       </c>
       <c r="N38" s="82" t="s">
@@ -12205,7 +12208,7 @@
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
-      <c r="M39" s="125">
+      <c r="M39" s="126">
         <v>3102461953</v>
       </c>
       <c r="N39" s="82" t="s">
@@ -12246,7 +12249,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
-      <c r="M40" s="125">
+      <c r="M40" s="126">
         <v>3232096786</v>
       </c>
       <c r="N40" s="82" t="s">
@@ -12287,7 +12290,7 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
-      <c r="M41" s="125">
+      <c r="M41" s="126">
         <v>3232090091</v>
       </c>
       <c r="N41" s="82" t="s">
@@ -12330,7 +12333,7 @@
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
-      <c r="M42" s="125">
+      <c r="M42" s="126">
         <v>3232093457</v>
       </c>
       <c r="N42" s="82" t="s">
@@ -12373,7 +12376,7 @@
       </c>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
-      <c r="M43" s="125">
+      <c r="M43" s="126">
         <v>3232097215</v>
       </c>
       <c r="N43" s="82" t="s">
@@ -12416,7 +12419,7 @@
       </c>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
-      <c r="M44" s="125">
+      <c r="M44" s="126">
         <v>4082003412</v>
       </c>
       <c r="N44" s="82" t="s">
@@ -12459,7 +12462,7 @@
       </c>
       <c r="K45" s="65"/>
       <c r="L45" s="65"/>
-      <c r="M45" s="125">
+      <c r="M45" s="126">
         <v>4082003458</v>
       </c>
       <c r="N45" s="82" t="s">
@@ -12500,7 +12503,7 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="65"/>
-      <c r="M46" s="125">
+      <c r="M46" s="126">
         <v>4082003696</v>
       </c>
       <c r="N46" s="82" t="s">
@@ -12541,7 +12544,7 @@
       <c r="J47" s="65"/>
       <c r="K47" s="65"/>
       <c r="L47" s="65"/>
-      <c r="M47" s="125">
+      <c r="M47" s="126">
         <v>4082007364</v>
       </c>
       <c r="N47" s="82" t="s">
@@ -12582,7 +12585,7 @@
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
-      <c r="M48" s="125">
+      <c r="M48" s="126">
         <v>4082001814</v>
       </c>
       <c r="N48" s="82" t="s">
@@ -12625,7 +12628,7 @@
       </c>
       <c r="K49" s="65"/>
       <c r="L49" s="65"/>
-      <c r="M49" s="125">
+      <c r="M49" s="126">
         <v>5592000530</v>
       </c>
       <c r="N49" s="82" t="s">
@@ -12668,7 +12671,7 @@
       </c>
       <c r="K50" s="65"/>
       <c r="L50" s="65"/>
-      <c r="M50" s="125">
+      <c r="M50" s="126">
         <v>2132034871</v>
       </c>
       <c r="N50" s="82" t="s">
@@ -12719,7 +12722,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="O53" s="127"/>
+      <c r="O53" s="128"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:12">
       <c r="A54" s="23"/>
@@ -13273,7 +13276,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="119">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -13308,7 +13311,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="119">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -13343,7 +13346,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="119">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -13378,7 +13381,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="119">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -13413,7 +13416,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="119">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -13448,7 +13451,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="119">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -13483,7 +13486,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="119">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -13518,7 +13521,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="119">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -13553,7 +13556,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="119">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -13588,7 +13591,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="119">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -13623,7 +13626,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="119">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -13658,7 +13661,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="119">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -13693,7 +13696,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="119">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -13728,7 +13731,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="119">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -13763,7 +13766,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="119">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -13798,7 +13801,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="119">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -13833,7 +13836,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="119">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -13868,7 +13871,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="119">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -13903,7 +13906,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="119">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -13938,7 +13941,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="119">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -13973,7 +13976,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="119">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -14008,7 +14011,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="119">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -14043,7 +14046,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="119">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -14078,7 +14081,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="119">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -14113,7 +14116,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="119">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -14148,7 +14151,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="119">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -14183,7 +14186,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="119">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -14218,7 +14221,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="119">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -14740,7 +14743,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="119">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -14775,7 +14778,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="119">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -14810,7 +14813,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="119">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -14880,7 +14883,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="119">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -14915,7 +14918,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="119">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -14950,7 +14953,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="119">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -14985,7 +14988,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="119">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -15055,7 +15058,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="119">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -15090,7 +15093,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="119">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -15125,7 +15128,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="119">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -15195,7 +15198,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="119">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -15230,7 +15233,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="119">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -15407,7 +15410,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="119">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -15547,7 +15550,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="119">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -15578,7 +15581,7 @@
     <row r="45" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A45" s="2"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="118"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -18875,7 +18878,7 @@
       <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="123">
         <v>9850</v>
       </c>
       <c r="M8" t="s">
@@ -18904,36 +18907,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="114" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" style="114" customWidth="1"/>
-    <col min="3" max="3" width="13" style="114" customWidth="1"/>
-    <col min="4" max="6" width="9.88333333333333" style="114"/>
-    <col min="7" max="7" width="13.4416666666667" style="114" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="114" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" style="114" customWidth="1"/>
-    <col min="10" max="16384" width="9.88333333333333" style="114"/>
+    <col min="1" max="1" width="39.4416666666667" style="115" customWidth="1"/>
+    <col min="2" max="2" width="18.1166666666667" style="115" customWidth="1"/>
+    <col min="3" max="3" width="13" style="115" customWidth="1"/>
+    <col min="4" max="6" width="9.88333333333333" style="115"/>
+    <col min="7" max="7" width="13.4416666666667" style="115" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="115" customWidth="1"/>
+    <col min="9" max="9" width="30.8833333333333" style="115" customWidth="1"/>
+    <col min="10" max="16384" width="9.88333333333333" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="115">
-        <v>15</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="A2" s="116">
+        <v>15</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -18980,7 +18983,7 @@
       <c r="B4" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="119">
         <v>31493</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -18992,7 +18995,7 @@
       <c r="F4" s="24">
         <v>91335</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="120" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -19004,12 +19007,12 @@
       <c r="J4" s="20">
         <v>5.5</v>
       </c>
-      <c r="K4" s="120"/>
+      <c r="K4" s="121"/>
       <c r="L4" s="2"/>
       <c r="M4" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="N4" s="121"/>
+      <c r="N4" s="122"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -19269,7 +19272,7 @@
       <c r="B31" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="119">
         <v>31077</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -19306,7 +19309,7 @@
       <c r="B35" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="119">
         <v>31879</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -19343,7 +19346,7 @@
       <c r="B50" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="118">
+      <c r="C50" s="119">
         <v>31674</v>
       </c>
       <c r="D50" s="24" t="s">
@@ -19441,7 +19444,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -19844,492 +19847,492 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="114" t="s">
+      <c r="A66" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="115" t="s">
         <v>446</v>
       </c>
-      <c r="D66" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="114" t="s">
+      <c r="D66" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H66" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="I66" s="114" t="s">
+      <c r="I66" s="115" t="s">
         <v>334</v>
       </c>
-      <c r="M66" s="114" t="s">
+      <c r="M66" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="N66" s="114" t="s">
+      <c r="N66" s="115" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="114" t="s">
+      <c r="A67" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="115" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="115" t="s">
         <v>448</v>
       </c>
-      <c r="D67" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="114" t="s">
+      <c r="D67" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="114" t="s">
+      <c r="H67" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="I67" s="114" t="s">
+      <c r="I67" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="M67" s="114" t="s">
+      <c r="M67" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="N67" s="114" t="s">
+      <c r="N67" s="115" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="114" t="s">
+      <c r="A68" s="115" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="114" t="s">
+      <c r="B68" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="114" t="s">
+      <c r="C68" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="114" t="s">
+      <c r="D68" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="G68" s="114" t="s">
+      <c r="G68" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="114" t="s">
+      <c r="H68" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="114" t="s">
+      <c r="I68" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="M68" s="114" t="s">
+      <c r="M68" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="N68" s="114" t="s">
+      <c r="N68" s="115" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="114" t="s">
+      <c r="A69" s="115" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="114" t="s">
+      <c r="B69" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="114" t="s">
+      <c r="C69" s="115" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="114">
+      <c r="D69" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="115">
         <v>92253</v>
       </c>
-      <c r="G69" s="114" t="s">
+      <c r="G69" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="114" t="s">
+      <c r="H69" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="114" t="s">
+      <c r="I69" s="115" t="s">
         <v>349</v>
       </c>
-      <c r="M69" s="114" t="s">
+      <c r="M69" s="115" t="s">
         <v>350</v>
       </c>
-      <c r="N69" s="114" t="s">
+      <c r="N69" s="115" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="114" t="s">
+      <c r="A70" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="114" t="s">
+      <c r="B70" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="D70" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="114">
+      <c r="D70" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="115">
         <v>93004</v>
       </c>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="114" t="s">
+      <c r="H70" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="114" t="s">
+      <c r="I70" s="115" t="s">
         <v>354</v>
       </c>
-      <c r="M70" s="114" t="s">
+      <c r="M70" s="115" t="s">
         <v>355</v>
       </c>
-      <c r="N70" s="114" t="s">
+      <c r="N70" s="115" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="114" t="s">
+      <c r="A71" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="B71" s="114" t="s">
+      <c r="B71" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="D71" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="114">
+      <c r="D71" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="115">
         <v>92880</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H71" s="114" t="s">
+      <c r="H71" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="114" t="s">
+      <c r="I71" s="115" t="s">
         <v>359</v>
       </c>
-      <c r="M71" s="114" t="s">
+      <c r="M71" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="N71" s="114" t="s">
+      <c r="N71" s="115" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="114" t="s">
+      <c r="A72" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="115" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="114" t="s">
+      <c r="C72" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="D72" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="114">
+      <c r="D72" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="115">
         <v>95127</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="114" t="s">
+      <c r="H72" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="I72" s="114" t="s">
+      <c r="I72" s="115" t="s">
         <v>364</v>
       </c>
-      <c r="M72" s="114" t="s">
+      <c r="M72" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="N72" s="114" t="s">
+      <c r="N72" s="115" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="114" t="s">
+      <c r="A73" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="B73" s="114" t="s">
+      <c r="B73" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="C73" s="114" t="s">
+      <c r="C73" s="115" t="s">
         <v>456</v>
       </c>
-      <c r="D73" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="114">
+      <c r="D73" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="115">
         <v>94804</v>
       </c>
-      <c r="G73" s="114" t="s">
+      <c r="G73" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="114" t="s">
+      <c r="H73" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="114" t="s">
+      <c r="I73" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="M73" s="114" t="s">
+      <c r="M73" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="N73" s="114" t="s">
+      <c r="N73" s="115" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="114" t="s">
+      <c r="A74" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="B74" s="114" t="s">
+      <c r="B74" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="C74" s="114" t="s">
+      <c r="C74" s="115" t="s">
         <v>457</v>
       </c>
-      <c r="D74" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="114">
+      <c r="D74" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="115">
         <v>94551</v>
       </c>
-      <c r="G74" s="114" t="s">
+      <c r="G74" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="114" t="s">
+      <c r="H74" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="I74" s="114" t="s">
+      <c r="I74" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="M74" s="114" t="s">
+      <c r="M74" s="115" t="s">
         <v>375</v>
       </c>
-      <c r="N74" s="114" t="s">
+      <c r="N74" s="115" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="114" t="s">
+      <c r="A75" s="115" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="115" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="114" t="s">
+      <c r="C75" s="115" t="s">
         <v>458</v>
       </c>
-      <c r="D75" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="114">
+      <c r="D75" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="115">
         <v>94530</v>
       </c>
-      <c r="G75" s="114" t="s">
+      <c r="G75" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="114" t="s">
+      <c r="H75" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="I75" s="114" t="s">
+      <c r="I75" s="115" t="s">
         <v>379</v>
       </c>
-      <c r="M75" s="114" t="s">
+      <c r="M75" s="115" t="s">
         <v>380</v>
       </c>
-      <c r="N75" s="114" t="s">
+      <c r="N75" s="115" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="114" t="s">
+      <c r="A76" s="115" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="115" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="114" t="s">
+      <c r="C76" s="115" t="s">
         <v>459</v>
       </c>
-      <c r="D76" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="114">
+      <c r="D76" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="115">
         <v>91722</v>
       </c>
-      <c r="G76" s="114" t="s">
+      <c r="G76" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="H76" s="114" t="s">
+      <c r="H76" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="114" t="s">
+      <c r="I76" s="115" t="s">
         <v>384</v>
       </c>
-      <c r="M76" s="114" t="s">
+      <c r="M76" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="N76" s="114" t="s">
+      <c r="N76" s="115" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="114" t="s">
+      <c r="A77" s="115" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="114" t="s">
+      <c r="B77" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="114" t="s">
+      <c r="C77" s="115" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="114">
+      <c r="D77" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="115">
         <v>90260</v>
       </c>
-      <c r="G77" s="114" t="s">
+      <c r="G77" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="H77" s="114" t="s">
+      <c r="H77" s="115" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="114" t="s">
+      <c r="I77" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="M77" s="114" t="s">
+      <c r="M77" s="115" t="s">
         <v>390</v>
       </c>
-      <c r="N77" s="114" t="s">
+      <c r="N77" s="115" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="114" t="s">
+      <c r="A79" s="115" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="114" t="s">
+      <c r="B79" s="115" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="114" t="s">
+      <c r="C79" s="115" t="s">
         <v>462</v>
       </c>
-      <c r="D79" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="114">
+      <c r="D79" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="115">
         <v>90066</v>
       </c>
-      <c r="G79" s="114" t="s">
+      <c r="G79" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="114" t="s">
+      <c r="H79" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="114" t="s">
+      <c r="I79" s="115" t="s">
         <v>399</v>
       </c>
-      <c r="M79" s="114" t="s">
+      <c r="M79" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="N79" s="114" t="s">
+      <c r="N79" s="115" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="114" t="s">
+      <c r="A80" s="115" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="114" t="s">
+      <c r="B80" s="115" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="115" t="s">
         <v>463</v>
       </c>
-      <c r="D80" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="114">
+      <c r="D80" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="115">
         <v>90650</v>
       </c>
-      <c r="G80" s="114" t="s">
+      <c r="G80" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="114" t="s">
+      <c r="H80" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="I80" s="114" t="s">
+      <c r="I80" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="M80" s="114" t="s">
+      <c r="M80" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="N80" s="114" t="s">
+      <c r="N80" s="115" t="s">
         <v>406</v>
       </c>
     </row>
@@ -21044,7 +21047,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59"/>
-      <c r="M22" s="134" t="s">
+      <c r="M22" s="135" t="s">
         <v>430</v>
       </c>
     </row>
@@ -21079,7 +21082,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
-      <c r="M23" s="134" t="s">
+      <c r="M23" s="135" t="s">
         <v>431</v>
       </c>
     </row>
@@ -21114,7 +21117,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
-      <c r="M24" s="134" t="s">
+      <c r="M24" s="135" t="s">
         <v>432</v>
       </c>
     </row>
@@ -21149,7 +21152,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
-      <c r="M25" s="134" t="s">
+      <c r="M25" s="135" t="s">
         <v>433</v>
       </c>
     </row>
@@ -21184,7 +21187,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
-      <c r="M26" s="134" t="s">
+      <c r="M26" s="135" t="s">
         <v>434</v>
       </c>
     </row>
@@ -21219,7 +21222,7 @@
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
-      <c r="M27" s="134" t="s">
+      <c r="M27" s="135" t="s">
         <v>435</v>
       </c>
     </row>
@@ -21254,24 +21257,24 @@
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
-      <c r="M28" s="134" t="s">
+      <c r="M28" s="135" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="29" s="135" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
-      <c r="A29" s="136"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="141"/>
+    <row r="29" s="136" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
+      <c r="A29" s="137"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="142"/>
     </row>
     <row r="30" s="53" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
       <c r="A30" s="57" t="s">
@@ -21304,14 +21307,14 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
-      <c r="M30" s="134" t="s">
+      <c r="M30" s="135" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="31" s="20" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A31" s="18"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="118"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -21353,7 +21356,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="134" t="s">
+      <c r="M32" s="135" t="s">
         <v>438</v>
       </c>
     </row>
@@ -21416,7 +21419,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
-      <c r="M35" s="134" t="s">
+      <c r="M35" s="135" t="s">
         <v>439</v>
       </c>
     </row>
@@ -21451,7 +21454,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
-      <c r="M36" s="134" t="s">
+      <c r="M36" s="135" t="s">
         <v>440</v>
       </c>
     </row>
@@ -21486,7 +21489,7 @@
     <row r="39" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
       <c r="A39" s="2"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="118"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -21533,7 +21536,7 @@
       <c r="B42" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="119">
         <v>31666</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -21612,7 +21615,7 @@
       <c r="B46" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="119">
         <v>32528</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -21675,7 +21678,7 @@
       <c r="B49" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="118">
+      <c r="C49" s="119">
         <v>32105</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -21710,7 +21713,7 @@
       <c r="B50" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="118">
+      <c r="C50" s="119">
         <v>31674</v>
       </c>
       <c r="D50" s="24" t="s">
@@ -21818,7 +21821,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113"/>
+      <c r="M53" s="114"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:13">
       <c r="A54" s="23" t="s">
@@ -22846,21 +22849,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="115" t="s">
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="116" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -22900,7 +22903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -22934,7 +22937,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -23006,7 +23009,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -23978,21 +23981,21 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="115">
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="116">
         <v>500</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -24032,7 +24035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -24068,7 +24071,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -24175,7 +24178,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
       <c r="O53">
@@ -25148,21 +25151,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="117">
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="118">
         <v>10</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -25202,7 +25205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -25236,7 +25239,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -25343,7 +25346,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -26311,21 +26314,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="115">
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="116">
         <v>1000</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -26365,7 +26368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -26399,7 +26402,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -26468,13 +26471,13 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="O53" s="116" t="s">
+      <c r="O53" s="117" t="s">
         <v>591</v>
       </c>
-      <c r="P53" s="116" t="s">
+      <c r="P53" s="117" t="s">
         <v>592</v>
       </c>
     </row>
@@ -26514,10 +26517,10 @@
       <c r="M54" t="s">
         <v>267</v>
       </c>
-      <c r="O54" s="116" t="s">
+      <c r="O54" s="117" t="s">
         <v>593</v>
       </c>
-      <c r="P54" s="116" t="s">
+      <c r="P54" s="117" t="s">
         <v>594</v>
       </c>
     </row>
@@ -27442,21 +27445,21 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="115">
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="116">
         <v>5000</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -27496,7 +27499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -27530,7 +27533,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -27600,7 +27603,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -28572,21 +28575,21 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" s="114" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="115">
-        <v>15</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+    <row r="2" s="115" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="116">
+        <v>15</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -28626,7 +28629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="114" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="115" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -28660,7 +28663,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="115" t="s">
         <v>586</v>
       </c>
     </row>
@@ -28765,7 +28768,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -28838,10 +28841,10 @@
       <c r="M55" t="s">
         <v>287</v>
       </c>
-      <c r="O55" s="116" t="s">
+      <c r="O55" s="117" t="s">
         <v>599</v>
       </c>
-      <c r="P55" s="116"/>
+      <c r="P55" s="117"/>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:16">
       <c r="A56" s="23" t="s">
@@ -28877,10 +28880,10 @@
       <c r="M56" t="s">
         <v>292</v>
       </c>
-      <c r="O56" s="116" t="s">
+      <c r="O56" s="117" t="s">
         <v>600</v>
       </c>
-      <c r="P56" s="116"/>
+      <c r="P56" s="117"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A57" s="23" t="s">
@@ -28913,10 +28916,10 @@
       <c r="M57" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="O57" s="116" t="s">
+      <c r="O57" s="117" t="s">
         <v>601</v>
       </c>
-      <c r="P57" s="116"/>
+      <c r="P57" s="117"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A58" s="23" t="s">
@@ -28946,10 +28949,10 @@
       <c r="I58" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="O58" s="116" t="s">
+      <c r="O58" s="117" t="s">
         <v>602</v>
       </c>
-      <c r="P58" s="116"/>
+      <c r="P58" s="117"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="10" t="s">
@@ -29863,7 +29866,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="113" t="s">
+      <c r="M53" s="114" t="s">
         <v>278</v>
       </c>
     </row>
@@ -29968,7 +29971,7 @@
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="113" t="s">
         <v>615</v>
       </c>
       <c r="C12" s="6">
@@ -30225,7 +30228,7 @@
       <c r="I73" t="s">
         <v>646</v>
       </c>
-      <c r="K73" s="113">
+      <c r="K73" s="114">
         <v>44648</v>
       </c>
       <c r="M73" t="s">
@@ -32503,7 +32506,7 @@
       </c>
     </row>
     <row r="56" s="31" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A56" s="111" t="s">
+      <c r="A56" s="112" t="s">
         <v>288</v>
       </c>
       <c r="B56" s="66" t="s">
@@ -33698,10 +33701,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N50" sqref="N50"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34084,7 +34087,7 @@
         <v>835</v>
       </c>
       <c r="J12" s="33">
-        <v>13.75</v>
+        <v>15</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
@@ -34372,7 +34375,7 @@
         <v>849</v>
       </c>
       <c r="J22" s="33">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="33"/>
@@ -35837,7 +35840,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="33">
-        <v>7.05</v>
+        <v>8.25</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
@@ -35948,7 +35951,10 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>22.25</v>
+        <v>0.3</v>
+      </c>
+      <c r="K80" s="111">
+        <v>45023</v>
       </c>
       <c r="M80" s="37" t="s">
         <v>405</v>
@@ -39598,7 +39604,7 @@
       <c r="M52" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="N52" s="178" t="s">
+      <c r="N52" s="179" t="s">
         <v>922</v>
       </c>
     </row>
@@ -68453,10 +68459,10 @@
       <c r="F3" s="55">
         <v>91335</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="134" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="55" t="s">
@@ -68909,7 +68915,7 @@
       </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="134" t="s">
+      <c r="M15" s="135" t="s">
         <v>474</v>
       </c>
     </row>
@@ -69082,7 +69088,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="119">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -69119,7 +69125,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="119">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -69156,7 +69162,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="119">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -69193,7 +69199,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="119">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -69230,7 +69236,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="119">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -69267,7 +69273,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="119">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -69304,7 +69310,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="119">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -69341,7 +69347,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="119">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -69378,7 +69384,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="119">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -69415,7 +69421,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="119">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -69452,7 +69458,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="119">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -69489,7 +69495,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="119">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -69526,7 +69532,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="119">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -69563,7 +69569,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="119">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -69600,7 +69606,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="119">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -69637,7 +69643,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="119">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -69674,7 +69680,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="119">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -69711,7 +69717,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="119">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -69748,7 +69754,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="119">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -69785,7 +69791,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="119">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -69822,7 +69828,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="119">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -69859,7 +69865,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="119">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -69896,7 +69902,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="119">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -69933,7 +69939,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="119">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -69970,7 +69976,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="119">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -70005,7 +70011,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="119">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -70042,7 +70048,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="119">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -71061,7 +71067,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="119">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -72309,46 +72315,46 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" s="128" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
-      <c r="A13" s="129" t="s">
+    <row r="13" s="129" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
+      <c r="A13" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="131">
         <v>32630</v>
       </c>
-      <c r="D13" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="129">
+      <c r="D13" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="130">
         <v>95133</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="129">
+      <c r="J13" s="130">
         <v>1650</v>
       </c>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="128" t="s">
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="129" t="s">
         <v>510</v>
       </c>
-      <c r="N13" s="128" t="s">
+      <c r="N13" s="129" t="s">
         <v>472</v>
       </c>
-      <c r="P13" s="128" t="s">
+      <c r="P13" s="129" t="s">
         <v>511</v>
       </c>
     </row>
@@ -72567,7 +72573,7 @@
     <row r="21" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A21" s="18"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="118"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3834,7 +3834,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33701,10 +33701,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3834,7 +3834,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33702,9 +33702,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34177,9 +34177,11 @@
         <v>841</v>
       </c>
       <c r="J15" s="33">
-        <v>23.9</v>
-      </c>
-      <c r="K15" s="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="34">
+        <v>45050</v>
+      </c>
       <c r="L15" s="33"/>
       <c r="M15" s="37" t="s">
         <v>842</v>
@@ -34944,9 +34946,11 @@
         <v>875</v>
       </c>
       <c r="J42" s="33">
-        <v>23.75</v>
-      </c>
-      <c r="K42" s="34"/>
+        <v>1.25</v>
+      </c>
+      <c r="K42" s="34">
+        <v>45050</v>
+      </c>
       <c r="L42" s="33"/>
       <c r="M42" s="48" t="s">
         <v>219</v>
@@ -35232,7 +35236,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35916,7 +35920,7 @@
         <v>910</v>
       </c>
       <c r="J79" s="33">
-        <v>19.4</v>
+        <v>20.9</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
@@ -35955,9 +35959,7 @@
       <c r="J80" s="33">
         <v>0.3</v>
       </c>
-      <c r="K80" s="111">
-        <v>45023</v>
-      </c>
+      <c r="K80" s="111"/>
       <c r="M80" s="37" t="s">
         <v>405</v>
       </c>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3150,9 +3150,9 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33701,10 +33701,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33936,7 +33936,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>685</v>
+        <v>148</v>
       </c>
       <c r="J8" s="33">
         <v>10</v>
@@ -34665,7 +34665,7 @@
         <v>863</v>
       </c>
       <c r="J31" s="33">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3834,7 +3834,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33702,9 +33702,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34414,7 +34414,7 @@
         <v>851</v>
       </c>
       <c r="J23" s="33">
-        <v>9.8</v>
+        <v>10.55</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
@@ -34552,7 +34552,7 @@
         <v>856</v>
       </c>
       <c r="J28" s="33">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="33"/>
@@ -34626,7 +34626,7 @@
         <v>860</v>
       </c>
       <c r="J30" s="33">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K30" s="34">
         <v>45050</v>
@@ -35759,7 +35759,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="K73" s="99"/>
       <c r="M73" s="51" t="s">
@@ -35846,7 +35846,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="33">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
@@ -35883,7 +35883,7 @@
         <v>908</v>
       </c>
       <c r="J78" s="33">
-        <v>15.8</v>
+        <v>16.55</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,9 +3149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33702,9 +33702,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35375,7 +35375,7 @@
         <v>889</v>
       </c>
       <c r="J57" s="33">
-        <v>21.35</v>
+        <v>22.6</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -35412,7 +35412,7 @@
         <v>868</v>
       </c>
       <c r="J58" s="33">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="K58" s="34"/>
       <c r="M58" s="48" t="s">
@@ -35700,7 +35700,7 @@
         <v>899</v>
       </c>
       <c r="J70" s="33">
-        <v>6.55</v>
+        <v>7.3</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,8 +3149,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3822,10 +3822,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33702,9 +33702,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34013,7 +34013,7 @@
         <v>831</v>
       </c>
       <c r="J10" s="33">
-        <v>18.15</v>
+        <v>19.65</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="33"/>
@@ -34087,7 +34087,7 @@
         <v>835</v>
       </c>
       <c r="J12" s="33">
-        <v>15</v>
+        <v>15.75</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
@@ -34414,7 +34414,7 @@
         <v>851</v>
       </c>
       <c r="J23" s="33">
-        <v>10.55</v>
+        <v>11.8</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
@@ -34626,7 +34626,7 @@
         <v>860</v>
       </c>
       <c r="J30" s="33">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="K30" s="34">
         <v>45050</v>
@@ -35236,7 +35236,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>14.5</v>
+        <v>14.75</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35273,7 +35273,7 @@
         <v>885</v>
       </c>
       <c r="J54" s="39">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="K54" s="110"/>
       <c r="L54" s="48"/>
@@ -35759,7 +35759,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="K73" s="99"/>
       <c r="M73" s="51" t="s">
@@ -35846,7 +35846,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="33">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
@@ -35883,7 +35883,7 @@
         <v>908</v>
       </c>
       <c r="J78" s="33">
-        <v>16.55</v>
+        <v>17.55</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>
@@ -35920,7 +35920,7 @@
         <v>910</v>
       </c>
       <c r="J79" s="33">
-        <v>20.9</v>
+        <v>21.25</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
@@ -35957,7 +35957,7 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="K80" s="111"/>
       <c r="M80" s="37" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" firstSheet="28" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3150,8 +3150,8 @@
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3825,7 +3825,7 @@
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18778,7 +18778,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -18879,7 +18879,7 @@
         <v>39</v>
       </c>
       <c r="J8" s="123">
-        <v>9850</v>
+        <v>10350</v>
       </c>
       <c r="M8" t="s">
         <v>40</v>
@@ -33702,9 +33702,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33903,7 +33903,7 @@
         <v>827</v>
       </c>
       <c r="J7" s="33">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K7" s="34"/>
       <c r="M7" s="37" t="s">
@@ -33939,7 +33939,7 @@
         <v>148</v>
       </c>
       <c r="J8" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
@@ -34377,7 +34377,7 @@
         <v>849</v>
       </c>
       <c r="J22" s="33">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="33"/>
@@ -34414,7 +34414,7 @@
         <v>851</v>
       </c>
       <c r="J23" s="33">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
@@ -34626,7 +34626,7 @@
         <v>860</v>
       </c>
       <c r="J30" s="33">
-        <v>3.15</v>
+        <v>4.15</v>
       </c>
       <c r="K30" s="34">
         <v>45050</v>
@@ -35236,7 +35236,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,8 +3149,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,7 +3822,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33701,10 +33701,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34179,9 +34179,7 @@
       <c r="J15" s="33">
         <v>0.4</v>
       </c>
-      <c r="K15" s="34">
-        <v>45050</v>
-      </c>
+      <c r="K15" s="34"/>
       <c r="L15" s="33"/>
       <c r="M15" s="37" t="s">
         <v>842</v>
@@ -34948,9 +34946,7 @@
       <c r="J42" s="33">
         <v>1.25</v>
       </c>
-      <c r="K42" s="34">
-        <v>45050</v>
-      </c>
+      <c r="K42" s="34"/>
       <c r="L42" s="33"/>
       <c r="M42" s="48" t="s">
         <v>219</v>
@@ -35957,7 +35953,7 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="K80" s="111"/>
       <c r="M80" s="37" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,8 +3149,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3813,7 +3813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3822,7 +3822,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33701,10 +33701,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35371,7 +35371,7 @@
         <v>889</v>
       </c>
       <c r="J57" s="33">
-        <v>22.6</v>
+        <v>23.35</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
@@ -35696,7 +35696,7 @@
         <v>899</v>
       </c>
       <c r="J70" s="33">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35755,7 +35755,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="K73" s="99"/>
       <c r="M73" s="51" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="43">
@@ -3823,10 +3823,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33718,9 +33718,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33919,7 +33919,7 @@
         <v>827</v>
       </c>
       <c r="J7" s="33">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="K7" s="34"/>
       <c r="M7" s="37" t="s">
@@ -34029,7 +34029,7 @@
         <v>831</v>
       </c>
       <c r="J10" s="33">
-        <v>19.65</v>
+        <v>20.4</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="33"/>
@@ -35283,7 +35283,7 @@
         <v>885</v>
       </c>
       <c r="J54" s="39">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="K54" s="114"/>
       <c r="L54" s="48"/>
@@ -35769,7 +35769,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="K73" s="103"/>
       <c r="M73" s="51" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="43">
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,10 +3823,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33718,9 +33718,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35385,7 +35385,7 @@
         <v>889</v>
       </c>
       <c r="J57" s="33">
-        <v>23.35</v>
+        <v>24.35</v>
       </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3149,9 +3149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3826,7 +3826,7 @@
     <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3959,7 +3959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4304,6 +4304,9 @@
     </xf>
     <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4915,3564 +4918,3564 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="148" customFormat="1" ht="18" customHeight="1" spans="1:12">
-      <c r="A4" s="155" t="s">
+    <row r="4" s="149" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A4" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="158">
         <v>31493</v>
       </c>
-      <c r="D4" s="156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="156" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="156">
+      <c r="D4" s="157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="157">
         <v>91335</v>
       </c>
-      <c r="G4" s="158" t="s">
+      <c r="G4" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="156" t="s">
+      <c r="I4" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="156">
+      <c r="J4" s="157">
         <v>415</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-    </row>
-    <row r="5" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A5" s="159" t="s">
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+    </row>
+    <row r="5" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A5" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="160">
+      <c r="C5" s="161">
         <v>32189</v>
       </c>
-      <c r="D5" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="149">
+      <c r="D5" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="150">
         <v>92101</v>
       </c>
-      <c r="G5" s="161" t="s">
+      <c r="G5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="149" t="s">
+      <c r="I5" s="150" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="149" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A6" s="149" t="s">
+    <row r="6" s="150" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A6" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="160">
+      <c r="C6" s="161">
         <v>31780</v>
       </c>
-      <c r="D6" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="149">
+      <c r="D6" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="150">
         <v>90007</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="149" t="s">
+      <c r="I6" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="149">
+      <c r="J6" s="150">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A7" s="149" t="s">
+    <row r="7" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A7" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="160">
+      <c r="C7" s="161">
         <v>31542</v>
       </c>
-      <c r="D7" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="149">
+      <c r="D7" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="150">
         <v>90015</v>
       </c>
-      <c r="G7" s="149" t="s">
+      <c r="G7" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="149" t="s">
+      <c r="H7" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="150" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A8" s="149" t="s">
+    <row r="8" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A8" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="160">
+      <c r="C8" s="161">
         <v>31248</v>
       </c>
-      <c r="D8" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="149">
+      <c r="D8" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="150">
         <v>90004</v>
       </c>
-      <c r="G8" s="149" t="s">
+      <c r="G8" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="149" t="s">
+      <c r="H8" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="149">
+      <c r="J8" s="150">
         <v>5</v>
       </c>
-      <c r="M8" s="176" t="s">
+      <c r="M8" s="177" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="149" t="s">
+    <row r="9" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="160">
+      <c r="C9" s="161">
         <v>31569</v>
       </c>
-      <c r="D9" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="149">
+      <c r="D9" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="150">
         <v>94606</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="149" t="s">
+      <c r="H9" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="149" t="s">
+      <c r="I9" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="149">
-        <v>15</v>
-      </c>
-      <c r="M9" s="149" t="s">
+      <c r="J9" s="150">
+        <v>15</v>
+      </c>
+      <c r="M9" s="150" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="149" t="s">
+    <row r="10" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A10" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="160">
+      <c r="C10" s="161">
         <v>31872</v>
       </c>
-      <c r="D10" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="149">
+      <c r="D10" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="150">
         <v>95118</v>
       </c>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="149" t="s">
+      <c r="H10" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="149" t="s">
+      <c r="I10" s="150" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="149" t="s">
+    <row r="11" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A11" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="160">
+      <c r="C11" s="161">
         <v>32845</v>
       </c>
-      <c r="D11" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="149">
+      <c r="D11" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="150">
         <v>94591</v>
       </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="149" t="s">
+      <c r="H11" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="149" t="s">
+      <c r="I11" s="150" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="150" t="s">
+    <row r="12" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A12" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="163">
         <v>32025</v>
       </c>
-      <c r="D12" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="150">
+      <c r="D12" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="151">
         <v>93030</v>
       </c>
-      <c r="G12" s="150" t="s">
+      <c r="G12" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="150">
+      <c r="J12" s="151">
         <v>5</v>
       </c>
-      <c r="M12" s="152" t="s">
+      <c r="M12" s="153" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A13" s="163" t="s">
+    <row r="13" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A13" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="160">
+      <c r="C13" s="161">
         <v>32378</v>
       </c>
-      <c r="D13" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="149">
+      <c r="D13" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="150">
         <v>90016</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="149" t="s">
+      <c r="H13" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="149" t="s">
+      <c r="I13" s="150" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A14" s="149" t="s">
+    <row r="14" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A14" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="160">
+      <c r="C14" s="161">
         <v>32630</v>
       </c>
-      <c r="D14" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="149">
+      <c r="D14" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="150">
         <v>95133</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="H14" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="149" t="s">
+      <c r="I14" s="150" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A15" s="149" t="s">
+    <row r="15" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A15" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="160">
+      <c r="C15" s="161">
         <v>32478</v>
       </c>
-      <c r="D15" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="149">
+      <c r="D15" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="150">
         <v>93030</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="G15" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="H15" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="149" t="s">
+      <c r="I15" s="150" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A16" s="149" t="s">
+    <row r="16" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A16" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="160">
+      <c r="C16" s="161">
         <v>32060</v>
       </c>
-      <c r="D16" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="149">
+      <c r="D16" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="150">
         <v>90036</v>
       </c>
-      <c r="G16" s="149" t="s">
+      <c r="G16" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="149" t="s">
+      <c r="H16" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="149" t="s">
+      <c r="I16" s="150" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D17" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A18" s="163" t="s">
+    <row r="17" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D17" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A18" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="160">
+      <c r="C18" s="161">
         <v>32655</v>
       </c>
-      <c r="D18" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="149">
+      <c r="D18" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="150">
         <v>95687</v>
       </c>
-      <c r="G18" s="149" t="s">
+      <c r="G18" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="149" t="s">
+      <c r="H18" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="149" t="s">
+      <c r="I18" s="150" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A19" s="149" t="s">
+    <row r="19" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A19" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="160">
+      <c r="C19" s="161">
         <v>32491</v>
       </c>
-      <c r="D19" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="149">
+      <c r="D19" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="150">
         <v>94580</v>
       </c>
-      <c r="G19" s="149" t="s">
+      <c r="G19" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="149" t="s">
+      <c r="H19" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="I19" s="149" t="s">
+      <c r="I19" s="150" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A20" s="163" t="s">
+    <row r="20" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A20" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="160">
+      <c r="C20" s="161">
         <v>31645</v>
       </c>
-      <c r="D20" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="149">
+      <c r="D20" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="150">
         <v>94541</v>
       </c>
-      <c r="G20" s="149" t="s">
+      <c r="G20" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="149" t="s">
+      <c r="H20" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="149" t="s">
+      <c r="I20" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="149">
+      <c r="J20" s="150">
         <v>5</v>
       </c>
-      <c r="M20" s="176" t="s">
+      <c r="M20" s="177" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" s="149" customFormat="1" ht="18" customHeight="1" spans="3:3">
-      <c r="C21" s="160"/>
-    </row>
-    <row r="22" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A22" s="164" t="s">
+    <row r="21" s="150" customFormat="1" ht="18" customHeight="1" spans="3:3">
+      <c r="C21" s="161"/>
+    </row>
+    <row r="22" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A22" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="166">
+      <c r="C22" s="167">
         <v>31889</v>
       </c>
-      <c r="D22" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="167">
+      <c r="D22" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="168">
         <v>94577</v>
       </c>
-      <c r="G22" s="167" t="s">
+      <c r="G22" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="167" t="s">
+      <c r="H22" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="167" t="s">
+      <c r="I22" s="168" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="167">
+      <c r="J22" s="168">
         <v>5</v>
       </c>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="151" t="s">
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="152" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A23" s="168" t="s">
+    <row r="23" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A23" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="163">
         <v>32012</v>
       </c>
-      <c r="D23" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="150">
+      <c r="D23" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="151">
         <v>94513</v>
       </c>
-      <c r="G23" s="150" t="s">
+      <c r="G23" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="150" t="s">
+      <c r="H23" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="150" t="s">
+      <c r="I23" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="150">
+      <c r="J23" s="151">
         <v>5</v>
       </c>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="152" t="s">
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="153" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A24" s="170" t="s">
+    <row r="24" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A24" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="173">
         <v>32357</v>
       </c>
-      <c r="D24" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="173">
+      <c r="D24" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="174">
         <v>94513</v>
       </c>
-      <c r="G24" s="173" t="s">
+      <c r="G24" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="173" t="s">
+      <c r="H24" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="173" t="s">
+      <c r="I24" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="173">
+      <c r="J24" s="174">
         <v>0</v>
       </c>
-      <c r="K24" s="172"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="153" t="s">
+      <c r="K24" s="173"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="154" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A25" s="164" t="s">
+    <row r="25" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A25" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="166">
+      <c r="C25" s="167">
         <v>32344</v>
       </c>
-      <c r="D25" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="167">
+      <c r="D25" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="168">
         <v>94513</v>
       </c>
-      <c r="G25" s="167" t="s">
+      <c r="G25" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="167" t="s">
+      <c r="H25" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="167" t="s">
+      <c r="I25" s="168" t="s">
         <v>116</v>
       </c>
-      <c r="J25" s="167">
+      <c r="J25" s="168">
         <v>5</v>
       </c>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="151" t="s">
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="152" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A26" s="164" t="s">
+    <row r="26" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A26" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="165" t="s">
+      <c r="B26" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="166">
+      <c r="C26" s="167">
         <v>31834</v>
       </c>
-      <c r="D26" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="167">
+      <c r="D26" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="168">
         <v>94513</v>
       </c>
-      <c r="G26" s="167" t="s">
+      <c r="G26" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="167" t="s">
+      <c r="H26" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="167" t="s">
+      <c r="I26" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="J26" s="167">
+      <c r="J26" s="168">
         <v>5</v>
       </c>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="151" t="s">
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="152" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A27" s="164" t="s">
+    <row r="27" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A27" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="166">
+      <c r="C27" s="167">
         <v>32077</v>
       </c>
-      <c r="D27" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="167">
+      <c r="D27" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="168">
         <v>91945</v>
       </c>
-      <c r="G27" s="167" t="s">
+      <c r="G27" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="167" t="s">
+      <c r="H27" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="167" t="s">
+      <c r="I27" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="167">
+      <c r="J27" s="168">
         <v>5</v>
       </c>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
-      <c r="M27" s="151" t="s">
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="152" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A28" s="170" t="s">
+    <row r="28" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A28" s="171" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="173">
         <v>32274</v>
       </c>
-      <c r="D28" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="173">
+      <c r="D28" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="174">
         <v>92114</v>
       </c>
-      <c r="G28" s="173" t="s">
+      <c r="G28" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="173" t="s">
+      <c r="H28" s="174" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="173" t="s">
+      <c r="I28" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="J28" s="173">
+      <c r="J28" s="174">
         <v>0</v>
       </c>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="153" t="s">
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="154" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A29" s="168" t="s">
+    <row r="29" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A29" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="163">
         <v>32087</v>
       </c>
-      <c r="D29" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="150">
+      <c r="D29" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="151">
         <v>91911</v>
       </c>
-      <c r="G29" s="150" t="s">
+      <c r="G29" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="150" t="s">
+      <c r="I29" s="151" t="s">
         <v>140</v>
       </c>
-      <c r="J29" s="150">
-        <v>15</v>
-      </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="152" t="s">
+      <c r="J29" s="151">
+        <v>15</v>
+      </c>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="153" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="164" t="s">
+    <row r="30" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A30" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="166" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="166">
+      <c r="C30" s="167">
         <v>31654</v>
       </c>
-      <c r="D30" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="167">
+      <c r="D30" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="168">
         <v>91913</v>
       </c>
-      <c r="G30" s="167" t="s">
+      <c r="G30" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="167" t="s">
+      <c r="H30" s="168" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="167" t="s">
+      <c r="I30" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="167">
+      <c r="J30" s="168">
         <v>5</v>
       </c>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="151" t="s">
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="152" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A31" s="170" t="s">
+    <row r="31" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A31" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="171" t="s">
+      <c r="B31" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="172">
+      <c r="C31" s="173">
         <v>31077</v>
       </c>
-      <c r="D31" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="173">
+      <c r="D31" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="174">
         <v>92010</v>
       </c>
-      <c r="G31" s="173" t="s">
+      <c r="G31" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="173" t="s">
+      <c r="H31" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="173" t="s">
+      <c r="I31" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="173">
+      <c r="J31" s="174">
         <v>315</v>
       </c>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="153" t="s">
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A32" s="164" t="s">
+    <row r="32" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A32" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="166">
+      <c r="C32" s="167">
         <v>32510</v>
       </c>
-      <c r="D32" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="167">
+      <c r="D32" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="168">
         <v>92078</v>
       </c>
-      <c r="G32" s="167" t="s">
+      <c r="G32" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="167" t="s">
+      <c r="H32" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="167" t="s">
+      <c r="I32" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="J32" s="167">
+      <c r="J32" s="168">
         <v>5</v>
       </c>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="151" t="s">
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="152" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A33" s="170" t="s">
+    <row r="33" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A33" s="171" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="172" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="172">
+      <c r="C33" s="173">
         <v>31657</v>
       </c>
-      <c r="D33" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="173">
+      <c r="D33" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="174">
         <v>92084</v>
       </c>
-      <c r="G33" s="173" t="s">
+      <c r="G33" s="174" t="s">
         <v>162</v>
       </c>
-      <c r="H33" s="173" t="s">
+      <c r="H33" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="173" t="s">
+      <c r="I33" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="173">
+      <c r="J33" s="174">
         <v>5</v>
       </c>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="153" t="s">
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="34" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A34" s="170" t="s">
+    <row r="34" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A34" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="172">
+      <c r="C34" s="173">
         <v>32205</v>
       </c>
-      <c r="D34" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="173">
+      <c r="D34" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="174">
         <v>92130</v>
       </c>
-      <c r="G34" s="173" t="s">
+      <c r="G34" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="H34" s="173" t="s">
+      <c r="H34" s="174" t="s">
         <v>169</v>
       </c>
-      <c r="I34" s="173" t="s">
+      <c r="I34" s="174" t="s">
         <v>170</v>
       </c>
-      <c r="J34" s="173">
+      <c r="J34" s="174">
         <v>5</v>
       </c>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="153" t="s">
+      <c r="K34" s="174"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="154" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A35" s="170" t="s">
+    <row r="35" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A35" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="172">
+      <c r="C35" s="173">
         <v>31879</v>
       </c>
-      <c r="D35" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="173">
+      <c r="D35" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="174">
         <v>92130</v>
       </c>
-      <c r="G35" s="173" t="s">
+      <c r="G35" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="H35" s="173" t="s">
+      <c r="H35" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="173" t="s">
+      <c r="I35" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="J35" s="173">
+      <c r="J35" s="174">
         <v>5</v>
       </c>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="153" t="s">
+      <c r="K35" s="174"/>
+      <c r="L35" s="174"/>
+      <c r="M35" s="154" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A36" s="171" t="s">
+    <row r="36" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A36" s="172" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="172" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="172">
+      <c r="C36" s="173">
         <v>32281</v>
       </c>
-      <c r="D36" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="173">
+      <c r="D36" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="174">
         <v>92618</v>
       </c>
-      <c r="G36" s="173" t="s">
+      <c r="G36" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="I36" s="173" t="s">
+      <c r="I36" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="J36" s="173">
+      <c r="J36" s="174">
         <v>5</v>
       </c>
-      <c r="K36" s="173"/>
-      <c r="L36" s="173"/>
-      <c r="M36" s="153" t="s">
+      <c r="K36" s="174"/>
+      <c r="L36" s="174"/>
+      <c r="M36" s="154" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A37" s="171" t="s">
+    <row r="37" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A37" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="171" t="s">
+      <c r="B37" s="172" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="172">
+      <c r="C37" s="173">
         <v>32422</v>
       </c>
-      <c r="D37" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="173">
+      <c r="D37" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="174">
         <v>92648</v>
       </c>
-      <c r="G37" s="173" t="s">
+      <c r="G37" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="H37" s="173" t="s">
+      <c r="H37" s="174" t="s">
         <v>187</v>
       </c>
-      <c r="I37" s="173" t="s">
+      <c r="I37" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="173">
+      <c r="J37" s="174">
         <v>255</v>
       </c>
-      <c r="K37" s="173"/>
-      <c r="L37" s="173"/>
-      <c r="M37" s="153" t="s">
+      <c r="K37" s="174"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="154" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="38" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A38" s="171" t="s">
+    <row r="38" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A38" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="171" t="s">
+      <c r="B38" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="172">
+      <c r="C38" s="173">
         <v>31662</v>
       </c>
-      <c r="D38" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="173">
+      <c r="D38" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="174">
         <v>92673</v>
       </c>
-      <c r="G38" s="173" t="s">
+      <c r="G38" s="174" t="s">
         <v>192</v>
       </c>
-      <c r="H38" s="173" t="s">
+      <c r="H38" s="174" t="s">
         <v>193</v>
       </c>
-      <c r="I38" s="173" t="s">
+      <c r="I38" s="174" t="s">
         <v>194</v>
       </c>
-      <c r="J38" s="173">
+      <c r="J38" s="174">
         <v>155</v>
       </c>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="153" t="s">
+      <c r="K38" s="174"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A39" s="171" t="s">
+    <row r="39" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A39" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="172" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="172">
+      <c r="C39" s="173">
         <v>31389</v>
       </c>
-      <c r="D39" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="173">
+      <c r="D39" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="174">
         <v>92629</v>
       </c>
-      <c r="G39" s="173" t="s">
+      <c r="G39" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="173" t="s">
+      <c r="H39" s="174" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="173" t="s">
+      <c r="I39" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="J39" s="173">
+      <c r="J39" s="174">
         <v>30</v>
       </c>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="153" t="s">
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="154" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A40" s="171" t="s">
+    <row r="40" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A40" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="171" t="s">
+      <c r="B40" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="172">
+      <c r="C40" s="173">
         <v>31817</v>
       </c>
-      <c r="D40" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="173">
+      <c r="D40" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="174">
         <v>92656</v>
       </c>
-      <c r="G40" s="173" t="s">
+      <c r="G40" s="174" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="173" t="s">
+      <c r="H40" s="174" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="173" t="s">
+      <c r="I40" s="174" t="s">
         <v>206</v>
       </c>
-      <c r="J40" s="173">
+      <c r="J40" s="174">
         <v>5</v>
       </c>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="153" t="s">
+      <c r="K40" s="174"/>
+      <c r="L40" s="174"/>
+      <c r="M40" s="154" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A41" s="174" t="s">
+    <row r="41" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A41" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="171" t="s">
+      <c r="B41" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="172">
+      <c r="C41" s="173">
         <v>32487</v>
       </c>
-      <c r="D41" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="173">
+      <c r="D41" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="174">
         <v>92592</v>
       </c>
-      <c r="G41" s="173" t="s">
+      <c r="G41" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="H41" s="173" t="s">
+      <c r="H41" s="174" t="s">
         <v>211</v>
       </c>
-      <c r="I41" s="173" t="s">
+      <c r="I41" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="J41" s="173">
+      <c r="J41" s="174">
         <v>5</v>
       </c>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="153" t="s">
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="154" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A42" s="163" t="s">
+    <row r="42" s="152" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A42" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="166">
+      <c r="C42" s="167">
         <v>31666</v>
       </c>
-      <c r="D42" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="167">
+      <c r="D42" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="168">
         <v>90732</v>
       </c>
-      <c r="G42" s="167" t="s">
+      <c r="G42" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="H42" s="167" t="s">
+      <c r="H42" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="I42" s="167" t="s">
+      <c r="I42" s="168" t="s">
         <v>218</v>
       </c>
-      <c r="J42" s="167">
+      <c r="J42" s="168">
         <v>5</v>
       </c>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="151" t="s">
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="152" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A43" s="171" t="s">
+    <row r="43" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A43" s="172" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="171" t="s">
+      <c r="B43" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="172">
+      <c r="C43" s="173">
         <v>31675</v>
       </c>
-      <c r="D43" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="173">
+      <c r="D43" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="174">
         <v>90731</v>
       </c>
-      <c r="G43" s="173" t="s">
+      <c r="G43" s="174" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="173" t="s">
+      <c r="H43" s="174" t="s">
         <v>223</v>
       </c>
-      <c r="I43" s="173" t="s">
+      <c r="I43" s="174" t="s">
         <v>224</v>
       </c>
-      <c r="J43" s="173">
+      <c r="J43" s="174">
         <v>5</v>
       </c>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="153" t="s">
+      <c r="K43" s="174"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="154" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A44" s="171" t="s">
+    <row r="44" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A44" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="172" t="s">
         <v>227</v>
       </c>
-      <c r="C44" s="172">
+      <c r="C44" s="173">
         <v>32490</v>
       </c>
-      <c r="D44" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="173">
+      <c r="D44" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="174">
         <v>91405</v>
       </c>
-      <c r="G44" s="173" t="s">
+      <c r="G44" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="173" t="s">
+      <c r="H44" s="174" t="s">
         <v>229</v>
       </c>
-      <c r="I44" s="173" t="s">
+      <c r="I44" s="174" t="s">
         <v>230</v>
       </c>
-      <c r="J44" s="173">
+      <c r="J44" s="174">
         <v>5</v>
       </c>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="153" t="s">
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="154" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A45" s="171" t="s">
+    <row r="45" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A45" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="B45" s="171" t="s">
+      <c r="B45" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="172">
+      <c r="C45" s="173">
         <v>31669</v>
       </c>
-      <c r="D45" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="173">
+      <c r="D45" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="174">
         <v>90044</v>
       </c>
-      <c r="G45" s="173" t="s">
+      <c r="G45" s="174" t="s">
         <v>234</v>
       </c>
-      <c r="H45" s="173" t="s">
+      <c r="H45" s="174" t="s">
         <v>235</v>
       </c>
-      <c r="I45" s="173" t="s">
+      <c r="I45" s="174" t="s">
         <v>236</v>
       </c>
-      <c r="J45" s="173">
+      <c r="J45" s="174">
         <v>5</v>
       </c>
-      <c r="K45" s="173"/>
-      <c r="L45" s="173"/>
-      <c r="M45" s="153" t="s">
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="154" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="46" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A46" s="171" t="s">
+    <row r="46" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A46" s="172" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="172" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="172">
+      <c r="C46" s="173">
         <v>32528</v>
       </c>
-      <c r="D46" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="173">
+      <c r="D46" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="174">
         <v>91367</v>
       </c>
-      <c r="G46" s="173" t="s">
+      <c r="G46" s="174" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="173" t="s">
+      <c r="H46" s="174" t="s">
         <v>241</v>
       </c>
-      <c r="I46" s="173" t="s">
+      <c r="I46" s="174" t="s">
         <v>242</v>
       </c>
-      <c r="J46" s="173">
+      <c r="J46" s="174">
         <v>5</v>
       </c>
-      <c r="K46" s="173"/>
-      <c r="L46" s="173"/>
-      <c r="M46" s="153" t="s">
+      <c r="K46" s="174"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="154" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A47" s="171" t="s">
+    <row r="47" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A47" s="172" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="171" t="s">
+      <c r="B47" s="172" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="172">
+      <c r="C47" s="173">
         <v>31548</v>
       </c>
-      <c r="D47" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="173">
+      <c r="D47" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="174">
         <v>91335</v>
       </c>
-      <c r="G47" s="173" t="s">
+      <c r="G47" s="174" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="173" t="s">
+      <c r="H47" s="174" t="s">
         <v>247</v>
       </c>
-      <c r="I47" s="173" t="s">
+      <c r="I47" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="J47" s="173">
+      <c r="J47" s="174">
         <v>5</v>
       </c>
-      <c r="K47" s="173"/>
-      <c r="L47" s="173"/>
-      <c r="M47" s="153" t="s">
+      <c r="K47" s="174"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="154" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="48" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A48" s="171" t="s">
+    <row r="48" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A48" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="B48" s="171" t="s">
+      <c r="B48" s="172" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="172">
+      <c r="C48" s="173">
         <v>31672</v>
       </c>
-      <c r="D48" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="173">
+      <c r="D48" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="174">
         <v>90042</v>
       </c>
-      <c r="G48" s="173" t="s">
+      <c r="G48" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="H48" s="173" t="s">
+      <c r="H48" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="I48" s="173" t="s">
+      <c r="I48" s="174" t="s">
         <v>254</v>
       </c>
-      <c r="J48" s="173">
+      <c r="J48" s="174">
         <v>5</v>
       </c>
-      <c r="K48" s="173"/>
-      <c r="L48" s="173"/>
-      <c r="M48" s="153" t="s">
+      <c r="K48" s="174"/>
+      <c r="L48" s="174"/>
+      <c r="M48" s="154" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A49" s="171" t="s">
+    <row r="49" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A49" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="171" t="s">
+      <c r="B49" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="172">
+      <c r="C49" s="173">
         <v>32105</v>
       </c>
-      <c r="D49" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="173">
+      <c r="D49" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="174">
         <v>91344</v>
       </c>
-      <c r="G49" s="173" t="s">
+      <c r="G49" s="174" t="s">
         <v>258</v>
       </c>
-      <c r="H49" s="173" t="s">
+      <c r="H49" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="I49" s="173" t="s">
+      <c r="I49" s="174" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="173">
+      <c r="J49" s="174">
         <v>5</v>
       </c>
-      <c r="K49" s="173"/>
-      <c r="L49" s="173"/>
-      <c r="M49" s="153" t="s">
+      <c r="K49" s="174"/>
+      <c r="L49" s="174"/>
+      <c r="M49" s="154" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" s="153" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A50" s="171" t="s">
+    <row r="50" s="154" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A50" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="173" t="s">
+      <c r="B50" s="174" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="172">
+      <c r="C50" s="173">
         <v>31674</v>
       </c>
-      <c r="D50" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="173">
+      <c r="D50" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="174">
         <v>90732</v>
       </c>
-      <c r="G50" s="173" t="s">
+      <c r="G50" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="H50" s="173" t="s">
+      <c r="H50" s="174" t="s">
         <v>265</v>
       </c>
-      <c r="I50" s="173" t="s">
+      <c r="I50" s="174" t="s">
         <v>266</v>
       </c>
-      <c r="J50" s="173">
+      <c r="J50" s="174">
         <v>5</v>
       </c>
-      <c r="K50" s="173"/>
-      <c r="L50" s="173"/>
-      <c r="M50" s="153" t="s">
+      <c r="K50" s="174"/>
+      <c r="L50" s="174"/>
+      <c r="M50" s="154" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="51" s="149" customFormat="1" ht="18" customHeight="1" spans="1:3">
-      <c r="A51" s="175"/>
-      <c r="C51" s="160"/>
-    </row>
-    <row r="52" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A52" s="163" t="s">
+    <row r="51" s="150" customFormat="1" ht="18" customHeight="1" spans="1:3">
+      <c r="A51" s="176"/>
+      <c r="C51" s="161"/>
+    </row>
+    <row r="52" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A52" s="164" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="149" t="s">
+      <c r="B52" s="150" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="160">
+      <c r="C52" s="161">
         <v>32357</v>
       </c>
-      <c r="D52" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="149">
+      <c r="D52" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="150">
         <v>90002</v>
       </c>
-      <c r="G52" s="149" t="s">
+      <c r="G52" s="150" t="s">
         <v>270</v>
       </c>
-      <c r="H52" s="149" t="s">
+      <c r="H52" s="150" t="s">
         <v>271</v>
       </c>
-      <c r="I52" s="149" t="s">
+      <c r="I52" s="150" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="53" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A53" s="175" t="s">
+    <row r="53" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A53" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="149" t="s">
+      <c r="B53" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="C53" s="160">
+      <c r="C53" s="161">
         <v>32407</v>
       </c>
-      <c r="D53" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="149">
+      <c r="D53" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="150">
         <v>91343</v>
       </c>
-      <c r="G53" s="149" t="s">
+      <c r="G53" s="150" t="s">
         <v>275</v>
       </c>
-      <c r="H53" s="149" t="s">
+      <c r="H53" s="150" t="s">
         <v>276</v>
       </c>
-      <c r="I53" s="149" t="s">
+      <c r="I53" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="M53" s="177" t="s">
+      <c r="M53" s="178" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="54" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A54" s="175" t="s">
+    <row r="54" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A54" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="149" t="s">
+      <c r="B54" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="160">
+      <c r="C54" s="161">
         <v>31830</v>
       </c>
-      <c r="D54" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="149">
+      <c r="D54" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="150">
         <v>90065</v>
       </c>
-      <c r="G54" s="149" t="s">
+      <c r="G54" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="H54" s="149" t="s">
+      <c r="H54" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="I54" s="149" t="s">
+      <c r="I54" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="M54" s="176" t="s">
+      <c r="M54" s="177" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A55" s="175" t="s">
+    <row r="55" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A55" s="176" t="s">
         <v>283</v>
       </c>
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="150" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="160">
+      <c r="C55" s="161">
         <v>32662</v>
       </c>
-      <c r="D55" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="149">
+      <c r="D55" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="150">
         <v>91402</v>
       </c>
-      <c r="G55" s="149" t="s">
+      <c r="G55" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="149" t="s">
+      <c r="H55" s="150" t="s">
         <v>285</v>
       </c>
-      <c r="I55" s="149" t="s">
+      <c r="I55" s="150" t="s">
         <v>286</v>
       </c>
-      <c r="M55" s="176" t="s">
+      <c r="M55" s="177" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A56" s="175" t="s">
+    <row r="56" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A56" s="176" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="149" t="s">
+      <c r="B56" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="160">
+      <c r="C56" s="161">
         <v>32775</v>
       </c>
-      <c r="D56" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="149">
+      <c r="D56" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="150">
         <v>92336</v>
       </c>
-      <c r="G56" s="149" t="s">
+      <c r="G56" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="149" t="s">
+      <c r="H56" s="150" t="s">
         <v>290</v>
       </c>
-      <c r="I56" s="149" t="s">
+      <c r="I56" s="150" t="s">
         <v>291</v>
       </c>
-      <c r="M56" s="176" t="s">
+      <c r="M56" s="177" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="57" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A57" s="175" t="s">
+    <row r="57" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A57" s="176" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="150" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="160">
+      <c r="C57" s="161">
         <v>31834</v>
       </c>
-      <c r="D57" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="149">
+      <c r="D57" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="150">
         <v>91730</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="149" t="s">
+      <c r="H57" s="150" t="s">
         <v>295</v>
       </c>
-      <c r="I57" s="149" t="s">
+      <c r="I57" s="150" t="s">
         <v>296</v>
       </c>
-      <c r="M57" s="149" t="s">
+      <c r="M57" s="150" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="58" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A58" s="175" t="s">
+    <row r="58" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A58" s="176" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="149" t="s">
+      <c r="B58" s="150" t="s">
         <v>299</v>
       </c>
-      <c r="C58" s="160">
+      <c r="C58" s="161">
         <v>32388</v>
       </c>
-      <c r="D58" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="149">
+      <c r="D58" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="150">
         <v>91607</v>
       </c>
-      <c r="G58" s="149" t="s">
+      <c r="G58" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="149" t="s">
+      <c r="H58" s="150" t="s">
         <v>300</v>
       </c>
-      <c r="I58" s="149" t="s">
+      <c r="I58" s="150" t="s">
         <v>301</v>
       </c>
-      <c r="M58" s="149" t="s">
+      <c r="M58" s="150" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A59" s="149" t="s">
+    <row r="59" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A59" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="149" t="s">
+      <c r="B59" s="150" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="160">
+      <c r="C59" s="161">
         <v>32245</v>
       </c>
-      <c r="D59" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="149">
+      <c r="D59" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="150">
         <v>93030</v>
       </c>
-      <c r="G59" s="149" t="s">
+      <c r="G59" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="H59" s="149" t="s">
+      <c r="H59" s="150" t="s">
         <v>305</v>
       </c>
-      <c r="I59" s="149" t="s">
+      <c r="I59" s="150" t="s">
         <v>306</v>
       </c>
-      <c r="M59" s="176" t="s">
+      <c r="M59" s="177" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="60" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A60" s="150" t="s">
+    <row r="60" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A60" s="151" t="s">
         <v>308</v>
       </c>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="151" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="162">
+      <c r="C60" s="163">
         <v>32596</v>
       </c>
-      <c r="D60" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="150">
+      <c r="D60" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="151">
         <v>92139</v>
       </c>
-      <c r="G60" s="150" t="s">
+      <c r="G60" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="H60" s="150" t="s">
+      <c r="H60" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="I60" s="150" t="s">
+      <c r="I60" s="151" t="s">
         <v>310</v>
       </c>
-      <c r="M60" s="152" t="s">
+      <c r="M60" s="153" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="61" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A61" s="149" t="s">
+    <row r="61" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A61" s="150" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="150" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="160">
+      <c r="C61" s="161">
         <v>32893</v>
       </c>
-      <c r="D61" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="149">
+      <c r="D61" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="150">
         <v>90042</v>
       </c>
-      <c r="G61" s="161" t="s">
+      <c r="G61" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="H61" s="167" t="s">
+      <c r="H61" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="149" t="s">
+      <c r="I61" s="150" t="s">
         <v>314</v>
       </c>
-      <c r="M61" s="176" t="s">
+      <c r="M61" s="177" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="62" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A62" s="149" t="s">
+    <row r="62" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A62" s="150" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="149" t="s">
+      <c r="B62" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="160">
+      <c r="C62" s="161">
         <v>32560</v>
       </c>
-      <c r="D62" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="149">
+      <c r="D62" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="150">
         <v>91604</v>
       </c>
-      <c r="G62" s="149" t="s">
+      <c r="G62" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="167" t="s">
+      <c r="H62" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="I62" s="149" t="s">
+      <c r="I62" s="150" t="s">
         <v>318</v>
       </c>
-      <c r="M62" s="176" t="s">
+      <c r="M62" s="177" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="63" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A63" s="150" t="s">
+    <row r="63" s="151" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A63" s="151" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="150" t="s">
+      <c r="B63" s="151" t="s">
         <v>321</v>
       </c>
-      <c r="C63" s="162">
+      <c r="C63" s="163">
         <v>32965</v>
       </c>
-      <c r="D63" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="150">
+      <c r="D63" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="151">
         <v>90065</v>
       </c>
-      <c r="G63" s="150" t="s">
+      <c r="G63" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="150" t="s">
+      <c r="H63" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="150" t="s">
+      <c r="I63" s="151" t="s">
         <v>322</v>
       </c>
-      <c r="M63" s="152" t="s">
+      <c r="M63" s="153" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="64" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A64" s="149" t="s">
+    <row r="64" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A64" s="150" t="s">
         <v>324</v>
       </c>
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="150" t="s">
         <v>325</v>
       </c>
-      <c r="C64" s="160">
+      <c r="C64" s="161">
         <v>32165</v>
       </c>
-      <c r="D64" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="149">
+      <c r="D64" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="150">
         <v>90032</v>
       </c>
-      <c r="G64" s="149" t="s">
+      <c r="G64" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="H64" s="167" t="s">
+      <c r="H64" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="I64" s="149" t="s">
+      <c r="I64" s="150" t="s">
         <v>326</v>
       </c>
-      <c r="M64" s="176" t="s">
+      <c r="M64" s="177" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="65" s="149" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A65" s="149" t="s">
+    <row r="65" s="150" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A65" s="150" t="s">
         <v>328</v>
       </c>
-      <c r="B65" s="149" t="s">
+      <c r="B65" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="160">
+      <c r="C65" s="161">
         <v>32652</v>
       </c>
-      <c r="D65" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="149">
+      <c r="D65" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="150">
         <v>90042</v>
       </c>
-      <c r="G65" s="149" t="s">
+      <c r="G65" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="H65" s="167" t="s">
+      <c r="H65" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="I65" s="149" t="s">
+      <c r="I65" s="150" t="s">
         <v>330</v>
       </c>
-      <c r="M65" s="176" t="s">
+      <c r="M65" s="177" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A66" s="150" t="s">
+    <row r="66" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A66" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="B66" s="150" t="s">
+      <c r="B66" s="151" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="162">
+      <c r="C66" s="163">
         <v>32937</v>
       </c>
-      <c r="D66" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="150">
+      <c r="D66" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="151">
         <v>90065</v>
       </c>
-      <c r="G66" s="150" t="s">
+      <c r="G66" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="H66" s="150" t="s">
+      <c r="H66" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="I66" s="150" t="s">
+      <c r="I66" s="151" t="s">
         <v>334</v>
       </c>
-      <c r="M66" s="150" t="s">
+      <c r="M66" s="151" t="s">
         <v>335</v>
       </c>
-      <c r="N66" s="150" t="s">
+      <c r="N66" s="151" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="67" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A67" s="149" t="s">
+    <row r="67" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A67" s="150" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="149" t="s">
+      <c r="B67" s="150" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="160">
+      <c r="C67" s="161">
         <v>32350</v>
       </c>
-      <c r="D67" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="149">
+      <c r="D67" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="150">
         <v>92596</v>
       </c>
-      <c r="G67" s="149" t="s">
+      <c r="G67" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="167" t="s">
+      <c r="H67" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="I67" s="149" t="s">
+      <c r="I67" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="M67" s="149" t="s">
+      <c r="M67" s="150" t="s">
         <v>340</v>
       </c>
-      <c r="N67" s="149" t="s">
+      <c r="N67" s="150" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="68" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A68" s="149" t="s">
+    <row r="68" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A68" s="150" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="150" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="160">
+      <c r="C68" s="161">
         <v>32931</v>
       </c>
-      <c r="D68" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="149">
+      <c r="D68" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="150">
         <v>92620</v>
       </c>
-      <c r="G68" s="149" t="s">
+      <c r="G68" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="167" t="s">
+      <c r="H68" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="149" t="s">
+      <c r="I68" s="150" t="s">
         <v>344</v>
       </c>
-      <c r="M68" s="149" t="s">
+      <c r="M68" s="150" t="s">
         <v>345</v>
       </c>
-      <c r="N68" s="179" t="s">
+      <c r="N68" s="180" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A69" s="150" t="s">
+    <row r="69" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A69" s="151" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="162">
+      <c r="C69" s="163">
         <v>32606</v>
       </c>
-      <c r="D69" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="150">
+      <c r="D69" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="151">
         <v>92253</v>
       </c>
-      <c r="G69" s="150" t="s">
+      <c r="G69" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="150" t="s">
+      <c r="H69" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="150" t="s">
+      <c r="I69" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="M69" s="150" t="s">
+      <c r="M69" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="N69" s="180" t="s">
+      <c r="N69" s="181" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="70" s="154" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A70" s="154" t="s">
+    <row r="70" s="155" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A70" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="154" t="s">
+      <c r="B70" s="155" t="s">
         <v>353</v>
       </c>
-      <c r="C70" s="178">
+      <c r="C70" s="179">
         <v>32154</v>
       </c>
-      <c r="D70" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="154" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="154">
+      <c r="D70" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="155">
         <v>93004</v>
       </c>
-      <c r="G70" s="154" t="s">
+      <c r="G70" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="154" t="s">
+      <c r="H70" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="154" t="s">
+      <c r="I70" s="155" t="s">
         <v>354</v>
       </c>
-      <c r="M70" s="154" t="s">
+      <c r="M70" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="N70" s="181" t="s">
+      <c r="N70" s="182" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A71" s="150" t="s">
+    <row r="71" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A71" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="B71" s="150" t="s">
+      <c r="B71" s="151" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="162">
+      <c r="C71" s="163">
         <v>32998</v>
       </c>
-      <c r="D71" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="150">
+      <c r="D71" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="151">
         <v>92880</v>
       </c>
-      <c r="G71" s="150" t="s">
+      <c r="G71" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="H71" s="150" t="s">
+      <c r="H71" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="150" t="s">
+      <c r="I71" s="151" t="s">
         <v>359</v>
       </c>
-      <c r="M71" s="150" t="s">
+      <c r="M71" s="151" t="s">
         <v>360</v>
       </c>
-      <c r="N71" s="180" t="s">
+      <c r="N71" s="181" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="72" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A72" s="150" t="s">
+    <row r="72" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A72" s="151" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="150" t="s">
+      <c r="B72" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="162">
+      <c r="C72" s="163">
         <v>33427</v>
       </c>
-      <c r="D72" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="150">
+      <c r="D72" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="151">
         <v>95127</v>
       </c>
-      <c r="G72" s="150" t="s">
+      <c r="G72" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="150" t="s">
+      <c r="H72" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="I72" s="150" t="s">
+      <c r="I72" s="151" t="s">
         <v>364</v>
       </c>
-      <c r="M72" s="150" t="s">
+      <c r="M72" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="N72" s="180" t="s">
+      <c r="N72" s="181" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="73" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A73" s="149" t="s">
+    <row r="73" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A73" s="150" t="s">
         <v>367</v>
       </c>
-      <c r="B73" s="149" t="s">
+      <c r="B73" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="C73" s="160">
+      <c r="C73" s="161">
         <v>32553</v>
       </c>
-      <c r="D73" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="149">
+      <c r="D73" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="150">
         <v>94804</v>
       </c>
-      <c r="G73" s="167" t="s">
+      <c r="G73" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="167" t="s">
+      <c r="H73" s="168" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="149" t="s">
+      <c r="I73" s="150" t="s">
         <v>369</v>
       </c>
-      <c r="M73" s="149" t="s">
+      <c r="M73" s="150" t="s">
         <v>370</v>
       </c>
-      <c r="N73" s="179" t="s">
+      <c r="N73" s="180" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="74" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A74" s="150" t="s">
+    <row r="74" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A74" s="151" t="s">
         <v>372</v>
       </c>
-      <c r="B74" s="150" t="s">
+      <c r="B74" s="151" t="s">
         <v>373</v>
       </c>
-      <c r="C74" s="162">
+      <c r="C74" s="163">
         <v>32906</v>
       </c>
-      <c r="D74" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="150">
+      <c r="D74" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="151">
         <v>94551</v>
       </c>
-      <c r="G74" s="150" t="s">
+      <c r="G74" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="150" t="s">
+      <c r="H74" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="I74" s="150" t="s">
+      <c r="I74" s="151" t="s">
         <v>374</v>
       </c>
-      <c r="M74" s="150" t="s">
+      <c r="M74" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="N74" s="180" t="s">
+      <c r="N74" s="181" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="75" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A75" s="150" t="s">
+    <row r="75" s="151" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A75" s="151" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="150" t="s">
+      <c r="B75" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="162">
+      <c r="C75" s="163">
         <v>32327</v>
       </c>
-      <c r="D75" s="150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="150">
+      <c r="D75" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="151">
         <v>94530</v>
       </c>
-      <c r="G75" s="150" t="s">
+      <c r="G75" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="150" t="s">
+      <c r="H75" s="151" t="s">
         <v>181</v>
       </c>
-      <c r="I75" s="150" t="s">
+      <c r="I75" s="151" t="s">
         <v>379</v>
       </c>
-      <c r="M75" s="150" t="s">
+      <c r="M75" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="N75" s="180" t="s">
+      <c r="N75" s="181" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A76" s="149" t="s">
+    <row r="76" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A76" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="149" t="s">
+      <c r="B76" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="160">
+      <c r="C76" s="161">
         <v>32724</v>
       </c>
-      <c r="D76" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="149">
+      <c r="D76" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="150">
         <v>91722</v>
       </c>
-      <c r="G76" s="167" t="s">
+      <c r="G76" s="168" t="s">
         <v>114</v>
       </c>
-      <c r="H76" s="167" t="s">
+      <c r="H76" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="149" t="s">
+      <c r="I76" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="M76" s="149" t="s">
+      <c r="M76" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="N76" s="179" t="s">
+      <c r="N76" s="180" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="77" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A77" s="149" t="s">
+    <row r="77" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A77" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="150" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="160">
+      <c r="C77" s="161">
         <v>32544</v>
       </c>
-      <c r="D77" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="149">
+      <c r="D77" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="150">
         <v>90260</v>
       </c>
-      <c r="G77" s="167" t="s">
+      <c r="G77" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="H77" s="167" t="s">
+      <c r="H77" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="149" t="s">
+      <c r="I77" s="150" t="s">
         <v>389</v>
       </c>
-      <c r="J77" s="149">
+      <c r="J77" s="150">
         <v>255</v>
       </c>
-      <c r="M77" s="149" t="s">
+      <c r="M77" s="150" t="s">
         <v>390</v>
       </c>
-      <c r="N77" s="179" t="s">
+      <c r="N77" s="180" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="78" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A78" s="149" t="s">
+    <row r="78" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A78" s="150" t="s">
         <v>392</v>
       </c>
-      <c r="B78" s="149" t="s">
+      <c r="B78" s="150" t="s">
         <v>393</v>
       </c>
-      <c r="C78" s="160">
+      <c r="C78" s="161">
         <v>32979</v>
       </c>
-      <c r="D78" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="149">
+      <c r="D78" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="150">
         <v>90650</v>
       </c>
-      <c r="G78" s="167" t="s">
+      <c r="G78" s="168" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="167" t="s">
+      <c r="H78" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="I78" s="149" t="s">
+      <c r="I78" s="150" t="s">
         <v>394</v>
       </c>
-      <c r="M78" s="149" t="s">
+      <c r="M78" s="150" t="s">
         <v>395</v>
       </c>
-      <c r="N78" s="179" t="s">
+      <c r="N78" s="180" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A79" s="149" t="s">
+    <row r="79" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A79" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="149" t="s">
+      <c r="B79" s="150" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="160">
+      <c r="C79" s="161">
         <v>32966</v>
       </c>
-      <c r="D79" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="149">
+      <c r="D79" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="150">
         <v>90066</v>
       </c>
-      <c r="G79" s="167" t="s">
+      <c r="G79" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="167" t="s">
+      <c r="H79" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="149" t="s">
+      <c r="I79" s="150" t="s">
         <v>399</v>
       </c>
-      <c r="M79" s="149" t="s">
+      <c r="M79" s="150" t="s">
         <v>400</v>
       </c>
-      <c r="N79" s="179" t="s">
+      <c r="N79" s="180" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="80" s="149" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A80" s="149" t="s">
+    <row r="80" s="150" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A80" s="150" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="149" t="s">
+      <c r="B80" s="150" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="160">
+      <c r="C80" s="161">
         <v>32174</v>
       </c>
-      <c r="D80" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="149">
+      <c r="D80" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="150">
         <v>90650</v>
       </c>
-      <c r="G80" s="167" t="s">
+      <c r="G80" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="167" t="s">
+      <c r="H80" s="168" t="s">
         <v>211</v>
       </c>
-      <c r="I80" s="149" t="s">
+      <c r="I80" s="150" t="s">
         <v>404</v>
       </c>
-      <c r="M80" s="149" t="s">
+      <c r="M80" s="150" t="s">
         <v>405</v>
       </c>
-      <c r="N80" s="179" t="s">
+      <c r="N80" s="180" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="81" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D81" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="149">
+    <row r="81" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D81" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="150">
         <v>93040</v>
       </c>
-      <c r="G81" s="167" t="s">
+      <c r="G81" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="H81" s="167" t="s">
+      <c r="H81" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="I81" s="149" t="s">
+      <c r="I81" s="150" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="82" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D82" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="149">
+    <row r="82" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D82" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="150">
         <v>95135</v>
       </c>
-      <c r="G82" s="167" t="s">
+      <c r="G82" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="H82" s="167" t="s">
+      <c r="H82" s="168" t="s">
         <v>223</v>
       </c>
-      <c r="I82" s="149" t="s">
+      <c r="I82" s="150" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="83" s="149" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A83" s="176"/>
-      <c r="D83" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="149">
+    <row r="83" s="150" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A83" s="177"/>
+      <c r="D83" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="150">
         <v>94118</v>
       </c>
-      <c r="G83" s="167" t="s">
+      <c r="G83" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="H83" s="167" t="s">
+      <c r="H83" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="I83" s="149" t="s">
+      <c r="I83" s="150" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="84" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A84" s="176"/>
-      <c r="D84" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="167" t="s">
+    <row r="84" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A84" s="177"/>
+      <c r="D84" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="168" t="s">
         <v>162</v>
       </c>
-      <c r="H84" s="167" t="s">
+      <c r="H84" s="168" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="85" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A85" s="176"/>
-      <c r="D85" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="167" t="s">
+    <row r="85" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A85" s="177"/>
+      <c r="D85" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="H85" s="167" t="s">
+      <c r="H85" s="168" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A86" s="176"/>
-      <c r="D86" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="167" t="s">
+    <row r="86" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A86" s="177"/>
+      <c r="D86" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="H86" s="167" t="s">
+      <c r="H86" s="168" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A87" s="176"/>
-      <c r="D87" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="167" t="s">
+    <row r="87" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A87" s="177"/>
+      <c r="D87" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="H87" s="167" t="s">
+      <c r="H87" s="168" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A88" s="176"/>
-      <c r="D88" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="167" t="s">
+    <row r="88" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A88" s="177"/>
+      <c r="D88" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="168" t="s">
         <v>186</v>
       </c>
-      <c r="H88" s="167" t="s">
+      <c r="H88" s="168" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="89" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A89" s="176"/>
-      <c r="D89" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="167" t="s">
+    <row r="89" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A89" s="177"/>
+      <c r="D89" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="H89" s="167" t="s">
+      <c r="H89" s="168" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="90" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A90" s="176"/>
-      <c r="D90" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="167" t="s">
+    <row r="90" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A90" s="177"/>
+      <c r="D90" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="168" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="149" t="s">
+      <c r="H90" s="150" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A91" s="176"/>
-      <c r="D91" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="167" t="s">
+    <row r="91" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A91" s="177"/>
+      <c r="D91" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="H91" s="149" t="s">
+      <c r="H91" s="150" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A92" s="176"/>
-      <c r="D92" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="167" t="s">
+    <row r="92" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A92" s="177"/>
+      <c r="D92" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="168" t="s">
         <v>210</v>
       </c>
-      <c r="H92" s="149" t="s">
+      <c r="H92" s="150" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="93" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A93" s="176"/>
-      <c r="D93" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="167" t="s">
+    <row r="93" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A93" s="177"/>
+      <c r="D93" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="H93" s="149" t="s">
+      <c r="H93" s="150" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A94" s="176"/>
-      <c r="D94" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="167" t="s">
+    <row r="94" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A94" s="177"/>
+      <c r="D94" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="168" t="s">
         <v>222</v>
       </c>
-      <c r="H94" s="149" t="s">
+      <c r="H94" s="150" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A95" s="176"/>
-      <c r="D95" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="167" t="s">
+    <row r="95" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A95" s="177"/>
+      <c r="D95" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="168" t="s">
         <v>228</v>
       </c>
-      <c r="H95" s="149" t="s">
+      <c r="H95" s="150" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A96" s="176"/>
-      <c r="D96" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="167" t="s">
+    <row r="96" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A96" s="177"/>
+      <c r="D96" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="168" t="s">
         <v>234</v>
       </c>
-      <c r="H96" s="149" t="s">
+      <c r="H96" s="150" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A97" s="176"/>
-      <c r="D97" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="167" t="s">
+    <row r="97" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A97" s="177"/>
+      <c r="D97" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="168" t="s">
         <v>240</v>
       </c>
-      <c r="H97" s="149" t="s">
+      <c r="H97" s="150" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="98" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A98" s="176"/>
-      <c r="D98" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="167" t="s">
+    <row r="98" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A98" s="177"/>
+      <c r="D98" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="H98" s="149" t="s">
+      <c r="H98" s="150" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A99" s="176"/>
-      <c r="D99" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="167" t="s">
+    <row r="99" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A99" s="177"/>
+      <c r="D99" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="H99" s="149" t="s">
+      <c r="H99" s="150" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="100" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A100" s="176"/>
-      <c r="D100" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="167" t="s">
+    <row r="100" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A100" s="177"/>
+      <c r="D100" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="168" t="s">
         <v>258</v>
       </c>
-      <c r="H100" s="149" t="s">
+      <c r="H100" s="150" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" s="149" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A101" s="176"/>
-      <c r="D101" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="167" t="s">
+    <row r="101" s="150" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A101" s="177"/>
+      <c r="D101" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="H101" s="149" t="s">
+      <c r="H101" s="150" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="102" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D102" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D103" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A104" s="176"/>
-      <c r="D104" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A105" s="176"/>
-      <c r="D105" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A106" s="176"/>
-      <c r="D106" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A107" s="176"/>
-      <c r="D107" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A108" s="176"/>
-      <c r="D108" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A109" s="176"/>
-      <c r="D109" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A110" s="176"/>
-      <c r="D110" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A111" s="176"/>
-      <c r="D111" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A112" s="176"/>
-      <c r="D112" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A113" s="176"/>
-      <c r="D113" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A114" s="176"/>
-      <c r="D114" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A115" s="176"/>
-      <c r="D115" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A116" s="176"/>
-      <c r="D116" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A117" s="176"/>
-      <c r="D117" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A118" s="176"/>
-      <c r="D118" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A119" s="176"/>
-      <c r="D119" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" s="149" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A120" s="176"/>
-      <c r="D120" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D121" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D122" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D123" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D124" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D125" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D126" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D127" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D128" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D129" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D130" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D131" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D132" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D133" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D134" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D135" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D136" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D137" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D138" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D139" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D140" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D141" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D142" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D143" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E143" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D144" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D145" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D146" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D147" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D148" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D149" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D150" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D151" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" s="149" customFormat="1" ht="18" customHeight="1" spans="4:5">
-      <c r="D152" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D153" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" s="182"/>
-    </row>
-    <row r="154" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D154" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I154" s="182"/>
-    </row>
-    <row r="155" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D155" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I155" s="182"/>
-    </row>
-    <row r="156" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D156" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="182"/>
-    </row>
-    <row r="157" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D157" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I157" s="182"/>
-    </row>
-    <row r="158" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D158" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I158" s="182"/>
-    </row>
-    <row r="159" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D159" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" s="182"/>
-    </row>
-    <row r="160" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D160" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I160" s="182"/>
-    </row>
-    <row r="161" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D161" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I161" s="182"/>
-    </row>
-    <row r="162" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D162" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I162" s="182"/>
-    </row>
-    <row r="163" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D163" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I163" s="182"/>
-    </row>
-    <row r="164" s="149" customFormat="1" ht="18" customHeight="1" spans="4:9">
-      <c r="D164" s="149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="I164" s="182"/>
-    </row>
-    <row r="165" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I165" s="182"/>
-    </row>
-    <row r="166" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I166" s="182"/>
-    </row>
-    <row r="167" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I167" s="182"/>
-    </row>
-    <row r="168" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I168" s="182"/>
-    </row>
-    <row r="169" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I169" s="182"/>
-    </row>
-    <row r="170" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I170" s="182"/>
-    </row>
-    <row r="171" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I171" s="182"/>
-    </row>
-    <row r="172" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I172" s="182"/>
-    </row>
-    <row r="173" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I173" s="182"/>
-    </row>
-    <row r="174" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I174" s="182"/>
-    </row>
-    <row r="175" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I175" s="182"/>
-    </row>
-    <row r="176" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I176" s="182"/>
-    </row>
-    <row r="177" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I177" s="182"/>
-    </row>
-    <row r="178" s="149" customFormat="1" ht="18" customHeight="1" spans="9:9">
-      <c r="I178" s="182"/>
+    <row r="102" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D102" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D103" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A104" s="177"/>
+      <c r="D104" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A105" s="177"/>
+      <c r="D105" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A106" s="177"/>
+      <c r="D106" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A107" s="177"/>
+      <c r="D107" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A108" s="177"/>
+      <c r="D108" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A109" s="177"/>
+      <c r="D109" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A110" s="177"/>
+      <c r="D110" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A111" s="177"/>
+      <c r="D111" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A112" s="177"/>
+      <c r="D112" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A113" s="177"/>
+      <c r="D113" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A114" s="177"/>
+      <c r="D114" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A115" s="177"/>
+      <c r="D115" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A116" s="177"/>
+      <c r="D116" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A117" s="177"/>
+      <c r="D117" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A118" s="177"/>
+      <c r="D118" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A119" s="177"/>
+      <c r="D119" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" s="150" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A120" s="177"/>
+      <c r="D120" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D121" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D122" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D123" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D124" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D125" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D126" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D127" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D128" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D129" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D130" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D131" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D132" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D133" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D134" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D135" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D136" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D137" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D138" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D139" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D140" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D141" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D142" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D143" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D144" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D145" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D146" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D147" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D148" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D149" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D150" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D151" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" s="150" customFormat="1" ht="18" customHeight="1" spans="4:5">
+      <c r="D152" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D153" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="183"/>
+    </row>
+    <row r="154" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D154" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="183"/>
+    </row>
+    <row r="155" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D155" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="183"/>
+    </row>
+    <row r="156" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D156" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="183"/>
+    </row>
+    <row r="157" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D157" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="183"/>
+    </row>
+    <row r="158" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D158" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="183"/>
+    </row>
+    <row r="159" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D159" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="183"/>
+    </row>
+    <row r="160" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D160" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E160" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="183"/>
+    </row>
+    <row r="161" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D161" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="183"/>
+    </row>
+    <row r="162" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D162" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="183"/>
+    </row>
+    <row r="163" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D163" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="183"/>
+    </row>
+    <row r="164" s="150" customFormat="1" ht="18" customHeight="1" spans="4:9">
+      <c r="D164" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="183"/>
+    </row>
+    <row r="165" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I165" s="183"/>
+    </row>
+    <row r="166" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I166" s="183"/>
+    </row>
+    <row r="167" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I167" s="183"/>
+    </row>
+    <row r="168" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I168" s="183"/>
+    </row>
+    <row r="169" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I169" s="183"/>
+    </row>
+    <row r="170" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I170" s="183"/>
+    </row>
+    <row r="171" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I171" s="183"/>
+    </row>
+    <row r="172" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I172" s="183"/>
+    </row>
+    <row r="173" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I173" s="183"/>
+    </row>
+    <row r="174" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I174" s="183"/>
+    </row>
+    <row r="175" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I175" s="183"/>
+    </row>
+    <row r="176" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I176" s="183"/>
+    </row>
+    <row r="177" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I177" s="183"/>
+    </row>
+    <row r="178" s="150" customFormat="1" ht="18" customHeight="1" spans="9:9">
+      <c r="I178" s="183"/>
     </row>
     <row r="179" ht="14.25" customHeight="1" spans="8:9">
       <c r="H179" s="11"/>
-      <c r="I179" s="183"/>
+      <c r="I179" s="184"/>
     </row>
     <row r="180" ht="14.25" customHeight="1" spans="8:9">
       <c r="H180" s="11"/>
-      <c r="I180" s="183"/>
+      <c r="I180" s="184"/>
     </row>
     <row r="181" ht="14.25" customHeight="1" spans="8:9">
       <c r="H181" s="11"/>
-      <c r="I181" s="183"/>
+      <c r="I181" s="184"/>
     </row>
     <row r="182" ht="14.25" customHeight="1" spans="8:9">
       <c r="H182" s="11"/>
-      <c r="I182" s="183"/>
+      <c r="I182" s="184"/>
     </row>
     <row r="183" ht="14.25" customHeight="1" spans="8:9">
       <c r="H183" s="11"/>
-      <c r="I183" s="183"/>
+      <c r="I183" s="184"/>
     </row>
     <row r="184" ht="14.25" customHeight="1" spans="8:9">
       <c r="H184" s="11"/>
-      <c r="I184" s="183"/>
+      <c r="I184" s="184"/>
     </row>
     <row r="185" ht="14.25" customHeight="1" spans="8:9">
       <c r="H185" s="11"/>
-      <c r="I185" s="183"/>
+      <c r="I185" s="184"/>
     </row>
     <row r="186" ht="14.25" customHeight="1" spans="8:9">
       <c r="H186" s="11"/>
-      <c r="I186" s="183"/>
+      <c r="I186" s="184"/>
     </row>
     <row r="187" ht="14.25" customHeight="1" spans="8:9">
       <c r="H187" s="11"/>
-      <c r="I187" s="183"/>
+      <c r="I187" s="184"/>
     </row>
     <row r="188" ht="14.25" customHeight="1" spans="8:9">
       <c r="H188" s="11"/>
-      <c r="I188" s="183"/>
+      <c r="I188" s="184"/>
     </row>
     <row r="189" ht="14.25" customHeight="1" spans="8:9">
       <c r="H189" s="11"/>
-      <c r="I189" s="183"/>
+      <c r="I189" s="184"/>
     </row>
     <row r="190" ht="14.25" customHeight="1" spans="8:9">
       <c r="H190" s="11"/>
-      <c r="I190" s="183"/>
+      <c r="I190" s="184"/>
     </row>
     <row r="191" ht="14.25" customHeight="1" spans="8:9">
       <c r="H191" s="11"/>
-      <c r="I191" s="183"/>
+      <c r="I191" s="184"/>
     </row>
     <row r="192" ht="14.25" customHeight="1" spans="8:9">
       <c r="H192" s="11"/>
-      <c r="I192" s="183"/>
+      <c r="I192" s="184"/>
     </row>
     <row r="193" ht="14.25" customHeight="1" spans="8:9">
       <c r="H193" s="11"/>
-      <c r="I193" s="183"/>
+      <c r="I193" s="184"/>
     </row>
     <row r="194" ht="14.25" customHeight="1" spans="8:9">
       <c r="H194" s="11"/>
-      <c r="I194" s="183"/>
+      <c r="I194" s="184"/>
     </row>
     <row r="195" ht="14.25" customHeight="1" spans="8:9">
       <c r="H195" s="11"/>
-      <c r="I195" s="183"/>
+      <c r="I195" s="184"/>
     </row>
     <row r="196" ht="14.25" customHeight="1" spans="8:9">
       <c r="H196" s="11"/>
-      <c r="I196" s="183"/>
+      <c r="I196" s="184"/>
     </row>
     <row r="197" ht="14.25" customHeight="1" spans="8:9">
       <c r="H197" s="11"/>
-      <c r="I197" s="183"/>
+      <c r="I197" s="184"/>
     </row>
     <row r="198" ht="14.25" customHeight="1" spans="8:9">
       <c r="H198" s="11"/>
-      <c r="I198" s="183"/>
+      <c r="I198" s="184"/>
     </row>
     <row r="199" ht="14.25" customHeight="1" spans="8:9">
       <c r="H199" s="11"/>
-      <c r="I199" s="183"/>
+      <c r="I199" s="184"/>
     </row>
     <row r="200" ht="14.25" customHeight="1" spans="8:9">
       <c r="H200" s="11"/>
-      <c r="I200" s="183"/>
+      <c r="I200" s="184"/>
     </row>
     <row r="201" ht="14.25" customHeight="1" spans="8:9">
       <c r="H201" s="11"/>
-      <c r="I201" s="183"/>
+      <c r="I201" s="184"/>
     </row>
     <row r="202" ht="14.25" customHeight="1" spans="8:9">
       <c r="H202" s="11"/>
-      <c r="I202" s="183"/>
+      <c r="I202" s="184"/>
     </row>
     <row r="203" ht="14.25" customHeight="1" spans="8:8">
       <c r="H203" s="11"/>
@@ -9229,7 +9232,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="125">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -9266,7 +9269,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="125">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -9303,7 +9306,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="125">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -9340,7 +9343,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="125">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -9377,7 +9380,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="125">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -9414,7 +9417,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="125">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -9451,7 +9454,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="125">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -9488,7 +9491,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="125">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -9525,7 +9528,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="125">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -9562,7 +9565,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="125">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -9599,7 +9602,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="125">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -9636,7 +9639,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="125">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -9673,7 +9676,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="125">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -9710,7 +9713,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="125">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -9747,7 +9750,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -9784,7 +9787,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="124">
+      <c r="C36" s="125">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -9821,7 +9824,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C37" s="125">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -9858,7 +9861,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="125">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -9893,7 +9896,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="124">
+      <c r="C39" s="125">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -9928,7 +9931,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="125">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -9965,7 +9968,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C41" s="125">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -10000,7 +10003,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="124">
+      <c r="C42" s="125">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -10037,7 +10040,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="124">
+      <c r="C43" s="125">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -10074,7 +10077,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="124">
+      <c r="C44" s="125">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -10111,7 +10114,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="124">
+      <c r="C45" s="125">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -10148,7 +10151,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="124">
+      <c r="C46" s="125">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -10185,7 +10188,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="124">
+      <c r="C47" s="125">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -10222,7 +10225,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="124">
+      <c r="C48" s="125">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -10259,7 +10262,7 @@
       <c r="B49" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C49" s="124">
+      <c r="C49" s="125">
         <v>31674</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -11036,7 +11039,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="129">
+      <c r="M9" s="130">
         <v>5102015656</v>
       </c>
       <c r="N9" s="8" t="s">
@@ -11167,7 +11170,7 @@
       </c>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
-      <c r="M12" s="130">
+      <c r="M12" s="131">
         <v>8189750320</v>
       </c>
       <c r="N12" s="25" t="s">
@@ -11374,7 +11377,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="129">
+      <c r="M18" s="130">
         <v>7072126144</v>
       </c>
       <c r="N18" t="s">
@@ -11415,7 +11418,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="129">
+      <c r="M19" s="130">
         <v>7072122069</v>
       </c>
       <c r="N19" t="s">
@@ -11456,7 +11459,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="129">
+      <c r="M20" s="130">
         <v>5102008300</v>
       </c>
       <c r="N20" t="s">
@@ -11511,7 +11514,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="65"/>
       <c r="L22" s="65"/>
-      <c r="M22" s="131">
+      <c r="M22" s="132">
         <v>5102008311</v>
       </c>
       <c r="N22" s="82" t="s">
@@ -11722,7 +11725,7 @@
       </c>
       <c r="K27" s="65"/>
       <c r="L27" s="65"/>
-      <c r="M27" s="131">
+      <c r="M27" s="132">
         <v>6282073660</v>
       </c>
       <c r="N27" s="82" t="s">
@@ -11765,7 +11768,7 @@
       </c>
       <c r="K28" s="65"/>
       <c r="L28" s="65"/>
-      <c r="M28" s="131">
+      <c r="M28" s="132">
         <v>5102026925</v>
       </c>
       <c r="N28" s="82" t="s">
@@ -11806,7 +11809,7 @@
       <c r="J29" s="65"/>
       <c r="K29" s="65"/>
       <c r="L29" s="65"/>
-      <c r="M29" s="132">
+      <c r="M29" s="133">
         <v>8189750410</v>
       </c>
       <c r="N29" s="82" t="s">
@@ -11847,7 +11850,7 @@
       <c r="J30" s="65"/>
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
-      <c r="M30" s="132">
+      <c r="M30" s="133">
         <v>8189750433</v>
       </c>
       <c r="N30" s="82" t="s">
@@ -11888,7 +11891,7 @@
       <c r="J31" s="65"/>
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="132">
+      <c r="M31" s="133">
         <v>7077324510</v>
       </c>
       <c r="N31" s="82" t="s">
@@ -11929,7 +11932,7 @@
       <c r="J32" s="65"/>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
-      <c r="M32" s="131">
+      <c r="M32" s="132">
         <v>5102027028</v>
       </c>
       <c r="N32" s="82" t="s">
@@ -11970,7 +11973,7 @@
       <c r="J33" s="65"/>
       <c r="K33" s="65"/>
       <c r="L33" s="65"/>
-      <c r="M33" s="131">
+      <c r="M33" s="132">
         <v>2092067948</v>
       </c>
       <c r="N33" s="82" t="s">
@@ -12013,7 +12016,7 @@
       </c>
       <c r="K34" s="65"/>
       <c r="L34" s="65"/>
-      <c r="M34" s="131">
+      <c r="M34" s="132">
         <v>2092106812</v>
       </c>
       <c r="N34" s="82" t="s">
@@ -12054,7 +12057,7 @@
       <c r="J35" s="65"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
-      <c r="M35" s="131">
+      <c r="M35" s="132">
         <v>2092106869</v>
       </c>
       <c r="N35" s="82" t="s">
@@ -12097,7 +12100,7 @@
       </c>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
-      <c r="M36" s="131">
+      <c r="M36" s="132">
         <v>2092469458</v>
       </c>
       <c r="N36" s="82" t="s">
@@ -12140,7 +12143,7 @@
       </c>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
-      <c r="M37" s="131">
+      <c r="M37" s="132">
         <v>2092462492</v>
       </c>
       <c r="N37" s="82" t="s">
@@ -12183,7 +12186,7 @@
       </c>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
-      <c r="M38" s="131">
+      <c r="M38" s="132">
         <v>3102131346</v>
       </c>
       <c r="N38" s="82" t="s">
@@ -12224,7 +12227,7 @@
       <c r="J39" s="65"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
-      <c r="M39" s="131">
+      <c r="M39" s="132">
         <v>3102461953</v>
       </c>
       <c r="N39" s="82" t="s">
@@ -12265,7 +12268,7 @@
       <c r="J40" s="65"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
-      <c r="M40" s="131">
+      <c r="M40" s="132">
         <v>3232096786</v>
       </c>
       <c r="N40" s="82" t="s">
@@ -12306,7 +12309,7 @@
       <c r="J41" s="65"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
-      <c r="M41" s="131">
+      <c r="M41" s="132">
         <v>3232090091</v>
       </c>
       <c r="N41" s="82" t="s">
@@ -12349,7 +12352,7 @@
       </c>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
-      <c r="M42" s="131">
+      <c r="M42" s="132">
         <v>3232093457</v>
       </c>
       <c r="N42" s="82" t="s">
@@ -12392,7 +12395,7 @@
       </c>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
-      <c r="M43" s="131">
+      <c r="M43" s="132">
         <v>3232097215</v>
       </c>
       <c r="N43" s="82" t="s">
@@ -12435,7 +12438,7 @@
       </c>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
-      <c r="M44" s="131">
+      <c r="M44" s="132">
         <v>4082003412</v>
       </c>
       <c r="N44" s="82" t="s">
@@ -12478,7 +12481,7 @@
       </c>
       <c r="K45" s="65"/>
       <c r="L45" s="65"/>
-      <c r="M45" s="131">
+      <c r="M45" s="132">
         <v>4082003458</v>
       </c>
       <c r="N45" s="82" t="s">
@@ -12519,7 +12522,7 @@
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="65"/>
-      <c r="M46" s="131">
+      <c r="M46" s="132">
         <v>4082003696</v>
       </c>
       <c r="N46" s="82" t="s">
@@ -12560,7 +12563,7 @@
       <c r="J47" s="65"/>
       <c r="K47" s="65"/>
       <c r="L47" s="65"/>
-      <c r="M47" s="131">
+      <c r="M47" s="132">
         <v>4082007364</v>
       </c>
       <c r="N47" s="82" t="s">
@@ -12601,7 +12604,7 @@
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
-      <c r="M48" s="131">
+      <c r="M48" s="132">
         <v>4082001814</v>
       </c>
       <c r="N48" s="82" t="s">
@@ -12644,7 +12647,7 @@
       </c>
       <c r="K49" s="65"/>
       <c r="L49" s="65"/>
-      <c r="M49" s="131">
+      <c r="M49" s="132">
         <v>5592000530</v>
       </c>
       <c r="N49" s="82" t="s">
@@ -12687,7 +12690,7 @@
       </c>
       <c r="K50" s="65"/>
       <c r="L50" s="65"/>
-      <c r="M50" s="131">
+      <c r="M50" s="132">
         <v>2132034871</v>
       </c>
       <c r="N50" s="82" t="s">
@@ -12738,7 +12741,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="O53" s="133"/>
+      <c r="O53" s="134"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:12">
       <c r="A54" s="23"/>
@@ -13292,7 +13295,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="125">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -13327,7 +13330,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="125">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -13362,7 +13365,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="125">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -13397,7 +13400,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="125">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -13432,7 +13435,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="125">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -13467,7 +13470,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="125">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -13502,7 +13505,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="125">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -13537,7 +13540,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="125">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -13572,7 +13575,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="125">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -13607,7 +13610,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="125">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -13642,7 +13645,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="125">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -13677,7 +13680,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="125">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -13712,7 +13715,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="125">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -13747,7 +13750,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="125">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -13782,7 +13785,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -13817,7 +13820,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="124">
+      <c r="C36" s="125">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -13852,7 +13855,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C37" s="125">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -13887,7 +13890,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="125">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -13922,7 +13925,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="124">
+      <c r="C39" s="125">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -13957,7 +13960,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="125">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -13992,7 +13995,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C41" s="125">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -14027,7 +14030,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="124">
+      <c r="C42" s="125">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -14062,7 +14065,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="124">
+      <c r="C43" s="125">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -14097,7 +14100,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="124">
+      <c r="C44" s="125">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -14132,7 +14135,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="124">
+      <c r="C45" s="125">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -14167,7 +14170,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="124">
+      <c r="C46" s="125">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -14202,7 +14205,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="124">
+      <c r="C47" s="125">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -14237,7 +14240,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="124">
+      <c r="C48" s="125">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -14759,7 +14762,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="125">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -14794,7 +14797,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="125">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -14829,7 +14832,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="125">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -14899,7 +14902,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="125">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -14934,7 +14937,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="125">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -14969,7 +14972,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="125">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -15004,7 +15007,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="125">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -15074,7 +15077,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="125">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -15109,7 +15112,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="125">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -15144,7 +15147,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="125">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -15214,7 +15217,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="125">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -15249,7 +15252,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -15426,7 +15429,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="125">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -15566,7 +15569,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="124">
+      <c r="C44" s="125">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -15597,7 +15600,7 @@
     <row r="45" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A45" s="2"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="124"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -18894,7 +18897,7 @@
       <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="128">
+      <c r="J8" s="129">
         <v>10350</v>
       </c>
       <c r="M8" t="s">
@@ -18923,36 +18926,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="120" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" style="120" customWidth="1"/>
-    <col min="3" max="3" width="13" style="120" customWidth="1"/>
-    <col min="4" max="6" width="9.88333333333333" style="120"/>
-    <col min="7" max="7" width="13.4416666666667" style="120" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="120" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" style="120" customWidth="1"/>
-    <col min="10" max="16384" width="9.88333333333333" style="120"/>
+    <col min="1" max="1" width="39.4416666666667" style="121" customWidth="1"/>
+    <col min="2" max="2" width="18.1166666666667" style="121" customWidth="1"/>
+    <col min="3" max="3" width="13" style="121" customWidth="1"/>
+    <col min="4" max="6" width="9.88333333333333" style="121"/>
+    <col min="7" max="7" width="13.4416666666667" style="121" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="121" customWidth="1"/>
+    <col min="9" max="9" width="30.8833333333333" style="121" customWidth="1"/>
+    <col min="10" max="16384" width="9.88333333333333" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="121">
-        <v>15</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="A2" s="122">
+        <v>15</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -18999,7 +19002,7 @@
       <c r="B4" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="125">
         <v>31493</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -19011,7 +19014,7 @@
       <c r="F4" s="24">
         <v>91335</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="126" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -19023,12 +19026,12 @@
       <c r="J4" s="20">
         <v>5.5</v>
       </c>
-      <c r="K4" s="126"/>
+      <c r="K4" s="127"/>
       <c r="L4" s="2"/>
       <c r="M4" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="N4" s="127"/>
+      <c r="N4" s="128"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
@@ -19288,7 +19291,7 @@
       <c r="B31" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="125">
         <v>31077</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -19325,7 +19328,7 @@
       <c r="B35" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>31879</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -19362,7 +19365,7 @@
       <c r="B50" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="124">
+      <c r="C50" s="125">
         <v>31674</v>
       </c>
       <c r="D50" s="24" t="s">
@@ -19460,7 +19463,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -19863,492 +19866,492 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="121" t="s">
         <v>332</v>
       </c>
-      <c r="B66" s="120" t="s">
+      <c r="B66" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="C66" s="120" t="s">
+      <c r="C66" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="D66" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="120" t="s">
+      <c r="D66" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="G66" s="120" t="s">
+      <c r="G66" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="H66" s="120" t="s">
+      <c r="H66" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="I66" s="120" t="s">
+      <c r="I66" s="121" t="s">
         <v>334</v>
       </c>
-      <c r="M66" s="120" t="s">
+      <c r="M66" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="N66" s="120" t="s">
+      <c r="N66" s="121" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="120" t="s">
+      <c r="A67" s="121" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="121" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="120" t="s">
+      <c r="C67" s="121" t="s">
         <v>448</v>
       </c>
-      <c r="D67" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="120" t="s">
+      <c r="D67" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="121" t="s">
         <v>449</v>
       </c>
-      <c r="G67" s="120" t="s">
+      <c r="G67" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="120" t="s">
+      <c r="H67" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="I67" s="120" t="s">
+      <c r="I67" s="121" t="s">
         <v>339</v>
       </c>
-      <c r="M67" s="120" t="s">
+      <c r="M67" s="121" t="s">
         <v>340</v>
       </c>
-      <c r="N67" s="120" t="s">
+      <c r="N67" s="121" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="121" t="s">
         <v>342</v>
       </c>
-      <c r="B68" s="120" t="s">
+      <c r="B68" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="120" t="s">
+      <c r="C68" s="121" t="s">
         <v>450</v>
       </c>
-      <c r="D68" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="120" t="s">
+      <c r="D68" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="121" t="s">
         <v>451</v>
       </c>
-      <c r="G68" s="120" t="s">
+      <c r="G68" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="120" t="s">
+      <c r="H68" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="I68" s="120" t="s">
+      <c r="I68" s="121" t="s">
         <v>344</v>
       </c>
-      <c r="M68" s="120" t="s">
+      <c r="M68" s="121" t="s">
         <v>345</v>
       </c>
-      <c r="N68" s="120" t="s">
+      <c r="N68" s="121" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="120" t="s">
+      <c r="A69" s="121" t="s">
         <v>347</v>
       </c>
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="120" t="s">
+      <c r="C69" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="120">
+      <c r="D69" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="121">
         <v>92253</v>
       </c>
-      <c r="G69" s="120" t="s">
+      <c r="G69" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="120" t="s">
+      <c r="H69" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="120" t="s">
+      <c r="I69" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="M69" s="120" t="s">
+      <c r="M69" s="121" t="s">
         <v>350</v>
       </c>
-      <c r="N69" s="120" t="s">
+      <c r="N69" s="121" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="121" t="s">
         <v>352</v>
       </c>
-      <c r="B70" s="120" t="s">
+      <c r="B70" s="121" t="s">
         <v>353</v>
       </c>
-      <c r="C70" s="120" t="s">
+      <c r="C70" s="121" t="s">
         <v>453</v>
       </c>
-      <c r="D70" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="120">
+      <c r="D70" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="121">
         <v>93004</v>
       </c>
-      <c r="G70" s="120" t="s">
+      <c r="G70" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="120" t="s">
+      <c r="H70" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="I70" s="120" t="s">
+      <c r="I70" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="M70" s="120" t="s">
+      <c r="M70" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="N70" s="120" t="s">
+      <c r="N70" s="121" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="120" t="s">
+      <c r="A71" s="121" t="s">
         <v>357</v>
       </c>
-      <c r="B71" s="120" t="s">
+      <c r="B71" s="121" t="s">
         <v>358</v>
       </c>
-      <c r="C71" s="120" t="s">
+      <c r="C71" s="121" t="s">
         <v>454</v>
       </c>
-      <c r="D71" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="120">
+      <c r="D71" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="121">
         <v>92880</v>
       </c>
-      <c r="G71" s="120" t="s">
+      <c r="G71" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H71" s="120" t="s">
+      <c r="H71" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="I71" s="120" t="s">
+      <c r="I71" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="M71" s="120" t="s">
+      <c r="M71" s="121" t="s">
         <v>360</v>
       </c>
-      <c r="N71" s="120" t="s">
+      <c r="N71" s="121" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="120" t="s">
+      <c r="A72" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="B72" s="120" t="s">
+      <c r="B72" s="121" t="s">
         <v>363</v>
       </c>
-      <c r="C72" s="120" t="s">
+      <c r="C72" s="121" t="s">
         <v>455</v>
       </c>
-      <c r="D72" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="120">
+      <c r="D72" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="121">
         <v>95127</v>
       </c>
-      <c r="G72" s="120" t="s">
+      <c r="G72" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="120" t="s">
+      <c r="H72" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="I72" s="120" t="s">
+      <c r="I72" s="121" t="s">
         <v>364</v>
       </c>
-      <c r="M72" s="120" t="s">
+      <c r="M72" s="121" t="s">
         <v>365</v>
       </c>
-      <c r="N72" s="120" t="s">
+      <c r="N72" s="121" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="120" t="s">
+      <c r="A73" s="121" t="s">
         <v>367</v>
       </c>
-      <c r="B73" s="120" t="s">
+      <c r="B73" s="121" t="s">
         <v>368</v>
       </c>
-      <c r="C73" s="120" t="s">
+      <c r="C73" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="D73" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="120">
+      <c r="D73" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="121">
         <v>94804</v>
       </c>
-      <c r="G73" s="120" t="s">
+      <c r="G73" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H73" s="120" t="s">
+      <c r="H73" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="I73" s="120" t="s">
+      <c r="I73" s="121" t="s">
         <v>369</v>
       </c>
-      <c r="M73" s="120" t="s">
+      <c r="M73" s="121" t="s">
         <v>370</v>
       </c>
-      <c r="N73" s="120" t="s">
+      <c r="N73" s="121" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="120" t="s">
+      <c r="A74" s="121" t="s">
         <v>372</v>
       </c>
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="121" t="s">
         <v>373</v>
       </c>
-      <c r="C74" s="120" t="s">
+      <c r="C74" s="121" t="s">
         <v>457</v>
       </c>
-      <c r="D74" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="120">
+      <c r="D74" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="121">
         <v>94551</v>
       </c>
-      <c r="G74" s="120" t="s">
+      <c r="G74" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="120" t="s">
+      <c r="H74" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="I74" s="120" t="s">
+      <c r="I74" s="121" t="s">
         <v>374</v>
       </c>
-      <c r="M74" s="120" t="s">
+      <c r="M74" s="121" t="s">
         <v>375</v>
       </c>
-      <c r="N74" s="120" t="s">
+      <c r="N74" s="121" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="120" t="s">
+      <c r="A75" s="121" t="s">
         <v>377</v>
       </c>
-      <c r="B75" s="120" t="s">
+      <c r="B75" s="121" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="120" t="s">
+      <c r="C75" s="121" t="s">
         <v>458</v>
       </c>
-      <c r="D75" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="120">
+      <c r="D75" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="121">
         <v>94530</v>
       </c>
-      <c r="G75" s="120" t="s">
+      <c r="G75" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="120" t="s">
+      <c r="H75" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="I75" s="120" t="s">
+      <c r="I75" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="M75" s="120" t="s">
+      <c r="M75" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="N75" s="120" t="s">
+      <c r="N75" s="121" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="120" t="s">
+      <c r="A76" s="121" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="120" t="s">
+      <c r="B76" s="121" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="120" t="s">
+      <c r="C76" s="121" t="s">
         <v>459</v>
       </c>
-      <c r="D76" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="120">
+      <c r="D76" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="121">
         <v>91722</v>
       </c>
-      <c r="G76" s="120" t="s">
+      <c r="G76" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="H76" s="120" t="s">
+      <c r="H76" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="I76" s="120" t="s">
+      <c r="I76" s="121" t="s">
         <v>384</v>
       </c>
-      <c r="M76" s="120" t="s">
+      <c r="M76" s="121" t="s">
         <v>385</v>
       </c>
-      <c r="N76" s="120" t="s">
+      <c r="N76" s="121" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="120" t="s">
+      <c r="A77" s="121" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="120" t="s">
+      <c r="B77" s="121" t="s">
         <v>388</v>
       </c>
-      <c r="C77" s="120" t="s">
+      <c r="C77" s="121" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="120">
+      <c r="D77" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="121">
         <v>90260</v>
       </c>
-      <c r="G77" s="120" t="s">
+      <c r="G77" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="H77" s="120" t="s">
+      <c r="H77" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="120" t="s">
+      <c r="I77" s="121" t="s">
         <v>389</v>
       </c>
-      <c r="M77" s="120" t="s">
+      <c r="M77" s="121" t="s">
         <v>390</v>
       </c>
-      <c r="N77" s="120" t="s">
+      <c r="N77" s="121" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="121" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="120" t="s">
+      <c r="B79" s="121" t="s">
         <v>398</v>
       </c>
-      <c r="C79" s="120" t="s">
+      <c r="C79" s="121" t="s">
         <v>462</v>
       </c>
-      <c r="D79" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="120">
+      <c r="D79" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="121">
         <v>90066</v>
       </c>
-      <c r="G79" s="120" t="s">
+      <c r="G79" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="120" t="s">
+      <c r="H79" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="I79" s="120" t="s">
+      <c r="I79" s="121" t="s">
         <v>399</v>
       </c>
-      <c r="M79" s="120" t="s">
+      <c r="M79" s="121" t="s">
         <v>400</v>
       </c>
-      <c r="N79" s="120" t="s">
+      <c r="N79" s="121" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="120" t="s">
+      <c r="A80" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="120" t="s">
+      <c r="B80" s="121" t="s">
         <v>403</v>
       </c>
-      <c r="C80" s="120" t="s">
+      <c r="C80" s="121" t="s">
         <v>463</v>
       </c>
-      <c r="D80" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="120">
+      <c r="D80" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="121">
         <v>90650</v>
       </c>
-      <c r="G80" s="120" t="s">
+      <c r="G80" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="120" t="s">
+      <c r="H80" s="121" t="s">
         <v>211</v>
       </c>
-      <c r="I80" s="120" t="s">
+      <c r="I80" s="121" t="s">
         <v>404</v>
       </c>
-      <c r="M80" s="120" t="s">
+      <c r="M80" s="121" t="s">
         <v>405</v>
       </c>
-      <c r="N80" s="120" t="s">
+      <c r="N80" s="121" t="s">
         <v>406</v>
       </c>
     </row>
@@ -21063,7 +21066,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
       <c r="L22" s="59"/>
-      <c r="M22" s="140" t="s">
+      <c r="M22" s="141" t="s">
         <v>430</v>
       </c>
     </row>
@@ -21098,7 +21101,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
-      <c r="M23" s="140" t="s">
+      <c r="M23" s="141" t="s">
         <v>431</v>
       </c>
     </row>
@@ -21133,7 +21136,7 @@
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
-      <c r="M24" s="140" t="s">
+      <c r="M24" s="141" t="s">
         <v>432</v>
       </c>
     </row>
@@ -21168,7 +21171,7 @@
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
-      <c r="M25" s="140" t="s">
+      <c r="M25" s="141" t="s">
         <v>433</v>
       </c>
     </row>
@@ -21203,7 +21206,7 @@
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
-      <c r="M26" s="140" t="s">
+      <c r="M26" s="141" t="s">
         <v>434</v>
       </c>
     </row>
@@ -21238,7 +21241,7 @@
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
-      <c r="M27" s="140" t="s">
+      <c r="M27" s="141" t="s">
         <v>435</v>
       </c>
     </row>
@@ -21273,24 +21276,24 @@
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
-      <c r="M28" s="140" t="s">
+      <c r="M28" s="141" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="29" s="141" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
-      <c r="A29" s="142"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="147"/>
+    <row r="29" s="142" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" s="53" customFormat="1" ht="16.05" customHeight="1" spans="1:13">
       <c r="A30" s="57" t="s">
@@ -21323,14 +21326,14 @@
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
       <c r="L30" s="59"/>
-      <c r="M30" s="140" t="s">
+      <c r="M30" s="141" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="31" s="20" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A31" s="18"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="124"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -21372,7 +21375,7 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="140" t="s">
+      <c r="M32" s="141" t="s">
         <v>438</v>
       </c>
     </row>
@@ -21435,7 +21438,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
-      <c r="M35" s="140" t="s">
+      <c r="M35" s="141" t="s">
         <v>439</v>
       </c>
     </row>
@@ -21470,7 +21473,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
-      <c r="M36" s="140" t="s">
+      <c r="M36" s="141" t="s">
         <v>440</v>
       </c>
     </row>
@@ -21505,7 +21508,7 @@
     <row r="39" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
       <c r="A39" s="2"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="124"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -21552,7 +21555,7 @@
       <c r="B42" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C42" s="124">
+      <c r="C42" s="125">
         <v>31666</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -21631,7 +21634,7 @@
       <c r="B46" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="124">
+      <c r="C46" s="125">
         <v>32528</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -21694,7 +21697,7 @@
       <c r="B49" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="124">
+      <c r="C49" s="125">
         <v>32105</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -21729,7 +21732,7 @@
       <c r="B50" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="124">
+      <c r="C50" s="125">
         <v>31674</v>
       </c>
       <c r="D50" s="24" t="s">
@@ -21837,7 +21840,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119"/>
+      <c r="M53" s="120"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:13">
       <c r="A54" s="23" t="s">
@@ -22865,21 +22868,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="121" t="s">
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="122" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -22919,7 +22922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -22953,7 +22956,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22964,7 +22967,7 @@
       <c r="B12" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="118">
         <v>32025</v>
       </c>
       <c r="D12" s="66" t="s">
@@ -23025,7 +23028,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -23997,21 +24000,21 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="121">
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="122">
         <v>500</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -24051,7 +24054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -24087,7 +24090,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -24194,7 +24197,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
       <c r="O53">
@@ -25167,21 +25170,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="123">
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="124">
         <v>10</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -25221,7 +25224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -25255,7 +25258,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -25362,7 +25365,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -26330,21 +26333,21 @@
         <v>584</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="121">
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="122">
         <v>1000</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -26384,7 +26387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -26418,7 +26421,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -26487,13 +26490,13 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="O53" s="122" t="s">
+      <c r="O53" s="123" t="s">
         <v>591</v>
       </c>
-      <c r="P53" s="122" t="s">
+      <c r="P53" s="123" t="s">
         <v>592</v>
       </c>
     </row>
@@ -26533,10 +26536,10 @@
       <c r="M54" t="s">
         <v>267</v>
       </c>
-      <c r="O54" s="122" t="s">
+      <c r="O54" s="123" t="s">
         <v>593</v>
       </c>
-      <c r="P54" s="122" t="s">
+      <c r="P54" s="123" t="s">
         <v>594</v>
       </c>
     </row>
@@ -27461,21 +27464,21 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="121">
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="122">
         <v>5000</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -27515,7 +27518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -27549,7 +27552,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -27619,7 +27622,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -28591,21 +28594,21 @@
         <v>598</v>
       </c>
     </row>
-    <row r="2" s="120" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="121">
-        <v>15</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+    <row r="2" s="121" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="122">
+        <v>15</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" s="24" customFormat="1" ht="16.05" customHeight="1" spans="1:12">
       <c r="A3" s="24" t="s">
@@ -28645,7 +28648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" s="120" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
+    <row r="8" s="121" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -28679,7 +28682,7 @@
       <c r="M8" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="121" t="s">
         <v>586</v>
       </c>
     </row>
@@ -28784,7 +28787,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -28857,10 +28860,10 @@
       <c r="M55" t="s">
         <v>287</v>
       </c>
-      <c r="O55" s="122" t="s">
+      <c r="O55" s="123" t="s">
         <v>599</v>
       </c>
-      <c r="P55" s="122"/>
+      <c r="P55" s="123"/>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:16">
       <c r="A56" s="23" t="s">
@@ -28896,10 +28899,10 @@
       <c r="M56" t="s">
         <v>292</v>
       </c>
-      <c r="O56" s="122" t="s">
+      <c r="O56" s="123" t="s">
         <v>600</v>
       </c>
-      <c r="P56" s="122"/>
+      <c r="P56" s="123"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A57" s="23" t="s">
@@ -28932,10 +28935,10 @@
       <c r="M57" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="O57" s="122" t="s">
+      <c r="O57" s="123" t="s">
         <v>601</v>
       </c>
-      <c r="P57" s="122"/>
+      <c r="P57" s="123"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
       <c r="A58" s="23" t="s">
@@ -28965,10 +28968,10 @@
       <c r="I58" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="O58" s="122" t="s">
+      <c r="O58" s="123" t="s">
         <v>602</v>
       </c>
-      <c r="P58" s="122"/>
+      <c r="P58" s="123"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="10" t="s">
@@ -29882,7 +29885,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="119" t="s">
+      <c r="M53" s="120" t="s">
         <v>278</v>
       </c>
     </row>
@@ -29987,7 +29990,7 @@
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="119" t="s">
         <v>615</v>
       </c>
       <c r="C12" s="6">
@@ -30244,7 +30247,7 @@
       <c r="I73" t="s">
         <v>646</v>
       </c>
-      <c r="K73" s="119">
+      <c r="K73" s="120">
         <v>44648</v>
       </c>
       <c r="M73" t="s">
@@ -30591,7 +30594,7 @@
       <c r="B8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="118">
         <v>31248</v>
       </c>
       <c r="D8" s="66" t="s">
@@ -32522,7 +32525,7 @@
       </c>
     </row>
     <row r="56" s="31" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="117" t="s">
         <v>288</v>
       </c>
       <c r="B56" s="66" t="s">
@@ -33718,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33919,7 +33922,7 @@
         <v>827</v>
       </c>
       <c r="J7" s="33">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="K7" s="34"/>
       <c r="M7" s="37" t="s">
@@ -34103,7 +34106,7 @@
         <v>835</v>
       </c>
       <c r="J12" s="33">
-        <v>16.25</v>
+        <v>16.75</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
@@ -34391,7 +34394,7 @@
         <v>849</v>
       </c>
       <c r="J22" s="33">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="33"/>
@@ -35246,7 +35249,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>16.75</v>
+        <v>18</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35385,9 +35388,11 @@
         <v>889</v>
       </c>
       <c r="J57" s="33">
-        <v>24.35</v>
-      </c>
-      <c r="K57" s="33"/>
+        <v>0.6</v>
+      </c>
+      <c r="K57" s="115">
+        <v>45066</v>
+      </c>
       <c r="L57" s="33"/>
       <c r="M57" s="48" t="s">
         <v>123</v>
@@ -35422,7 +35427,7 @@
         <v>868</v>
       </c>
       <c r="J58" s="33">
-        <v>4.25</v>
+        <v>5.75</v>
       </c>
       <c r="K58" s="34"/>
       <c r="M58" s="48" t="s">
@@ -35893,7 +35898,7 @@
         <v>908</v>
       </c>
       <c r="J78" s="33">
-        <v>18.3</v>
+        <v>19.55</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>
@@ -35967,9 +35972,9 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>1.3</v>
-      </c>
-      <c r="K80" s="115"/>
+        <v>2.55</v>
+      </c>
+      <c r="K80" s="116"/>
       <c r="M80" s="37" t="s">
         <v>405</v>
       </c>
@@ -39618,7 +39623,7 @@
       <c r="M52" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="N52" s="184" t="s">
+      <c r="N52" s="185" t="s">
         <v>922</v>
       </c>
     </row>
@@ -68485,10 +68490,10 @@
       <c r="F3" s="55">
         <v>91335</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="140" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="55" t="s">
@@ -68941,7 +68946,7 @@
       </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="140" t="s">
+      <c r="M15" s="141" t="s">
         <v>474</v>
       </c>
     </row>
@@ -69114,7 +69119,7 @@
       <c r="B22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="125">
         <v>32012</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -69151,7 +69156,7 @@
       <c r="B23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="125">
         <v>32357</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -69188,7 +69193,7 @@
       <c r="B24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="125">
         <v>32344</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -69225,7 +69230,7 @@
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="125">
         <v>31834</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -69262,7 +69267,7 @@
       <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="125">
         <v>32077</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -69299,7 +69304,7 @@
       <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="125">
         <v>32274</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -69336,7 +69341,7 @@
       <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="124">
+      <c r="C28" s="125">
         <v>32087</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -69373,7 +69378,7 @@
       <c r="B29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C29" s="124">
+      <c r="C29" s="125">
         <v>31654</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -69410,7 +69415,7 @@
       <c r="B30" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="124">
+      <c r="C30" s="125">
         <v>31077</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -69447,7 +69452,7 @@
       <c r="B31" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="124">
+      <c r="C31" s="125">
         <v>32510</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -69484,7 +69489,7 @@
       <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="124">
+      <c r="C32" s="125">
         <v>31657</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -69521,7 +69526,7 @@
       <c r="B33" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="125">
         <v>32205</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -69558,7 +69563,7 @@
       <c r="B34" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="124">
+      <c r="C34" s="125">
         <v>31879</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -69595,7 +69600,7 @@
       <c r="B35" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="125">
         <v>32281</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -69632,7 +69637,7 @@
       <c r="B36" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="124">
+      <c r="C36" s="125">
         <v>32422</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -69669,7 +69674,7 @@
       <c r="B37" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C37" s="125">
         <v>31662</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -69706,7 +69711,7 @@
       <c r="B38" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="125">
         <v>31389</v>
       </c>
       <c r="D38" s="24" t="s">
@@ -69743,7 +69748,7 @@
       <c r="B39" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="124">
+      <c r="C39" s="125">
         <v>31817</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -69780,7 +69785,7 @@
       <c r="B40" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="125">
         <v>32487</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -69817,7 +69822,7 @@
       <c r="B41" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C41" s="125">
         <v>31666</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -69854,7 +69859,7 @@
       <c r="B42" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="124">
+      <c r="C42" s="125">
         <v>31675</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -69891,7 +69896,7 @@
       <c r="B43" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="124">
+      <c r="C43" s="125">
         <v>32490</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -69928,7 +69933,7 @@
       <c r="B44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="124">
+      <c r="C44" s="125">
         <v>31669</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -69965,7 +69970,7 @@
       <c r="B45" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="124">
+      <c r="C45" s="125">
         <v>32528</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -70002,7 +70007,7 @@
       <c r="B46" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="124">
+      <c r="C46" s="125">
         <v>31548</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -70037,7 +70042,7 @@
       <c r="B47" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="124">
+      <c r="C47" s="125">
         <v>31672</v>
       </c>
       <c r="D47" s="24" t="s">
@@ -70074,7 +70079,7 @@
       <c r="B48" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="124">
+      <c r="C48" s="125">
         <v>32105</v>
       </c>
       <c r="D48" s="24" t="s">
@@ -71093,7 +71098,7 @@
       <c r="B21" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="125">
         <v>31889</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -72341,46 +72346,46 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" s="134" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
-      <c r="A13" s="135" t="s">
+    <row r="13" s="135" customFormat="1" ht="14.25" customHeight="1" spans="1:16">
+      <c r="A13" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="136">
+      <c r="C13" s="137">
         <v>32630</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="135">
+      <c r="D13" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="136">
         <v>95133</v>
       </c>
-      <c r="G13" s="135" t="s">
+      <c r="G13" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="137" t="s">
+      <c r="I13" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="135">
+      <c r="J13" s="136">
         <v>1650</v>
       </c>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="134" t="s">
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="135" t="s">
         <v>510</v>
       </c>
-      <c r="N13" s="134" t="s">
+      <c r="N13" s="135" t="s">
         <v>472</v>
       </c>
-      <c r="P13" s="134" t="s">
+      <c r="P13" s="135" t="s">
         <v>511</v>
       </c>
     </row>
@@ -72599,7 +72604,7 @@
     <row r="21" s="20" customFormat="1" ht="14.25" customHeight="1" spans="1:12">
       <c r="A21" s="18"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="124"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -2564,7 +2564,7 @@
     <t>119 Laitwood Road</t>
   </si>
   <si>
-    <t>Scotland, East of England Wales ，可男可女 25   car aviva  home aa health aviva bank 单 scotish royal 双 hsbc  宠物都是猫 男奥迪女奔驰</t>
+    <t>Scotland, East of England Wales ，可男可女 25   car aviva  home aa health aviva bank 单 scotish royal 双 hsbc  宠物都是猫 男奥迪  EE</t>
   </si>
   <si>
     <t>SCT</t>
@@ -3150,9 +3150,9 @@
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="43">
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,10 +3823,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33721,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35249,7 +35249,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35323,7 +35323,7 @@
         <v>886</v>
       </c>
       <c r="J55" s="39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K55" s="40"/>
       <c r="L55" s="39"/>
@@ -35715,7 +35715,7 @@
         <v>899</v>
       </c>
       <c r="J70" s="33">
-        <v>7.8</v>
+        <v>8.55</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35861,7 +35861,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="33">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
@@ -35935,7 +35935,7 @@
         <v>910</v>
       </c>
       <c r="J79" s="33">
-        <v>21.75</v>
+        <v>23</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="43">
@@ -3823,10 +3823,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33720,10 +33720,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35390,9 +35390,7 @@
       <c r="J57" s="33">
         <v>0.6</v>
       </c>
-      <c r="K57" s="115">
-        <v>45066</v>
-      </c>
+      <c r="K57" s="115"/>
       <c r="L57" s="33"/>
       <c r="M57" s="48" t="s">
         <v>123</v>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -33720,10 +33720,10 @@
   <sheetPr/>
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35249,7 +35249,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35772,7 +35772,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="K73" s="103"/>
       <c r="M73" s="51" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,8 +3149,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,7 +3823,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33721,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33922,7 +33922,7 @@
         <v>827</v>
       </c>
       <c r="J7" s="33">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="K7" s="34"/>
       <c r="M7" s="37" t="s">
@@ -34032,7 +34032,7 @@
         <v>831</v>
       </c>
       <c r="J10" s="33">
-        <v>20.4</v>
+        <v>21.15</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="33"/>
@@ -34394,7 +34394,7 @@
         <v>849</v>
       </c>
       <c r="J22" s="33">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="33"/>
@@ -34643,7 +34643,7 @@
         <v>860</v>
       </c>
       <c r="J30" s="33">
-        <v>4.15</v>
+        <v>4.65</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="33"/>
@@ -35249,7 +35249,7 @@
         <v>876</v>
       </c>
       <c r="J53" s="33">
-        <v>19.75</v>
+        <v>20.5</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35425,7 +35425,7 @@
         <v>868</v>
       </c>
       <c r="J58" s="33">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="K58" s="34"/>
       <c r="M58" s="48" t="s">
@@ -35772,7 +35772,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="K73" s="103"/>
       <c r="M73" s="51" t="s">
@@ -35970,7 +35970,7 @@
         <v>914</v>
       </c>
       <c r="J80" s="33">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="K80" s="116"/>
       <c r="M80" s="37" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,10 +3149,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="43">
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,10 +3823,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33721,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35425,7 +35425,7 @@
         <v>868</v>
       </c>
       <c r="J58" s="33">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="K58" s="34"/>
       <c r="M58" s="48" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,9 +3149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,7 +3823,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33721,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34032,7 +34032,7 @@
         <v>831</v>
       </c>
       <c r="J10" s="33">
-        <v>21.15</v>
+        <v>21.65</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="33"/>
@@ -34394,7 +34394,7 @@
         <v>849</v>
       </c>
       <c r="J22" s="33">
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="K22" s="34"/>
       <c r="L22" s="33"/>
@@ -34431,7 +34431,7 @@
         <v>851</v>
       </c>
       <c r="J23" s="33">
-        <v>13.3</v>
+        <v>14.5</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
@@ -34643,7 +34643,7 @@
         <v>860</v>
       </c>
       <c r="J30" s="33">
-        <v>4.65</v>
+        <v>5.85</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="33"/>
@@ -35323,7 +35323,7 @@
         <v>886</v>
       </c>
       <c r="J55" s="39">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="K55" s="40"/>
       <c r="L55" s="39"/>
@@ -35425,7 +35425,7 @@
         <v>868</v>
       </c>
       <c r="J58" s="33">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="K58" s="34"/>
       <c r="M58" s="48" t="s">
@@ -35713,7 +35713,7 @@
         <v>899</v>
       </c>
       <c r="J70" s="33">
-        <v>8.55</v>
+        <v>10</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35859,7 +35859,7 @@
         <v>906</v>
       </c>
       <c r="J77" s="33">
-        <v>11.5</v>
+        <v>12.75</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="25200" windowHeight="11370" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3149,9 +3149,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -3814,7 +3814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,7 +3823,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,7 +3835,7 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -33721,9 +33721,9 @@
   <dimension ref="A2:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34106,7 +34106,7 @@
         <v>835</v>
       </c>
       <c r="J12" s="33">
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
       <c r="K12" s="34"/>
       <c r="L12" s="33"/>
@@ -34431,7 +34431,7 @@
         <v>851</v>
       </c>
       <c r="J23" s="33">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
@@ -34569,7 +34569,7 @@
         <v>856</v>
       </c>
       <c r="J28" s="33">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="K28" s="34"/>
       <c r="L28" s="33"/>
@@ -34680,7 +34680,7 @@
         <v>863</v>
       </c>
       <c r="J31" s="33">
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>
@@ -34961,7 +34961,7 @@
         <v>875</v>
       </c>
       <c r="J42" s="33">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="33"/>
@@ -35388,7 +35388,7 @@
         <v>889</v>
       </c>
       <c r="J57" s="33">
-        <v>0.6</v>
+        <v>1.85</v>
       </c>
       <c r="K57" s="115"/>
       <c r="L57" s="33"/>
@@ -35772,7 +35772,7 @@
         <v>900</v>
       </c>
       <c r="J73" s="33">
-        <v>13.75</v>
+        <v>14.5</v>
       </c>
       <c r="K73" s="103"/>
       <c r="M73" s="51" t="s">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13836" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13835" uniqueCount="1022">
   <si>
     <t>acop.com</t>
   </si>
@@ -3322,6 +3322,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3329,20 +3336,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3356,7 +3369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3371,10 +3384,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3401,48 +3430,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3454,8 +3453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,7 +3518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,7 +3542,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,19 +3602,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,73 +3656,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3644,61 +3698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3730,17 +3730,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3769,32 +3790,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3813,164 +3824,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -33738,10 +33738,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33986,9 +33986,7 @@
       <c r="H8" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>148</v>
-      </c>
+      <c r="I8" s="33"/>
       <c r="J8" s="33">
         <v>11</v>
       </c>
@@ -34683,7 +34681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
+    <row r="31" customHeight="1" spans="1:17">
       <c r="A31" s="44" t="s">
         <v>148</v>
       </c>
@@ -34712,12 +34710,18 @@
         <v>867</v>
       </c>
       <c r="J31" s="33">
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>
       <c r="M31" s="48" t="s">
         <v>153</v>
+      </c>
+      <c r="O31" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:13">
@@ -34964,7 +34968,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:13">
+    <row r="42" customHeight="1" spans="1:15">
       <c r="A42" s="32" t="s">
         <v>214</v>
       </c>
@@ -34999,6 +35003,9 @@
       <c r="L42" s="33"/>
       <c r="M42" s="48" t="s">
         <v>219</v>
+      </c>
+      <c r="O42" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="43" s="51" customFormat="1" customHeight="1" spans="1:13">
@@ -35825,7 +35832,7 @@
     <row r="75" s="51" customFormat="1" customHeight="1" spans="5:5">
       <c r="E75" s="95"/>
     </row>
-    <row r="76" customHeight="1" spans="1:13">
+    <row r="76" customHeight="1" spans="1:17">
       <c r="A76" s="37" t="s">
         <v>382</v>
       </c>
@@ -35854,12 +35861,18 @@
         <v>907</v>
       </c>
       <c r="J76" s="33">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="K76" s="34"/>
       <c r="L76" s="33"/>
       <c r="M76" s="37" t="s">
         <v>908</v>
+      </c>
+      <c r="O76" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:13">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13835" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13834" uniqueCount="1022">
   <si>
     <t>acop.com</t>
   </si>
@@ -2570,7 +2570,7 @@
     <t>dyor</t>
   </si>
   <si>
-    <t>cassava</t>
+    <t>nansen</t>
   </si>
   <si>
     <t>twitter</t>
@@ -3163,11 +3163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="43">
@@ -3327,13 +3327,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3341,35 +3334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3383,11 +3348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3396,14 +3367,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3430,13 +3393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3447,7 +3403,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3456,6 +3433,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,7 +3518,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,19 +3620,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3554,151 +3698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3727,15 +3727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3747,21 +3738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3790,6 +3766,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3801,11 +3792,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3824,24 +3813,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3850,127 +3850,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4230,22 +4230,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -33738,10 +33738,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34253,9 +34253,7 @@
       <c r="F16" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>352</v>
-      </c>
+      <c r="G16" s="33"/>
       <c r="H16" s="109" t="s">
         <v>582</v>
       </c>
@@ -35752,7 +35750,7 @@
         <v>903</v>
       </c>
       <c r="J70" s="33">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35951,9 +35949,7 @@
       <c r="O78" s="37">
         <v>1</v>
       </c>
-      <c r="P78" s="37">
-        <v>1</v>
-      </c>
+      <c r="P78" s="37"/>
       <c r="Q78" s="37">
         <v>1</v>
       </c>
@@ -35998,7 +35994,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:13">
+    <row r="80" customHeight="1" spans="1:16">
       <c r="A80" s="37" t="s">
         <v>402</v>
       </c>
@@ -36027,11 +36023,17 @@
         <v>919</v>
       </c>
       <c r="J80" s="33">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K80" s="117"/>
       <c r="M80" s="37" t="s">
         <v>405</v>
+      </c>
+      <c r="O80" s="37">
+        <v>1</v>
+      </c>
+      <c r="P80" s="37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -3166,8 +3166,8 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="43">
@@ -3320,9 +3320,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3334,44 +3334,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3393,11 +3364,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3409,22 +3431,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3439,23 +3455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,7 +3518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,7 +3536,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,31 +3662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3578,127 +3692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3728,16 +3728,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3760,6 +3760,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3767,16 +3776,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3792,9 +3801,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3813,164 +3824,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4230,22 +4230,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -33738,10 +33738,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34430,7 +34430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
+    <row r="23" customHeight="1" spans="1:16">
       <c r="A23" s="44" t="s">
         <v>101</v>
       </c>
@@ -34459,12 +34459,18 @@
         <v>855</v>
       </c>
       <c r="J23" s="33">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="K23" s="34"/>
       <c r="L23" s="33"/>
       <c r="M23" s="48" t="s">
         <v>106</v>
+      </c>
+      <c r="O23" s="37">
+        <v>1</v>
+      </c>
+      <c r="P23" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="24" s="51" customFormat="1" customHeight="1" spans="1:13">
@@ -35873,7 +35879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:13">
+    <row r="77" customHeight="1" spans="1:16">
       <c r="A77" s="37" t="s">
         <v>387</v>
       </c>
@@ -35902,13 +35908,19 @@
         <v>910</v>
       </c>
       <c r="J77" s="33">
-        <v>12.75</v>
+        <v>13.75</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
       <c r="M77" s="51" t="s">
         <v>237</v>
       </c>
+      <c r="O77" s="37">
+        <v>1</v>
+      </c>
+      <c r="P77" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customHeight="1" spans="1:18">
       <c r="A78" s="116" t="s">
@@ -35949,7 +35961,6 @@
       <c r="O78" s="37">
         <v>1</v>
       </c>
-      <c r="P78" s="37"/>
       <c r="Q78" s="37">
         <v>1</v>
       </c>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11625" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13834" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13835" uniqueCount="1023">
   <si>
     <t>acop.com</t>
   </si>
@@ -2753,6 +2753,9 @@
     <t>8 Aberdore Road</t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
     <t>CF14 2PH</t>
   </si>
   <si>
@@ -3163,10 +3166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -3342,7 +3345,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3365,43 +3383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3417,7 +3399,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3425,22 +3422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3455,7 +3437,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,19 +3521,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3548,43 +3605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3596,19 +3629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,43 +3641,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3674,13 +3671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,13 +3683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3723,6 +3726,44 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3757,24 +3798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3786,26 +3809,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3829,13 +3832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3844,133 +3841,139 @@
     <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -33738,10 +33741,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P77" sqref="P77"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34972,7 +34975,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:15">
+    <row r="42" customHeight="1" spans="1:16">
       <c r="A42" s="32" t="s">
         <v>214</v>
       </c>
@@ -35009,6 +35012,9 @@
         <v>219</v>
       </c>
       <c r="O42" s="37">
+        <v>1</v>
+      </c>
+      <c r="P42" s="37">
         <v>1</v>
       </c>
     </row>
@@ -35291,8 +35297,8 @@
       <c r="I53" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="J53" s="33">
-        <v>20.5</v>
+      <c r="J53" s="33" t="s">
+        <v>887</v>
       </c>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -35317,16 +35323,16 @@
         <v>617</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>624</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J54" s="39">
         <v>3.25</v>
@@ -35363,7 +35369,7 @@
         <v>748</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J55" s="39">
         <v>4.25</v>
@@ -35390,7 +35396,7 @@
         <v>791</v>
       </c>
       <c r="G56" s="106" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H56" s="106" t="s">
         <v>694</v>
@@ -35422,13 +35428,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H57" s="39" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J57" s="33">
         <v>1.85</v>
@@ -35492,7 +35498,7 @@
         <v>617</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>882</v>
@@ -35501,14 +35507,14 @@
         <v>55</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J59" s="33">
         <v>4.2</v>
       </c>
       <c r="K59" s="34"/>
       <c r="M59" s="51" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" s="106" customFormat="1" customHeight="1" spans="1:9">
@@ -35552,7 +35558,7 @@
         <v>829</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>834</v>
@@ -35561,7 +35567,7 @@
         <v>694</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J61" s="39">
         <v>12.75</v>
@@ -35611,16 +35617,16 @@
         <v>829</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H64" s="39" t="s">
         <v>742</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="J64" s="33">
         <v>4</v>
@@ -35678,7 +35684,7 @@
         <v>748</v>
       </c>
       <c r="I67" s="95" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J67" s="95">
         <v>13</v>
@@ -35706,16 +35712,16 @@
         <v>617</v>
       </c>
       <c r="F68" s="95" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G68" s="95" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H68" s="95" t="s">
         <v>624</v>
       </c>
       <c r="I68" s="95" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J68" s="95">
         <v>14.5</v>
@@ -35744,7 +35750,7 @@
         <v>829</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>633</v>
@@ -35753,10 +35759,10 @@
         <v>75</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J70" s="33">
-        <v>11.5</v>
+        <v>12.25</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35803,7 +35809,7 @@
         <v>617</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>216</v>
@@ -35812,7 +35818,7 @@
         <v>163</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="J73" s="33">
         <v>14.5</v>
@@ -35853,16 +35859,16 @@
         <v>617</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H76" s="33" t="s">
         <v>701</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J76" s="33">
         <v>23.5</v>
@@ -35870,7 +35876,7 @@
       <c r="K76" s="34"/>
       <c r="L76" s="33"/>
       <c r="M76" s="37" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O76" s="37">
         <v>1</v>
@@ -35896,7 +35902,7 @@
         <v>829</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>665</v>
@@ -35905,7 +35911,7 @@
         <v>571</v>
       </c>
       <c r="I77" s="39" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="J77" s="33">
         <v>13.75</v>
@@ -35939,7 +35945,7 @@
         <v>829</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>619</v>
@@ -35948,7 +35954,7 @@
         <v>745</v>
       </c>
       <c r="I78" s="39" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J78" s="33">
         <v>19.55</v>
@@ -35965,7 +35971,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:13">
@@ -35985,7 +35991,7 @@
         <v>829</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>844</v>
@@ -35994,15 +36000,15 @@
         <v>89</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="J79" s="33">
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="48" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:16">
@@ -36022,19 +36028,19 @@
         <v>617</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>866</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J80" s="33">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K80" s="117"/>
       <c r="M80" s="37" t="s">
@@ -38124,12 +38130,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -38213,7 +38219,7 @@
         <v>674</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
@@ -38245,7 +38251,7 @@
         <v>679</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -38280,7 +38286,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" s="25" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -38315,7 +38321,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="25" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13">
@@ -38420,7 +38426,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13">
@@ -39693,7 +39699,7 @@
         <v>405</v>
       </c>
       <c r="N52" s="186" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:12">
@@ -39701,7 +39707,7 @@
         <v>273</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C53" s="3">
         <v>32407</v>
@@ -40004,7 +40010,7 @@
         <v>804</v>
       </c>
       <c r="M62" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -40707,7 +40713,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
@@ -40783,7 +40789,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -40818,7 +40824,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -40853,7 +40859,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13">
@@ -40888,7 +40894,7 @@
         <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
@@ -40923,7 +40929,7 @@
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -40958,7 +40964,7 @@
         <v>50</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
@@ -40993,7 +40999,7 @@
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
@@ -42688,7 +42694,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -42775,7 +42781,7 @@
         <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -42810,7 +42816,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:10">
@@ -42855,7 +42861,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -42890,7 +42896,7 @@
         <v>300</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -42927,7 +42933,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="8" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
@@ -42964,7 +42970,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
@@ -43347,7 +43353,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:13">
@@ -44803,12 +44809,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="37" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="33" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -44860,7 +44866,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:13">
@@ -44928,7 +44934,7 @@
         <v>2075</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -44963,7 +44969,7 @@
         <v>1675</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:13">
@@ -45000,7 +45006,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:13">
@@ -45037,7 +45043,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="48" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:13">
@@ -45060,7 +45066,7 @@
         <v>686</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>678</v>
@@ -45074,7 +45080,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="48" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:13">
@@ -45094,7 +45100,7 @@
         <v>627</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>690</v>
@@ -45103,7 +45109,7 @@
         <v>691</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J10" s="33">
         <v>1970</v>
@@ -45111,7 +45117,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="48" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:13">
@@ -45183,7 +45189,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="37" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" s="51" customFormat="1" ht="20" customHeight="1" spans="1:12">
@@ -45393,10 +45399,10 @@
         <v>7591166622</v>
       </c>
       <c r="O19" s="95" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P19" s="51" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:12">
@@ -45481,7 +45487,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
@@ -45518,7 +45524,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="48" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:13">
@@ -45555,7 +45561,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="48" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:13">
@@ -45592,7 +45598,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="48" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45629,7 +45635,7 @@
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
       <c r="M26" s="101" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:13">
@@ -45666,7 +45672,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="37" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:13">
@@ -45703,7 +45709,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="48" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:13">
@@ -45740,7 +45746,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="48" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:13">
@@ -45777,7 +45783,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="35" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:13">
@@ -45814,7 +45820,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="48" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45851,7 +45857,7 @@
       <c r="K32" s="95"/>
       <c r="L32" s="95"/>
       <c r="M32" s="51" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45888,7 +45894,7 @@
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
       <c r="M33" s="51" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="34" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45925,7 +45931,7 @@
       <c r="K34" s="95"/>
       <c r="L34" s="95"/>
       <c r="M34" s="51" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="35" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45954,7 +45960,7 @@
         <v>748</v>
       </c>
       <c r="I35" s="95" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J35" s="95">
         <v>2000</v>
@@ -45962,7 +45968,7 @@
       <c r="K35" s="95"/>
       <c r="L35" s="95"/>
       <c r="M35" s="51" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="36" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45999,7 +46005,7 @@
       <c r="K36" s="95"/>
       <c r="L36" s="95"/>
       <c r="M36" s="51" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46036,7 +46042,7 @@
       <c r="K37" s="95"/>
       <c r="L37" s="95"/>
       <c r="M37" s="51" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46073,7 +46079,7 @@
       <c r="K38" s="95"/>
       <c r="L38" s="95"/>
       <c r="M38" s="51" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46110,7 +46116,7 @@
       <c r="K39" s="95"/>
       <c r="L39" s="95"/>
       <c r="M39" s="51" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46147,7 +46153,7 @@
       <c r="K40" s="95"/>
       <c r="L40" s="95"/>
       <c r="M40" s="51" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="41" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46184,7 +46190,7 @@
       <c r="K41" s="95"/>
       <c r="L41" s="95"/>
       <c r="M41" s="51" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="42" s="48" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46221,7 +46227,7 @@
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
       <c r="M42" s="48" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46258,7 +46264,7 @@
       <c r="K43" s="95"/>
       <c r="L43" s="95"/>
       <c r="M43" s="51" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="44" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46295,7 +46301,7 @@
       <c r="K44" s="95"/>
       <c r="L44" s="95"/>
       <c r="M44" s="51" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="45" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46332,7 +46338,7 @@
       <c r="K45" s="95"/>
       <c r="L45" s="95"/>
       <c r="M45" s="51" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="46" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46369,7 +46375,7 @@
       <c r="K46" s="95"/>
       <c r="L46" s="95"/>
       <c r="M46" s="51" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="47" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46406,7 +46412,7 @@
       <c r="K47" s="95"/>
       <c r="L47" s="95"/>
       <c r="M47" s="51" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="48" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46443,7 +46449,7 @@
       <c r="K48" s="95"/>
       <c r="L48" s="95"/>
       <c r="M48" s="51" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46480,7 +46486,7 @@
       <c r="K49" s="95"/>
       <c r="L49" s="95"/>
       <c r="M49" s="102" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="50" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46517,7 +46523,7 @@
       <c r="K50" s="95"/>
       <c r="L50" s="95"/>
       <c r="M50" s="51" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" s="51" customFormat="1" ht="20" customHeight="1" spans="1:12">
@@ -46568,7 +46574,7 @@
       <c r="K52" s="95"/>
       <c r="L52" s="95"/>
       <c r="M52" s="101" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:13">
@@ -46605,7 +46611,7 @@
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="48" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:13">
@@ -46642,7 +46648,7 @@
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="35" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:13">
@@ -46679,7 +46685,7 @@
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="37" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:13">
@@ -46716,7 +46722,7 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="37" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:13">
@@ -46753,7 +46759,7 @@
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="37" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46764,7 +46770,7 @@
         <v>299</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>15</v>
@@ -46788,7 +46794,7 @@
         <v>1500</v>
       </c>
       <c r="M58" s="48" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46823,7 +46829,7 @@
         <v>1120</v>
       </c>
       <c r="M59" s="48" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46858,7 +46864,7 @@
         <v>1050</v>
       </c>
       <c r="M60" s="48" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:13">
@@ -46893,7 +46899,7 @@
         <v>1000</v>
       </c>
       <c r="M61" s="48" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:13">
@@ -46928,7 +46934,7 @@
         <v>1600</v>
       </c>
       <c r="M62" s="48" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="63" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46963,7 +46969,7 @@
         <v>1150</v>
       </c>
       <c r="M63" s="102" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
@@ -46998,7 +47004,7 @@
         <v>1070</v>
       </c>
       <c r="M64" s="48" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:13">
@@ -47030,7 +47036,7 @@
         <v>810</v>
       </c>
       <c r="M65" s="48" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:14">
@@ -47062,7 +47068,7 @@
         <v>812</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="N66" s="37" t="s">
         <v>621</v>
@@ -47100,7 +47106,7 @@
         <v>1200</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N67" s="37" t="s">
         <v>621</v>
@@ -47138,7 +47144,7 @@
         <v>1100</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N68" s="37" t="s">
         <v>621</v>
@@ -47176,7 +47182,7 @@
         <v>1050</v>
       </c>
       <c r="M69" s="37" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:13">
@@ -47208,7 +47214,7 @@
         <v>634</v>
       </c>
       <c r="M70" s="37" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:13">
@@ -47240,7 +47246,7 @@
         <v>639</v>
       </c>
       <c r="M71" s="37" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:13">
@@ -47275,7 +47281,7 @@
         <v>1200</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:13">
@@ -47310,7 +47316,7 @@
         <v>1600</v>
       </c>
       <c r="M73" s="37" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:13">
@@ -47342,7 +47348,7 @@
         <v>650</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:13">
@@ -47377,7 +47383,7 @@
         <v>1050</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:13">
@@ -47412,7 +47418,7 @@
         <v>1150</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:13">
@@ -47447,7 +47453,7 @@
         <v>1100</v>
       </c>
       <c r="M77" s="37" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:13">
@@ -47479,7 +47485,7 @@
         <v>666</v>
       </c>
       <c r="M78" s="104" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:13">
@@ -47511,7 +47517,7 @@
         <v>814</v>
       </c>
       <c r="M79" s="48" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:13">
@@ -47546,7 +47552,7 @@
         <v>1650</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -47676,7 +47682,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -49852,10 +49858,10 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:13">
@@ -49899,10 +49905,10 @@
         <v>676</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O4" t="s">
         <v>466</v>
@@ -50013,7 +50019,7 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -50174,16 +50180,16 @@
         <v>468</v>
       </c>
       <c r="N7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="O7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -51697,13 +51703,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -51712,10 +51718,10 @@
         <v>123</v>
       </c>
       <c r="N57" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O57" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
@@ -51750,10 +51756,10 @@
         <v>302</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
@@ -52131,7 +52137,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -58035,7 +58041,7 @@
         <v>748</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -58659,7 +58665,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -58815,7 +58821,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -59041,7 +59047,7 @@
         <v>748</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -59641,12 +59647,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -59735,7 +59741,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N4" s="37"/>
     </row>
@@ -59773,7 +59779,7 @@
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N5" s="37"/>
     </row>
@@ -59881,7 +59887,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="37" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N8" s="37"/>
     </row>
@@ -59933,7 +59939,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="37" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N10" s="37"/>
     </row>
@@ -60157,7 +60163,7 @@
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="37" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19" s="37"/>
     </row>
@@ -62477,7 +62483,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -62674,7 +62680,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13">
@@ -63402,7 +63408,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -64108,7 +64114,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="5:6">
@@ -64116,7 +64122,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -64197,10 +64203,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -64240,7 +64246,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -64300,16 +64306,16 @@
         <v>617</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>701</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J13" s="1">
         <v>10.5</v>
@@ -64317,7 +64323,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N13">
         <v>7548032916</v>
@@ -65952,12 +65958,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -66036,10 +66042,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66077,7 +66083,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -66147,7 +66153,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -66357,7 +66363,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -66441,10 +66447,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66482,7 +66488,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -66555,7 +66561,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -66791,7 +66797,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -66885,10 +66891,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66926,7 +66932,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -67075,7 +67081,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -67291,13 +67297,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -67579,7 +67585,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -67652,7 +67658,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -67939,7 +67945,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -68117,7 +68123,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -68152,7 +68158,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -68260,7 +68266,7 @@
         <v>674</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -68292,7 +68298,7 @@
         <v>676</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -68324,7 +68330,7 @@
         <v>679</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="28800" windowHeight="12210" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -3164,14 +3164,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -3323,44 +3323,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3382,26 +3359,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3413,8 +3375,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3430,21 +3408,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3458,7 +3444,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3521,79 +3521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3605,7 +3545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,13 +3575,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3641,37 +3629,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3683,25 +3683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3730,44 +3730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3783,17 +3745,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3827,153 +3792,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3984,7 +3984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3993,7 +3993,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4023,7 +4023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4032,7 +4032,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4041,13 +4041,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4062,7 +4062,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4074,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4086,13 +4086,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4101,7 +4101,7 @@
     <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4110,13 +4110,13 @@
     <xf numFmtId="58" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4140,7 +4140,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4149,7 +4149,7 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4191,19 +4191,19 @@
     <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4230,7 +4230,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4260,7 +4260,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4269,10 +4269,10 @@
     <xf numFmtId="58" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4299,7 +4299,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4308,13 +4308,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4326,13 +4326,13 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4365,7 +4365,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -4410,10 +4410,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4449,7 +4449,7 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4461,7 +4461,7 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4473,13 +4473,13 @@
     <xf numFmtId="58" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4488,16 +4488,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="19" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4506,10 +4506,10 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4542,52 +4542,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -33742,9 +33742,9 @@
   <dimension ref="A2:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33759,7 +33759,7 @@
     <col min="8" max="8" width="17.775" style="37" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="37" customWidth="1"/>
     <col min="10" max="10" width="9" style="37"/>
-    <col min="11" max="11" width="10.5583333333333" style="37" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="37" customWidth="1"/>
     <col min="12" max="12" width="9" style="37"/>
     <col min="13" max="13" width="14" style="37" customWidth="1"/>
     <col min="14" max="15" width="9" style="37"/>
@@ -34606,9 +34606,11 @@
         <v>860</v>
       </c>
       <c r="J28" s="33">
-        <v>22.5</v>
-      </c>
-      <c r="K28" s="34"/>
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="34">
+        <v>45184</v>
+      </c>
       <c r="L28" s="33"/>
       <c r="M28" s="48" t="s">
         <v>135</v>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13835" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13834" uniqueCount="1022">
   <si>
     <t>acop.com</t>
   </si>
@@ -2751,9 +2751,6 @@
   </si>
   <si>
     <t>8 Aberdore Road</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>CF14 2PH</t>
@@ -33742,9 +33739,9 @@
   <dimension ref="A2:R80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -33758,7 +33755,7 @@
     <col min="7" max="7" width="18.4416666666667" style="37" customWidth="1"/>
     <col min="8" max="8" width="17.775" style="37" customWidth="1"/>
     <col min="9" max="9" width="21.625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9" style="37"/>
+    <col min="10" max="10" width="15" style="37" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="37" customWidth="1"/>
     <col min="12" max="12" width="9" style="37"/>
     <col min="13" max="13" width="14" style="37" customWidth="1"/>
@@ -34719,7 +34716,7 @@
         <v>867</v>
       </c>
       <c r="J31" s="33">
-        <v>22.75</v>
+        <v>24.5</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="33"/>
@@ -35006,7 +35003,7 @@
         <v>879</v>
       </c>
       <c r="J42" s="33">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K42" s="34"/>
       <c r="L42" s="33"/>
@@ -35299,9 +35296,7 @@
       <c r="I53" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="J53" s="33" t="s">
-        <v>887</v>
-      </c>
+      <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="48" t="s">
@@ -35325,16 +35320,16 @@
         <v>617</v>
       </c>
       <c r="F54" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="G54" s="39" t="s">
         <v>888</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>889</v>
       </c>
       <c r="H54" s="39" t="s">
         <v>624</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J54" s="39">
         <v>3.25</v>
@@ -35371,7 +35366,7 @@
         <v>748</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J55" s="39">
         <v>4.25</v>
@@ -35398,7 +35393,7 @@
         <v>791</v>
       </c>
       <c r="G56" s="106" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H56" s="106" t="s">
         <v>694</v>
@@ -35430,13 +35425,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H57" s="39" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J57" s="33">
         <v>1.85</v>
@@ -35500,7 +35495,7 @@
         <v>617</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G59" s="39" t="s">
         <v>882</v>
@@ -35509,14 +35504,14 @@
         <v>55</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J59" s="33">
         <v>4.2</v>
       </c>
       <c r="K59" s="34"/>
       <c r="M59" s="51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="60" s="106" customFormat="1" customHeight="1" spans="1:9">
@@ -35560,7 +35555,7 @@
         <v>829</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>834</v>
@@ -35569,7 +35564,7 @@
         <v>694</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J61" s="39">
         <v>12.75</v>
@@ -35619,16 +35614,16 @@
         <v>829</v>
       </c>
       <c r="F64" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="G64" s="39" t="s">
         <v>900</v>
-      </c>
-      <c r="G64" s="39" t="s">
-        <v>901</v>
       </c>
       <c r="H64" s="39" t="s">
         <v>742</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J64" s="33">
         <v>4</v>
@@ -35686,7 +35681,7 @@
         <v>748</v>
       </c>
       <c r="I67" s="95" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J67" s="95">
         <v>13</v>
@@ -35714,16 +35709,16 @@
         <v>617</v>
       </c>
       <c r="F68" s="95" t="s">
+        <v>887</v>
+      </c>
+      <c r="G68" s="95" t="s">
         <v>888</v>
-      </c>
-      <c r="G68" s="95" t="s">
-        <v>889</v>
       </c>
       <c r="H68" s="95" t="s">
         <v>624</v>
       </c>
       <c r="I68" s="95" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J68" s="95">
         <v>14.5</v>
@@ -35752,7 +35747,7 @@
         <v>829</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>633</v>
@@ -35761,7 +35756,7 @@
         <v>75</v>
       </c>
       <c r="I70" s="39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J70" s="33">
         <v>12.25</v>
@@ -35811,7 +35806,7 @@
         <v>617</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>216</v>
@@ -35820,7 +35815,7 @@
         <v>163</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J73" s="33">
         <v>14.5</v>
@@ -35861,16 +35856,16 @@
         <v>617</v>
       </c>
       <c r="F76" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="G76" s="33" t="s">
         <v>906</v>
-      </c>
-      <c r="G76" s="33" t="s">
-        <v>907</v>
       </c>
       <c r="H76" s="33" t="s">
         <v>701</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J76" s="33">
         <v>23.5</v>
@@ -35878,7 +35873,7 @@
       <c r="K76" s="34"/>
       <c r="L76" s="33"/>
       <c r="M76" s="37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O76" s="37">
         <v>1</v>
@@ -35904,7 +35899,7 @@
         <v>829</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>665</v>
@@ -35913,7 +35908,7 @@
         <v>571</v>
       </c>
       <c r="I77" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J77" s="33">
         <v>13.75</v>
@@ -35947,7 +35942,7 @@
         <v>829</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>619</v>
@@ -35956,7 +35951,7 @@
         <v>745</v>
       </c>
       <c r="I78" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J78" s="33">
         <v>19.55</v>
@@ -35973,7 +35968,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:13">
@@ -35993,7 +35988,7 @@
         <v>829</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G79" s="39" t="s">
         <v>844</v>
@@ -36002,15 +35997,15 @@
         <v>89</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J79" s="33">
-        <v>23.75</v>
+        <v>24.5</v>
       </c>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="48" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:16">
@@ -36030,16 +36025,16 @@
         <v>617</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>866</v>
       </c>
       <c r="H80" s="37" t="s">
+        <v>918</v>
+      </c>
+      <c r="I80" s="37" t="s">
         <v>919</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>920</v>
       </c>
       <c r="J80" s="33">
         <v>4.3</v>
@@ -38132,12 +38127,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -38221,7 +38216,7 @@
         <v>674</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="12" customHeight="1" spans="1:13">
@@ -38253,7 +38248,7 @@
         <v>679</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -38288,7 +38283,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" s="25" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -38323,7 +38318,7 @@
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:13">
@@ -38428,7 +38423,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:13">
@@ -39701,7 +39696,7 @@
         <v>405</v>
       </c>
       <c r="N52" s="186" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:12">
@@ -39709,7 +39704,7 @@
         <v>273</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C53" s="3">
         <v>32407</v>
@@ -40012,7 +40007,7 @@
         <v>804</v>
       </c>
       <c r="M62" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -40715,7 +40710,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:13">
@@ -40791,7 +40786,7 @@
         <v>50</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -40826,7 +40821,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -40861,7 +40856,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:13">
@@ -40896,7 +40891,7 @@
         <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:13">
@@ -40931,7 +40926,7 @@
         <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -40966,7 +40961,7 @@
         <v>50</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
@@ -41001,7 +40996,7 @@
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
@@ -42696,7 +42691,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -42783,7 +42778,7 @@
         <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -42818,7 +42813,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:10">
@@ -42863,7 +42858,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -42898,7 +42893,7 @@
         <v>300</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:13">
@@ -42935,7 +42930,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:13">
@@ -42972,7 +42967,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:13">
@@ -43355,7 +43350,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:13">
@@ -44787,9 +44782,9 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -44811,12 +44806,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="37" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -44868,7 +44863,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:13">
@@ -44936,7 +44931,7 @@
         <v>2075</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -44971,7 +44966,7 @@
         <v>1675</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:13">
@@ -45008,7 +45003,7 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="48" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:13">
@@ -45045,7 +45040,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="48" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:13">
@@ -45068,7 +45063,7 @@
         <v>686</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>678</v>
@@ -45082,7 +45077,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="33"/>
       <c r="M9" s="48" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:13">
@@ -45102,7 +45097,7 @@
         <v>627</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>690</v>
@@ -45111,7 +45106,7 @@
         <v>691</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J10" s="33">
         <v>1970</v>
@@ -45119,7 +45114,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="48" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:13">
@@ -45191,7 +45186,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="37" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="13" s="51" customFormat="1" ht="20" customHeight="1" spans="1:12">
@@ -45401,10 +45396,10 @@
         <v>7591166622</v>
       </c>
       <c r="O19" s="95" t="s">
+        <v>949</v>
+      </c>
+      <c r="P19" s="51" t="s">
         <v>950</v>
-      </c>
-      <c r="P19" s="51" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:12">
@@ -45489,7 +45484,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="48" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:13">
@@ -45526,7 +45521,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="48" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:13">
@@ -45563,7 +45558,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="48" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:13">
@@ -45600,7 +45595,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
       <c r="M25" s="48" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="26" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45637,7 +45632,7 @@
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
       <c r="M26" s="101" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:13">
@@ -45674,7 +45669,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:13">
@@ -45711,7 +45706,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
       <c r="M28" s="48" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:13">
@@ -45748,7 +45743,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="48" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:13">
@@ -45785,7 +45780,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:13">
@@ -45822,7 +45817,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
       <c r="M31" s="48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45859,7 +45854,7 @@
       <c r="K32" s="95"/>
       <c r="L32" s="95"/>
       <c r="M32" s="51" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45896,7 +45891,7 @@
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
       <c r="M33" s="51" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="34" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45933,7 +45928,7 @@
       <c r="K34" s="95"/>
       <c r="L34" s="95"/>
       <c r="M34" s="51" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="35" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -45962,7 +45957,7 @@
         <v>748</v>
       </c>
       <c r="I35" s="95" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J35" s="95">
         <v>2000</v>
@@ -45970,7 +45965,7 @@
       <c r="K35" s="95"/>
       <c r="L35" s="95"/>
       <c r="M35" s="51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="36" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46007,7 +46002,7 @@
       <c r="K36" s="95"/>
       <c r="L36" s="95"/>
       <c r="M36" s="51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46044,7 +46039,7 @@
       <c r="K37" s="95"/>
       <c r="L37" s="95"/>
       <c r="M37" s="51" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46081,7 +46076,7 @@
       <c r="K38" s="95"/>
       <c r="L38" s="95"/>
       <c r="M38" s="51" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46118,7 +46113,7 @@
       <c r="K39" s="95"/>
       <c r="L39" s="95"/>
       <c r="M39" s="51" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46155,7 +46150,7 @@
       <c r="K40" s="95"/>
       <c r="L40" s="95"/>
       <c r="M40" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="41" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46192,7 +46187,7 @@
       <c r="K41" s="95"/>
       <c r="L41" s="95"/>
       <c r="M41" s="51" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" s="48" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46229,7 +46224,7 @@
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
       <c r="M42" s="48" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="43" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46266,7 +46261,7 @@
       <c r="K43" s="95"/>
       <c r="L43" s="95"/>
       <c r="M43" s="51" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="44" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46303,7 +46298,7 @@
       <c r="K44" s="95"/>
       <c r="L44" s="95"/>
       <c r="M44" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="45" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46340,7 +46335,7 @@
       <c r="K45" s="95"/>
       <c r="L45" s="95"/>
       <c r="M45" s="51" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46377,7 +46372,7 @@
       <c r="K46" s="95"/>
       <c r="L46" s="95"/>
       <c r="M46" s="51" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="47" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46414,7 +46409,7 @@
       <c r="K47" s="95"/>
       <c r="L47" s="95"/>
       <c r="M47" s="51" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46451,7 +46446,7 @@
       <c r="K48" s="95"/>
       <c r="L48" s="95"/>
       <c r="M48" s="51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="49" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46488,7 +46483,7 @@
       <c r="K49" s="95"/>
       <c r="L49" s="95"/>
       <c r="M49" s="102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46525,7 +46520,7 @@
       <c r="K50" s="95"/>
       <c r="L50" s="95"/>
       <c r="M50" s="51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" s="51" customFormat="1" ht="20" customHeight="1" spans="1:12">
@@ -46576,7 +46571,7 @@
       <c r="K52" s="95"/>
       <c r="L52" s="95"/>
       <c r="M52" s="101" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:13">
@@ -46613,7 +46608,7 @@
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="48" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:13">
@@ -46650,7 +46645,7 @@
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:13">
@@ -46687,7 +46682,7 @@
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:13">
@@ -46724,7 +46719,7 @@
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:13">
@@ -46761,7 +46756,7 @@
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="58" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46772,7 +46767,7 @@
         <v>299</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D58" s="33" t="s">
         <v>15</v>
@@ -46796,7 +46791,7 @@
         <v>1500</v>
       </c>
       <c r="M58" s="48" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="59" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46831,7 +46826,7 @@
         <v>1120</v>
       </c>
       <c r="M59" s="48" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="60" s="33" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46866,7 +46861,7 @@
         <v>1050</v>
       </c>
       <c r="M60" s="48" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:13">
@@ -46901,7 +46896,7 @@
         <v>1000</v>
       </c>
       <c r="M61" s="48" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:13">
@@ -46936,7 +46931,7 @@
         <v>1600</v>
       </c>
       <c r="M62" s="48" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="63" s="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
@@ -46971,7 +46966,7 @@
         <v>1150</v>
       </c>
       <c r="M63" s="102" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:13">
@@ -47006,7 +47001,7 @@
         <v>1070</v>
       </c>
       <c r="M64" s="48" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:13">
@@ -47038,7 +47033,7 @@
         <v>810</v>
       </c>
       <c r="M65" s="48" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:14">
@@ -47070,7 +47065,7 @@
         <v>812</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N66" s="37" t="s">
         <v>621</v>
@@ -47108,7 +47103,7 @@
         <v>1200</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N67" s="37" t="s">
         <v>621</v>
@@ -47146,7 +47141,7 @@
         <v>1100</v>
       </c>
       <c r="M68" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N68" s="37" t="s">
         <v>621</v>
@@ -47184,7 +47179,7 @@
         <v>1050</v>
       </c>
       <c r="M69" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:13">
@@ -47216,7 +47211,7 @@
         <v>634</v>
       </c>
       <c r="M70" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:13">
@@ -47248,7 +47243,7 @@
         <v>639</v>
       </c>
       <c r="M71" s="37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:13">
@@ -47283,7 +47278,7 @@
         <v>1200</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:13">
@@ -47318,7 +47313,7 @@
         <v>1600</v>
       </c>
       <c r="M73" s="37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:13">
@@ -47350,7 +47345,7 @@
         <v>650</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:13">
@@ -47385,7 +47380,7 @@
         <v>1050</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:13">
@@ -47420,7 +47415,7 @@
         <v>1150</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:13">
@@ -47455,7 +47450,7 @@
         <v>1100</v>
       </c>
       <c r="M77" s="37" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="78" ht="20" customHeight="1" spans="1:13">
@@ -47487,7 +47482,7 @@
         <v>666</v>
       </c>
       <c r="M78" s="104" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:13">
@@ -47519,7 +47514,7 @@
         <v>814</v>
       </c>
       <c r="M79" s="48" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:13">
@@ -47554,7 +47549,7 @@
         <v>1650</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -47684,7 +47679,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -49860,10 +49855,10 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:13">
@@ -49907,10 +49902,10 @@
         <v>676</v>
       </c>
       <c r="M4" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="N4" t="s">
         <v>996</v>
-      </c>
-      <c r="N4" t="s">
-        <v>997</v>
       </c>
       <c r="O4" t="s">
         <v>466</v>
@@ -50021,7 +50016,7 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -50182,16 +50177,16 @@
         <v>468</v>
       </c>
       <c r="N7" t="s">
+        <v>998</v>
+      </c>
+      <c r="O7" t="s">
         <v>999</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="R7" t="s">
         <v>1001</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="3:3">
@@ -51705,13 +51700,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -51720,10 +51715,10 @@
         <v>123</v>
       </c>
       <c r="N57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O57" t="s">
         <v>1003</v>
-      </c>
-      <c r="O57" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:15">
@@ -51758,10 +51753,10 @@
         <v>302</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
@@ -52139,7 +52134,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -58043,7 +58038,7 @@
         <v>748</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -58667,7 +58662,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -58823,7 +58818,7 @@
         <v>38</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -59049,7 +59044,7 @@
         <v>748</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -59649,12 +59644,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -59743,7 +59738,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N4" s="37"/>
     </row>
@@ -59781,7 +59776,7 @@
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N5" s="37"/>
     </row>
@@ -59889,7 +59884,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
       <c r="M8" s="37" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N8" s="37"/>
     </row>
@@ -59941,7 +59936,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="37" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N10" s="37"/>
     </row>
@@ -60165,7 +60160,7 @@
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19" s="37"/>
     </row>
@@ -62485,7 +62480,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -62682,7 +62677,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:13">
@@ -63410,7 +63405,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -64116,7 +64111,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="5:6">
@@ -64124,7 +64119,7 @@
         <v>2000</v>
       </c>
       <c r="F2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -64205,10 +64200,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -64248,7 +64243,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -64308,16 +64303,16 @@
         <v>617</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>701</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J13" s="1">
         <v>10.5</v>
@@ -64325,7 +64320,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="1"/>
       <c r="M13" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N13">
         <v>7548032916</v>
@@ -65960,12 +65955,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:14">
@@ -66044,10 +66039,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66085,7 +66080,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:13">
@@ -66155,7 +66150,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:14">
@@ -66365,7 +66360,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="5:5">
@@ -66449,10 +66444,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66490,7 +66485,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -66563,7 +66558,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -66799,7 +66794,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -66893,10 +66888,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -66934,7 +66929,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -67083,7 +67078,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -67299,13 +67294,13 @@
         <v>843</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>704</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -67587,7 +67582,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" s="14" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -67660,7 +67655,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -67947,7 +67942,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -68125,7 +68120,7 @@
         <v>468</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14.25" customHeight="1" spans="1:14">
@@ -68160,7 +68155,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="N19">
         <v>7309916750</v>
@@ -68268,7 +68263,7 @@
         <v>674</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" spans="1:13">
@@ -68300,7 +68295,7 @@
         <v>676</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:13">
@@ -68332,7 +68327,7 @@
         <v>679</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -33755,7 +33755,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35973,7 +35973,7 @@
         <v>912</v>
       </c>
       <c r="J78" s="33">
-        <v>20.05</v>
+        <v>21.8</v>
       </c>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="28800" windowHeight="12210" tabRatio="928" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="cashcrate" sheetId="5" state="hidden" r:id="rId16"/>
     <sheet name="valuedopinions" sheetId="38" state="hidden" r:id="rId17"/>
     <sheet name="yougov" sheetId="72" r:id="rId18"/>
-    <sheet name="inboxdollars" sheetId="39" r:id="rId19"/>
+    <sheet name="inboxdollars" sheetId="39" state="hidden" r:id="rId19"/>
     <sheet name="mypoints" sheetId="44" state="hidden" r:id="rId20"/>
     <sheet name="surveyjunkie" sheetId="46" state="hidden" r:id="rId21"/>
     <sheet name="kashkick" sheetId="48" state="hidden" r:id="rId22"/>
@@ -52,15 +52,15 @@
     <sheet name="opinioquest" sheetId="36" state="hidden" r:id="rId43"/>
     <sheet name="i-say" sheetId="41" state="hidden" r:id="rId44"/>
     <sheet name="surveynetwork" sheetId="42" state="hidden" r:id="rId45"/>
-    <sheet name="mindmover" sheetId="8" r:id="rId46"/>
+    <sheet name="mindmover" sheetId="8" state="hidden" r:id="rId46"/>
     <sheet name="gobranded" sheetId="56" state="hidden" r:id="rId47"/>
     <sheet name="univoxcommunity" sheetId="54" state="hidden" r:id="rId48"/>
     <sheet name="qmee" sheetId="60" state="hidden" r:id="rId49"/>
     <sheet name="tgmpanel" sheetId="61" state="hidden" r:id="rId50"/>
     <sheet name="trpsurveys" sheetId="62" r:id="rId51"/>
     <sheet name="viewfruit" sheetId="69" state="hidden" r:id="rId52"/>
-    <sheet name="tribevillage" sheetId="70" r:id="rId53"/>
-    <sheet name="triaba" sheetId="71" r:id="rId54"/>
+    <sheet name="tribevillage" sheetId="70" state="hidden" r:id="rId53"/>
+    <sheet name="triaba" sheetId="71" state="hidden" r:id="rId54"/>
     <sheet name="pollpay" sheetId="29" state="hidden" r:id="rId55"/>
     <sheet name="surveyspot" sheetId="32" state="hidden" r:id="rId56"/>
     <sheet name="xfinityinsightscommunity" sheetId="34" state="hidden" r:id="rId57"/>
@@ -18951,9 +18951,9 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="15.75"/>
@@ -30691,7 +30691,7 @@
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
@@ -33752,10 +33752,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -44803,7 +44803,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210" tabRatio="928" activeTab="28"/>
+    <workbookView windowWidth="21000" windowHeight="11610" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -30691,7 +30691,7 @@
   <sheetPr/>
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
@@ -33752,10 +33752,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34620,9 +34620,7 @@
       <c r="J28" s="33">
         <v>0.9</v>
       </c>
-      <c r="K28" s="34">
-        <v>45184</v>
-      </c>
+      <c r="K28" s="34"/>
       <c r="L28" s="33"/>
       <c r="M28" s="48" t="s">
         <v>135</v>

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11610" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="22680" windowHeight="8235" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -4879,17 +4879,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="76.7416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7433628318584" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1150442477876" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1150442477876" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.1166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1150442477876" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6637168141593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4424778761062" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.3362831858407" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="13.5583333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5575221238938" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8638,11 +8638,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="37.225" customWidth="1"/>
+    <col min="1" max="1" width="43.5575221238938" customWidth="1"/>
+    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="13.8849557522124" customWidth="1"/>
+    <col min="7" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="37.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10809,14 +10809,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.1166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.775" customWidth="1"/>
-    <col min="14" max="14" width="14.4416666666667" customWidth="1"/>
-    <col min="15" max="15" width="27.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
+    <col min="8" max="8" width="10.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="30.1150442477876" customWidth="1"/>
+    <col min="13" max="13" width="13.7787610619469" customWidth="1"/>
+    <col min="14" max="14" width="14.4424778761062" customWidth="1"/>
+    <col min="15" max="15" width="27.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -13192,14 +13192,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="22.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="20.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="18.4424778761062" customWidth="1"/>
+    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
+    <col min="7" max="7" width="23.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="23.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="30.8849557522124" customWidth="1"/>
+    <col min="10" max="10" width="22.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14380,13 +14380,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.225" customWidth="1"/>
+    <col min="1" max="1" width="41.2212389380531" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="15.3362831858407" customWidth="1"/>
+    <col min="8" max="8" width="13.4424778761062" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="13" max="13" width="14.1166666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15863,15 +15863,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="34.775" customWidth="1"/>
-    <col min="10" max="10" width="28.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="30.1166666666667" customWidth="1"/>
-    <col min="12" max="12" width="41.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="20.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="23.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="18.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="34.7787610619469" customWidth="1"/>
+    <col min="10" max="10" width="28.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="30.1150442477876" customWidth="1"/>
+    <col min="12" max="12" width="41.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17278,11 +17278,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.225" customWidth="1"/>
-    <col min="7" max="7" width="19.225" customWidth="1"/>
-    <col min="8" max="8" width="15.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="25.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="26.2212389380531" customWidth="1"/>
+    <col min="7" max="7" width="19.2212389380531" customWidth="1"/>
+    <col min="8" max="8" width="15.5575221238938" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17403,15 +17403,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="17.8849557522124" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.4424778761062" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="14.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18832,16 +18832,16 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="38.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.3" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="11.0583333333333" customWidth="1"/>
-    <col min="9" max="9" width="41.825" customWidth="1"/>
-    <col min="10" max="10" width="18.15"/>
+    <col min="1" max="1" width="38.1327433628319" customWidth="1"/>
+    <col min="2" max="2" width="16.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="13.3008849557522" customWidth="1"/>
+    <col min="4" max="4" width="11.3716814159292" customWidth="1"/>
+    <col min="7" max="7" width="11.3716814159292" customWidth="1"/>
+    <col min="8" max="8" width="11.0619469026549" customWidth="1"/>
+    <col min="9" max="9" width="41.8230088495575" customWidth="1"/>
+    <col min="10" max="10" width="18.1504424778761"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -18956,16 +18956,16 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.88495575221239" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="128" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" style="128" customWidth="1"/>
+    <col min="1" max="1" width="39.4424778761062" style="128" customWidth="1"/>
+    <col min="2" max="2" width="18.1150442477876" style="128" customWidth="1"/>
     <col min="3" max="3" width="13" style="128" customWidth="1"/>
-    <col min="4" max="6" width="9.88333333333333" style="128"/>
-    <col min="7" max="7" width="13.4416666666667" style="128" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="128" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" style="128" customWidth="1"/>
-    <col min="10" max="16384" width="9.88333333333333" style="128"/>
+    <col min="4" max="6" width="9.88495575221239" style="128"/>
+    <col min="7" max="7" width="13.4424778761062" style="128" customWidth="1"/>
+    <col min="8" max="8" width="10.7787610619469" style="128" customWidth="1"/>
+    <col min="9" max="9" width="30.8849557522124" style="128" customWidth="1"/>
+    <col min="10" max="16384" width="9.88495575221239" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20422,14 +20422,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.7" customWidth="1"/>
-    <col min="2" max="2" width="20.225" customWidth="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="40.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="20.2212389380531" customWidth="1"/>
+    <col min="3" max="3" width="14.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="30.4416666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="30.4424778761062" customWidth="1"/>
+    <col min="13" max="13" width="20.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22881,15 +22881,15 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.775" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
-    <col min="8" max="8" width="10.775" customWidth="1"/>
-    <col min="9" max="9" width="43.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.4916666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="12.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="12.7787610619469" customWidth="1"/>
+    <col min="7" max="7" width="11.7787610619469" customWidth="1"/>
+    <col min="8" max="8" width="10.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="43.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="12.4955752212389" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -24014,17 +24014,17 @@
       <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6166666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.225" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="35.225" customWidth="1"/>
-    <col min="13" max="13" width="10.575" customWidth="1"/>
-    <col min="14" max="14" width="19.8666666666667" customWidth="1"/>
-    <col min="15" max="16" width="12.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.6194690265487" customWidth="1"/>
+    <col min="2" max="2" width="13.2212389380531" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="11.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="35.2212389380531" customWidth="1"/>
+    <col min="13" max="13" width="10.5752212389381" customWidth="1"/>
+    <col min="14" max="14" width="19.8672566371681" customWidth="1"/>
+    <col min="15" max="16" width="12.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -25186,12 +25186,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.425" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.775" customWidth="1"/>
-    <col min="9" max="9" width="33.775" customWidth="1"/>
+    <col min="1" max="1" width="43.4247787610619" customWidth="1"/>
+    <col min="2" max="2" width="12.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="11.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="33.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26348,13 +26348,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="16.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="9" max="9" width="42.4416666666667" customWidth="1"/>
-    <col min="15" max="15" width="15.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="42.4424778761062" customWidth="1"/>
+    <col min="15" max="15" width="15.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27478,14 +27478,14 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="36.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="15.3362831858407" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.225" customWidth="1"/>
+    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="34.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28609,16 +28609,16 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="43.5840707964602" customWidth="1"/>
+    <col min="2" max="2" width="12.8849557522124" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="41.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.225" customWidth="1"/>
-    <col min="14" max="14" width="13.45" customWidth="1"/>
+    <col min="7" max="7" width="11.7787610619469" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="41.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="12.2212389380531" customWidth="1"/>
+    <col min="14" max="14" width="13.4513274336283" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -29809,12 +29809,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.225" customWidth="1"/>
-    <col min="2" max="2" width="15.225" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.225" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="31.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="15.2212389380531" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="12.2212389380531" customWidth="1"/>
+    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="31.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -29941,16 +29941,16 @@
       <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
-    <col min="13" max="14" width="13.7666666666667" customWidth="1"/>
-    <col min="15" max="15" width="11.775"/>
+    <col min="1" max="1" width="28.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="12.7787610619469" customWidth="1"/>
+    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
+    <col min="13" max="14" width="13.7699115044248" customWidth="1"/>
+    <col min="15" max="15" width="11.7787610619469"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -30539,15 +30539,15 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.075" customWidth="1"/>
-    <col min="2" max="2" width="12.975" customWidth="1"/>
-    <col min="3" max="3" width="16.0166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.175" customWidth="1"/>
-    <col min="8" max="8" width="14.1" customWidth="1"/>
-    <col min="9" max="9" width="43.9" customWidth="1"/>
-    <col min="10" max="10" width="9.45" customWidth="1"/>
+    <col min="1" max="1" width="31.070796460177" customWidth="1"/>
+    <col min="2" max="2" width="12.9734513274336" customWidth="1"/>
+    <col min="3" max="3" width="16.0176991150442" customWidth="1"/>
+    <col min="7" max="7" width="12.1769911504425" customWidth="1"/>
+    <col min="8" max="8" width="14.0973451327434" customWidth="1"/>
+    <col min="9" max="9" width="43.9026548672566" customWidth="1"/>
+    <col min="10" max="10" width="9.45132743362832" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -30698,13 +30698,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.0583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="15.0619469026549" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="16.6637168141593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6637168141593" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.929203539823" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33508,13 +33508,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.775" customWidth="1"/>
-    <col min="7" max="7" width="14.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.1166666666667" customWidth="1"/>
-    <col min="13" max="13" width="12.775" customWidth="1"/>
+    <col min="1" max="1" width="42.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="16.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="16.7787610619469" customWidth="1"/>
+    <col min="7" max="7" width="14.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="15.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="34.1150442477876" customWidth="1"/>
+    <col min="13" max="13" width="12.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -33752,25 +33752,25 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.35" style="37" customWidth="1"/>
+    <col min="1" max="1" width="49.353982300885" style="37" customWidth="1"/>
     <col min="2" max="2" width="17" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.775" style="107" customWidth="1"/>
+    <col min="3" max="3" width="18.7787610619469" style="107" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="9" style="33"/>
-    <col min="6" max="6" width="12.4416666666667" style="37" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" style="37" customWidth="1"/>
-    <col min="8" max="8" width="17.775" style="37" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.4424778761062" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.7787610619469" style="37" customWidth="1"/>
+    <col min="9" max="9" width="21.6283185840708" style="37" customWidth="1"/>
     <col min="10" max="10" width="15" style="37" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="37" customWidth="1"/>
+    <col min="11" max="11" width="12.5044247787611" style="37" customWidth="1"/>
     <col min="12" max="12" width="9" style="37"/>
     <col min="13" max="13" width="14" style="37" customWidth="1"/>
     <col min="14" max="15" width="9" style="37"/>
@@ -36017,9 +36017,11 @@
         <v>915</v>
       </c>
       <c r="J79" s="33">
-        <v>24.5</v>
-      </c>
-      <c r="K79" s="33"/>
+        <v>0.15</v>
+      </c>
+      <c r="K79" s="120">
+        <v>45351</v>
+      </c>
       <c r="L79" s="33"/>
       <c r="M79" s="48" t="s">
         <v>916</v>
@@ -36148,12 +36150,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="52.5575221238938" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.225" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.2212389380531" customWidth="1"/>
+    <col min="6" max="6" width="11.6637168141593" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="26.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -38135,11 +38137,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6666666666667" customWidth="1"/>
-    <col min="2" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.775" customWidth="1"/>
-    <col min="9" max="9" width="27.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="15.1166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6637168141593" customWidth="1"/>
+    <col min="2" max="3" width="15.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="12.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="27.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="15.1150442477876" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -40712,16 +40714,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6637168141593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5575221238938" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8849557522124" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5583333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3362831858407" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.2212389380531" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5575221238938" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7787610619469" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.4424778761062" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -42697,13 +42699,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.225" customWidth="1"/>
-    <col min="7" max="7" width="11.225" customWidth="1"/>
-    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="18.1150442477876" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="15.2212389380531" customWidth="1"/>
+    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
+    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
+    <col min="9" max="9" width="20.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -44804,20 +44806,20 @@
       <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="41.775" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.1166666666667" style="37" customWidth="1"/>
-    <col min="3" max="3" width="15.8583333333333" style="37" customWidth="1"/>
+    <col min="1" max="1" width="41.7787610619469" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.1150442477876" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.858407079646" style="37" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="6" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.55833333333333" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.55752212389381" style="37" customWidth="1"/>
     <col min="7" max="7" width="11" style="37" customWidth="1"/>
-    <col min="8" max="8" width="14.225" style="37" customWidth="1"/>
-    <col min="9" max="9" width="29.5583333333333" style="37" customWidth="1"/>
+    <col min="8" max="8" width="14.2212389380531" style="37" customWidth="1"/>
+    <col min="9" max="9" width="29.5575221238938" style="37" customWidth="1"/>
     <col min="10" max="12" width="9" style="37"/>
-    <col min="13" max="13" width="40.225" style="37" customWidth="1"/>
-    <col min="14" max="14" width="25.3166666666667" style="37" customWidth="1"/>
+    <col min="13" max="13" width="40.2212389380531" style="37" customWidth="1"/>
+    <col min="14" max="14" width="25.3185840707965" style="37" customWidth="1"/>
     <col min="15" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
@@ -47685,11 +47687,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.225" customWidth="1"/>
-    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.225" customWidth="1"/>
+    <col min="1" max="1" width="41.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="16.2212389380531" customWidth="1"/>
+    <col min="6" max="6" width="18.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
@@ -49806,16 +49808,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.225" customWidth="1"/>
-    <col min="2" max="2" width="15.225" customWidth="1"/>
+    <col min="1" max="1" width="32.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="15.2212389380531" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.775" customWidth="1"/>
-    <col min="7" max="7" width="9.44166666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.775" customWidth="1"/>
-    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
-    <col min="13" max="13" width="23.5583333333333" customWidth="1"/>
-    <col min="14" max="14" width="40.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.7787610619469" customWidth="1"/>
+    <col min="7" max="7" width="9.44247787610619" customWidth="1"/>
+    <col min="8" max="8" width="9.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
+    <col min="13" max="13" width="23.5575221238938" customWidth="1"/>
+    <col min="14" max="14" width="40.5575221238938" customWidth="1"/>
+    <col min="15" max="15" width="16.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -50018,17 +50020,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="49.3583333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.7333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.4583333333333" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="16.8166666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
+    <col min="3" max="3" width="15.8761061946903" customWidth="1"/>
+    <col min="6" max="6" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="10.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="49.353982300885" customWidth="1"/>
+    <col min="13" max="13" width="10.7345132743363" customWidth="1"/>
+    <col min="14" max="14" width="17.4601769911504" customWidth="1"/>
+    <col min="15" max="15" width="17.6283185840708" customWidth="1"/>
+    <col min="17" max="17" width="16.8141592920354" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -52140,13 +52142,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="15.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="10.1150442477876" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="13" max="13" width="11.0583333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.0619469026549" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -54766,13 +54768,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="26.1150442477876" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="7" max="7" width="12.775" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="37.4416666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.7787610619469" customWidth="1"/>
+    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="37.4424778761062" customWidth="1"/>
+    <col min="13" max="13" width="13.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -56169,13 +56171,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.225" customWidth="1"/>
-    <col min="9" max="9" width="16.775" customWidth="1"/>
+    <col min="6" max="6" width="13.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
+    <col min="8" max="8" width="10.2212389380531" customWidth="1"/>
+    <col min="9" max="9" width="16.7787610619469" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57460,15 +57462,15 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="45.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
+    <col min="3" max="3" width="15.8849557522124" customWidth="1"/>
+    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
+    <col min="7" max="7" width="15.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="15.2212389380531" customWidth="1"/>
+    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -58666,15 +58668,15 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.775" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.7787610619469" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.775" customWidth="1"/>
+    <col min="6" max="6" width="14.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="24.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="13.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59138,16 +59140,16 @@
       <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="25.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.225" customWidth="1"/>
+    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="15.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="10.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="25.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="14.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59649,13 +59651,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="46.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="13.8849557522124" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.775" customWidth="1"/>
-    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
+    <col min="6" max="6" width="18.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="14.7787610619469" customWidth="1"/>
+    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
+    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62263,7 +62265,7 @@
       <c r="M108" s="37"/>
       <c r="N108" s="37"/>
     </row>
-    <row r="109" ht="18.75" spans="1:14">
+    <row r="109" ht="17.6" spans="1:14">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -62279,7 +62281,7 @@
       <c r="M109" s="37"/>
       <c r="N109" s="37"/>
     </row>
-    <row r="110" ht="18.75" spans="1:14">
+    <row r="110" ht="17.6" spans="1:14">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -62295,7 +62297,7 @@
       <c r="M110" s="37"/>
       <c r="N110" s="37"/>
     </row>
-    <row r="111" ht="18.75" spans="1:14">
+    <row r="111" ht="17.6" spans="1:14">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -62311,7 +62313,7 @@
       <c r="M111" s="37"/>
       <c r="N111" s="37"/>
     </row>
-    <row r="112" ht="18.75" spans="1:14">
+    <row r="112" ht="17.6" spans="1:14">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -62327,7 +62329,7 @@
       <c r="M112" s="37"/>
       <c r="N112" s="37"/>
     </row>
-    <row r="113" ht="18.75" spans="1:14">
+    <row r="113" ht="17.6" spans="1:14">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -62343,7 +62345,7 @@
       <c r="M113" s="37"/>
       <c r="N113" s="37"/>
     </row>
-    <row r="114" ht="18.75" spans="1:14">
+    <row r="114" ht="17.6" spans="1:14">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -62359,7 +62361,7 @@
       <c r="M114" s="37"/>
       <c r="N114" s="37"/>
     </row>
-    <row r="115" ht="18.75" spans="1:14">
+    <row r="115" ht="17.6" spans="1:14">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -62375,7 +62377,7 @@
       <c r="M115" s="37"/>
       <c r="N115" s="37"/>
     </row>
-    <row r="116" ht="18.75" spans="1:14">
+    <row r="116" ht="17.6" spans="1:14">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -62391,7 +62393,7 @@
       <c r="M116" s="37"/>
       <c r="N116" s="37"/>
     </row>
-    <row r="117" ht="18.75" spans="1:14">
+    <row r="117" ht="17.6" spans="1:14">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -62407,7 +62409,7 @@
       <c r="M117" s="37"/>
       <c r="N117" s="37"/>
     </row>
-    <row r="118" ht="18.75" spans="1:14">
+    <row r="118" ht="17.6" spans="1:14">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -62423,7 +62425,7 @@
       <c r="M118" s="37"/>
       <c r="N118" s="37"/>
     </row>
-    <row r="119" ht="18.75" spans="1:14">
+    <row r="119" ht="17.6" spans="1:14">
       <c r="A119" s="37"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -62484,15 +62486,15 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.425" customWidth="1"/>
-    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
-    <col min="14" max="14" width="25.15" customWidth="1"/>
+    <col min="1" max="1" width="39.8938053097345" customWidth="1"/>
+    <col min="2" max="2" width="14.4247787610619" customWidth="1"/>
+    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
+    <col min="14" max="14" width="25.1504424778761" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -63405,19 +63407,19 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.775" customWidth="1"/>
+    <col min="1" max="1" width="26.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="12.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="10.8849557522124" customWidth="1"/>
+    <col min="4" max="4" width="9.7787610619469" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.775" customWidth="1"/>
+    <col min="6" max="6" width="9.7787610619469" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="37.225" customWidth="1"/>
-    <col min="13" max="13" width="15.8583333333333" customWidth="1"/>
-    <col min="14" max="14" width="20.9916666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="37.2212389380531" customWidth="1"/>
+    <col min="13" max="13" width="15.858407079646" customWidth="1"/>
+    <col min="14" max="14" width="20.9911504424779" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64115,15 +64117,15 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.8083333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.2083333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.8583333333333" customWidth="1"/>
-    <col min="14" max="14" width="27.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.8053097345133" customWidth="1"/>
+    <col min="2" max="2" width="17.1327433628319" customWidth="1"/>
+    <col min="3" max="3" width="12.8141592920354" customWidth="1"/>
+    <col min="6" max="6" width="11.212389380531" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="11.858407079646" customWidth="1"/>
+    <col min="14" max="14" width="27.7079646017699" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64218,7 +64220,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -64517,13 +64519,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="33.225" customWidth="1"/>
-    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.775" customWidth="1"/>
-    <col min="9" max="9" width="37.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.775" customWidth="1"/>
+    <col min="1" max="1" width="39.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="23.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="33.2212389380531" customWidth="1"/>
+    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="14.7787610619469" customWidth="1"/>
+    <col min="9" max="9" width="37.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="10.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
@@ -65880,18 +65882,18 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.2916666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.45" customWidth="1"/>
-    <col min="6" max="6" width="11.05" customWidth="1"/>
-    <col min="7" max="8" width="11.2083333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.9833333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.8583333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="22.6" customWidth="1"/>
+    <col min="1" max="1" width="30.2920353982301" customWidth="1"/>
+    <col min="2" max="2" width="15.0619469026549" customWidth="1"/>
+    <col min="3" max="3" width="13.4513274336283" customWidth="1"/>
+    <col min="6" max="6" width="11.0530973451327" customWidth="1"/>
+    <col min="7" max="8" width="11.212389380531" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="10" max="10" width="12.9823008849558" customWidth="1"/>
+    <col min="11" max="11" width="11.858407079646" customWidth="1"/>
+    <col min="13" max="13" width="12.3362831858407" customWidth="1"/>
+    <col min="14" max="14" width="22.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -65986,7 +65988,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -66315,17 +66317,17 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.2083333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.7333333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="27.075" customWidth="1"/>
-    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.0088495575221" customWidth="1"/>
+    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="11.212389380531" customWidth="1"/>
+    <col min="6" max="6" width="10.7345132743363" customWidth="1"/>
+    <col min="7" max="7" width="10.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="10.2477876106195" customWidth="1"/>
+    <col min="9" max="9" width="27.070796460177" customWidth="1"/>
+    <col min="13" max="13" width="14.4159292035398" customWidth="1"/>
+    <col min="14" max="14" width="21.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -66430,7 +66432,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67022,13 +67024,13 @@
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.2333333333333" customWidth="1"/>
-    <col min="14" max="14" width="19.0583333333333" customWidth="1"/>
+    <col min="1" max="1" width="42.141592920354" customWidth="1"/>
+    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="27.2300884955752" customWidth="1"/>
+    <col min="14" max="14" width="19.0619469026549" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67081,7 +67083,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67299,15 +67301,15 @@
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.975" customWidth="1"/>
-    <col min="2" max="2" width="14.9" customWidth="1"/>
-    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.525" customWidth="1"/>
-    <col min="8" max="8" width="11.3666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.425" customWidth="1"/>
-    <col min="13" max="13" width="15.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.9734513274336" customWidth="1"/>
+    <col min="2" max="2" width="14.9026548672566" customWidth="1"/>
+    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
+    <col min="7" max="7" width="11.5221238938053" customWidth="1"/>
+    <col min="8" max="8" width="11.3628318584071" customWidth="1"/>
+    <col min="9" max="9" width="39.4247787610619" customWidth="1"/>
+    <col min="13" max="13" width="15.8672566371681" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67549,13 +67551,13 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.95" customWidth="1"/>
-    <col min="2" max="2" width="15.2083333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.175" customWidth="1"/>
-    <col min="6" max="6" width="11.525" customWidth="1"/>
-    <col min="9" max="9" width="47.6" customWidth="1"/>
+    <col min="1" max="1" width="46.9469026548673" customWidth="1"/>
+    <col min="2" max="2" width="15.212389380531" customWidth="1"/>
+    <col min="3" max="3" width="12.1769911504425" customWidth="1"/>
+    <col min="6" max="6" width="11.5221238938053" customWidth="1"/>
+    <col min="9" max="9" width="47.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67621,7 +67623,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67721,14 +67723,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="26.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8849557522124" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4424778761062" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3362831858407" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.225" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2212389380531" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8849557522124" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8849557522124" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.8849557522124" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -67909,10 +67911,10 @@
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="26.225" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="26.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -68014,14 +68016,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="38.6637168141593" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.225" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="19.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="14.2212389380531" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="32.3362831858407" customWidth="1"/>
+    <col min="12" max="12" width="19.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="12.6637168141593" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70189,15 +70191,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.225" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="20.225" customWidth="1"/>
-    <col min="4" max="4" width="12.225" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="41.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
+    <col min="3" max="3" width="20.2212389380531" customWidth="1"/>
+    <col min="4" max="4" width="12.2212389380531" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="15.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="34.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="14.5575221238938" customWidth="1"/>
+    <col min="15" max="15" width="14.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -71533,12 +71535,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.225" customWidth="1"/>
-    <col min="2" max="2" width="19.225" customWidth="1"/>
-    <col min="3" max="3" width="14.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="35.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="19.2212389380531" customWidth="1"/>
+    <col min="3" max="3" width="14.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="13.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="35.8849557522124" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73019,12 +73021,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="31.225" customWidth="1"/>
-    <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="32.225" customWidth="1"/>
+    <col min="1" max="1" width="31.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="24.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="21.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="14.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="32.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22680" windowHeight="8235" tabRatio="928" activeTab="29"/>
+    <workbookView windowHeight="18450" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -4879,17 +4879,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="76.7433628318584" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7787610619469" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1150442477876" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1150442477876" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.1150442477876" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6637168141593" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4424778761062" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.3362831858407" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.3333333333333" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="13.5575221238938" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5583333333333" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8638,11 +8638,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5575221238938" customWidth="1"/>
-    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="13.8849557522124" customWidth="1"/>
-    <col min="7" max="8" width="11.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="37.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="43.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="37.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10809,14 +10809,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="15.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
-    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
-    <col min="8" max="8" width="10.1150442477876" customWidth="1"/>
-    <col min="9" max="9" width="30.1150442477876" customWidth="1"/>
-    <col min="13" max="13" width="13.7787610619469" customWidth="1"/>
-    <col min="14" max="14" width="14.4424778761062" customWidth="1"/>
-    <col min="15" max="15" width="27.8849557522124" customWidth="1"/>
+    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.1166666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.775" customWidth="1"/>
+    <col min="14" max="14" width="14.4416666666667" customWidth="1"/>
+    <col min="15" max="15" width="27.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -13192,14 +13192,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="20.3362831858407" customWidth="1"/>
-    <col min="3" max="3" width="18.4424778761062" customWidth="1"/>
-    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
-    <col min="7" max="7" width="23.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="23.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="30.8849557522124" customWidth="1"/>
-    <col min="10" max="10" width="22.1150442477876" customWidth="1"/>
+    <col min="1" max="1" width="42.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
+    <col min="7" max="7" width="23.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="23.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14380,13 +14380,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="41.225" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="15.3362831858407" customWidth="1"/>
-    <col min="8" max="8" width="13.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.4416666666667" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="13" max="13" width="14.1150442477876" customWidth="1"/>
+    <col min="13" max="13" width="14.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15863,15 +15863,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="20.8849557522124" customWidth="1"/>
-    <col min="3" max="3" width="23.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="18.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
-    <col min="9" max="9" width="34.7787610619469" customWidth="1"/>
-    <col min="10" max="10" width="28.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="30.1150442477876" customWidth="1"/>
-    <col min="12" max="12" width="41.1150442477876" customWidth="1"/>
+    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="34.775" customWidth="1"/>
+    <col min="10" max="10" width="28.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="30.1166666666667" customWidth="1"/>
+    <col min="12" max="12" width="41.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17278,11 +17278,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="28.6637168141593" customWidth="1"/>
-    <col min="2" max="2" width="25.4424778761062" customWidth="1"/>
-    <col min="3" max="3" width="26.2212389380531" customWidth="1"/>
-    <col min="7" max="7" width="19.2212389380531" customWidth="1"/>
-    <col min="8" max="8" width="15.5575221238938" customWidth="1"/>
+    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.225" customWidth="1"/>
+    <col min="7" max="7" width="19.225" customWidth="1"/>
+    <col min="8" max="8" width="15.5583333333333" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17403,15 +17403,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
-    <col min="3" max="3" width="17.8849557522124" customWidth="1"/>
+    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.4424778761062" customWidth="1"/>
-    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
-    <col min="13" max="13" width="14.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="12.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18832,16 +18832,16 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="38.1327433628319" customWidth="1"/>
-    <col min="2" max="2" width="16.3362831858407" customWidth="1"/>
-    <col min="3" max="3" width="13.3008849557522" customWidth="1"/>
-    <col min="4" max="4" width="11.3716814159292" customWidth="1"/>
-    <col min="7" max="7" width="11.3716814159292" customWidth="1"/>
-    <col min="8" max="8" width="11.0619469026549" customWidth="1"/>
-    <col min="9" max="9" width="41.8230088495575" customWidth="1"/>
-    <col min="10" max="10" width="18.1504424778761"/>
+    <col min="1" max="1" width="38.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.3" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="11.0583333333333" customWidth="1"/>
+    <col min="9" max="9" width="41.825" customWidth="1"/>
+    <col min="10" max="10" width="18.15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -18956,16 +18956,16 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88495575221239" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.4424778761062" style="128" customWidth="1"/>
-    <col min="2" max="2" width="18.1150442477876" style="128" customWidth="1"/>
+    <col min="1" max="1" width="39.4416666666667" style="128" customWidth="1"/>
+    <col min="2" max="2" width="18.1166666666667" style="128" customWidth="1"/>
     <col min="3" max="3" width="13" style="128" customWidth="1"/>
-    <col min="4" max="6" width="9.88495575221239" style="128"/>
-    <col min="7" max="7" width="13.4424778761062" style="128" customWidth="1"/>
-    <col min="8" max="8" width="10.7787610619469" style="128" customWidth="1"/>
-    <col min="9" max="9" width="30.8849557522124" style="128" customWidth="1"/>
-    <col min="10" max="16384" width="9.88495575221239" style="128"/>
+    <col min="4" max="6" width="9.88333333333333" style="128"/>
+    <col min="7" max="7" width="13.4416666666667" style="128" customWidth="1"/>
+    <col min="8" max="8" width="10.775" style="128" customWidth="1"/>
+    <col min="9" max="9" width="30.8833333333333" style="128" customWidth="1"/>
+    <col min="10" max="16384" width="9.88333333333333" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20422,14 +20422,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.6991150442478" customWidth="1"/>
-    <col min="2" max="2" width="20.2212389380531" customWidth="1"/>
-    <col min="3" max="3" width="14.4424778761062" customWidth="1"/>
+    <col min="1" max="1" width="40.7" customWidth="1"/>
+    <col min="2" max="2" width="20.225" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="30.4424778761062" customWidth="1"/>
-    <col min="13" max="13" width="20.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="30.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="20.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22881,15 +22881,15 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="12.3362831858407" customWidth="1"/>
-    <col min="3" max="3" width="12.7787610619469" customWidth="1"/>
-    <col min="7" max="7" width="11.7787610619469" customWidth="1"/>
-    <col min="8" max="8" width="10.7787610619469" customWidth="1"/>
-    <col min="9" max="9" width="43.3362831858407" customWidth="1"/>
-    <col min="13" max="13" width="12.4955752212389" customWidth="1"/>
+    <col min="1" max="1" width="33.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.775" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="8" max="8" width="10.775" customWidth="1"/>
+    <col min="9" max="9" width="43.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -24014,17 +24014,17 @@
       <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6194690265487" customWidth="1"/>
-    <col min="2" max="2" width="13.2212389380531" customWidth="1"/>
-    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
-    <col min="7" max="7" width="11.5575221238938" customWidth="1"/>
-    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="35.2212389380531" customWidth="1"/>
-    <col min="13" max="13" width="10.5752212389381" customWidth="1"/>
-    <col min="14" max="14" width="19.8672566371681" customWidth="1"/>
-    <col min="15" max="16" width="12.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="38.6166666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.225" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="35.225" customWidth="1"/>
+    <col min="13" max="13" width="10.575" customWidth="1"/>
+    <col min="14" max="14" width="19.8666666666667" customWidth="1"/>
+    <col min="15" max="16" width="12.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -25186,12 +25186,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.4247787610619" customWidth="1"/>
-    <col min="2" max="2" width="12.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="11.7787610619469" customWidth="1"/>
-    <col min="9" max="9" width="33.7787610619469" customWidth="1"/>
+    <col min="1" max="1" width="43.425" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.775" customWidth="1"/>
+    <col min="9" max="9" width="33.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26348,13 +26348,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="16.5575221238938" customWidth="1"/>
+    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="9" max="9" width="42.4424778761062" customWidth="1"/>
-    <col min="15" max="15" width="15.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="42.4416666666667" customWidth="1"/>
+    <col min="15" max="15" width="15.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27478,14 +27478,14 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="15.3362831858407" customWidth="1"/>
+    <col min="1" max="1" width="36.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="11.1150442477876" customWidth="1"/>
-    <col min="9" max="9" width="34.2212389380531" customWidth="1"/>
+    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28609,16 +28609,16 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5840707964602" customWidth="1"/>
-    <col min="2" max="2" width="12.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="43.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.7787610619469" customWidth="1"/>
-    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="41.3362831858407" customWidth="1"/>
-    <col min="13" max="13" width="12.2212389380531" customWidth="1"/>
-    <col min="14" max="14" width="13.4513274336283" customWidth="1"/>
+    <col min="7" max="7" width="11.775" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="41.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.225" customWidth="1"/>
+    <col min="14" max="14" width="13.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -29809,12 +29809,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.2212389380531" customWidth="1"/>
-    <col min="2" max="2" width="15.2212389380531" customWidth="1"/>
-    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
-    <col min="7" max="7" width="12.2212389380531" customWidth="1"/>
-    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="31.4424778761062" customWidth="1"/>
+    <col min="1" max="1" width="28.225" customWidth="1"/>
+    <col min="2" max="2" width="15.225" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.225" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="31.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -29941,16 +29941,16 @@
       <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.3362831858407" customWidth="1"/>
-    <col min="2" max="2" width="12.7787610619469" customWidth="1"/>
-    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
-    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
-    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
-    <col min="13" max="14" width="13.7699115044248" customWidth="1"/>
-    <col min="15" max="15" width="11.7787610619469"/>
+    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="39.775" customWidth="1"/>
+    <col min="13" max="14" width="13.7666666666667" customWidth="1"/>
+    <col min="15" max="15" width="11.775"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -30539,15 +30539,15 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.070796460177" customWidth="1"/>
-    <col min="2" max="2" width="12.9734513274336" customWidth="1"/>
-    <col min="3" max="3" width="16.0176991150442" customWidth="1"/>
-    <col min="7" max="7" width="12.1769911504425" customWidth="1"/>
-    <col min="8" max="8" width="14.0973451327434" customWidth="1"/>
-    <col min="9" max="9" width="43.9026548672566" customWidth="1"/>
-    <col min="10" max="10" width="9.45132743362832" customWidth="1"/>
+    <col min="1" max="1" width="31.0666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.975" customWidth="1"/>
+    <col min="3" max="3" width="16.0166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.175" customWidth="1"/>
+    <col min="8" max="8" width="14.1" customWidth="1"/>
+    <col min="9" max="9" width="43.9" customWidth="1"/>
+    <col min="10" max="10" width="9.45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -30698,13 +30698,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="17.3362831858407" customWidth="1"/>
-    <col min="3" max="3" width="15.0619469026549" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.0583333333333" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="16.6637168141593" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6637168141593" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.929203539823" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.9333333333333" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33508,13 +33508,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.6637168141593" customWidth="1"/>
-    <col min="2" max="2" width="16.4424778761062" customWidth="1"/>
-    <col min="3" max="3" width="16.7787610619469" customWidth="1"/>
-    <col min="7" max="7" width="14.1150442477876" customWidth="1"/>
-    <col min="8" max="8" width="15.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="34.1150442477876" customWidth="1"/>
-    <col min="13" max="13" width="12.7787610619469" customWidth="1"/>
+    <col min="1" max="1" width="42.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.775" customWidth="1"/>
+    <col min="7" max="7" width="14.1166666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.1166666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -33752,25 +33752,25 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.353982300885" style="37" customWidth="1"/>
+    <col min="1" max="1" width="49.35" style="37" customWidth="1"/>
     <col min="2" max="2" width="17" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.7787610619469" style="107" customWidth="1"/>
+    <col min="3" max="3" width="18.775" style="107" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="9" style="33"/>
-    <col min="6" max="6" width="12.4424778761062" style="37" customWidth="1"/>
-    <col min="7" max="7" width="18.4424778761062" style="37" customWidth="1"/>
-    <col min="8" max="8" width="17.7787610619469" style="37" customWidth="1"/>
-    <col min="9" max="9" width="21.6283185840708" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.4416666666667" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18.4416666666667" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.775" style="37" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="37" customWidth="1"/>
     <col min="10" max="10" width="15" style="37" customWidth="1"/>
-    <col min="11" max="11" width="12.5044247787611" style="37" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" style="37" customWidth="1"/>
     <col min="12" max="12" width="9" style="37"/>
     <col min="13" max="13" width="14" style="37" customWidth="1"/>
     <col min="14" max="15" width="9" style="37"/>
@@ -35449,7 +35449,7 @@
         <v>893</v>
       </c>
       <c r="J57" s="33">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="K57" s="120"/>
       <c r="L57" s="33"/>
@@ -35885,9 +35885,11 @@
         <v>907</v>
       </c>
       <c r="J76" s="33">
-        <v>23.5</v>
-      </c>
-      <c r="K76" s="34"/>
+        <v>0.25</v>
+      </c>
+      <c r="K76" s="34">
+        <v>45352</v>
+      </c>
       <c r="L76" s="33"/>
       <c r="M76" s="37" t="s">
         <v>908</v>
@@ -36150,12 +36152,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5575221238938" customWidth="1"/>
+    <col min="1" max="1" width="52.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.2212389380531" customWidth="1"/>
-    <col min="6" max="6" width="11.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="12.225" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="26.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="26.1166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -38137,11 +38139,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6637168141593" customWidth="1"/>
-    <col min="2" max="3" width="15.3362831858407" customWidth="1"/>
-    <col min="6" max="6" width="12.7787610619469" customWidth="1"/>
-    <col min="9" max="9" width="27.3362831858407" customWidth="1"/>
-    <col min="13" max="13" width="15.1150442477876" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.775" customWidth="1"/>
+    <col min="9" max="9" width="27.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="15.1166666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -40714,16 +40716,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6637168141593" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5575221238938" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8849557522124" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.3362831858407" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.2212389380531" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5575221238938" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7787610619469" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.225" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.775" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="16.4424778761062" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.4416666666667" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -42699,13 +42701,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="18.1150442477876" customWidth="1"/>
-    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
-    <col min="6" max="6" width="15.2212389380531" customWidth="1"/>
-    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
-    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
-    <col min="9" max="9" width="20.3362831858407" customWidth="1"/>
+    <col min="1" max="1" width="34.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.1166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.225" customWidth="1"/>
+    <col min="7" max="7" width="11.225" customWidth="1"/>
+    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -44806,20 +44808,20 @@
       <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="41.7787610619469" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.1150442477876" style="37" customWidth="1"/>
-    <col min="3" max="3" width="15.858407079646" style="37" customWidth="1"/>
+    <col min="1" max="1" width="41.775" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.1166666666667" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.8583333333333" style="37" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="6" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.55752212389381" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.55833333333333" style="37" customWidth="1"/>
     <col min="7" max="7" width="11" style="37" customWidth="1"/>
-    <col min="8" max="8" width="14.2212389380531" style="37" customWidth="1"/>
-    <col min="9" max="9" width="29.5575221238938" style="37" customWidth="1"/>
+    <col min="8" max="8" width="14.225" style="37" customWidth="1"/>
+    <col min="9" max="9" width="29.5583333333333" style="37" customWidth="1"/>
     <col min="10" max="12" width="9" style="37"/>
-    <col min="13" max="13" width="40.2212389380531" style="37" customWidth="1"/>
-    <col min="14" max="14" width="25.3185840707965" style="37" customWidth="1"/>
+    <col min="13" max="13" width="40.225" style="37" customWidth="1"/>
+    <col min="14" max="14" width="25.3166666666667" style="37" customWidth="1"/>
     <col min="15" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
@@ -47687,11 +47689,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.3362831858407" customWidth="1"/>
-    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="16.2212389380531" customWidth="1"/>
-    <col min="6" max="6" width="18.5575221238938" customWidth="1"/>
-    <col min="7" max="7" width="11.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="41.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.225" customWidth="1"/>
+    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.225" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
@@ -49808,16 +49810,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.2212389380531" customWidth="1"/>
-    <col min="2" max="2" width="15.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="32.225" customWidth="1"/>
+    <col min="2" max="2" width="15.225" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.7787610619469" customWidth="1"/>
-    <col min="7" max="7" width="9.44247787610619" customWidth="1"/>
-    <col min="8" max="8" width="9.7787610619469" customWidth="1"/>
-    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
-    <col min="13" max="13" width="23.5575221238938" customWidth="1"/>
-    <col min="14" max="14" width="40.5575221238938" customWidth="1"/>
-    <col min="15" max="15" width="16.6637168141593" customWidth="1"/>
+    <col min="6" max="6" width="12.775" customWidth="1"/>
+    <col min="7" max="7" width="9.44166666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.775" customWidth="1"/>
+    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
+    <col min="13" max="13" width="23.5583333333333" customWidth="1"/>
+    <col min="14" max="14" width="40.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -50020,17 +50022,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
-    <col min="3" max="3" width="15.8761061946903" customWidth="1"/>
-    <col min="6" max="6" width="12.3362831858407" customWidth="1"/>
-    <col min="7" max="7" width="10.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="49.353982300885" customWidth="1"/>
-    <col min="13" max="13" width="10.7345132743363" customWidth="1"/>
-    <col min="14" max="14" width="17.4601769911504" customWidth="1"/>
-    <col min="15" max="15" width="17.6283185840708" customWidth="1"/>
-    <col min="17" max="17" width="16.8141592920354" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="49.35" customWidth="1"/>
+    <col min="13" max="13" width="10.7333333333333" customWidth="1"/>
+    <col min="14" max="14" width="17.4583333333333" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="16.8166666666667" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -52142,13 +52144,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
-    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
-    <col min="6" max="6" width="15.8849557522124" customWidth="1"/>
-    <col min="7" max="7" width="10.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.1166666666667" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="13" max="13" width="11.0619469026549" customWidth="1"/>
+    <col min="13" max="13" width="11.0583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -54768,13 +54770,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
-    <col min="2" max="2" width="26.1150442477876" customWidth="1"/>
+    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.1166666666667" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="7" max="7" width="12.7787610619469" customWidth="1"/>
-    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="37.4424778761062" customWidth="1"/>
-    <col min="13" max="13" width="13.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="12.775" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="37.4416666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -56171,13 +56173,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
-    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
+    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
-    <col min="8" max="8" width="10.2212389380531" customWidth="1"/>
-    <col min="9" max="9" width="16.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.225" customWidth="1"/>
+    <col min="9" max="9" width="16.775" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57462,15 +57464,15 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.3362831858407" customWidth="1"/>
-    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
-    <col min="3" max="3" width="15.8849557522124" customWidth="1"/>
-    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
-    <col min="7" max="7" width="15.5575221238938" customWidth="1"/>
-    <col min="8" max="8" width="15.2212389380531" customWidth="1"/>
-    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="45.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="15.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -58668,15 +58670,15 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.7787610619469" customWidth="1"/>
-    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
-    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="1" max="1" width="42.775" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.1150442477876" customWidth="1"/>
-    <col min="9" max="9" width="24.5575221238938" customWidth="1"/>
-    <col min="13" max="13" width="13.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="14.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59140,16 +59142,16 @@
       <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2212389380531" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
-    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
-    <col min="3" max="3" width="15.3362831858407" customWidth="1"/>
-    <col min="6" max="6" width="11.5575221238938" customWidth="1"/>
-    <col min="7" max="7" width="10.5575221238938" customWidth="1"/>
-    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
-    <col min="9" max="9" width="25.6637168141593" customWidth="1"/>
-    <col min="13" max="13" width="14.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="25.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59651,13 +59653,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.3362831858407" customWidth="1"/>
-    <col min="2" max="2" width="13.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="46.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.4424778761062" customWidth="1"/>
-    <col min="7" max="7" width="14.7787610619469" customWidth="1"/>
-    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
-    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="18.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.775" customWidth="1"/>
+    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
+    <col min="9" max="9" width="39.775" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62265,7 +62267,7 @@
       <c r="M108" s="37"/>
       <c r="N108" s="37"/>
     </row>
-    <row r="109" ht="17.6" spans="1:14">
+    <row r="109" ht="18.75" spans="1:14">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -62281,7 +62283,7 @@
       <c r="M109" s="37"/>
       <c r="N109" s="37"/>
     </row>
-    <row r="110" ht="17.6" spans="1:14">
+    <row r="110" ht="18.75" spans="1:14">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -62297,7 +62299,7 @@
       <c r="M110" s="37"/>
       <c r="N110" s="37"/>
     </row>
-    <row r="111" ht="17.6" spans="1:14">
+    <row r="111" ht="18.75" spans="1:14">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -62313,7 +62315,7 @@
       <c r="M111" s="37"/>
       <c r="N111" s="37"/>
     </row>
-    <row r="112" ht="17.6" spans="1:14">
+    <row r="112" ht="18.75" spans="1:14">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -62329,7 +62331,7 @@
       <c r="M112" s="37"/>
       <c r="N112" s="37"/>
     </row>
-    <row r="113" ht="17.6" spans="1:14">
+    <row r="113" ht="18.75" spans="1:14">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -62345,7 +62347,7 @@
       <c r="M113" s="37"/>
       <c r="N113" s="37"/>
     </row>
-    <row r="114" ht="17.6" spans="1:14">
+    <row r="114" ht="18.75" spans="1:14">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -62361,7 +62363,7 @@
       <c r="M114" s="37"/>
       <c r="N114" s="37"/>
     </row>
-    <row r="115" ht="17.6" spans="1:14">
+    <row r="115" ht="18.75" spans="1:14">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -62377,7 +62379,7 @@
       <c r="M115" s="37"/>
       <c r="N115" s="37"/>
     </row>
-    <row r="116" ht="17.6" spans="1:14">
+    <row r="116" ht="18.75" spans="1:14">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -62393,7 +62395,7 @@
       <c r="M116" s="37"/>
       <c r="N116" s="37"/>
     </row>
-    <row r="117" ht="17.6" spans="1:14">
+    <row r="117" ht="18.75" spans="1:14">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -62409,7 +62411,7 @@
       <c r="M117" s="37"/>
       <c r="N117" s="37"/>
     </row>
-    <row r="118" ht="17.6" spans="1:14">
+    <row r="118" ht="18.75" spans="1:14">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -62425,7 +62427,7 @@
       <c r="M118" s="37"/>
       <c r="N118" s="37"/>
     </row>
-    <row r="119" ht="17.6" spans="1:14">
+    <row r="119" ht="18.75" spans="1:14">
       <c r="A119" s="37"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -62486,15 +62488,15 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.8938053097345" customWidth="1"/>
-    <col min="2" max="2" width="14.4247787610619" customWidth="1"/>
-    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
-    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
-    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="39.7787610619469" customWidth="1"/>
-    <col min="14" max="14" width="25.1504424778761" customWidth="1"/>
+    <col min="1" max="1" width="39.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.425" customWidth="1"/>
+    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="39.775" customWidth="1"/>
+    <col min="14" max="14" width="25.15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -63407,19 +63409,19 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.4424778761062" customWidth="1"/>
-    <col min="2" max="2" width="12.4424778761062" customWidth="1"/>
-    <col min="3" max="3" width="10.8849557522124" customWidth="1"/>
-    <col min="4" max="4" width="9.7787610619469" customWidth="1"/>
+    <col min="1" max="1" width="26.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.775" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="9.775" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="37.2212389380531" customWidth="1"/>
-    <col min="13" max="13" width="15.858407079646" customWidth="1"/>
-    <col min="14" max="14" width="20.9911504424779" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="37.225" customWidth="1"/>
+    <col min="13" max="13" width="15.8583333333333" customWidth="1"/>
+    <col min="14" max="14" width="20.9916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64117,15 +64119,15 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.8053097345133" customWidth="1"/>
-    <col min="2" max="2" width="17.1327433628319" customWidth="1"/>
-    <col min="3" max="3" width="12.8141592920354" customWidth="1"/>
-    <col min="6" max="6" width="11.212389380531" customWidth="1"/>
-    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
-    <col min="13" max="13" width="11.858407079646" customWidth="1"/>
-    <col min="14" max="14" width="27.7079646017699" customWidth="1"/>
+    <col min="1" max="1" width="33.8083333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.2083333333333" customWidth="1"/>
+    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.8583333333333" customWidth="1"/>
+    <col min="14" max="14" width="27.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64220,7 +64222,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:14">
+    <row r="7" ht="15" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -64519,13 +64521,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.4424778761062" customWidth="1"/>
-    <col min="2" max="2" width="23.8849557522124" customWidth="1"/>
-    <col min="3" max="3" width="33.2212389380531" customWidth="1"/>
-    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="14.7787610619469" customWidth="1"/>
-    <col min="9" max="9" width="37.6637168141593" customWidth="1"/>
-    <col min="13" max="13" width="10.7787610619469" customWidth="1"/>
+    <col min="1" max="1" width="39.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="33.225" customWidth="1"/>
+    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.775" customWidth="1"/>
+    <col min="9" max="9" width="37.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
@@ -65882,18 +65884,18 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.2920353982301" customWidth="1"/>
-    <col min="2" max="2" width="15.0619469026549" customWidth="1"/>
-    <col min="3" max="3" width="13.4513274336283" customWidth="1"/>
-    <col min="6" max="6" width="11.0530973451327" customWidth="1"/>
-    <col min="7" max="8" width="11.212389380531" customWidth="1"/>
-    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
-    <col min="10" max="10" width="12.9823008849558" customWidth="1"/>
-    <col min="11" max="11" width="11.858407079646" customWidth="1"/>
-    <col min="13" max="13" width="12.3362831858407" customWidth="1"/>
-    <col min="14" max="14" width="22.6017699115044" customWidth="1"/>
+    <col min="1" max="1" width="30.2916666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.45" customWidth="1"/>
+    <col min="6" max="6" width="11.05" customWidth="1"/>
+    <col min="7" max="8" width="11.2083333333333" customWidth="1"/>
+    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.9833333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.8583333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="22.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -65988,7 +65990,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:14">
+    <row r="7" ht="15" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -66317,17 +66319,17 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.0088495575221" customWidth="1"/>
-    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="11.212389380531" customWidth="1"/>
-    <col min="6" max="6" width="10.7345132743363" customWidth="1"/>
-    <col min="7" max="7" width="10.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="10.2477876106195" customWidth="1"/>
-    <col min="9" max="9" width="27.070796460177" customWidth="1"/>
-    <col min="13" max="13" width="14.4159292035398" customWidth="1"/>
-    <col min="14" max="14" width="21.6371681415929" customWidth="1"/>
+    <col min="1" max="1" width="33.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.2083333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.7333333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="27.0666666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
+    <col min="14" max="14" width="21.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -66432,7 +66434,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:14">
+    <row r="7" ht="15" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67024,13 +67026,13 @@
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.141592920354" customWidth="1"/>
-    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
-    <col min="9" max="9" width="27.2300884955752" customWidth="1"/>
-    <col min="14" max="14" width="19.0619469026549" customWidth="1"/>
+    <col min="1" max="1" width="42.1416666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="27.2333333333333" customWidth="1"/>
+    <col min="14" max="14" width="19.0583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67083,7 +67085,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:14">
+    <row r="7" ht="15" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67301,15 +67303,15 @@
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.9734513274336" customWidth="1"/>
-    <col min="2" max="2" width="14.9026548672566" customWidth="1"/>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="7" max="7" width="11.5221238938053" customWidth="1"/>
-    <col min="8" max="8" width="11.3628318584071" customWidth="1"/>
-    <col min="9" max="9" width="39.4247787610619" customWidth="1"/>
-    <col min="13" max="13" width="15.8672566371681" customWidth="1"/>
+    <col min="1" max="1" width="37.975" customWidth="1"/>
+    <col min="2" max="2" width="14.9" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.525" customWidth="1"/>
+    <col min="8" max="8" width="11.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="39.425" customWidth="1"/>
+    <col min="13" max="13" width="15.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67551,13 +67553,13 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.9469026548673" customWidth="1"/>
-    <col min="2" max="2" width="15.212389380531" customWidth="1"/>
-    <col min="3" max="3" width="12.1769911504425" customWidth="1"/>
-    <col min="6" max="6" width="11.5221238938053" customWidth="1"/>
-    <col min="9" max="9" width="47.6017699115044" customWidth="1"/>
+    <col min="1" max="1" width="46.95" customWidth="1"/>
+    <col min="2" max="2" width="15.2083333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.175" customWidth="1"/>
+    <col min="6" max="6" width="11.525" customWidth="1"/>
+    <col min="9" max="9" width="47.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67623,7 +67625,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:14">
+    <row r="7" ht="15" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67723,14 +67725,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="26.8849557522124" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4424778761062" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3362831858407" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.2212389380531" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8849557522124" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8849557522124" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.8849557522124" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.225" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.8833333333333" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -67911,10 +67913,10 @@
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
-    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
-    <col min="9" max="9" width="26.2212389380531" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="26.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -68016,14 +68018,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6637168141593" customWidth="1"/>
+    <col min="1" max="1" width="38.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.6637168141593" customWidth="1"/>
-    <col min="7" max="7" width="14.2212389380531" customWidth="1"/>
-    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="32.3362831858407" customWidth="1"/>
-    <col min="12" max="12" width="19.6637168141593" customWidth="1"/>
-    <col min="13" max="13" width="12.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.225" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.6666666666667" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70191,15 +70193,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.2212389380531" customWidth="1"/>
-    <col min="2" max="2" width="16.7787610619469" customWidth="1"/>
-    <col min="3" max="3" width="20.2212389380531" customWidth="1"/>
-    <col min="4" max="4" width="12.2212389380531" customWidth="1"/>
-    <col min="7" max="7" width="18.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="15.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="34.3362831858407" customWidth="1"/>
-    <col min="13" max="13" width="14.5575221238938" customWidth="1"/>
-    <col min="15" max="15" width="14.4424778761062" customWidth="1"/>
+    <col min="1" max="1" width="41.225" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="20.225" customWidth="1"/>
+    <col min="4" max="4" width="12.225" customWidth="1"/>
+    <col min="7" max="7" width="18.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
+    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.5583333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -71535,12 +71537,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.2212389380531" customWidth="1"/>
-    <col min="2" max="2" width="19.2212389380531" customWidth="1"/>
-    <col min="3" max="3" width="14.8849557522124" customWidth="1"/>
-    <col min="7" max="7" width="13.4424778761062" customWidth="1"/>
-    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
-    <col min="9" max="9" width="35.8849557522124" customWidth="1"/>
+    <col min="1" max="1" width="39.225" customWidth="1"/>
+    <col min="2" max="2" width="19.225" customWidth="1"/>
+    <col min="3" max="3" width="14.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="35.8833333333333" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73021,12 +73023,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="31.2212389380531" customWidth="1"/>
-    <col min="2" max="2" width="24.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="21.4424778761062" customWidth="1"/>
-    <col min="7" max="7" width="14.5575221238938" customWidth="1"/>
-    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
-    <col min="9" max="9" width="32.2212389380531" customWidth="1"/>
+    <col min="1" max="1" width="31.225" customWidth="1"/>
+    <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="32.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18450" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="20745" windowHeight="7455" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -4879,17 +4879,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="76.7416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7433628318584" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7699115044248" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1150442477876" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1150442477876" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="17.1166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1150442477876" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6637168141593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.4424778761062" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.3362831858407" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="13.5583333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5575221238938" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8638,11 +8638,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5583333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.8833333333333" customWidth="1"/>
-    <col min="7" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="37.225" customWidth="1"/>
+    <col min="1" max="1" width="43.5575221238938" customWidth="1"/>
+    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="13.8849557522124" customWidth="1"/>
+    <col min="7" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="37.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -10809,14 +10809,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.1166666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.775" customWidth="1"/>
-    <col min="14" max="14" width="14.4416666666667" customWidth="1"/>
-    <col min="15" max="15" width="27.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
+    <col min="8" max="8" width="10.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="30.1150442477876" customWidth="1"/>
+    <col min="13" max="13" width="13.7699115044248" customWidth="1"/>
+    <col min="14" max="14" width="14.4424778761062" customWidth="1"/>
+    <col min="15" max="15" width="27.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -13192,14 +13192,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
-    <col min="7" max="7" width="23.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="23.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="22.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="20.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="18.4424778761062" customWidth="1"/>
+    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
+    <col min="7" max="7" width="23.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="23.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="30.8849557522124" customWidth="1"/>
+    <col min="10" max="10" width="22.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -14380,13 +14380,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.225" customWidth="1"/>
+    <col min="1" max="1" width="41.2300884955752" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="15.3362831858407" customWidth="1"/>
+    <col min="8" max="8" width="13.4424778761062" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="13" max="13" width="14.1166666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15863,15 +15863,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="23.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="34.775" customWidth="1"/>
-    <col min="10" max="10" width="28.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="30.1166666666667" customWidth="1"/>
-    <col min="12" max="12" width="41.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="20.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="23.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="18.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="34.7699115044248" customWidth="1"/>
+    <col min="10" max="10" width="28.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="30.1150442477876" customWidth="1"/>
+    <col min="12" max="12" width="41.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -17278,11 +17278,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="26.225" customWidth="1"/>
-    <col min="7" max="7" width="19.225" customWidth="1"/>
-    <col min="8" max="8" width="15.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="28.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="25.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="26.2300884955752" customWidth="1"/>
+    <col min="7" max="7" width="19.2300884955752" customWidth="1"/>
+    <col min="8" max="8" width="15.5575221238938" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17403,15 +17403,15 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="17.8849557522124" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.4424778761062" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="14.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -18832,16 +18832,16 @@
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.23893805309734" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="38.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.3" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="11.0583333333333" customWidth="1"/>
-    <col min="9" max="9" width="41.825" customWidth="1"/>
-    <col min="10" max="10" width="18.15"/>
+    <col min="1" max="1" width="38.1327433628319" customWidth="1"/>
+    <col min="2" max="2" width="16.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="13.3008849557522" customWidth="1"/>
+    <col min="4" max="4" width="11.3716814159292" customWidth="1"/>
+    <col min="7" max="7" width="11.3716814159292" customWidth="1"/>
+    <col min="8" max="8" width="11.0530973451327" customWidth="1"/>
+    <col min="9" max="9" width="41.8230088495575" customWidth="1"/>
+    <col min="10" max="10" width="18.141592920354"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -18956,16 +18956,16 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.88333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.88495575221239" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" style="128" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" style="128" customWidth="1"/>
+    <col min="1" max="1" width="39.4424778761062" style="128" customWidth="1"/>
+    <col min="2" max="2" width="18.1150442477876" style="128" customWidth="1"/>
     <col min="3" max="3" width="13" style="128" customWidth="1"/>
-    <col min="4" max="6" width="9.88333333333333" style="128"/>
-    <col min="7" max="7" width="13.4416666666667" style="128" customWidth="1"/>
-    <col min="8" max="8" width="10.775" style="128" customWidth="1"/>
-    <col min="9" max="9" width="30.8833333333333" style="128" customWidth="1"/>
-    <col min="10" max="16384" width="9.88333333333333" style="128"/>
+    <col min="4" max="6" width="9.88495575221239" style="128"/>
+    <col min="7" max="7" width="13.4424778761062" style="128" customWidth="1"/>
+    <col min="8" max="8" width="10.7699115044248" style="128" customWidth="1"/>
+    <col min="9" max="9" width="30.8849557522124" style="128" customWidth="1"/>
+    <col min="10" max="16384" width="9.88495575221239" style="128"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -20422,14 +20422,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.7" customWidth="1"/>
-    <col min="2" max="2" width="20.225" customWidth="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="40.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="20.2300884955752" customWidth="1"/>
+    <col min="3" max="3" width="14.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="30.4416666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="30.4424778761062" customWidth="1"/>
+    <col min="13" max="13" width="20.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22881,15 +22881,15 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.775" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
-    <col min="8" max="8" width="10.775" customWidth="1"/>
-    <col min="9" max="9" width="43.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.4916666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="12.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="12.7699115044248" customWidth="1"/>
+    <col min="7" max="7" width="11.7699115044248" customWidth="1"/>
+    <col min="8" max="8" width="10.7699115044248" customWidth="1"/>
+    <col min="9" max="9" width="43.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="12.4867256637168" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -24014,17 +24014,17 @@
       <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6166666666667" customWidth="1"/>
-    <col min="2" max="2" width="13.225" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="35.225" customWidth="1"/>
-    <col min="13" max="13" width="10.575" customWidth="1"/>
-    <col min="14" max="14" width="19.8666666666667" customWidth="1"/>
-    <col min="15" max="16" width="12.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="38.6194690265487" customWidth="1"/>
+    <col min="2" max="2" width="13.2300884955752" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="11.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="35.2300884955752" customWidth="1"/>
+    <col min="13" max="13" width="10.5752212389381" customWidth="1"/>
+    <col min="14" max="14" width="19.8672566371681" customWidth="1"/>
+    <col min="15" max="16" width="12.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -25186,12 +25186,12 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.425" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.775" customWidth="1"/>
-    <col min="9" max="9" width="33.775" customWidth="1"/>
+    <col min="1" max="1" width="43.4247787610619" customWidth="1"/>
+    <col min="2" max="2" width="12.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="11.7699115044248" customWidth="1"/>
+    <col min="9" max="9" width="33.7699115044248" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -26348,13 +26348,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="16.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="9" max="9" width="42.4416666666667" customWidth="1"/>
-    <col min="15" max="15" width="15.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="42.4424778761062" customWidth="1"/>
+    <col min="15" max="15" width="15.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -27478,14 +27478,14 @@
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="36.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="15.3362831858407" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.225" customWidth="1"/>
+    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="34.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -28609,16 +28609,16 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="43.5833333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="43.5840707964602" customWidth="1"/>
+    <col min="2" max="2" width="12.8849557522124" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.775" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="41.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.225" customWidth="1"/>
-    <col min="14" max="14" width="13.45" customWidth="1"/>
+    <col min="7" max="7" width="11.7699115044248" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="41.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="12.2300884955752" customWidth="1"/>
+    <col min="14" max="14" width="13.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -29809,12 +29809,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.225" customWidth="1"/>
-    <col min="2" max="2" width="15.225" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.225" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="31.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="15.2300884955752" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="12.2300884955752" customWidth="1"/>
+    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="31.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -29941,16 +29941,16 @@
       <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
-    <col min="13" max="14" width="13.7666666666667" customWidth="1"/>
-    <col min="15" max="15" width="11.775"/>
+    <col min="1" max="1" width="28.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="12.7699115044248" customWidth="1"/>
+    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="39.7699115044248" customWidth="1"/>
+    <col min="13" max="14" width="13.7610619469027" customWidth="1"/>
+    <col min="15" max="15" width="11.7699115044248"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -30539,15 +30539,15 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.0666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.975" customWidth="1"/>
-    <col min="3" max="3" width="16.0166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.175" customWidth="1"/>
-    <col min="8" max="8" width="14.1" customWidth="1"/>
-    <col min="9" max="9" width="43.9" customWidth="1"/>
-    <col min="10" max="10" width="9.45" customWidth="1"/>
+    <col min="1" max="1" width="31.0619469026549" customWidth="1"/>
+    <col min="2" max="2" width="12.9734513274336" customWidth="1"/>
+    <col min="3" max="3" width="16.0176991150442" customWidth="1"/>
+    <col min="7" max="7" width="12.1769911504425" customWidth="1"/>
+    <col min="8" max="8" width="14.0973451327434" customWidth="1"/>
+    <col min="9" max="9" width="43.9026548672566" customWidth="1"/>
+    <col min="10" max="10" width="9.44247787610619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -30698,13 +30698,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.0583333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="15.0530973451327" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.9333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="16.6637168141593" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6637168141593" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.9380530973451" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33508,13 +33508,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.775" customWidth="1"/>
-    <col min="7" max="7" width="14.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.1166666666667" customWidth="1"/>
-    <col min="13" max="13" width="12.775" customWidth="1"/>
+    <col min="1" max="1" width="42.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="16.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="16.7699115044248" customWidth="1"/>
+    <col min="7" max="7" width="14.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="15.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="34.1150442477876" customWidth="1"/>
+    <col min="13" max="13" width="12.7699115044248" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -33752,25 +33752,25 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.35" style="37" customWidth="1"/>
+    <col min="1" max="1" width="49.3451327433628" style="37" customWidth="1"/>
     <col min="2" max="2" width="17" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.775" style="107" customWidth="1"/>
+    <col min="3" max="3" width="18.7699115044248" style="107" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="9" style="33"/>
-    <col min="6" max="6" width="12.4416666666667" style="37" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" style="37" customWidth="1"/>
-    <col min="8" max="8" width="17.775" style="37" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.4424778761062" style="37" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" style="37" customWidth="1"/>
+    <col min="8" max="8" width="17.7699115044248" style="37" customWidth="1"/>
+    <col min="9" max="9" width="21.6283185840708" style="37" customWidth="1"/>
     <col min="10" max="10" width="15" style="37" customWidth="1"/>
-    <col min="11" max="11" width="12.5083333333333" style="37" customWidth="1"/>
+    <col min="11" max="11" width="12.5132743362832" style="37" customWidth="1"/>
     <col min="12" max="12" width="9" style="37"/>
     <col min="13" max="13" width="14" style="37" customWidth="1"/>
     <col min="14" max="15" width="9" style="37"/>
@@ -34241,7 +34241,7 @@
         <v>845</v>
       </c>
       <c r="J15" s="33">
-        <v>1.4</v>
+        <v>2.65</v>
       </c>
       <c r="K15" s="34"/>
       <c r="L15" s="33"/>
@@ -35384,7 +35384,7 @@
         <v>890</v>
       </c>
       <c r="J55" s="39">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="K55" s="40"/>
       <c r="L55" s="39"/>
@@ -35775,7 +35775,7 @@
         <v>903</v>
       </c>
       <c r="J70" s="33">
-        <v>12.25</v>
+        <v>12.75</v>
       </c>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
@@ -35885,7 +35885,7 @@
         <v>907</v>
       </c>
       <c r="J76" s="33">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K76" s="34">
         <v>45352</v>
@@ -35930,7 +35930,7 @@
         <v>910</v>
       </c>
       <c r="J77" s="33">
-        <v>13.75</v>
+        <v>14.25</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
@@ -36152,12 +36152,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="52.5575221238938" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.225" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.2300884955752" customWidth="1"/>
+    <col min="6" max="6" width="11.6637168141593" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="26.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -38139,11 +38139,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6666666666667" customWidth="1"/>
-    <col min="2" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.775" customWidth="1"/>
-    <col min="9" max="9" width="27.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="15.1166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6637168141593" customWidth="1"/>
+    <col min="2" max="3" width="15.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="12.7699115044248" customWidth="1"/>
+    <col min="9" max="9" width="27.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="15.1150442477876" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -40716,16 +40716,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6637168141593" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5575221238938" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8849557522124" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.225" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5583333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3362831858407" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.2300884955752" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5575221238938" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7699115044248" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.4424778761062" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -42701,13 +42701,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="18.1166666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.225" customWidth="1"/>
-    <col min="7" max="7" width="11.225" customWidth="1"/>
-    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
-    <col min="9" max="9" width="20.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="34.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="18.1150442477876" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="15.2300884955752" customWidth="1"/>
+    <col min="7" max="7" width="11.2300884955752" customWidth="1"/>
+    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
+    <col min="9" max="9" width="20.3362831858407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -44808,20 +44808,20 @@
       <selection pane="bottomLeft" activeCell="A73" sqref="$A73:$XFD73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="41.775" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.1166666666667" style="37" customWidth="1"/>
-    <col min="3" max="3" width="15.8583333333333" style="37" customWidth="1"/>
+    <col min="1" max="1" width="41.7699115044248" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.1150442477876" style="37" customWidth="1"/>
+    <col min="3" max="3" width="15.858407079646" style="37" customWidth="1"/>
     <col min="4" max="4" width="9" style="37"/>
     <col min="5" max="5" width="6" style="37" customWidth="1"/>
-    <col min="6" max="6" width="9.55833333333333" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.55752212389381" style="37" customWidth="1"/>
     <col min="7" max="7" width="11" style="37" customWidth="1"/>
-    <col min="8" max="8" width="14.225" style="37" customWidth="1"/>
-    <col min="9" max="9" width="29.5583333333333" style="37" customWidth="1"/>
+    <col min="8" max="8" width="14.2300884955752" style="37" customWidth="1"/>
+    <col min="9" max="9" width="29.5575221238938" style="37" customWidth="1"/>
     <col min="10" max="12" width="9" style="37"/>
-    <col min="13" max="13" width="40.225" style="37" customWidth="1"/>
-    <col min="14" max="14" width="25.3166666666667" style="37" customWidth="1"/>
+    <col min="13" max="13" width="40.2300884955752" style="37" customWidth="1"/>
+    <col min="14" max="14" width="25.3185840707965" style="37" customWidth="1"/>
     <col min="15" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
@@ -47689,11 +47689,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.225" customWidth="1"/>
-    <col min="6" max="6" width="18.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.225" customWidth="1"/>
+    <col min="1" max="1" width="41.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="19.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="16.2300884955752" customWidth="1"/>
+    <col min="6" max="6" width="18.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="11.2300884955752" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
@@ -49810,16 +49810,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.225" customWidth="1"/>
-    <col min="2" max="2" width="15.225" customWidth="1"/>
+    <col min="1" max="1" width="32.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="15.2300884955752" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.775" customWidth="1"/>
-    <col min="7" max="7" width="9.44166666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.775" customWidth="1"/>
-    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
-    <col min="13" max="13" width="23.5583333333333" customWidth="1"/>
-    <col min="14" max="14" width="40.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.7699115044248" customWidth="1"/>
+    <col min="7" max="7" width="9.44247787610619" customWidth="1"/>
+    <col min="8" max="8" width="9.76991150442478" customWidth="1"/>
+    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
+    <col min="13" max="13" width="23.5575221238938" customWidth="1"/>
+    <col min="14" max="14" width="40.5575221238938" customWidth="1"/>
+    <col min="15" max="15" width="16.6637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -50022,17 +50022,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="49.35" customWidth="1"/>
-    <col min="13" max="13" width="10.7333333333333" customWidth="1"/>
-    <col min="14" max="14" width="17.4583333333333" customWidth="1"/>
-    <col min="15" max="15" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="16.8166666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="16.7699115044248" customWidth="1"/>
+    <col min="3" max="3" width="15.8761061946903" customWidth="1"/>
+    <col min="6" max="6" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="10.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="49.3451327433628" customWidth="1"/>
+    <col min="13" max="13" width="10.7345132743363" customWidth="1"/>
+    <col min="14" max="14" width="17.4513274336283" customWidth="1"/>
+    <col min="15" max="15" width="17.6283185840708" customWidth="1"/>
+    <col min="17" max="17" width="16.8141592920354" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -52144,13 +52144,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.1166666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="15.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="10.1150442477876" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="13" max="13" width="11.0583333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.0530973451327" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -54770,13 +54770,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.1166666666667" customWidth="1"/>
+    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="26.1150442477876" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="7" max="7" width="12.775" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="37.4416666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.7699115044248" customWidth="1"/>
+    <col min="8" max="8" width="12.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="37.4424778761062" customWidth="1"/>
+    <col min="13" max="13" width="13.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -56173,13 +56173,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.1166666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.5583333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="14.5575221238938" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.88333333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.225" customWidth="1"/>
-    <col min="9" max="9" width="16.775" customWidth="1"/>
+    <col min="6" max="6" width="13.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="9.88495575221239" customWidth="1"/>
+    <col min="8" max="8" width="10.2300884955752" customWidth="1"/>
+    <col min="9" max="9" width="16.7699115044248" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -57464,15 +57464,15 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="15.8833333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.1166666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.225" customWidth="1"/>
-    <col min="9" max="9" width="26.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="45.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="16.7699115044248" customWidth="1"/>
+    <col min="3" max="3" width="15.8849557522124" customWidth="1"/>
+    <col min="6" max="6" width="18.1150442477876" customWidth="1"/>
+    <col min="7" max="7" width="15.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="15.2300884955752" customWidth="1"/>
+    <col min="9" max="9" width="26.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -58670,15 +58670,15 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.775" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="42.7699115044248" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="24.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.775" customWidth="1"/>
+    <col min="6" max="6" width="14.1150442477876" customWidth="1"/>
+    <col min="9" max="9" width="24.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="13.7699115044248" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59142,16 +59142,16 @@
       <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.225" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23008849557522" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="25.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.225" customWidth="1"/>
+    <col min="1" max="1" width="34.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="15.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="15.3362831858407" customWidth="1"/>
+    <col min="6" max="6" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="10.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="25.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="14.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -59653,13 +59653,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="46.3362831858407" customWidth="1"/>
+    <col min="2" max="2" width="13.8849557522124" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.775" customWidth="1"/>
-    <col min="8" max="8" width="9.55833333333333" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
+    <col min="6" max="6" width="18.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="14.7699115044248" customWidth="1"/>
+    <col min="8" max="8" width="9.55752212389381" customWidth="1"/>
+    <col min="9" max="9" width="39.7699115044248" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62267,7 +62267,7 @@
       <c r="M108" s="37"/>
       <c r="N108" s="37"/>
     </row>
-    <row r="109" ht="18.75" spans="1:14">
+    <row r="109" ht="17.6" spans="1:14">
       <c r="A109" s="37"/>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -62283,7 +62283,7 @@
       <c r="M109" s="37"/>
       <c r="N109" s="37"/>
     </row>
-    <row r="110" ht="18.75" spans="1:14">
+    <row r="110" ht="17.6" spans="1:14">
       <c r="A110" s="37"/>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -62299,7 +62299,7 @@
       <c r="M110" s="37"/>
       <c r="N110" s="37"/>
     </row>
-    <row r="111" ht="18.75" spans="1:14">
+    <row r="111" ht="17.6" spans="1:14">
       <c r="A111" s="37"/>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -62315,7 +62315,7 @@
       <c r="M111" s="37"/>
       <c r="N111" s="37"/>
     </row>
-    <row r="112" ht="18.75" spans="1:14">
+    <row r="112" ht="17.6" spans="1:14">
       <c r="A112" s="37"/>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -62331,7 +62331,7 @@
       <c r="M112" s="37"/>
       <c r="N112" s="37"/>
     </row>
-    <row r="113" ht="18.75" spans="1:14">
+    <row r="113" ht="17.6" spans="1:14">
       <c r="A113" s="37"/>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -62347,7 +62347,7 @@
       <c r="M113" s="37"/>
       <c r="N113" s="37"/>
     </row>
-    <row r="114" ht="18.75" spans="1:14">
+    <row r="114" ht="17.6" spans="1:14">
       <c r="A114" s="37"/>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -62363,7 +62363,7 @@
       <c r="M114" s="37"/>
       <c r="N114" s="37"/>
     </row>
-    <row r="115" ht="18.75" spans="1:14">
+    <row r="115" ht="17.6" spans="1:14">
       <c r="A115" s="37"/>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -62379,7 +62379,7 @@
       <c r="M115" s="37"/>
       <c r="N115" s="37"/>
     </row>
-    <row r="116" ht="18.75" spans="1:14">
+    <row r="116" ht="17.6" spans="1:14">
       <c r="A116" s="37"/>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -62395,7 +62395,7 @@
       <c r="M116" s="37"/>
       <c r="N116" s="37"/>
     </row>
-    <row r="117" ht="18.75" spans="1:14">
+    <row r="117" ht="17.6" spans="1:14">
       <c r="A117" s="37"/>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -62411,7 +62411,7 @@
       <c r="M117" s="37"/>
       <c r="N117" s="37"/>
     </row>
-    <row r="118" ht="18.75" spans="1:14">
+    <row r="118" ht="17.6" spans="1:14">
       <c r="A118" s="37"/>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -62427,7 +62427,7 @@
       <c r="M118" s="37"/>
       <c r="N118" s="37"/>
     </row>
-    <row r="119" ht="18.75" spans="1:14">
+    <row r="119" ht="17.6" spans="1:14">
       <c r="A119" s="37"/>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -62488,15 +62488,15 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.425" customWidth="1"/>
-    <col min="3" max="3" width="11.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.1166666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.775" customWidth="1"/>
-    <col min="14" max="14" width="25.15" customWidth="1"/>
+    <col min="1" max="1" width="39.8938053097345" customWidth="1"/>
+    <col min="2" max="2" width="14.4247787610619" customWidth="1"/>
+    <col min="3" max="3" width="11.5575221238938" customWidth="1"/>
+    <col min="7" max="7" width="12.1150442477876" customWidth="1"/>
+    <col min="8" max="8" width="10.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="39.7699115044248" customWidth="1"/>
+    <col min="14" max="14" width="25.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -63409,19 +63409,19 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.775" customWidth="1"/>
+    <col min="1" max="1" width="26.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="12.4424778761062" customWidth="1"/>
+    <col min="3" max="3" width="10.8849557522124" customWidth="1"/>
+    <col min="4" max="4" width="9.76991150442478" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.775" customWidth="1"/>
+    <col min="6" max="6" width="9.76991150442478" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="37.225" customWidth="1"/>
-    <col min="13" max="13" width="15.8583333333333" customWidth="1"/>
-    <col min="14" max="14" width="20.9916666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="37.2300884955752" customWidth="1"/>
+    <col min="13" max="13" width="15.858407079646" customWidth="1"/>
+    <col min="14" max="14" width="20.9911504424779" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64119,15 +64119,15 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.8083333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.2083333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.8583333333333" customWidth="1"/>
-    <col min="14" max="14" width="27.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.8053097345133" customWidth="1"/>
+    <col min="2" max="2" width="17.1327433628319" customWidth="1"/>
+    <col min="3" max="3" width="12.8141592920354" customWidth="1"/>
+    <col min="6" max="6" width="11.212389380531" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="13" max="13" width="11.858407079646" customWidth="1"/>
+    <col min="14" max="14" width="27.7079646017699" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -64222,7 +64222,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -64521,13 +64521,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="23.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="33.225" customWidth="1"/>
-    <col min="7" max="7" width="13.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.775" customWidth="1"/>
-    <col min="9" max="9" width="37.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.775" customWidth="1"/>
+    <col min="1" max="1" width="39.4424778761062" customWidth="1"/>
+    <col min="2" max="2" width="23.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="33.2300884955752" customWidth="1"/>
+    <col min="7" max="7" width="13.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="14.7699115044248" customWidth="1"/>
+    <col min="9" max="9" width="37.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="10.7699115044248" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:13">
@@ -65884,18 +65884,18 @@
       <selection pane="bottomLeft" activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.2916666666667" customWidth="1"/>
-    <col min="2" max="2" width="15.0583333333333" customWidth="1"/>
-    <col min="3" max="3" width="13.45" customWidth="1"/>
-    <col min="6" max="6" width="11.05" customWidth="1"/>
-    <col min="7" max="8" width="11.2083333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.5583333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.9833333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.8583333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="22.6" customWidth="1"/>
+    <col min="1" max="1" width="30.2920353982301" customWidth="1"/>
+    <col min="2" max="2" width="15.0530973451327" customWidth="1"/>
+    <col min="3" max="3" width="13.4424778761062" customWidth="1"/>
+    <col min="6" max="6" width="11.0530973451327" customWidth="1"/>
+    <col min="7" max="8" width="11.212389380531" customWidth="1"/>
+    <col min="9" max="9" width="27.5575221238938" customWidth="1"/>
+    <col min="10" max="10" width="12.9823008849558" customWidth="1"/>
+    <col min="11" max="11" width="11.858407079646" customWidth="1"/>
+    <col min="13" max="13" width="12.3362831858407" customWidth="1"/>
+    <col min="14" max="14" width="22.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -65990,7 +65990,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -66319,17 +66319,17 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.2083333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.7333333333333" customWidth="1"/>
-    <col min="7" max="7" width="10.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="27.0666666666667" customWidth="1"/>
-    <col min="13" max="13" width="14.4166666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="33.0088495575221" customWidth="1"/>
+    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="11.212389380531" customWidth="1"/>
+    <col min="6" max="6" width="10.7345132743363" customWidth="1"/>
+    <col min="7" max="7" width="10.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="10.2566371681416" customWidth="1"/>
+    <col min="9" max="9" width="27.0619469026549" customWidth="1"/>
+    <col min="13" max="13" width="14.4159292035398" customWidth="1"/>
+    <col min="14" max="14" width="21.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -66434,7 +66434,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67026,13 +67026,13 @@
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23893805309734" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.1416666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="27.2333333333333" customWidth="1"/>
-    <col min="14" max="14" width="19.0583333333333" customWidth="1"/>
+    <col min="1" max="1" width="42.141592920354" customWidth="1"/>
+    <col min="2" max="2" width="14.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="27.2389380530973" customWidth="1"/>
+    <col min="14" max="14" width="19.0530973451327" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67085,7 +67085,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67303,15 +67303,15 @@
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23893805309734" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.975" customWidth="1"/>
-    <col min="2" max="2" width="14.9" customWidth="1"/>
-    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
-    <col min="7" max="7" width="11.525" customWidth="1"/>
-    <col min="8" max="8" width="11.3666666666667" customWidth="1"/>
-    <col min="9" max="9" width="39.425" customWidth="1"/>
-    <col min="13" max="13" width="15.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.9734513274336" customWidth="1"/>
+    <col min="2" max="2" width="14.9026548672566" customWidth="1"/>
+    <col min="3" max="3" width="13.9380530973451" customWidth="1"/>
+    <col min="7" max="7" width="11.5309734513274" customWidth="1"/>
+    <col min="8" max="8" width="11.3628318584071" customWidth="1"/>
+    <col min="9" max="9" width="39.4247787610619" customWidth="1"/>
+    <col min="13" max="13" width="15.8672566371681" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67553,13 +67553,13 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23893805309734" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.95" customWidth="1"/>
-    <col min="2" max="2" width="15.2083333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.175" customWidth="1"/>
-    <col min="6" max="6" width="11.525" customWidth="1"/>
-    <col min="9" max="9" width="47.6" customWidth="1"/>
+    <col min="1" max="1" width="46.9557522123894" customWidth="1"/>
+    <col min="2" max="2" width="15.212389380531" customWidth="1"/>
+    <col min="3" max="3" width="12.1769911504425" customWidth="1"/>
+    <col min="6" max="6" width="11.5309734513274" customWidth="1"/>
+    <col min="9" max="9" width="47.6017699115044" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1"/>
@@ -67625,7 +67625,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:14">
+    <row r="7" ht="15.75" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -67725,14 +67725,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="26.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.8849557522124" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4424778761062" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3362831858407" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.225" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.8833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.2300884955752" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8849557522124" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8849557522124" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.8849557522124" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -67913,10 +67913,10 @@
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="12.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="26.225" customWidth="1"/>
+    <col min="3" max="3" width="12.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="12.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="26.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -68018,14 +68018,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="38.6637168141593" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.225" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="32.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="19.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="12.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6637168141593" customWidth="1"/>
+    <col min="7" max="7" width="14.2300884955752" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="32.3362831858407" customWidth="1"/>
+    <col min="12" max="12" width="19.6637168141593" customWidth="1"/>
+    <col min="13" max="13" width="12.6637168141593" customWidth="1"/>
     <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -70193,15 +70193,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.225" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="20.225" customWidth="1"/>
-    <col min="4" max="4" width="12.225" customWidth="1"/>
-    <col min="7" max="7" width="18.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="14.5583333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="41.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="16.7699115044248" customWidth="1"/>
+    <col min="3" max="3" width="20.2300884955752" customWidth="1"/>
+    <col min="4" max="4" width="12.2300884955752" customWidth="1"/>
+    <col min="7" max="7" width="18.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="15.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="34.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="14.5575221238938" customWidth="1"/>
+    <col min="15" max="15" width="14.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -71537,12 +71537,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.225" customWidth="1"/>
-    <col min="2" max="2" width="19.225" customWidth="1"/>
-    <col min="3" max="3" width="14.8833333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="35.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="19.2300884955752" customWidth="1"/>
+    <col min="3" max="3" width="14.8849557522124" customWidth="1"/>
+    <col min="7" max="7" width="13.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="11.6637168141593" customWidth="1"/>
+    <col min="9" max="9" width="35.8849557522124" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -73023,12 +73023,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="31.225" customWidth="1"/>
-    <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="32.225" customWidth="1"/>
+    <col min="1" max="1" width="31.2300884955752" customWidth="1"/>
+    <col min="2" max="2" width="24.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="21.4424778761062" customWidth="1"/>
+    <col min="7" max="7" width="14.5575221238938" customWidth="1"/>
+    <col min="8" max="8" width="19.3362831858407" customWidth="1"/>
+    <col min="9" max="9" width="32.2300884955752" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">

--- a/调查站点注册资料记录本.xlsx
+++ b/调查站点注册资料记录本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="7455" tabRatio="928" activeTab="29"/>
+    <workbookView windowWidth="22680" windowHeight="8100" tabRatio="928" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Acop" sheetId="1" r:id="rId1"/>
@@ -33752,10 +33752,10 @@
   <sheetPr/>
   <dimension ref="A2:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -35885,11 +35885,9 @@
         <v>907</v>
       </c>
       <c r="J76" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="K76" s="34">
-        <v>45352</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K76" s="34"/>
       <c r="L76" s="33"/>
       <c r="M76" s="37" t="s">
         <v>908</v>
@@ -36019,11 +36017,9 @@
         <v>915</v>
       </c>
       <c r="J79" s="33">
-        <v>0.15</v>
-      </c>
-      <c r="K79" s="120">
-        <v>45351</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="K79" s="120"/>
       <c r="L79" s="33"/>
       <c r="M79" s="48" t="s">
         <v>916</v>
@@ -36058,7 +36054,7 @@
         <v>919</v>
       </c>
       <c r="J80" s="33">
-        <v>4.3</v>
+        <v>5.05</v>
       </c>
       <c r="K80" s="123"/>
       <c r="M80" s="37" t="s">
